--- a/V2 BETA/BOM/Valkyrie V2 HT100 BOM Beta.xlsx
+++ b/V2 BETA/BOM/Valkyrie V2 HT100 BOM Beta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/V2 BETA/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="223" documentId="8_{5107759B-8870-48A8-933E-C4A7F6F41B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C202E79-49ED-46B3-B55A-A32005330312}"/>
+  <xr:revisionPtr revIDLastSave="230" documentId="8_{5107759B-8870-48A8-933E-C4A7F6F41B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75F28898-E707-4D07-8866-73164ED7823E}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="16440" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="694">
   <si>
     <t>Type - System</t>
   </si>
@@ -2108,7 +2108,7 @@
     <t xml:space="preserve">EPDM foam </t>
   </si>
   <si>
-    <t>3M</t>
+    <t>5M</t>
   </si>
   <si>
     <t>Door seal / Dry Box</t>
@@ -2120,6 +2120,9 @@
     <t xml:space="preserve">Square </t>
   </si>
   <si>
+    <t>Engineers square</t>
+  </si>
+  <si>
     <t xml:space="preserve">Allen keys </t>
   </si>
   <si>
@@ -2129,7 +2132,10 @@
     <t xml:space="preserve">G or F clamp </t>
   </si>
   <si>
-    <t>Spanner  AF</t>
+    <t xml:space="preserve">gust for putting the frame together </t>
+  </si>
+  <si>
+    <t>Spanner  AF 7mm,</t>
   </si>
   <si>
     <t>Drill bits ,M5</t>
@@ -2145,6 +2151,9 @@
   </si>
   <si>
     <t xml:space="preserve">calipers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good choice Shahe </t>
   </si>
 </sst>
 </file>
@@ -11001,14 +11010,14 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.7109375" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" customWidth="1"/>
     <col min="5" max="5" width="34.42578125" customWidth="1"/>
   </cols>
@@ -11048,50 +11057,59 @@
       <c r="A3" t="s">
         <v>681</v>
       </c>
+      <c r="C3" t="s">
+        <v>682</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" customHeight="1">
       <c r="A6" t="s">
-        <v>684</v>
+        <v>685</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>690</v>
+        <v>692</v>
+      </c>
+      <c r="C12" t="s">
+        <v>693</v>
       </c>
     </row>
   </sheetData>

--- a/V2 BETA/BOM/Valkyrie V2 HT100 BOM Beta.xlsx
+++ b/V2 BETA/BOM/Valkyrie V2 HT100 BOM Beta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/V2 BETA/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="313" documentId="8_{5107759B-8870-48A8-933E-C4A7F6F41B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2B644AF-BC9C-465D-ADD0-FFA15A3CACA4}"/>
+  <xr:revisionPtr revIDLastSave="340" documentId="8_{5107759B-8870-48A8-933E-C4A7F6F41B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87E16EC8-5EE4-4099-9D59-AD1558F354F0}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="696">
   <si>
     <t>Type - System</t>
   </si>
@@ -2152,6 +2152,15 @@
   <si>
     <t>Print/Buy</t>
   </si>
+  <si>
+    <t>Preload - Light</t>
+  </si>
+  <si>
+    <t>Preload - Medium</t>
+  </si>
+  <si>
+    <t>YouTube</t>
+  </si>
 </sst>
 </file>
 
@@ -2163,7 +2172,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2412,6 +2421,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2439,7 +2454,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -2595,8 +2610,19 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -2606,7 +2632,7 @@
         <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -2617,11 +2643,11 @@
         <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2639,7 +2665,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2"/>
@@ -3039,12 +3065,8 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="8" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="8" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3054,8 +3076,19 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="8" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="8" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3071,6 +3104,9 @@
     <cellStyle name="Normal 9" xfId="9" xr:uid="{40B67649-AC0A-4FC1-B41E-42AB5C2B58C9}"/>
   </cellStyles>
   <dxfs count="74">
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3719,9 +3755,6 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -4321,7 +4354,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="Picture 4">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0938144D-496F-4EFF-935E-7B00F7D7C97E}"/>
@@ -4333,7 +4366,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5015,15 +5048,15 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{604B429D-E2E1-4265-83DF-FBAD19483C12}" name="Table91317181920" displayName="Table91317181920" ref="B1:D44" totalsRowShown="0" headerRowDxfId="9" tableBorderDxfId="8" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{604B429D-E2E1-4265-83DF-FBAD19483C12}" name="Table91317181920" displayName="Table91317181920" ref="B1:D44" totalsRowShown="0" headerRowDxfId="10" tableBorderDxfId="9" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
   <autoFilter ref="B1:D44" xr:uid="{BAD2131D-41B2-42EA-A67B-FBB781AD12E7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D44">
     <sortCondition ref="B1:B44"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{E0A0C165-2589-4FA7-A356-93EEE88B2095}" name="Part name" totalsRowDxfId="7" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="7" xr3:uid="{49376C16-406D-4D5F-8B92-3BFE5FB962B9}" name="Description" totalsRowDxfId="6" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{6252F354-5A67-4DD7-A1AA-3DADB5EF6BF7}" name="BOM Quantity" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
+    <tableColumn id="1" xr3:uid="{E0A0C165-2589-4FA7-A356-93EEE88B2095}" name="Part name" totalsRowDxfId="8" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{49376C16-406D-4D5F-8B92-3BFE5FB962B9}" name="Description" totalsRowDxfId="7" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{6252F354-5A67-4DD7-A1AA-3DADB5EF6BF7}" name="BOM Quantity" dataDxfId="6" totalsRowDxfId="5" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5033,10 +5066,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD3A9734-505A-4671-9A99-A5AD0241BC9E}" name="Table1" displayName="Table1" ref="B2:E26" totalsRowShown="0">
   <autoFilter ref="B2:E26" xr:uid="{CD3A9734-505A-4671-9A99-A5AD0241BC9E}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{8F04C4EB-A680-469A-88ED-4273832B70AF}" name="Pin #" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{B8C131DA-A4D9-4F02-8FF8-BEC8A246B232}" name="Voltage" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{2BE108EC-DC74-4753-9C2F-DD3CBA203E0E}" name="Wire Size Type" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{E530F612-D9CA-42AF-B8BF-BDE36218865A}" name="Device " dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{8F04C4EB-A680-469A-88ED-4273832B70AF}" name="Pin #" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{B8C131DA-A4D9-4F02-8FF8-BEC8A246B232}" name="Voltage" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{2BE108EC-DC74-4753-9C2F-DD3CBA203E0E}" name="Wire Size Type" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{E530F612-D9CA-42AF-B8BF-BDE36218865A}" name="Device " dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5067,97 +5100,97 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{C5533925-B810-4F05-9221-5D5DC08A3846}" name="Part name" totalsRowDxfId="49" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
     <tableColumn id="7" xr3:uid="{13C33B91-92BB-4F0B-8B89-D7D5416E5479}" name="Description" totalsRowDxfId="48" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{684CEE11-8A68-45FD-871F-FFCFA808FEBD}" name="BOM Quantity" dataDxfId="47" totalsRowDxfId="46" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
+    <tableColumn id="2" xr3:uid="{684CEE11-8A68-45FD-871F-FFCFA808FEBD}" name="BOM Quantity" dataDxfId="0" totalsRowDxfId="47" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{0D081A3B-5ADC-4D38-A88B-EBE88E8EC051}" name="Table916" displayName="Table916" ref="B1:D25" totalsRowShown="0" headerRowDxfId="45" tableBorderDxfId="44" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{0D081A3B-5ADC-4D38-A88B-EBE88E8EC051}" name="Table916" displayName="Table916" ref="B1:D25" totalsRowShown="0" headerRowDxfId="46" tableBorderDxfId="45" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
   <autoFilter ref="B1:D25" xr:uid="{BAD2131D-41B2-42EA-A67B-FBB781AD12E7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D25">
     <sortCondition ref="B1:B25"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0F292740-142C-4538-B6E0-04426284E315}" name="Part name" totalsRowDxfId="43" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="7" xr3:uid="{150C9F57-34E9-40EB-9D7E-4F2F4DC1A13F}" name="Description" totalsRowDxfId="42" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{A7D6434D-4498-49EB-9D73-D244744029D3}" name="BOM Quantity" dataDxfId="41" totalsRowDxfId="40" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
+    <tableColumn id="1" xr3:uid="{0F292740-142C-4538-B6E0-04426284E315}" name="Part name" totalsRowDxfId="44" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{150C9F57-34E9-40EB-9D7E-4F2F4DC1A13F}" name="Description" totalsRowDxfId="43" totalsRowCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{A7D6434D-4498-49EB-9D73-D244744029D3}" name="BOM Quantity" dataDxfId="42" totalsRowDxfId="41" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DA456747-D398-4471-8B86-AB700DA339AD}" name="Table91629" displayName="Table91629" ref="B28:D38" totalsRowShown="0" headerRowDxfId="39" tableBorderDxfId="38" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DA456747-D398-4471-8B86-AB700DA339AD}" name="Table91629" displayName="Table91629" ref="B28:D38" totalsRowShown="0" headerRowDxfId="40" tableBorderDxfId="39" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
   <autoFilter ref="B28:D38" xr:uid="{DA456747-D398-4471-8B86-AB700DA339AD}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B29:D38">
     <sortCondition ref="B28:B38"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B397B237-34CC-4F05-A03A-172D9B10CC01}" name="Part name" totalsRowDxfId="37" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="7" xr3:uid="{A1AF3E5A-9878-43E6-8325-6EA13891B687}" name="Description" totalsRowDxfId="36" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{1585E650-1008-4DC9-8D1C-8F6E78001D58}" name="BOM Quantity" dataDxfId="35" totalsRowDxfId="34" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
+    <tableColumn id="1" xr3:uid="{B397B237-34CC-4F05-A03A-172D9B10CC01}" name="Part name" totalsRowDxfId="38" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{A1AF3E5A-9878-43E6-8325-6EA13891B687}" name="Description" totalsRowDxfId="37" totalsRowCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{1585E650-1008-4DC9-8D1C-8F6E78001D58}" name="BOM Quantity" dataDxfId="36" totalsRowDxfId="35" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{5A485C34-0DBE-4411-B49C-86BFD99B3F62}" name="Table913" displayName="Table913" ref="B1:D44" totalsRowShown="0" headerRowDxfId="33" tableBorderDxfId="32" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{5A485C34-0DBE-4411-B49C-86BFD99B3F62}" name="Table913" displayName="Table913" ref="B1:D44" totalsRowShown="0" headerRowDxfId="34" tableBorderDxfId="33" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
   <autoFilter ref="B1:D44" xr:uid="{BAD2131D-41B2-42EA-A67B-FBB781AD12E7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D44">
     <sortCondition ref="B1:B44"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{1CE47076-A60D-4220-8B3D-C6D4BAFB1164}" name="Part name" totalsRowDxfId="31" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="7" xr3:uid="{D41EBA7C-1A32-4553-871C-D0C5C96C9E90}" name="Description" totalsRowDxfId="30" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{1A8F0BE6-05F1-4339-9CFB-0F9B7B4E13D4}" name="BOM Quantity" dataDxfId="29" totalsRowDxfId="28" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
+    <tableColumn id="1" xr3:uid="{1CE47076-A60D-4220-8B3D-C6D4BAFB1164}" name="Part name" totalsRowDxfId="32" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{D41EBA7C-1A32-4553-871C-D0C5C96C9E90}" name="Description" totalsRowDxfId="31" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{1A8F0BE6-05F1-4339-9CFB-0F9B7B4E13D4}" name="BOM Quantity" dataDxfId="30" totalsRowDxfId="29" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{0A9E0A99-CDD4-4F70-BA5B-784249346C24}" name="Table91317" displayName="Table91317" ref="B1:D75" totalsRowShown="0" headerRowDxfId="27" tableBorderDxfId="26" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{0A9E0A99-CDD4-4F70-BA5B-784249346C24}" name="Table91317" displayName="Table91317" ref="B1:D75" totalsRowShown="0" headerRowDxfId="28" tableBorderDxfId="27" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
   <autoFilter ref="B1:D75" xr:uid="{BAD2131D-41B2-42EA-A67B-FBB781AD12E7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D75">
     <sortCondition ref="B1:B75"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{FEDEBDB4-D2A0-4044-865C-6B89D3CC7592}" name="Part name" totalsRowDxfId="25" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="7" xr3:uid="{4C265877-F081-4975-80F2-6B962EBD7F5B}" name="Description" totalsRowDxfId="24" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{C58356B1-645B-4209-9365-0DE732AD7AAF}" name="BOM Quantity" dataDxfId="23" totalsRowDxfId="22" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
+    <tableColumn id="1" xr3:uid="{FEDEBDB4-D2A0-4044-865C-6B89D3CC7592}" name="Part name" totalsRowDxfId="26" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{4C265877-F081-4975-80F2-6B962EBD7F5B}" name="Description" totalsRowDxfId="25" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{C58356B1-645B-4209-9365-0DE732AD7AAF}" name="BOM Quantity" dataDxfId="24" totalsRowDxfId="23" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{80146AFF-010D-476D-80AD-DFB7130CCD89}" name="Table9131718" displayName="Table9131718" ref="B1:D44" totalsRowShown="0" headerRowDxfId="21" tableBorderDxfId="20" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{80146AFF-010D-476D-80AD-DFB7130CCD89}" name="Table9131718" displayName="Table9131718" ref="B1:D44" totalsRowShown="0" headerRowDxfId="22" tableBorderDxfId="21" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
   <autoFilter ref="B1:D44" xr:uid="{BAD2131D-41B2-42EA-A67B-FBB781AD12E7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D44">
     <sortCondition ref="B1:B44"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3C370705-9D71-4B07-907E-72DEACEAFBA2}" name="Part name" totalsRowDxfId="19" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="7" xr3:uid="{D11DB86B-2519-40CE-A3B1-2DFF1E8D8BAF}" name="Description" totalsRowDxfId="18" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{030B0BC7-E7B6-43C0-9200-DE84B404D5FA}" name="BOM Quantity" dataDxfId="17" totalsRowDxfId="16" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
+    <tableColumn id="1" xr3:uid="{3C370705-9D71-4B07-907E-72DEACEAFBA2}" name="Part name" totalsRowDxfId="20" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{D11DB86B-2519-40CE-A3B1-2DFF1E8D8BAF}" name="Description" totalsRowDxfId="19" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{030B0BC7-E7B6-43C0-9200-DE84B404D5FA}" name="BOM Quantity" dataDxfId="18" totalsRowDxfId="17" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{AC31348F-CB75-44A7-A48C-4BBEA19837B3}" name="Table913171819" displayName="Table913171819" ref="B1:D18" totalsRowShown="0" headerRowDxfId="15" tableBorderDxfId="14" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{AC31348F-CB75-44A7-A48C-4BBEA19837B3}" name="Table913171819" displayName="Table913171819" ref="B1:D18" totalsRowShown="0" headerRowDxfId="16" tableBorderDxfId="15" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
   <autoFilter ref="B1:D18" xr:uid="{BAD2131D-41B2-42EA-A67B-FBB781AD12E7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D18">
     <sortCondition ref="B1:B18"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D7153C23-8479-4254-BF69-2A4089CB71C0}" name="Part name" totalsRowDxfId="13" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="7" xr3:uid="{5CF4E952-095C-46AE-A57F-99A26E57C478}" name="Description" totalsRowDxfId="12" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{8AE4D1C0-7F70-4D1E-B6EC-42038CE642DF}" name="BOM Quantity" dataDxfId="11" totalsRowDxfId="10" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
+    <tableColumn id="1" xr3:uid="{D7153C23-8479-4254-BF69-2A4089CB71C0}" name="Part name" totalsRowDxfId="14" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{5CF4E952-095C-46AE-A57F-99A26E57C478}" name="Description" totalsRowDxfId="13" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{8AE4D1C0-7F70-4D1E-B6EC-42038CE642DF}" name="BOM Quantity" dataDxfId="12" totalsRowDxfId="11" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5444,7 +5477,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="G2" s="78">
-        <f>E2*F2</f>
+        <f t="shared" ref="G2:G33" si="0">E2*F2</f>
         <v>4.0999999999999996</v>
       </c>
       <c r="H2" s="103" t="s">
@@ -5477,7 +5510,7 @@
         <v>4.95</v>
       </c>
       <c r="G3" s="78">
-        <f>E3*F3</f>
+        <f t="shared" si="0"/>
         <v>19.8</v>
       </c>
       <c r="H3" s="103" t="s">
@@ -5510,7 +5543,7 @@
         <v>7.84</v>
       </c>
       <c r="G4" s="78">
-        <f>E4*F4</f>
+        <f t="shared" si="0"/>
         <v>23.52</v>
       </c>
       <c r="H4" s="103" t="s">
@@ -5542,7 +5575,7 @@
         <v>4.7300000000000004</v>
       </c>
       <c r="G5" s="78">
-        <f>E5*F5</f>
+        <f t="shared" si="0"/>
         <v>4.7300000000000004</v>
       </c>
       <c r="H5" s="103" t="s">
@@ -5574,7 +5607,7 @@
         <v>18.27</v>
       </c>
       <c r="G6" s="78">
-        <f>E6*F6</f>
+        <f t="shared" si="0"/>
         <v>18.27</v>
       </c>
       <c r="H6" s="103" t="s">
@@ -5607,7 +5640,7 @@
         <v>5.4</v>
       </c>
       <c r="G7" s="78">
-        <f>E7*F7</f>
+        <f t="shared" si="0"/>
         <v>5.4</v>
       </c>
       <c r="H7" s="103" t="s">
@@ -5640,7 +5673,7 @@
         <v>42</v>
       </c>
       <c r="G8" s="78">
-        <f>E8*F8</f>
+        <f t="shared" si="0"/>
         <v>126</v>
       </c>
       <c r="H8" s="103" t="s">
@@ -5673,7 +5706,7 @@
         <v>38</v>
       </c>
       <c r="G9" s="78">
-        <f>E9*F9</f>
+        <f t="shared" si="0"/>
         <v>76</v>
       </c>
       <c r="H9" s="103" t="s">
@@ -5706,7 +5739,7 @@
         <v>36</v>
       </c>
       <c r="G10" s="78">
-        <f>E10*F10</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="H10" s="103" t="s">
@@ -5739,7 +5772,7 @@
         <v>39.520000000000003</v>
       </c>
       <c r="G11" s="78">
-        <f>E11*F11</f>
+        <f t="shared" si="0"/>
         <v>39.520000000000003</v>
       </c>
       <c r="H11" s="103" t="s">
@@ -5774,7 +5807,7 @@
         <v>78.39</v>
       </c>
       <c r="G12" s="78">
-        <f>E12*F12</f>
+        <f t="shared" si="0"/>
         <v>78.39</v>
       </c>
       <c r="H12" s="103" t="s">
@@ -5807,7 +5840,7 @@
         <v>5</v>
       </c>
       <c r="G13" s="78">
-        <f>E13*F13</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H13" s="103" t="s">
@@ -5840,7 +5873,7 @@
         <v>5</v>
       </c>
       <c r="G14" s="78">
-        <f>E14*F14</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="H14" s="103" t="s">
@@ -5873,7 +5906,7 @@
         <v>0.54</v>
       </c>
       <c r="G15" s="78">
-        <f>E15*F15</f>
+        <f t="shared" si="0"/>
         <v>0.54</v>
       </c>
       <c r="H15" s="103" t="s">
@@ -5906,7 +5939,7 @@
         <v>0.54</v>
       </c>
       <c r="G16" s="78">
-        <f>E16*F16</f>
+        <f t="shared" si="0"/>
         <v>0.54</v>
       </c>
       <c r="H16" s="103" t="s">
@@ -5939,7 +5972,7 @@
         <v>0.54</v>
       </c>
       <c r="G17" s="78">
-        <f>E17*F17</f>
+        <f t="shared" si="0"/>
         <v>0.54</v>
       </c>
       <c r="H17" s="103" t="s">
@@ -5972,7 +6005,7 @@
         <v>1.45</v>
       </c>
       <c r="G18" s="78">
-        <f>E18*F18</f>
+        <f t="shared" si="0"/>
         <v>1.45</v>
       </c>
       <c r="H18" s="103" t="s">
@@ -6005,7 +6038,7 @@
         <v>0.86</v>
       </c>
       <c r="G19" s="78">
-        <f>E19*F19</f>
+        <f t="shared" si="0"/>
         <v>0.86</v>
       </c>
       <c r="H19" s="103" t="s">
@@ -6038,7 +6071,7 @@
         <v>1.45</v>
       </c>
       <c r="G20" s="78">
-        <f>E20*F20</f>
+        <f t="shared" si="0"/>
         <v>1.45</v>
       </c>
       <c r="H20" s="103" t="s">
@@ -6071,7 +6104,7 @@
         <v>0.86</v>
       </c>
       <c r="G21" s="78">
-        <f>E21*F21</f>
+        <f t="shared" si="0"/>
         <v>0.86</v>
       </c>
       <c r="H21" s="103" t="s">
@@ -6104,7 +6137,7 @@
         <v>5</v>
       </c>
       <c r="G22" s="78">
-        <f>E22*F22</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H22" s="103" t="s">
@@ -6137,7 +6170,7 @@
         <v>2.35</v>
       </c>
       <c r="G23" s="78">
-        <f>E23*F23</f>
+        <f t="shared" si="0"/>
         <v>2.35</v>
       </c>
       <c r="H23" s="103" t="s">
@@ -6170,7 +6203,7 @@
         <v>1.45</v>
       </c>
       <c r="G24" s="78">
-        <f>E24*F24</f>
+        <f t="shared" si="0"/>
         <v>1.45</v>
       </c>
       <c r="H24" s="103" t="s">
@@ -6203,7 +6236,7 @@
         <v>0.86</v>
       </c>
       <c r="G25" s="78">
-        <f>E25*F25</f>
+        <f t="shared" si="0"/>
         <v>0.86</v>
       </c>
       <c r="H25" s="103" t="s">
@@ -6236,7 +6269,7 @@
         <v>3.77</v>
       </c>
       <c r="G26" s="78">
-        <f>E26*F26</f>
+        <f t="shared" si="0"/>
         <v>3.77</v>
       </c>
       <c r="H26" s="103" t="s">
@@ -6269,7 +6302,7 @@
         <v>1.45</v>
       </c>
       <c r="G27" s="78">
-        <f>E27*F27</f>
+        <f t="shared" si="0"/>
         <v>1.45</v>
       </c>
       <c r="H27" s="103" t="s">
@@ -6302,7 +6335,7 @@
         <v>0.86</v>
       </c>
       <c r="G28" s="78">
-        <f>E28*F28</f>
+        <f t="shared" si="0"/>
         <v>0.86</v>
       </c>
       <c r="H28" s="103" t="s">
@@ -6335,7 +6368,7 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="G29" s="78">
-        <f>E29*F29</f>
+        <f t="shared" si="0"/>
         <v>2.2200000000000002</v>
       </c>
       <c r="H29" s="103" t="s">
@@ -6368,7 +6401,7 @@
         <v>0.86</v>
       </c>
       <c r="G30" s="78">
-        <f>E30*F30</f>
+        <f t="shared" si="0"/>
         <v>0.86</v>
       </c>
       <c r="H30" s="103" t="s">
@@ -6401,7 +6434,7 @@
         <v>148</v>
       </c>
       <c r="G31" s="78">
-        <f>E31*F31</f>
+        <f t="shared" si="0"/>
         <v>148</v>
       </c>
       <c r="H31" s="103" t="s">
@@ -6434,7 +6467,7 @@
         <v>12.07</v>
       </c>
       <c r="G32" s="78">
-        <f>E32*F32</f>
+        <f t="shared" si="0"/>
         <v>12.07</v>
       </c>
       <c r="H32" s="103" t="s">
@@ -6467,7 +6500,7 @@
         <v>33.590000000000003</v>
       </c>
       <c r="G33" s="78">
-        <f>E33*F33</f>
+        <f t="shared" si="0"/>
         <v>33.590000000000003</v>
       </c>
       <c r="H33" s="103" t="s">
@@ -6500,7 +6533,7 @@
         <v>16.82</v>
       </c>
       <c r="G34" s="78">
-        <f>E34*F34</f>
+        <f t="shared" ref="G34:G65" si="1">E34*F34</f>
         <v>16.82</v>
       </c>
       <c r="H34" s="103" t="s">
@@ -6533,7 +6566,7 @@
         <v>10.32</v>
       </c>
       <c r="G35" s="78">
-        <f>E35*F35</f>
+        <f t="shared" si="1"/>
         <v>10.32</v>
       </c>
       <c r="H35" s="103" t="s">
@@ -6566,7 +6599,7 @@
         <v>5.07</v>
       </c>
       <c r="G36" s="78">
-        <f>E36*F36</f>
+        <f t="shared" si="1"/>
         <v>10.14</v>
       </c>
       <c r="H36" s="103" t="s">
@@ -6598,7 +6631,7 @@
         <v>3.35</v>
       </c>
       <c r="G37" s="78">
-        <f>E37*F37</f>
+        <f t="shared" si="1"/>
         <v>3.35</v>
       </c>
       <c r="H37" s="103" t="s">
@@ -6630,7 +6663,7 @@
         <v>3.25</v>
       </c>
       <c r="G38" s="78">
-        <f>E38*F38</f>
+        <f t="shared" si="1"/>
         <v>3.25</v>
       </c>
       <c r="H38" s="103" t="s">
@@ -6663,7 +6696,7 @@
         <v>4.95</v>
       </c>
       <c r="G39" s="78">
-        <f>E39*F39</f>
+        <f t="shared" si="1"/>
         <v>4.95</v>
       </c>
       <c r="H39" s="103" t="s">
@@ -6696,7 +6729,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="G40" s="78">
-        <f>E40*F40</f>
+        <f t="shared" si="1"/>
         <v>4.9000000000000004</v>
       </c>
       <c r="H40" s="103" t="s">
@@ -6729,7 +6762,7 @@
         <v>4.45</v>
       </c>
       <c r="G41" s="78">
-        <f>E41*F41</f>
+        <f t="shared" si="1"/>
         <v>8.9</v>
       </c>
       <c r="H41" s="103" t="s">
@@ -6762,7 +6795,7 @@
         <v>4.3499999999999996</v>
       </c>
       <c r="G42" s="78">
-        <f>E42*F42</f>
+        <f t="shared" si="1"/>
         <v>8.6999999999999993</v>
       </c>
       <c r="H42" s="103" t="s">
@@ -6795,7 +6828,7 @@
         <v>3.92</v>
       </c>
       <c r="G43" s="78">
-        <f>E43*F43</f>
+        <f t="shared" si="1"/>
         <v>3.92</v>
       </c>
       <c r="H43" s="103" t="s">
@@ -6828,7 +6861,7 @@
         <v>13.9</v>
       </c>
       <c r="G44" s="78">
-        <f>E44*F44</f>
+        <f t="shared" si="1"/>
         <v>13.9</v>
       </c>
       <c r="H44" s="103" t="s">
@@ -6861,7 +6894,7 @@
         <v>6.35</v>
       </c>
       <c r="G45" s="78">
-        <f>E45*F45</f>
+        <f t="shared" si="1"/>
         <v>6.35</v>
       </c>
       <c r="H45" s="103" t="s">
@@ -6894,7 +6927,7 @@
         <v>3.95</v>
       </c>
       <c r="G46" s="78">
-        <f>E46*F46</f>
+        <f t="shared" si="1"/>
         <v>3.95</v>
       </c>
       <c r="H46" s="103" t="s">
@@ -6927,7 +6960,7 @@
         <v>11.5</v>
       </c>
       <c r="G47" s="78">
-        <f>E47*F47</f>
+        <f t="shared" si="1"/>
         <v>11.5</v>
       </c>
       <c r="H47" s="103" t="s">
@@ -6960,7 +6993,7 @@
         <v>46</v>
       </c>
       <c r="G48" s="78">
-        <f>E48*F48</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="H48" s="103" t="s">
@@ -6993,7 +7026,7 @@
         <v>22.5</v>
       </c>
       <c r="G49" s="78">
-        <f>E49*F49</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="H49" s="103" t="s">
@@ -7026,7 +7059,7 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="G50" s="78">
-        <f>E50*F50</f>
+        <f t="shared" si="1"/>
         <v>2.3199999999999998</v>
       </c>
       <c r="H50" s="103" t="s">
@@ -7059,7 +7092,7 @@
         <v>4.82</v>
       </c>
       <c r="G51" s="78">
-        <f>E51*F51</f>
+        <f t="shared" si="1"/>
         <v>4.82</v>
       </c>
       <c r="H51" s="103" t="s">
@@ -7092,7 +7125,7 @@
         <v>12.01</v>
       </c>
       <c r="G52" s="78">
-        <f>E52*F52</f>
+        <f t="shared" si="1"/>
         <v>12.01</v>
       </c>
       <c r="H52" s="103" t="s">
@@ -7125,7 +7158,7 @@
         <v>3.22</v>
       </c>
       <c r="G53" s="78">
-        <f>E53*F53</f>
+        <f t="shared" si="1"/>
         <v>3.22</v>
       </c>
       <c r="H53" s="103" t="s">
@@ -7158,7 +7191,7 @@
         <v>13.59</v>
       </c>
       <c r="G54" s="78">
-        <f>E54*F54</f>
+        <f t="shared" si="1"/>
         <v>13.59</v>
       </c>
       <c r="H54" s="103" t="s">
@@ -7191,7 +7224,7 @@
         <v>33.700000000000003</v>
       </c>
       <c r="G55" s="78">
-        <f>E55*F55</f>
+        <f t="shared" si="1"/>
         <v>33.700000000000003</v>
       </c>
       <c r="H55" s="103" t="s">
@@ -7224,7 +7257,7 @@
         <v>15.18</v>
       </c>
       <c r="G56" s="78">
-        <f>E56*F56</f>
+        <f t="shared" si="1"/>
         <v>45.54</v>
       </c>
       <c r="H56" s="103" t="s">
@@ -7257,7 +7290,7 @@
         <v>12.4</v>
       </c>
       <c r="G57" s="78">
-        <f>E57*F57</f>
+        <f t="shared" si="1"/>
         <v>12.4</v>
       </c>
       <c r="H57" s="103" t="s">
@@ -7290,7 +7323,7 @@
         <v>3.26</v>
       </c>
       <c r="G58" s="78">
-        <f>E58*F58</f>
+        <f t="shared" si="1"/>
         <v>3.26</v>
       </c>
       <c r="H58" s="107" t="s">
@@ -7326,7 +7359,7 @@
         <v>4.34</v>
       </c>
       <c r="G59" s="78">
-        <f>E59*F59</f>
+        <f t="shared" si="1"/>
         <v>4.34</v>
       </c>
       <c r="H59" s="103" t="s">
@@ -7359,7 +7392,7 @@
         <v>2.87</v>
       </c>
       <c r="G60" s="78">
-        <f>E60*F60</f>
+        <f t="shared" si="1"/>
         <v>2.87</v>
       </c>
       <c r="H60" s="107" t="s">
@@ -7396,7 +7429,7 @@
         <v>2.84</v>
       </c>
       <c r="G61" s="78">
-        <f>E61*F61</f>
+        <f t="shared" si="1"/>
         <v>2.84</v>
       </c>
       <c r="H61" s="107" t="s">
@@ -7430,7 +7463,7 @@
         <v>1</v>
       </c>
       <c r="G62" s="78">
-        <f>E62*F62</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H62" s="104" t="s">
@@ -7464,7 +7497,7 @@
         <v>3</v>
       </c>
       <c r="G63" s="78">
-        <f>E63*F63</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="H63" s="104" t="s">
@@ -7497,7 +7530,7 @@
         <v>1</v>
       </c>
       <c r="G64" s="78">
-        <f>E64*F64</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H64" s="104" t="s">
@@ -7532,7 +7565,7 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="G65" s="78">
-        <f>E65*F65</f>
+        <f t="shared" si="1"/>
         <v>4.0199999999999996</v>
       </c>
       <c r="H65" s="104" t="s">
@@ -7566,7 +7599,7 @@
         <v>2.06</v>
       </c>
       <c r="G66" s="78">
-        <f>E66*F66</f>
+        <f t="shared" ref="G66:G97" si="2">E66*F66</f>
         <v>2.06</v>
       </c>
       <c r="H66" s="105" t="s">
@@ -7601,7 +7634,7 @@
         <v>2.74</v>
       </c>
       <c r="G67" s="78">
-        <f>E67*F67</f>
+        <f t="shared" si="2"/>
         <v>2.74</v>
       </c>
       <c r="H67" s="105" t="s">
@@ -7636,7 +7669,7 @@
         <v>2.2599999999999998</v>
       </c>
       <c r="G68" s="78">
-        <f>E68*F68</f>
+        <f t="shared" si="2"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="H68" s="105" t="s">
@@ -7671,7 +7704,7 @@
         <v>2.2599999999999998</v>
       </c>
       <c r="G69" s="78">
-        <f>E69*F69</f>
+        <f t="shared" si="2"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="H69" s="105" t="s">
@@ -7706,7 +7739,7 @@
         <v>2</v>
       </c>
       <c r="G70" s="78">
-        <f>E70*F70</f>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="H70" s="105" t="s">
@@ -7741,7 +7774,7 @@
         <v>2.83</v>
       </c>
       <c r="G71" s="78">
-        <f>E71*F71</f>
+        <f t="shared" si="2"/>
         <v>11.32</v>
       </c>
       <c r="H71" s="105" t="s">
@@ -7776,7 +7809,7 @@
         <v>2.34</v>
       </c>
       <c r="G72" s="78">
-        <f>E72*F72</f>
+        <f t="shared" si="2"/>
         <v>2.34</v>
       </c>
       <c r="H72" s="105" t="s">
@@ -7809,7 +7842,7 @@
         <v>2.91</v>
       </c>
       <c r="G73" s="78">
-        <f>E73*F73</f>
+        <f t="shared" si="2"/>
         <v>5.82</v>
       </c>
       <c r="H73" s="105" t="s">
@@ -7844,7 +7877,7 @@
         <v>3.05</v>
       </c>
       <c r="G74" s="78">
-        <f>E74*F74</f>
+        <f t="shared" si="2"/>
         <v>3.05</v>
       </c>
       <c r="H74" s="105" t="s">
@@ -7877,7 +7910,7 @@
         <v>3</v>
       </c>
       <c r="G75" s="78">
-        <f>E75*F75</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H75" s="105" t="s">
@@ -7913,7 +7946,7 @@
         <v>1</v>
       </c>
       <c r="G76" s="78">
-        <f>E76*F76</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H76" s="104" t="s">
@@ -7948,7 +7981,7 @@
         <v>1</v>
       </c>
       <c r="G77" s="78">
-        <f>E77*F77</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H77" s="104" t="s">
@@ -7984,7 +8017,7 @@
         <v>2.5</v>
       </c>
       <c r="G78" s="78">
-        <f>E78*F78</f>
+        <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
       <c r="H78" s="104" t="s">
@@ -8019,7 +8052,7 @@
         <v>2.2599999999999998</v>
       </c>
       <c r="G79" s="78">
-        <f>E79*F79</f>
+        <f t="shared" si="2"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="H79" s="105" t="s">
@@ -8052,7 +8085,7 @@
         <v>1.2</v>
       </c>
       <c r="G80" s="78">
-        <f>E80*F80</f>
+        <f t="shared" si="2"/>
         <v>1.2</v>
       </c>
       <c r="H80" s="105" t="s">
@@ -8087,7 +8120,7 @@
         <v>1.21</v>
       </c>
       <c r="G81" s="78">
-        <f>E81*F81</f>
+        <f t="shared" si="2"/>
         <v>7.26</v>
       </c>
       <c r="H81" s="105" t="s">
@@ -8119,7 +8152,7 @@
         <v>2.42</v>
       </c>
       <c r="G82" s="78">
-        <f>E82*F82</f>
+        <f t="shared" si="2"/>
         <v>2.42</v>
       </c>
       <c r="H82" s="107" t="s">
@@ -8156,7 +8189,7 @@
         <v>2.5</v>
       </c>
       <c r="G83" s="78">
-        <f>E83*F83</f>
+        <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
       <c r="H83" s="107" t="s">
@@ -8191,7 +8224,7 @@
         <v>2.5299999999999998</v>
       </c>
       <c r="G84" s="78">
-        <f>E84*F84</f>
+        <f t="shared" si="2"/>
         <v>2.5299999999999998</v>
       </c>
       <c r="H84" s="107" t="s">
@@ -8226,7 +8259,7 @@
         <v>3.08</v>
       </c>
       <c r="G85" s="78">
-        <f>E85*F85</f>
+        <f t="shared" si="2"/>
         <v>3.08</v>
       </c>
       <c r="H85" s="107" t="s">
@@ -8262,7 +8295,7 @@
         <v>5.61</v>
       </c>
       <c r="G86" s="78">
-        <f>E86*F86</f>
+        <f t="shared" si="2"/>
         <v>5.61</v>
       </c>
       <c r="H86" s="107" t="s">
@@ -8295,7 +8328,7 @@
         <v>1</v>
       </c>
       <c r="G87" s="78">
-        <f>E87*F87</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H87" s="104" t="s">
@@ -8329,7 +8362,7 @@
         <v>3</v>
       </c>
       <c r="G88" s="78">
-        <f>E88*F88</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="H88" s="104" t="s">
@@ -8361,7 +8394,7 @@
         <v>1</v>
       </c>
       <c r="G89" s="78">
-        <f>E89*F89</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H89" s="104" t="s">
@@ -8398,7 +8431,7 @@
         <v>2.67</v>
       </c>
       <c r="G90" s="78">
-        <f>E90*F90</f>
+        <f t="shared" si="2"/>
         <v>10.68</v>
       </c>
       <c r="H90" s="104" t="s">
@@ -8433,7 +8466,7 @@
         <v>2.42</v>
       </c>
       <c r="G91" s="78">
-        <f>E91*F91</f>
+        <f t="shared" si="2"/>
         <v>41.14</v>
       </c>
       <c r="H91" s="107" t="s">
@@ -8468,7 +8501,7 @@
         <v>2.59</v>
       </c>
       <c r="G92" s="78">
-        <f>E92*F92</f>
+        <f t="shared" si="2"/>
         <v>2.59</v>
       </c>
       <c r="H92" s="107" t="s">
@@ -8503,7 +8536,7 @@
         <v>2.75</v>
       </c>
       <c r="G93" s="78">
-        <f>E93*F93</f>
+        <f t="shared" si="2"/>
         <v>2.75</v>
       </c>
       <c r="H93" s="107" t="s">
@@ -8540,7 +8573,7 @@
         <v>2.61</v>
       </c>
       <c r="G94" s="78">
-        <f>E94*F94</f>
+        <f t="shared" si="2"/>
         <v>2.61</v>
       </c>
       <c r="H94" s="107" t="s">
@@ -8575,7 +8608,7 @@
         <v>2.92</v>
       </c>
       <c r="G95" s="78">
-        <f>E95*F95</f>
+        <f t="shared" si="2"/>
         <v>2.92</v>
       </c>
       <c r="H95" s="107" t="s">
@@ -8610,7 +8643,7 @@
         <v>2.92</v>
       </c>
       <c r="G96" s="78">
-        <f>E96*F96</f>
+        <f t="shared" si="2"/>
         <v>2.92</v>
       </c>
       <c r="H96" s="107" t="s">
@@ -8645,7 +8678,7 @@
         <v>3.21</v>
       </c>
       <c r="G97" s="78">
-        <f>E97*F97</f>
+        <f t="shared" si="2"/>
         <v>16.05</v>
       </c>
       <c r="H97" s="107" t="s">
@@ -8680,7 +8713,7 @@
         <v>3.57</v>
       </c>
       <c r="G98" s="78">
-        <f>E98*F98</f>
+        <f t="shared" ref="G98:G129" si="3">E98*F98</f>
         <v>7.14</v>
       </c>
       <c r="H98" s="107" t="s">
@@ -8715,7 +8748,7 @@
         <v>2.59</v>
       </c>
       <c r="G99" s="78">
-        <f>E99*F99</f>
+        <f t="shared" si="3"/>
         <v>7.77</v>
       </c>
       <c r="H99" s="107" t="s">
@@ -8750,7 +8783,7 @@
         <v>18.79</v>
       </c>
       <c r="G100" s="78">
-        <f>E100*F100</f>
+        <f t="shared" si="3"/>
         <v>18.79</v>
       </c>
       <c r="H100" s="104" t="s">
@@ -8783,7 +8816,7 @@
         <v>2</v>
       </c>
       <c r="G101" s="78">
-        <f>E101*F101</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="H101" s="104" t="s">
@@ -8816,7 +8849,7 @@
         <v>16</v>
       </c>
       <c r="G102" s="78">
-        <f>E102*F102</f>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="H102" s="104" t="s">
@@ -8849,7 +8882,7 @@
         <v>12</v>
       </c>
       <c r="G103" s="78">
-        <f>E103*F103</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="H103" s="104" t="s">
@@ -8882,7 +8915,7 @@
         <v>25</v>
       </c>
       <c r="G104" s="78">
-        <f>E104*F104</f>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="H104" s="104" t="s">
@@ -8915,7 +8948,7 @@
         <v>60</v>
       </c>
       <c r="G105" s="78">
-        <f>E105*F105</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="H105" s="105" t="s">
@@ -8946,7 +8979,7 @@
         <v>9</v>
       </c>
       <c r="G106" s="78">
-        <f>E106*F106</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="H106" s="104" t="s">
@@ -8978,7 +9011,7 @@
         <v>10.23</v>
       </c>
       <c r="G107" s="78">
-        <f>E107*F107</f>
+        <f t="shared" si="3"/>
         <v>10.23</v>
       </c>
       <c r="H107" s="104" t="s">
@@ -9010,7 +9043,7 @@
         <v>2.04</v>
       </c>
       <c r="G108" s="78">
-        <f>E108*F108</f>
+        <f t="shared" si="3"/>
         <v>4.08</v>
       </c>
       <c r="H108" s="105" t="s">
@@ -9043,7 +9076,7 @@
         <v>2.23</v>
       </c>
       <c r="G109" s="78">
-        <f>E109*F109</f>
+        <f t="shared" si="3"/>
         <v>13.379999999999999</v>
       </c>
       <c r="H109" s="104" t="s">
@@ -9076,7 +9109,7 @@
         <v>12.69</v>
       </c>
       <c r="G110" s="78">
-        <f>E110*F110</f>
+        <f t="shared" si="3"/>
         <v>12.69</v>
       </c>
       <c r="H110" s="104" t="s">
@@ -9109,7 +9142,7 @@
         <v>13.87</v>
       </c>
       <c r="G111" s="78">
-        <f>E111*F111</f>
+        <f t="shared" si="3"/>
         <v>13.87</v>
       </c>
       <c r="H111" s="103" t="s">
@@ -9142,7 +9175,7 @@
         <v>30.61</v>
       </c>
       <c r="G112" s="78">
-        <f>E112*F112</f>
+        <f t="shared" si="3"/>
         <v>30.61</v>
       </c>
       <c r="H112" s="103" t="s">
@@ -9175,7 +9208,7 @@
         <v>3.49</v>
       </c>
       <c r="G113" s="78">
-        <f>E113*F113</f>
+        <f t="shared" si="3"/>
         <v>3.49</v>
       </c>
       <c r="H113" s="104" t="s">
@@ -9208,7 +9241,7 @@
         <v>44</v>
       </c>
       <c r="G114" s="78">
-        <f>E114*F114</f>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="H114" s="103" t="s">
@@ -9241,7 +9274,7 @@
         <v>30</v>
       </c>
       <c r="G115" s="78">
-        <f>E115*F115</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="H115" s="103" t="s">
@@ -9274,7 +9307,7 @@
         <v>9.42</v>
       </c>
       <c r="G116" s="78">
-        <f>E116*F116</f>
+        <f t="shared" si="3"/>
         <v>9.42</v>
       </c>
       <c r="H116" s="103" t="s">
@@ -9309,7 +9342,7 @@
         <v>4</v>
       </c>
       <c r="G117" s="78">
-        <f>E117*F117</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="H117" s="105" t="s">
@@ -9342,7 +9375,7 @@
         <v>14.96</v>
       </c>
       <c r="G118" s="78">
-        <f>E118*F118</f>
+        <f t="shared" si="3"/>
         <v>14.96</v>
       </c>
       <c r="H118" s="105" t="s">
@@ -9377,7 +9410,7 @@
         <v>12</v>
       </c>
       <c r="G119" s="78">
-        <f>E119*F119</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="H119" s="105" t="s">
@@ -9412,7 +9445,7 @@
         <v>11</v>
       </c>
       <c r="G120" s="78">
-        <f>E120*F120</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="H120" s="105" t="s">
@@ -9447,7 +9480,7 @@
         <v>9</v>
       </c>
       <c r="G121" s="78">
-        <f>E121*F121</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="H121" s="105" t="s">
@@ -9480,7 +9513,7 @@
         <v>5.49</v>
       </c>
       <c r="G122" s="78">
-        <f>E122*F122</f>
+        <f t="shared" si="3"/>
         <v>21.96</v>
       </c>
       <c r="H122" s="105" t="s">
@@ -9515,7 +9548,7 @@
         <v>15</v>
       </c>
       <c r="G123" s="78">
-        <f>E123*F123</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="H123" s="105" t="s">
@@ -9550,7 +9583,7 @@
         <v>16</v>
       </c>
       <c r="G124" s="78">
-        <f>E124*F124</f>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="H124" s="105" t="s">
@@ -9585,7 +9618,7 @@
         <v>40</v>
       </c>
       <c r="G125" s="78">
-        <f>E125*F125</f>
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
       <c r="H125" s="105" t="s">
@@ -9620,7 +9653,7 @@
         <v>4.07</v>
       </c>
       <c r="G126" s="78">
-        <f>E126*F126</f>
+        <f t="shared" si="3"/>
         <v>4.07</v>
       </c>
       <c r="H126" s="105" t="s">
@@ -9655,7 +9688,7 @@
         <v>18</v>
       </c>
       <c r="G127" s="78">
-        <f>E127*F127</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="H127" s="104" t="s">
@@ -9690,7 +9723,7 @@
         <v>100</v>
       </c>
       <c r="G128" s="78">
-        <f>E128*F128</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="H128" s="106" t="s">
@@ -9725,7 +9758,7 @@
         <v>9.7200000000000006</v>
       </c>
       <c r="G129" s="78">
-        <f>E129*F129</f>
+        <f t="shared" si="3"/>
         <v>19.440000000000001</v>
       </c>
       <c r="H129" s="103" t="s">
@@ -9758,7 +9791,7 @@
         <v>2.84</v>
       </c>
       <c r="G130" s="78">
-        <f>E130*F130</f>
+        <f t="shared" ref="G130:G161" si="4">E130*F130</f>
         <v>2.84</v>
       </c>
       <c r="H130" s="103" t="s">
@@ -9791,7 +9824,7 @@
         <v>10.36</v>
       </c>
       <c r="G131" s="78">
-        <f>E131*F131</f>
+        <f t="shared" si="4"/>
         <v>10.36</v>
       </c>
       <c r="H131" s="104" t="s">
@@ -9824,7 +9857,7 @@
         <v>11.78</v>
       </c>
       <c r="G132" s="78">
-        <f>E132*F132</f>
+        <f t="shared" si="4"/>
         <v>11.78</v>
       </c>
       <c r="H132" s="104" t="s">
@@ -9857,7 +9890,7 @@
         <v>10.08</v>
       </c>
       <c r="G133" s="78">
-        <f>E133*F133</f>
+        <f t="shared" si="4"/>
         <v>10.08</v>
       </c>
       <c r="H133" s="104" t="s">
@@ -9890,7 +9923,7 @@
         <v>12.42</v>
       </c>
       <c r="G134" s="78">
-        <f>E134*F134</f>
+        <f t="shared" si="4"/>
         <v>12.42</v>
       </c>
       <c r="H134" s="104" t="s">
@@ -9925,7 +9958,7 @@
         <v>5.92</v>
       </c>
       <c r="G135" s="78">
-        <f>E135*F135</f>
+        <f t="shared" si="4"/>
         <v>5.92</v>
       </c>
       <c r="H135" s="104" t="s">
@@ -9958,7 +9991,7 @@
         <v>12.84</v>
       </c>
       <c r="G136" s="78">
-        <f>E136*F136</f>
+        <f t="shared" si="4"/>
         <v>12.84</v>
       </c>
       <c r="H136" s="104" t="s">
@@ -9991,7 +10024,7 @@
         <v>68</v>
       </c>
       <c r="G137" s="98">
-        <f>E137*F137</f>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="H137" s="104" t="s">
@@ -10024,7 +10057,7 @@
         <v>35.42</v>
       </c>
       <c r="G138" s="78">
-        <f>E138*F138</f>
+        <f t="shared" si="4"/>
         <v>35.42</v>
       </c>
       <c r="H138" s="104" t="s">
@@ -10057,7 +10090,7 @@
         <v>18</v>
       </c>
       <c r="G139" s="78">
-        <f>E139*F139</f>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="H139" s="104" t="s">
@@ -10090,7 +10123,7 @@
         <v>48</v>
       </c>
       <c r="G140" s="78">
-        <f>E140*F140</f>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="H140" s="104" t="s">
@@ -10123,7 +10156,7 @@
         <v>1.48</v>
       </c>
       <c r="G141" s="78">
-        <f>E141*F141</f>
+        <f t="shared" si="4"/>
         <v>1.48</v>
       </c>
       <c r="H141" s="104" t="s">
@@ -10156,7 +10189,7 @@
         <v>2.17</v>
       </c>
       <c r="G142" s="78">
-        <f>E142*F142</f>
+        <f t="shared" si="4"/>
         <v>2.17</v>
       </c>
       <c r="H142" s="104" t="s">
@@ -10189,7 +10222,7 @@
         <v>10.62</v>
       </c>
       <c r="G143" s="78">
-        <f>E143*F143</f>
+        <f t="shared" si="4"/>
         <v>10.62</v>
       </c>
       <c r="H143" s="104" t="s">
@@ -10222,7 +10255,7 @@
         <v>10</v>
       </c>
       <c r="G144" s="78">
-        <f>E144*F144</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="H144" s="104" t="s">
@@ -10449,12 +10482,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="187" t="s">
+      <c r="B1" s="183" t="s">
         <v>607</v>
       </c>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="189"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="185"/>
       <c r="F1" s="44"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
@@ -11314,13 +11347,15 @@
       <c r="F11" s="178"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
+      <c r="A12" s="53" t="s">
+        <v>695</v>
+      </c>
       <c r="B12" s="22" t="s">
         <v>380</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="162"/>
-      <c r="E12" s="190">
+      <c r="E12" s="1">
         <v>78</v>
       </c>
       <c r="F12" s="178"/>
@@ -11366,23 +11401,21 @@
       <c r="B16" s="22" t="s">
         <v>381</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>382</v>
+      <c r="C16" s="182" t="s">
+        <v>392</v>
       </c>
       <c r="D16" s="162"/>
       <c r="E16" s="1">
         <v>1</v>
       </c>
-      <c r="F16" s="185" t="s">
-        <v>392</v>
-      </c>
+      <c r="F16" s="181"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="22" t="s">
         <v>383</v>
       </c>
-      <c r="C17" s="191" t="s">
+      <c r="C17" s="182" t="s">
         <v>692</v>
       </c>
       <c r="D17" s="162"/>
@@ -11425,17 +11458,18 @@
     <hyperlink ref="A4" r:id="rId2" xr:uid="{876753F4-F9E7-4EFA-AEE2-78B8BD2C1EE5}"/>
     <hyperlink ref="A5" r:id="rId3" xr:uid="{43398CF9-3F06-40AA-974F-40F60A2E3BE9}"/>
     <hyperlink ref="C17" r:id="rId4" xr:uid="{C74C06A2-8408-47A6-9CF2-B2CEC99A704A}"/>
-    <hyperlink ref="F16" r:id="rId5" xr:uid="{EE4F16ED-7966-41B8-9F57-43A5BF94EE66}"/>
+    <hyperlink ref="C16" r:id="rId5" xr:uid="{DFBF08BB-3942-43BA-B457-4E761C539DF3}"/>
+    <hyperlink ref="A12" r:id="rId6" xr:uid="{80DB00DC-8017-4A38-80BA-73ECD0013A67}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId7"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Aptos Black,Regular"&amp;14VALKYRIE V2 - FRAME BOM</oddHeader>
     <oddFooter>&amp;CBETA PRELEASE&amp;R&amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId7"/>
+  <drawing r:id="rId8"/>
   <tableParts count="1">
-    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
@@ -11449,7 +11483,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11475,20 +11509,20 @@
       <c r="D1" s="144" t="s">
         <v>358</v>
       </c>
-      <c r="E1" s="181"/>
+      <c r="E1" s="186"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
         <v>359</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="187" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="17">
+      <c r="C2" s="188"/>
+      <c r="D2" s="189">
         <v>2</v>
       </c>
-      <c r="E2" s="182" t="s">
+      <c r="E2" s="190" t="s">
         <v>362</v>
       </c>
     </row>
@@ -11496,14 +11530,14 @@
       <c r="A3" s="53" t="s">
         <v>363</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="187" t="s">
         <v>344</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="17">
+      <c r="C3" s="188"/>
+      <c r="D3" s="189">
         <v>36</v>
       </c>
-      <c r="E3" s="183" t="s">
+      <c r="E3" s="191" t="s">
         <v>365</v>
       </c>
     </row>
@@ -11511,14 +11545,14 @@
       <c r="A4" s="53" t="s">
         <v>366</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="187" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="17">
+      <c r="C4" s="188"/>
+      <c r="D4" s="189">
         <v>24</v>
       </c>
-      <c r="E4" s="183" t="s">
+      <c r="E4" s="191" t="s">
         <v>368</v>
       </c>
     </row>
@@ -11526,378 +11560,385 @@
       <c r="A5" s="53" t="s">
         <v>369</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="187" t="s">
         <v>310</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="17">
+      <c r="C5" s="188"/>
+      <c r="D5" s="189">
         <v>4</v>
       </c>
-      <c r="E5" s="183" t="s">
+      <c r="E5" s="191" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="187" t="s">
         <v>312</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="17">
+      <c r="C6" s="188"/>
+      <c r="D6" s="189">
         <v>8</v>
       </c>
-      <c r="E6" s="184"/>
+      <c r="E6" s="192"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="187" t="s">
         <v>386</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="17">
-        <v>1</v>
-      </c>
-      <c r="E7" s="184"/>
+      <c r="C7" s="188"/>
+      <c r="D7" s="189">
+        <v>1</v>
+      </c>
+      <c r="E7" s="192"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
-      <c r="B8" t="s">
+      <c r="B8" s="193" t="s">
         <v>387</v>
       </c>
-      <c r="C8"/>
-      <c r="D8" s="17">
+      <c r="C8" s="193"/>
+      <c r="D8" s="189">
         <v>2</v>
       </c>
-      <c r="E8" s="184"/>
+      <c r="E8" s="192"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="27"/>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="194" t="s">
         <v>388</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="17">
+      <c r="C9" s="194"/>
+      <c r="D9" s="189">
         <v>5</v>
       </c>
-      <c r="E9" s="184"/>
+      <c r="E9" s="192"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="195" t="s">
         <v>389</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="17">
+      <c r="C10" s="188"/>
+      <c r="D10" s="189">
         <v>52</v>
       </c>
-      <c r="E10" s="184"/>
+      <c r="E10" s="192"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="187" t="s">
         <v>390</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="17">
+      <c r="C11" s="188"/>
+      <c r="D11" s="189">
         <v>8</v>
       </c>
-      <c r="E11" s="184"/>
+      <c r="E11" s="192"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="61" t="s">
+      <c r="A12" s="53" t="s">
+        <v>695</v>
+      </c>
+      <c r="B12" s="187" t="s">
         <v>391</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="17">
+      <c r="C12" s="188"/>
+      <c r="D12" s="189">
         <v>8</v>
       </c>
+      <c r="E12" s="59"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="195" t="s">
         <v>253</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="17">
+      <c r="C13" s="188"/>
+      <c r="D13" s="189">
         <v>8</v>
       </c>
-      <c r="E13" s="184"/>
+      <c r="E13" s="192"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="195" t="s">
         <v>256</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="17">
+      <c r="C14" s="188"/>
+      <c r="D14" s="189">
         <v>52</v>
       </c>
-      <c r="E14" s="184"/>
+      <c r="E14" s="192"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="195" t="s">
         <v>258</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="17">
+      <c r="C15" s="188"/>
+      <c r="D15" s="189">
         <v>8</v>
       </c>
-      <c r="E15" s="184"/>
+      <c r="E15" s="192"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="195" t="s">
         <v>393</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="17">
+      <c r="C16" s="188"/>
+      <c r="D16" s="189">
         <v>2</v>
       </c>
-      <c r="E16" s="184"/>
+      <c r="E16" s="192"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="195" t="s">
         <v>394</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="17">
+      <c r="C17" s="188"/>
+      <c r="D17" s="189">
         <v>11</v>
       </c>
-      <c r="E17" s="184"/>
+      <c r="E17" s="192"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="195" t="s">
         <v>379</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="17">
+      <c r="C18" s="188"/>
+      <c r="D18" s="189">
         <v>19</v>
       </c>
-      <c r="E18" s="184"/>
+      <c r="E18" s="192"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="27"/>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="195" t="s">
         <v>380</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="17">
+      <c r="C19" s="188"/>
+      <c r="D19" s="189">
         <v>4</v>
       </c>
-      <c r="E19" s="184"/>
+      <c r="E19" s="192"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="195" t="s">
         <v>284</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="17">
+      <c r="C20" s="188"/>
+      <c r="D20" s="189">
         <v>27</v>
       </c>
-      <c r="E20" s="184"/>
+      <c r="E20" s="192"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="195" t="s">
         <v>288</v>
       </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="17">
+      <c r="C21" s="188"/>
+      <c r="D21" s="189">
         <v>4</v>
       </c>
-      <c r="E21" s="184"/>
+      <c r="E21" s="192"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="195" t="s">
         <v>294</v>
       </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="17">
+      <c r="C22" s="188"/>
+      <c r="D22" s="189">
         <v>2</v>
       </c>
-      <c r="E22" s="184"/>
+      <c r="E22" s="192"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="27"/>
-      <c r="B23" s="61" t="s">
+      <c r="B23" s="187" t="s">
         <v>395</v>
       </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="17">
+      <c r="C23" s="196" t="s">
+        <v>693</v>
+      </c>
+      <c r="D23" s="189">
         <v>2</v>
       </c>
-      <c r="E23" s="184"/>
+      <c r="E23" s="192"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="27"/>
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="187" t="s">
         <v>396</v>
       </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="17">
-        <v>1</v>
-      </c>
-      <c r="E24" s="184"/>
+      <c r="C24" s="196" t="s">
+        <v>694</v>
+      </c>
+      <c r="D24" s="189">
+        <v>1</v>
+      </c>
+      <c r="E24" s="192"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="187" t="s">
         <v>397</v>
       </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="17">
+      <c r="C25" s="188"/>
+      <c r="D25" s="189">
         <v>2</v>
       </c>
-      <c r="E25" s="184"/>
+      <c r="E25" s="192"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="27"/>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="195" t="s">
         <v>398</v>
       </c>
-      <c r="C26" s="61" t="s">
-        <v>382</v>
-      </c>
-      <c r="D26" s="17">
-        <v>1</v>
-      </c>
-      <c r="E26" s="184"/>
+      <c r="C26" s="182" t="s">
+        <v>392</v>
+      </c>
+      <c r="D26" s="189">
+        <v>1</v>
+      </c>
+      <c r="E26" s="197"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="27"/>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="195" t="s">
         <v>399</v>
       </c>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="187" t="s">
         <v>382</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D27" s="189">
         <v>4</v>
       </c>
-      <c r="E27" s="184"/>
+      <c r="E27" s="192"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="195" t="s">
         <v>400</v>
       </c>
-      <c r="C28" s="61" t="s">
+      <c r="C28" s="187" t="s">
         <v>382</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D28" s="189">
         <v>2</v>
       </c>
-      <c r="E28" s="184"/>
+      <c r="E28" s="192"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="27"/>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="195" t="s">
         <v>401</v>
       </c>
-      <c r="C29" s="61" t="s">
+      <c r="C29" s="187" t="s">
         <v>382</v>
       </c>
-      <c r="D29" s="17">
-        <v>1</v>
-      </c>
-      <c r="E29" s="184"/>
+      <c r="D29" s="189">
+        <v>1</v>
+      </c>
+      <c r="E29" s="192"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="27"/>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="195" t="s">
         <v>402</v>
       </c>
-      <c r="C30" s="61" t="s">
+      <c r="C30" s="187" t="s">
         <v>382</v>
       </c>
-      <c r="D30" s="17">
-        <v>1</v>
-      </c>
-      <c r="E30" s="184"/>
+      <c r="D30" s="189">
+        <v>1</v>
+      </c>
+      <c r="E30" s="192"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="27"/>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="195" t="s">
         <v>403</v>
       </c>
-      <c r="C31" s="61" t="s">
+      <c r="C31" s="187" t="s">
         <v>382</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D31" s="189">
         <v>2</v>
       </c>
-      <c r="E31" s="184"/>
+      <c r="E31" s="192"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="27"/>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="195" t="s">
         <v>404</v>
       </c>
-      <c r="C32" s="61" t="s">
+      <c r="C32" s="187" t="s">
         <v>382</v>
       </c>
-      <c r="D32" s="17">
-        <v>1</v>
-      </c>
-      <c r="E32" s="184"/>
+      <c r="D32" s="189">
+        <v>1</v>
+      </c>
+      <c r="E32" s="192"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="27"/>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="195" t="s">
         <v>405</v>
       </c>
-      <c r="C33" s="61" t="s">
+      <c r="C33" s="187" t="s">
         <v>382</v>
       </c>
-      <c r="D33" s="17">
-        <v>1</v>
-      </c>
-      <c r="E33" s="184"/>
+      <c r="D33" s="189">
+        <v>1</v>
+      </c>
+      <c r="E33" s="192"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="27"/>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="195" t="s">
         <v>406</v>
       </c>
-      <c r="C34" s="61" t="s">
+      <c r="C34" s="187" t="s">
         <v>382</v>
       </c>
-      <c r="D34" s="17">
-        <v>1</v>
-      </c>
-      <c r="E34" s="184"/>
+      <c r="D34" s="189">
+        <v>1</v>
+      </c>
+      <c r="E34" s="192"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="27"/>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="195" t="s">
         <v>407</v>
       </c>
-      <c r="C35" s="61" t="s">
+      <c r="C35" s="187" t="s">
         <v>382</v>
       </c>
-      <c r="D35" s="17">
+      <c r="D35" s="189">
         <v>2</v>
       </c>
-      <c r="E35" s="184"/>
+      <c r="E35" s="192"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="27"/>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="195" t="s">
         <v>408</v>
       </c>
-      <c r="C36" s="61" t="s">
+      <c r="C36" s="187" t="s">
         <v>382</v>
       </c>
-      <c r="D36" s="17">
-        <v>1</v>
-      </c>
-      <c r="E36" s="184"/>
+      <c r="D36" s="189">
+        <v>1</v>
+      </c>
+      <c r="E36" s="192"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="65"/>
@@ -11910,24 +11951,26 @@
       <c r="D37" s="66">
         <v>1</v>
       </c>
-      <c r="E37" s="186"/>
+      <c r="E37" s="198"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{6AF45D33-B3D4-48FD-8B5D-FC9C26E8266F}"/>
     <hyperlink ref="A4" r:id="rId2" xr:uid="{216DB74C-ED28-4B01-8744-ED569E397C89}"/>
     <hyperlink ref="A5" r:id="rId3" xr:uid="{45D77D1C-8765-4C65-8A99-38C168AB7CBE}"/>
+    <hyperlink ref="C26" r:id="rId4" xr:uid="{16BBC515-0514-4F88-AB3F-01B1E2D2F2C9}"/>
+    <hyperlink ref="A12" r:id="rId5" xr:uid="{B5C7BE32-BF08-4AD0-86BD-7FDA34EA2715}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.11811023622047245" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Aptos Black,Regular"&amp;14VALKYRIE V2 - AB GANTRY BOM</oddHeader>
     <oddFooter>&amp;CBETA PRELEASE&amp;R&amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId5"/>
+  <drawing r:id="rId7"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
@@ -11940,7 +11983,9 @@
   </sheetPr>
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12094,7 +12139,9 @@
       <c r="E11" s="59"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
+      <c r="A12" s="53" t="s">
+        <v>695</v>
+      </c>
       <c r="B12" s="1" t="s">
         <v>417</v>
       </c>
@@ -12393,18 +12440,19 @@
     <hyperlink ref="A3" r:id="rId1" xr:uid="{D1E610B8-A5EA-4DF8-B13A-5510F4DBF900}"/>
     <hyperlink ref="A4" r:id="rId2" xr:uid="{447CB2D5-1E80-4C20-9CDD-7009683ACCF5}"/>
     <hyperlink ref="A5" r:id="rId3" xr:uid="{350F3B79-788B-4A8E-A5C2-A87B8F1476FD}"/>
+    <hyperlink ref="A12" r:id="rId4" xr:uid="{19FF7FFB-DDA7-43DC-8EFD-8369B41B28C9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.11811023622047245" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Aptos Black,Regular"&amp;14VALKYRIE V2 - TOOLHEAD BOM</oddHeader>
     <oddFooter>&amp;CBETA PRELEASE&amp;R&amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId5"/>
+  <drawing r:id="rId6"/>
   <tableParts count="2">
-    <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
@@ -12417,7 +12465,9 @@
   </sheetPr>
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12573,7 +12623,9 @@
       <c r="E11" s="59"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
+      <c r="A12" s="53" t="s">
+        <v>695</v>
+      </c>
       <c r="B12" s="61" t="s">
         <v>389</v>
       </c>
@@ -12911,17 +12963,18 @@
     <hyperlink ref="A3" r:id="rId1" xr:uid="{53307A63-1EE9-4517-B5F1-5CA0F953F7F5}"/>
     <hyperlink ref="A4" r:id="rId2" xr:uid="{2528CF81-6C8D-40AC-9D95-F3211B9A3D3E}"/>
     <hyperlink ref="A5" r:id="rId3" xr:uid="{D15883BE-833C-49EF-BA52-7A45CFA89940}"/>
+    <hyperlink ref="A12" r:id="rId4" xr:uid="{0457FC39-15B1-4C12-8626-8DAC04CFC8BE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.11811023622047245" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Aptos Black,Regular"&amp;14VALKYRIE V2 - Z SYSTEM BOM</oddHeader>
     <oddFooter>&amp;CBETA PRELEASE&amp;R&amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId5"/>
+  <drawing r:id="rId6"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
@@ -12935,7 +12988,7 @@
   <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13103,7 +13156,9 @@
       <c r="E12" s="59"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
+      <c r="A13" s="53" t="s">
+        <v>695</v>
+      </c>
       <c r="B13" s="61" t="s">
         <v>100</v>
       </c>
@@ -13886,17 +13941,18 @@
     <hyperlink ref="A3" r:id="rId1" xr:uid="{C0038DA9-598E-40D9-8FB8-D2073CC15AF1}"/>
     <hyperlink ref="A4" r:id="rId2" xr:uid="{CBC6A436-CD3F-43A1-BC5D-553D7AE0BAB2}"/>
     <hyperlink ref="A5" r:id="rId3" xr:uid="{32564E2D-78FA-43B8-A5AC-B72F0BDEEE47}"/>
+    <hyperlink ref="A13" r:id="rId4" xr:uid="{E56F7780-6CEF-4406-8C8D-6CD14A1C787F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.11811023622047245" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId5"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Aptos Black,Regular"&amp;14VALKYRIE V2 - ENCLOSURE BOM</oddHeader>
     <oddFooter>&amp;CBETA PRELEASE&amp;R&amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId5"/>
+  <drawing r:id="rId6"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
@@ -13909,7 +13965,9 @@
   </sheetPr>
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14083,7 +14141,9 @@
       <c r="E11" s="59"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
+      <c r="A12" s="53" t="s">
+        <v>695</v>
+      </c>
       <c r="B12" s="2" t="s">
         <v>255</v>
       </c>
@@ -14519,17 +14579,18 @@
     <hyperlink ref="A3" r:id="rId1" xr:uid="{F452EBED-B07E-411A-BD10-A76B75B4D1DF}"/>
     <hyperlink ref="A4" r:id="rId2" xr:uid="{D814B011-CB96-4075-8F8E-51A6A54BAB25}"/>
     <hyperlink ref="A5" r:id="rId3" xr:uid="{D2B2A955-A806-421B-A3AE-61388E5766E2}"/>
+    <hyperlink ref="A12" r:id="rId4" xr:uid="{D01EBC21-93B3-46AE-A6B8-DF0ED8566BBA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.11811023622047245" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Aptos Black,Regular"&amp;14VALKYRIE V2 - DRYBOX BOM</oddHeader>
     <oddFooter>&amp;CBETA PRELEASE&amp;R&amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId5"/>
+  <drawing r:id="rId6"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
@@ -14542,7 +14603,9 @@
   </sheetPr>
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14691,7 +14754,9 @@
       <c r="E11" s="59"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
+      <c r="A12" s="53" t="s">
+        <v>695</v>
+      </c>
       <c r="B12" t="s">
         <v>379</v>
       </c>
@@ -14767,17 +14832,18 @@
     <hyperlink ref="A3" r:id="rId1" xr:uid="{56D987F7-1DEA-4AB6-8914-496460BCDA52}"/>
     <hyperlink ref="A4" r:id="rId2" xr:uid="{1D303F7D-0D91-4B14-8D79-05AA3A12FF0C}"/>
     <hyperlink ref="A5" r:id="rId3" xr:uid="{59A1302C-9981-4A84-95A7-487DDC4A1BBD}"/>
+    <hyperlink ref="A12" r:id="rId4" xr:uid="{4ACA5512-5D4F-4A27-8CBB-7F9B30E93290}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.11811023622047245" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Aptos Black,Regular"&amp;14VALKYRIE V2 - LC BOM</oddHeader>
     <oddFooter>&amp;CBETA PRELEASE&amp;R&amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId5"/>
+  <drawing r:id="rId6"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
@@ -14790,7 +14856,9 @@
   </sheetPr>
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14964,7 +15032,9 @@
       <c r="E11" s="59"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
+      <c r="A12" s="53" t="s">
+        <v>695</v>
+      </c>
       <c r="B12" s="32" t="s">
         <v>589</v>
       </c>
@@ -15362,17 +15432,18 @@
     <hyperlink ref="A3" r:id="rId1" xr:uid="{3EE9F396-BD2B-446A-9A8E-780F2189BA76}"/>
     <hyperlink ref="A4" r:id="rId2" xr:uid="{E85F94F1-2447-47D2-B853-0886C93F239D}"/>
     <hyperlink ref="A5" r:id="rId3" xr:uid="{813C9C94-92D2-4435-8864-1D0F122EFF20}"/>
+    <hyperlink ref="A12" r:id="rId4" xr:uid="{1B61D95B-12FA-4C91-8840-7928A20E530F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.11811023622047245" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId5"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Aptos Black,Regular"&amp;14VALKYRIE V2 - Electronics BOM</oddHeader>
     <oddFooter>&amp;CBETA PRELEASE&amp;R&amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId5"/>
+  <drawing r:id="rId6"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
--- a/V2 BETA/BOM/Valkyrie V2 HT100 BOM Beta.xlsx
+++ b/V2 BETA/BOM/Valkyrie V2 HT100 BOM Beta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/V2 BETA/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="395" documentId="8_{5107759B-8870-48A8-933E-C4A7F6F41B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37F9011B-12F2-49B3-B434-BB6DEE69D147}"/>
+  <xr:revisionPtr revIDLastSave="398" documentId="8_{5107759B-8870-48A8-933E-C4A7F6F41B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2706D909-FB19-410F-8317-2C7F6823A2A5}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="16440" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="16440" firstSheet="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PARTS LIST" sheetId="43" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="698">
   <si>
     <t>Type</t>
   </si>
@@ -732,6 +732,9 @@
   </si>
   <si>
     <t>S: 10pcs M5 - L: 30mm</t>
+  </si>
+  <si>
+    <t>Column1</t>
   </si>
   <si>
     <t>M5x30 HEX ISO 4017 DIN 933</t>
@@ -2132,7 +2135,7 @@
     <t>Engineers square</t>
   </si>
   <si>
-    <t xml:space="preserve">Allen keys </t>
+    <t>Allen keys 3,4,mm</t>
   </si>
   <si>
     <t xml:space="preserve">steel Rule or  Equiverlant </t>
@@ -2174,7 +2177,7 @@
     <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;_ ;_-@_ "/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="170" formatCode="_([$$-409]* #,##0_);_([$$-409]* \(#,##0\);_([$$-409]* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_([$$-409]* #,##0_);_([$$-409]* \(#,##0\);_([$$-409]* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -3115,15 +3118,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3133,8 +3127,17 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -3150,7 +3153,7 @@
     <cellStyle name="Normal 8" xfId="8" xr:uid="{081623DE-E46D-4C5A-9B4A-C0DC2A05C210}"/>
     <cellStyle name="Normal 9" xfId="9" xr:uid="{40B67649-AC0A-4FC1-B41E-42AB5C2B58C9}"/>
   </cellStyles>
-  <dxfs count="74">
+  <dxfs count="77">
     <dxf>
       <font>
         <b val="0"/>
@@ -3980,6 +3983,15 @@
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -5069,32 +5081,47 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{1DE5977A-0070-4907-B3F1-83B3E9D3EAF9}" name="Table1321" displayName="Table1321" ref="A1:L144" totalsRowShown="0" dataDxfId="73" headerRowBorderDxfId="71" tableBorderDxfId="72" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{1DE5977A-0070-4907-B3F1-83B3E9D3EAF9}" name="Table1321" displayName="Table1321" ref="A1:L144" totalsRowShown="0" dataDxfId="76" headerRowBorderDxfId="74" tableBorderDxfId="75" headerRowCellStyle="Normal 2">
   <autoFilter ref="A1:L144" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L144">
     <sortCondition ref="A1:A144"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="3" xr3:uid="{E596F2F7-CDFF-486E-86F5-053FDD2A2A5C}" name="Type" dataDxfId="70"/>
-    <tableColumn id="4" xr3:uid="{21BB2F02-45DC-4E39-9123-FC046A8DFC11}" name="Part" dataDxfId="69"/>
-    <tableColumn id="1" xr3:uid="{277C1F1F-DAAE-4C91-9EDC-C8D501677DE9}" name="Cut length" dataDxfId="68" dataCellStyle="Normal 7"/>
-    <tableColumn id="7" xr3:uid="{47852F97-FC81-4943-BFF5-71D7E867A237}" name="Qty Required" dataDxfId="67"/>
-    <tableColumn id="5" xr3:uid="{5C2A44A8-DE4F-4B5A-930C-443716E7E898}" name="Pack Order Qty" dataDxfId="66"/>
-    <tableColumn id="8" xr3:uid="{07FAA242-B582-4790-9720-A5DC124D6B2D}" name="Pack Price $USD" dataDxfId="65"/>
-    <tableColumn id="10" xr3:uid="{B3F33643-2531-4917-B84D-BE4983A99A8C}" name="*Cost Price $USD" dataDxfId="64">
+    <tableColumn id="3" xr3:uid="{E596F2F7-CDFF-486E-86F5-053FDD2A2A5C}" name="Type" dataDxfId="73"/>
+    <tableColumn id="4" xr3:uid="{21BB2F02-45DC-4E39-9123-FC046A8DFC11}" name="Part" dataDxfId="72"/>
+    <tableColumn id="1" xr3:uid="{277C1F1F-DAAE-4C91-9EDC-C8D501677DE9}" name="Cut length" dataDxfId="71" dataCellStyle="Normal 7"/>
+    <tableColumn id="7" xr3:uid="{47852F97-FC81-4943-BFF5-71D7E867A237}" name="Qty Required" dataDxfId="70"/>
+    <tableColumn id="5" xr3:uid="{5C2A44A8-DE4F-4B5A-930C-443716E7E898}" name="Pack Order Qty" dataDxfId="69"/>
+    <tableColumn id="8" xr3:uid="{07FAA242-B582-4790-9720-A5DC124D6B2D}" name="Pack Price $USD" dataDxfId="68"/>
+    <tableColumn id="10" xr3:uid="{B3F33643-2531-4917-B84D-BE4983A99A8C}" name="*Cost Price $USD" dataDxfId="67">
       <calculatedColumnFormula>E2*F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{2B3304EF-95F3-4EA3-9A24-E520BCF247B0}" name="Order Link" dataDxfId="63" dataCellStyle="Hyperlink"/>
-    <tableColumn id="12" xr3:uid="{53A14610-D497-4DD1-8CFF-F20E191D3317}" name="Supplier" dataDxfId="62"/>
-    <tableColumn id="11" xr3:uid="{A7F10A10-A127-43E0-B65C-9F538B8DD15E}" name="Qty in a Pack" dataDxfId="61" dataCellStyle="Hyperlink"/>
-    <tableColumn id="13" xr3:uid="{DE4564AA-6825-49A5-B67A-A550AFECDCA7}" name="DIN" dataDxfId="60"/>
-    <tableColumn id="14" xr3:uid="{63E8BC06-DC55-407C-B167-F3CA5B6EBA86}" name="ISO" dataDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{2B3304EF-95F3-4EA3-9A24-E520BCF247B0}" name="Order Link" dataDxfId="66" dataCellStyle="Hyperlink"/>
+    <tableColumn id="12" xr3:uid="{53A14610-D497-4DD1-8CFF-F20E191D3317}" name="Supplier" dataDxfId="65"/>
+    <tableColumn id="11" xr3:uid="{A7F10A10-A127-43E0-B65C-9F538B8DD15E}" name="Qty in a Pack" dataDxfId="64" dataCellStyle="Hyperlink"/>
+    <tableColumn id="13" xr3:uid="{DE4564AA-6825-49A5-B67A-A550AFECDCA7}" name="DIN" dataDxfId="63"/>
+    <tableColumn id="14" xr3:uid="{63E8BC06-DC55-407C-B167-F3CA5B6EBA86}" name="ISO" dataDxfId="62"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{AC31348F-CB75-44A7-A48C-4BBEA19837B3}" name="Table913171819" displayName="Table913171819" ref="B1:D18" totalsRowShown="0" headerRowDxfId="15" tableBorderDxfId="14" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+  <autoFilter ref="B1:D18" xr:uid="{BAD2131D-41B2-42EA-A67B-FBB781AD12E7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D18">
+    <sortCondition ref="B1:B18"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{D7153C23-8479-4254-BF69-2A4089CB71C0}" name="Part name" totalsRowDxfId="13" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{5CF4E952-095C-46AE-A57F-99A26E57C478}" name="Description" totalsRowDxfId="12" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{8AE4D1C0-7F70-4D1E-B6EC-42038CE642DF}" name="BOM Quantity" dataDxfId="10" totalsRowDxfId="11" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{604B429D-E2E1-4265-83DF-FBAD19483C12}" name="Table91317181920" displayName="Table91317181920" ref="B1:D44" totalsRowShown="0" headerRowDxfId="9" tableBorderDxfId="8" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
   <autoFilter ref="B1:D44" xr:uid="{BAD2131D-41B2-42EA-A67B-FBB781AD12E7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D44">
@@ -5109,7 +5136,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD3A9734-505A-4671-9A99-A5AD0241BC9E}" name="Table1" displayName="Table1" ref="B2:E26" totalsRowShown="0">
   <autoFilter ref="B2:E26" xr:uid="{CD3A9734-505A-4671-9A99-A5AD0241BC9E}"/>
   <tableColumns count="4">
@@ -5123,6 +5150,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1D56080A-A986-4B73-B750-606D567699F1}" name="Table2" displayName="Table2" ref="O95:O96" insertRow="1" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
+  <autoFilter ref="O95:O96" xr:uid="{1D56080A-A986-4B73-B750-606D567699F1}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{1AB8EF02-E35C-4974-9AE1-5C063D122C3C}" name="Column1" dataDxfId="59"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{9FCF4A79-156B-41FF-A555-9328C94776F1}" name="Table112" displayName="Table112" ref="B1:E19" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57" tableBorderDxfId="56" headerRowCellStyle="Normal 2">
   <autoFilter ref="B1:E19" xr:uid="{9FCF4A79-156B-41FF-A555-9328C94776F1}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:E19">
@@ -5138,7 +5175,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{BAD2131D-41B2-42EA-A67B-FBB781AD12E7}" name="Table9" displayName="Table9" ref="B1:D37" totalsRowShown="0" headerRowDxfId="51" tableBorderDxfId="50" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
   <autoFilter ref="B1:D37" xr:uid="{BAD2131D-41B2-42EA-A67B-FBB781AD12E7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D37">
@@ -5153,7 +5190,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{0D081A3B-5ADC-4D38-A88B-EBE88E8EC051}" name="Table916" displayName="Table916" ref="B1:D25" totalsRowShown="0" headerRowDxfId="45" tableBorderDxfId="44" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
   <autoFilter ref="B1:D25" xr:uid="{BAD2131D-41B2-42EA-A67B-FBB781AD12E7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D25">
@@ -5168,7 +5205,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DA456747-D398-4471-8B86-AB700DA339AD}" name="Table91629" displayName="Table91629" ref="B28:D38" totalsRowShown="0" headerRowDxfId="39" tableBorderDxfId="38" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
   <autoFilter ref="B28:D38" xr:uid="{DA456747-D398-4471-8B86-AB700DA339AD}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B29:D38">
@@ -5183,7 +5220,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{5A485C34-0DBE-4411-B49C-86BFD99B3F62}" name="Table913" displayName="Table913" ref="B1:D44" totalsRowShown="0" headerRowDxfId="33" tableBorderDxfId="32" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
   <autoFilter ref="B1:D44" xr:uid="{BAD2131D-41B2-42EA-A67B-FBB781AD12E7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D44">
@@ -5198,7 +5235,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{0A9E0A99-CDD4-4F70-BA5B-784249346C24}" name="Table91317" displayName="Table91317" ref="B1:D75" totalsRowShown="0" headerRowDxfId="27" tableBorderDxfId="26" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
   <autoFilter ref="B1:D75" xr:uid="{BAD2131D-41B2-42EA-A67B-FBB781AD12E7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D75">
@@ -5213,7 +5250,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{80146AFF-010D-476D-80AD-DFB7130CCD89}" name="Table9131718" displayName="Table9131718" ref="B1:D44" totalsRowShown="0" headerRowDxfId="21" tableBorderDxfId="20" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
   <autoFilter ref="B1:D44" xr:uid="{BAD2131D-41B2-42EA-A67B-FBB781AD12E7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D44">
@@ -5223,21 +5260,6 @@
     <tableColumn id="1" xr3:uid="{3C370705-9D71-4B07-907E-72DEACEAFBA2}" name="Part name" totalsRowDxfId="19" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
     <tableColumn id="7" xr3:uid="{D11DB86B-2519-40CE-A3B1-2DFF1E8D8BAF}" name="Description" totalsRowDxfId="18" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
     <tableColumn id="2" xr3:uid="{030B0BC7-E7B6-43C0-9200-DE84B404D5FA}" name="BOM Quantity" dataDxfId="16" totalsRowDxfId="17" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{AC31348F-CB75-44A7-A48C-4BBEA19837B3}" name="Table913171819" displayName="Table913171819" ref="B1:D18" totalsRowShown="0" headerRowDxfId="15" tableBorderDxfId="14" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
-  <autoFilter ref="B1:D18" xr:uid="{BAD2131D-41B2-42EA-A67B-FBB781AD12E7}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D18">
-    <sortCondition ref="B1:B18"/>
-  </sortState>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D7153C23-8479-4254-BF69-2A4089CB71C0}" name="Part name" totalsRowDxfId="13" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="7" xr3:uid="{5CF4E952-095C-46AE-A57F-99A26E57C478}" name="Description" totalsRowDxfId="12" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{8AE4D1C0-7F70-4D1E-B6EC-42038CE642DF}" name="BOM Quantity" dataDxfId="10" totalsRowDxfId="11" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5445,10 +5467,10 @@
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L146"/>
+  <dimension ref="A1:O146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F130" sqref="F130"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O95" sqref="O95:O96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -5465,11 +5487,13 @@
     <col min="10" max="10" width="6.140625" style="14" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="7" style="34" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="6.7109375" style="14" hidden="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.7109375" style="14"/>
+    <col min="13" max="14" width="8.7109375" style="14"/>
+    <col min="15" max="15" width="11.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.7109375" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A1" s="206" t="s">
+      <c r="A1" s="203" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="119" t="s">
@@ -8149,7 +8173,7 @@
       </c>
       <c r="L80" s="79"/>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:15">
       <c r="A81" s="19" t="s">
         <v>147</v>
       </c>
@@ -8182,7 +8206,7 @@
       <c r="K81" s="14"/>
       <c r="L81" s="79"/>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:15">
       <c r="A82" s="35" t="s">
         <v>147</v>
       </c>
@@ -8218,7 +8242,7 @@
         <v>10642</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:15">
       <c r="A83" s="35" t="s">
         <v>147</v>
       </c>
@@ -8253,7 +8277,7 @@
       </c>
       <c r="L83" s="82"/>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:15">
       <c r="A84" s="35" t="s">
         <v>147</v>
       </c>
@@ -8288,7 +8312,7 @@
       </c>
       <c r="L84" s="82"/>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:15">
       <c r="A85" s="35" t="s">
         <v>147</v>
       </c>
@@ -8325,7 +8349,7 @@
         <v>10642</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:15">
       <c r="A86" s="35" t="s">
         <v>147</v>
       </c>
@@ -8357,7 +8381,7 @@
       <c r="K86" s="14"/>
       <c r="L86" s="79"/>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:15">
       <c r="A87" s="35" t="s">
         <v>147</v>
       </c>
@@ -8392,7 +8416,7 @@
       </c>
       <c r="L87" s="82"/>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:15">
       <c r="A88" s="35" t="s">
         <v>147</v>
       </c>
@@ -8424,7 +8448,7 @@
       <c r="K88" s="80"/>
       <c r="L88" s="82"/>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:15">
       <c r="A89" s="35" t="s">
         <v>147</v>
       </c>
@@ -8460,7 +8484,7 @@
         <v>10511</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:15">
       <c r="A90" s="35" t="s">
         <v>147</v>
       </c>
@@ -8495,7 +8519,7 @@
       </c>
       <c r="L90" s="79"/>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:15">
       <c r="A91" s="35" t="s">
         <v>147</v>
       </c>
@@ -8530,7 +8554,7 @@
         <v>7380</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:15">
       <c r="A92" s="35" t="s">
         <v>147</v>
       </c>
@@ -8565,7 +8589,7 @@
         <v>7380</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:15">
       <c r="A93" s="35" t="s">
         <v>147</v>
       </c>
@@ -8602,7 +8626,7 @@
         <v>7380</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:15">
       <c r="A94" s="35" t="s">
         <v>147</v>
       </c>
@@ -8637,7 +8661,7 @@
       </c>
       <c r="L94" s="79"/>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:15">
       <c r="A95" s="35" t="s">
         <v>147</v>
       </c>
@@ -8671,13 +8695,16 @@
       <c r="L95" s="79">
         <v>7380</v>
       </c>
-    </row>
-    <row r="96" spans="1:12">
+      <c r="O95" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
       <c r="A96" s="35" t="s">
         <v>147</v>
       </c>
       <c r="B96" s="145" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C96" s="127"/>
       <c r="D96" s="84">
@@ -8694,7 +8721,7 @@
         <v>2.92</v>
       </c>
       <c r="H96" s="107" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I96" s="112" t="s">
         <v>150</v>
@@ -8712,7 +8739,7 @@
         <v>147</v>
       </c>
       <c r="B97" s="84" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C97" s="127"/>
       <c r="D97" s="84">
@@ -8729,7 +8756,7 @@
         <v>16.05</v>
       </c>
       <c r="H97" s="107" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I97" s="112" t="s">
         <v>150</v>
@@ -8747,7 +8774,7 @@
         <v>147</v>
       </c>
       <c r="B98" s="84" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C98" s="127"/>
       <c r="D98" s="84">
@@ -8764,7 +8791,7 @@
         <v>7.14</v>
       </c>
       <c r="H98" s="107" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I98" s="112" t="s">
         <v>150</v>
@@ -8782,7 +8809,7 @@
         <v>147</v>
       </c>
       <c r="B99" s="95" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C99" s="123"/>
       <c r="D99" s="14">
@@ -8799,7 +8826,7 @@
         <v>7.77</v>
       </c>
       <c r="H99" s="107" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I99" s="112" t="s">
         <v>150</v>
@@ -8814,10 +8841,10 @@
     </row>
     <row r="100" spans="1:12">
       <c r="A100" s="19" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C100" s="123"/>
       <c r="D100" s="84">
@@ -8834,10 +8861,10 @@
         <v>18.79</v>
       </c>
       <c r="H100" s="104" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I100" s="120" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J100" s="31">
         <v>1</v>
@@ -8847,10 +8874,10 @@
     </row>
     <row r="101" spans="1:12">
       <c r="A101" s="19" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C101" s="123"/>
       <c r="D101" s="80">
@@ -8867,10 +8894,10 @@
         <v>4</v>
       </c>
       <c r="H101" s="104" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I101" s="120" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J101" s="31">
         <v>1</v>
@@ -8880,10 +8907,10 @@
     </row>
     <row r="102" spans="1:12">
       <c r="A102" s="19" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B102" s="87" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C102" s="123"/>
       <c r="D102" s="80">
@@ -8900,10 +8927,10 @@
         <v>48</v>
       </c>
       <c r="H102" s="104" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I102" s="120" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J102" s="31">
         <v>1</v>
@@ -8913,10 +8940,10 @@
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="19" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B103" s="84" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C103" s="127"/>
       <c r="D103" s="80">
@@ -8933,10 +8960,10 @@
         <v>12</v>
       </c>
       <c r="H103" s="104" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I103" s="120" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J103" s="31">
         <v>10</v>
@@ -8946,10 +8973,10 @@
     </row>
     <row r="104" spans="1:12">
       <c r="A104" s="19" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B104" s="88" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C104" s="123"/>
       <c r="D104" s="84">
@@ -8966,10 +8993,10 @@
         <v>25</v>
       </c>
       <c r="H104" s="104" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I104" s="120" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J104" s="31">
         <v>5</v>
@@ -8979,13 +9006,13 @@
     </row>
     <row r="105" spans="1:12">
       <c r="A105" s="19" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C105" s="124" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D105" s="80">
         <v>28</v>
@@ -9001,10 +9028,10 @@
         <v>60</v>
       </c>
       <c r="H105" s="105" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I105" s="120" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J105" s="31"/>
       <c r="K105" s="14"/>
@@ -9012,10 +9039,10 @@
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="19" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C106" s="131"/>
       <c r="D106" s="80">
@@ -9032,10 +9059,10 @@
         <v>9</v>
       </c>
       <c r="H106" s="104" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I106" s="120" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J106" s="31">
         <v>10</v>
@@ -9045,10 +9072,10 @@
     </row>
     <row r="107" spans="1:12">
       <c r="A107" s="19" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B107" s="14" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D107" s="80">
         <v>6</v>
@@ -9064,10 +9091,10 @@
         <v>10.23</v>
       </c>
       <c r="H107" s="104" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I107" s="109" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="J107" s="31">
         <v>6</v>
@@ -9077,10 +9104,10 @@
     </row>
     <row r="108" spans="1:12">
       <c r="A108" s="19" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B108" s="14" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D108" s="80">
         <v>6</v>
@@ -9096,7 +9123,7 @@
         <v>4.08</v>
       </c>
       <c r="H108" s="105" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I108" s="120" t="s">
         <v>150</v>
@@ -9109,10 +9136,10 @@
     </row>
     <row r="109" spans="1:12">
       <c r="A109" s="35" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B109" s="90" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C109" s="132"/>
       <c r="D109" s="91">
@@ -9129,10 +9156,10 @@
         <v>13.379999999999999</v>
       </c>
       <c r="H109" s="104" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I109" s="109" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J109" s="31">
         <v>1</v>
@@ -9142,10 +9169,10 @@
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="35" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B110" s="64" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C110" s="131"/>
       <c r="D110" s="76">
@@ -9162,10 +9189,10 @@
         <v>12.69</v>
       </c>
       <c r="H110" s="104" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I110" s="109" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J110" s="31">
         <v>1</v>
@@ -9175,10 +9202,10 @@
     </row>
     <row r="111" spans="1:12">
       <c r="A111" s="19" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B111" s="148" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C111" s="133"/>
       <c r="D111" s="91">
@@ -9195,10 +9222,10 @@
         <v>13.87</v>
       </c>
       <c r="H111" s="103" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I111" s="120" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J111" s="31">
         <v>1</v>
@@ -9208,10 +9235,10 @@
     </row>
     <row r="112" spans="1:12">
       <c r="A112" s="19" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B112" s="148" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C112" s="133"/>
       <c r="D112" s="91">
@@ -9228,10 +9255,10 @@
         <v>30.61</v>
       </c>
       <c r="H112" s="103" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I112" s="120" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J112" s="31">
         <v>1</v>
@@ -9241,10 +9268,10 @@
     </row>
     <row r="113" spans="1:12">
       <c r="A113" s="35" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B113" s="146" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C113" s="123"/>
       <c r="D113" s="92">
@@ -9261,10 +9288,10 @@
         <v>3.49</v>
       </c>
       <c r="H113" s="104" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I113" s="120" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J113" s="31">
         <v>5</v>
@@ -9274,10 +9301,10 @@
     </row>
     <row r="114" spans="1:12">
       <c r="A114" s="35" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B114" s="90" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C114" s="132"/>
       <c r="D114" s="91">
@@ -9294,10 +9321,10 @@
         <v>44</v>
       </c>
       <c r="H114" s="103" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I114" s="120" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J114" s="31">
         <v>1</v>
@@ -9307,10 +9334,10 @@
     </row>
     <row r="115" spans="1:12">
       <c r="A115" s="35" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B115" s="148" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C115" s="133"/>
       <c r="D115" s="91">
@@ -9327,10 +9354,10 @@
         <v>30</v>
       </c>
       <c r="H115" s="103" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I115" s="120" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J115" s="31">
         <v>1</v>
@@ -9340,10 +9367,10 @@
     </row>
     <row r="116" spans="1:12">
       <c r="A116" s="35" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B116" s="90" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C116" s="132"/>
       <c r="D116" s="91">
@@ -9360,10 +9387,10 @@
         <v>9.42</v>
       </c>
       <c r="H116" s="103" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I116" s="120" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="J116" s="31">
         <v>5</v>
@@ -9373,10 +9400,10 @@
     </row>
     <row r="117" spans="1:12">
       <c r="A117" s="35" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B117" s="156" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C117" s="134">
         <v>230</v>
@@ -9395,10 +9422,10 @@
         <v>8</v>
       </c>
       <c r="H117" s="105" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I117" s="149" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J117" s="31">
         <v>1</v>
@@ -9408,10 +9435,10 @@
     </row>
     <row r="118" spans="1:12">
       <c r="A118" s="35" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C118" s="123"/>
       <c r="D118" s="94">
@@ -9428,7 +9455,7 @@
         <v>14.96</v>
       </c>
       <c r="H118" s="105" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I118" s="120" t="s">
         <v>162</v>
@@ -9441,10 +9468,10 @@
     </row>
     <row r="119" spans="1:12" s="16" customFormat="1" ht="15.75">
       <c r="A119" s="19" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C119" s="135">
         <v>420</v>
@@ -9463,10 +9490,10 @@
         <v>12</v>
       </c>
       <c r="H119" s="105" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I119" s="120" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="J119" s="31">
         <v>1</v>
@@ -9476,10 +9503,10 @@
     </row>
     <row r="120" spans="1:12" s="16" customFormat="1" ht="15.75">
       <c r="A120" s="19" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C120" s="135">
         <v>368</v>
@@ -9498,10 +9525,10 @@
         <v>11</v>
       </c>
       <c r="H120" s="105" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I120" s="120" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="J120" s="31">
         <v>1</v>
@@ -9511,10 +9538,10 @@
     </row>
     <row r="121" spans="1:12" s="16" customFormat="1" ht="15.75">
       <c r="A121" s="19" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C121" s="135">
         <v>172</v>
@@ -9533,10 +9560,10 @@
         <v>9</v>
       </c>
       <c r="H121" s="105" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I121" s="120" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="J121" s="31">
         <v>1</v>
@@ -9546,10 +9573,10 @@
     </row>
     <row r="122" spans="1:12" s="16" customFormat="1" ht="15.75">
       <c r="A122" s="35" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C122" s="123"/>
       <c r="D122" s="76">
@@ -9566,10 +9593,10 @@
         <v>21.96</v>
       </c>
       <c r="H122" s="105" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I122" s="120" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J122" s="31">
         <v>10</v>
@@ -9579,10 +9606,10 @@
     </row>
     <row r="123" spans="1:12" s="16" customFormat="1" ht="15.75">
       <c r="A123" s="19" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C123" s="135">
         <v>420</v>
@@ -9601,10 +9628,10 @@
         <v>60</v>
       </c>
       <c r="H123" s="105" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I123" s="120" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="J123" s="31">
         <v>1</v>
@@ -9614,10 +9641,10 @@
     </row>
     <row r="124" spans="1:12" s="16" customFormat="1" ht="15.75">
       <c r="A124" s="19" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C124" s="135">
         <v>480</v>
@@ -9636,10 +9663,10 @@
         <v>64</v>
       </c>
       <c r="H124" s="105" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I124" s="120" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="J124" s="31">
         <v>1</v>
@@ -9649,10 +9676,10 @@
     </row>
     <row r="125" spans="1:12" s="16" customFormat="1" ht="15.75">
       <c r="A125" s="19" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C125" s="135">
         <v>750</v>
@@ -9671,10 +9698,10 @@
         <v>160</v>
       </c>
       <c r="H125" s="105" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I125" s="120" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="J125" s="31">
         <v>1</v>
@@ -9684,10 +9711,10 @@
     </row>
     <row r="126" spans="1:12" s="16" customFormat="1" ht="15.75">
       <c r="A126" s="35" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B126" s="145" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C126" s="127">
         <v>410</v>
@@ -9706,10 +9733,10 @@
         <v>4.07</v>
       </c>
       <c r="H126" s="105" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I126" s="149" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J126" s="31">
         <v>1</v>
@@ -9719,10 +9746,10 @@
     </row>
     <row r="127" spans="1:12" s="16" customFormat="1" ht="15.75">
       <c r="A127" s="19" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C127" s="123">
         <v>286</v>
@@ -9741,10 +9768,10 @@
         <v>18</v>
       </c>
       <c r="H127" s="104" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I127" s="120" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="J127" s="31">
         <v>2</v>
@@ -9754,13 +9781,13 @@
     </row>
     <row r="128" spans="1:12" s="16" customFormat="1" ht="15.75">
       <c r="A128" s="19" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B128" s="47" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C128" s="122" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D128" s="64">
         <v>1</v>
@@ -9768,7 +9795,7 @@
       <c r="E128" s="77">
         <v>1</v>
       </c>
-      <c r="F128" s="209">
+      <c r="F128" s="206">
         <v>100</v>
       </c>
       <c r="G128" s="78">
@@ -9776,10 +9803,10 @@
         <v>100</v>
       </c>
       <c r="H128" s="106" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I128" s="120" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="J128" s="31">
         <v>1</v>
@@ -9789,13 +9816,13 @@
     </row>
     <row r="129" spans="1:12" s="16" customFormat="1" ht="15.75">
       <c r="A129" s="19" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B129" s="30" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C129" s="121" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D129" s="17">
         <v>2</v>
@@ -9811,10 +9838,10 @@
         <v>19.440000000000001</v>
       </c>
       <c r="H129" s="103" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I129" s="149" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J129" s="31">
         <v>1</v>
@@ -9824,10 +9851,10 @@
     </row>
     <row r="130" spans="1:12" s="16" customFormat="1" ht="15.75">
       <c r="A130" s="19" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B130" s="15" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C130" s="126"/>
       <c r="D130" s="80">
@@ -9844,7 +9871,7 @@
         <v>2.84</v>
       </c>
       <c r="H130" s="103" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I130" s="109" t="s">
         <v>150</v>
@@ -9857,10 +9884,10 @@
     </row>
     <row r="131" spans="1:12" s="16" customFormat="1" ht="15.75">
       <c r="A131" s="19" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B131" s="145" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C131" s="127"/>
       <c r="D131" s="80">
@@ -9877,10 +9904,10 @@
         <v>10.36</v>
       </c>
       <c r="H131" s="104" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I131" s="120" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="J131" s="31">
         <v>20</v>
@@ -9890,10 +9917,10 @@
     </row>
     <row r="132" spans="1:12" s="16" customFormat="1" ht="15.75">
       <c r="A132" s="35" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B132" s="145" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C132" s="123"/>
       <c r="D132" s="80">
@@ -9910,10 +9937,10 @@
         <v>11.78</v>
       </c>
       <c r="H132" s="104" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I132" s="120" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="J132" s="31">
         <v>20</v>
@@ -9923,10 +9950,10 @@
     </row>
     <row r="133" spans="1:12" s="16" customFormat="1" ht="15.75">
       <c r="A133" s="19" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B133" s="145" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C133" s="127"/>
       <c r="D133" s="80">
@@ -9943,10 +9970,10 @@
         <v>10.08</v>
       </c>
       <c r="H133" s="104" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I133" s="120" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="J133" s="31">
         <v>20</v>
@@ -9956,10 +9983,10 @@
     </row>
     <row r="134" spans="1:12" s="16" customFormat="1" ht="15.75">
       <c r="A134" s="19" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B134" s="145" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C134" s="127"/>
       <c r="D134" s="80">
@@ -9976,10 +10003,10 @@
         <v>12.42</v>
       </c>
       <c r="H134" s="104" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I134" s="120" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="J134" s="31">
         <v>20</v>
@@ -9989,10 +10016,10 @@
     </row>
     <row r="135" spans="1:12" s="16" customFormat="1" ht="15.75">
       <c r="A135" s="19" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B135" s="15" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C135" s="124">
         <v>400</v>
@@ -10011,10 +10038,10 @@
         <v>5.92</v>
       </c>
       <c r="H135" s="104" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I135" s="120" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J135" s="31">
         <v>1</v>
@@ -10024,10 +10051,10 @@
     </row>
     <row r="136" spans="1:12" s="16" customFormat="1" ht="15.75">
       <c r="A136" s="19" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B136" s="15" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C136" s="123"/>
       <c r="D136" s="80">
@@ -10044,10 +10071,10 @@
         <v>12.84</v>
       </c>
       <c r="H136" s="104" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I136" s="117" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="J136" s="31">
         <v>10</v>
@@ -10057,10 +10084,10 @@
     </row>
     <row r="137" spans="1:12" s="16" customFormat="1" ht="15.75">
       <c r="A137" s="157" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B137" s="94" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C137" s="137"/>
       <c r="D137" s="96">
@@ -10077,10 +10104,10 @@
         <v>68</v>
       </c>
       <c r="H137" s="104" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="I137" s="158" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="J137" s="159">
         <v>1</v>
@@ -10090,10 +10117,10 @@
     </row>
     <row r="138" spans="1:12" s="16" customFormat="1" ht="15.75">
       <c r="A138" s="19" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B138" s="146" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C138" s="131"/>
       <c r="D138" s="76">
@@ -10110,10 +10137,10 @@
         <v>35.42</v>
       </c>
       <c r="H138" s="104" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="I138" s="120" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="J138" s="31">
         <v>1</v>
@@ -10123,10 +10150,10 @@
     </row>
     <row r="139" spans="1:12" s="16" customFormat="1" ht="15.75">
       <c r="A139" s="19" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C139" s="138"/>
       <c r="D139" s="17">
@@ -10143,7 +10170,7 @@
         <v>18</v>
       </c>
       <c r="H139" s="104" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I139" s="120" t="s">
         <v>28</v>
@@ -10156,10 +10183,10 @@
     </row>
     <row r="140" spans="1:12" s="16" customFormat="1" ht="15.75">
       <c r="A140" s="19" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B140" s="15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C140" s="123"/>
       <c r="D140" s="76">
@@ -10176,10 +10203,10 @@
         <v>48</v>
       </c>
       <c r="H140" s="104" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="I140" s="120" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="J140" s="31">
         <v>1</v>
@@ -10189,10 +10216,10 @@
     </row>
     <row r="141" spans="1:12" s="16" customFormat="1" ht="15.75">
       <c r="A141" s="19" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B141" s="73" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C141" s="123"/>
       <c r="D141" s="76">
@@ -10209,7 +10236,7 @@
         <v>1.48</v>
       </c>
       <c r="H141" s="104" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I141" s="120" t="s">
         <v>28</v>
@@ -10222,10 +10249,10 @@
     </row>
     <row r="142" spans="1:12" s="16" customFormat="1" ht="15.75">
       <c r="A142" s="19" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B142" s="74" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C142" s="123"/>
       <c r="D142" s="76">
@@ -10242,7 +10269,7 @@
         <v>2.17</v>
       </c>
       <c r="H142" s="104" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I142" s="120" t="s">
         <v>28</v>
@@ -10255,10 +10282,10 @@
     </row>
     <row r="143" spans="1:12" s="16" customFormat="1" ht="15.75">
       <c r="A143" s="19" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B143" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C143" s="123"/>
       <c r="D143" s="76">
@@ -10275,7 +10302,7 @@
         <v>10.62</v>
       </c>
       <c r="H143" s="104" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I143" s="114" t="s">
         <v>28</v>
@@ -10288,10 +10315,10 @@
     </row>
     <row r="144" spans="1:12" s="16" customFormat="1" ht="15.75">
       <c r="A144" s="19" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C144" s="123"/>
       <c r="D144" s="76">
@@ -10308,10 +10335,10 @@
         <v>10</v>
       </c>
       <c r="H144" s="104" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I144" s="113" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="J144" s="31">
         <v>5</v>
@@ -10322,7 +10349,7 @@
     <row r="145" spans="1:12" ht="16.5" thickBot="1">
       <c r="A145" s="36"/>
       <c r="B145" s="37" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C145" s="139"/>
       <c r="D145" s="37"/>
@@ -10333,7 +10360,7 @@
         <v>2339.0300000000011</v>
       </c>
       <c r="H145" s="108" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="I145" s="118"/>
       <c r="J145" s="100"/>
@@ -10504,8 +10531,9 @@
     <brk id="57" max="16383" man="1"/>
     <brk id="123" max="16383" man="1"/>
   </rowBreaks>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId148"/>
+    <tablePart r:id="rId149"/>
   </tableParts>
 </worksheet>
 </file>
@@ -10531,32 +10559,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
-      <c r="B1" s="203" t="s">
-        <v>614</v>
-      </c>
-      <c r="C1" s="204"/>
-      <c r="D1" s="204"/>
-      <c r="E1" s="205"/>
+      <c r="B1" s="207" t="s">
+        <v>615</v>
+      </c>
+      <c r="C1" s="208"/>
+      <c r="D1" s="208"/>
+      <c r="E1" s="209"/>
       <c r="F1" s="44"/>
     </row>
     <row r="2" spans="2:6">
       <c r="B2" s="42" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E2" s="172" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F2" s="44"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="42" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C3" s="44"/>
       <c r="E3" s="41"/>
@@ -10567,13 +10595,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E4" s="172" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F4" s="44"/>
     </row>
@@ -10582,13 +10610,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E5" s="172" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F5" s="44"/>
     </row>
@@ -10597,13 +10625,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E6" s="172" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="F6" s="44"/>
     </row>
@@ -10612,7 +10640,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="172"/>
@@ -10634,7 +10662,7 @@
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="42" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C10" s="44"/>
       <c r="D10" s="6"/>
@@ -10647,10 +10675,10 @@
       </c>
       <c r="C11" s="44"/>
       <c r="D11" s="6" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="E11" s="172" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F11" s="44"/>
     </row>
@@ -10660,10 +10688,10 @@
       </c>
       <c r="C12" s="44"/>
       <c r="D12" s="6" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="E12" s="172" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F12" s="44"/>
     </row>
@@ -10673,10 +10701,10 @@
       </c>
       <c r="C13" s="44"/>
       <c r="D13" s="6" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E13" s="172" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="F13" s="44"/>
     </row>
@@ -10686,10 +10714,10 @@
       </c>
       <c r="C14" s="44"/>
       <c r="D14" s="6" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E14" s="172" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="F14" s="44"/>
     </row>
@@ -10699,10 +10727,10 @@
       </c>
       <c r="C15" s="44"/>
       <c r="D15" s="6" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="E15" s="172" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F15" s="44"/>
     </row>
@@ -10712,10 +10740,10 @@
       </c>
       <c r="C16" s="44"/>
       <c r="D16" s="6" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="E16" s="172" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F16" s="44"/>
     </row>
@@ -10726,7 +10754,7 @@
       <c r="C17" s="44"/>
       <c r="D17" s="6"/>
       <c r="E17" s="43" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F17" s="44"/>
     </row>
@@ -10737,7 +10765,7 @@
       <c r="C18" s="44"/>
       <c r="D18" s="6"/>
       <c r="E18" s="43" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F18" s="44"/>
     </row>
@@ -10747,10 +10775,10 @@
       </c>
       <c r="C19" s="44"/>
       <c r="D19" s="6" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E19" s="172" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="F19" s="44"/>
     </row>
@@ -10760,10 +10788,10 @@
       </c>
       <c r="C20" s="44"/>
       <c r="D20" s="6" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E20" s="172" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="F20" s="44"/>
     </row>
@@ -10776,13 +10804,13 @@
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="42" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C22" s="44" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E22" s="172"/>
       <c r="F22" s="44"/>
@@ -10792,13 +10820,13 @@
         <v>1</v>
       </c>
       <c r="C23" s="44" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E23" s="172" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F23" s="44"/>
     </row>
@@ -10807,13 +10835,13 @@
         <v>2</v>
       </c>
       <c r="C24" s="44" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E24" s="172" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F24" s="44"/>
     </row>
@@ -10822,13 +10850,13 @@
         <v>3</v>
       </c>
       <c r="C25" s="44" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E25" s="172" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F25" s="44"/>
     </row>
@@ -10837,7 +10865,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="174" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D26" s="175"/>
       <c r="E26" s="176"/>
@@ -10899,183 +10927,183 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75">
       <c r="A1" s="5" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.25" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B3" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>654</v>
+      </c>
+      <c r="B4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>653</v>
-      </c>
-      <c r="B4" t="s">
-        <v>651</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B5" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D5" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B6" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D6" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B8" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="7" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="7" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>673</v>
+      </c>
+      <c r="B13" t="s">
+        <v>656</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>672</v>
-      </c>
-      <c r="B13" t="s">
-        <v>655</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="7" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="6" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B15" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="6" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B17" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
   </sheetData>
@@ -11088,7 +11116,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11102,92 +11130,92 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C3" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" customHeight="1">
       <c r="A6" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C12" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
   </sheetData>
@@ -11222,28 +11250,28 @@
     <row r="1" spans="1:10" s="2" customFormat="1" ht="30">
       <c r="A1" s="55"/>
       <c r="B1" s="21" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C1" s="143" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D1" s="143" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="143" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F1" s="177"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="56" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D2" s="161">
         <v>420</v>
@@ -11252,7 +11280,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="178" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G2" s="166"/>
       <c r="H2" s="166"/>
@@ -11261,13 +11289,13 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="53" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D3" s="161">
         <v>368</v>
@@ -11276,7 +11304,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="179" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G3" s="166"/>
       <c r="H3" s="166"/>
@@ -11285,13 +11313,13 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="53" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D4" s="161">
         <v>172</v>
@@ -11300,7 +11328,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="179" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G4" s="166"/>
       <c r="H4" s="166"/>
@@ -11309,13 +11337,13 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="53" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D5" s="161">
         <v>420</v>
@@ -11324,7 +11352,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="179" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G5" s="166"/>
       <c r="H5" s="166"/>
@@ -11334,10 +11362,10 @@
     <row r="6" spans="1:10">
       <c r="A6" s="27"/>
       <c r="B6" s="22" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D6" s="161">
         <v>480</v>
@@ -11354,10 +11382,10 @@
     <row r="7" spans="1:10">
       <c r="A7" s="27"/>
       <c r="B7" s="22" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D7" s="161">
         <v>750</v>
@@ -11374,10 +11402,10 @@
     <row r="8" spans="1:10">
       <c r="A8" s="27"/>
       <c r="B8" s="22" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D8" s="161"/>
       <c r="E8" s="1">
@@ -11392,10 +11420,10 @@
     <row r="9" spans="1:10">
       <c r="A9" s="27"/>
       <c r="B9" s="22" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D9" s="161"/>
       <c r="E9" s="1">
@@ -11410,7 +11438,7 @@
     <row r="10" spans="1:10">
       <c r="A10" s="27"/>
       <c r="B10" s="22" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C10" s="61" t="s">
         <v>147</v>
@@ -11445,10 +11473,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="53" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C12" s="61" t="s">
         <v>147</v>
@@ -11457,7 +11485,7 @@
       <c r="E12" s="182">
         <v>78</v>
       </c>
-      <c r="F12" s="207"/>
+      <c r="F12" s="204"/>
       <c r="G12" s="166"/>
       <c r="H12" s="166"/>
       <c r="I12" s="166"/>
@@ -11502,7 +11530,7 @@
     <row r="15" spans="1:10">
       <c r="A15" s="27"/>
       <c r="B15" s="22" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C15" s="61" t="s">
         <v>147</v>
@@ -11518,14 +11546,14 @@
       <c r="J15" s="166"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="208" t="s">
-        <v>385</v>
+      <c r="A16" s="205" t="s">
+        <v>386</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C16" s="198" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D16" s="161"/>
       <c r="E16" s="1">
@@ -11540,10 +11568,10 @@
     <row r="17" spans="1:7">
       <c r="A17" s="27"/>
       <c r="B17" s="22" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C17" s="183" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D17" s="161"/>
       <c r="E17" s="1">
@@ -11555,10 +11583,10 @@
     <row r="18" spans="1:7">
       <c r="A18" s="27"/>
       <c r="B18" s="22" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D18" s="161"/>
       <c r="E18" s="1">
@@ -11570,10 +11598,10 @@
     <row r="19" spans="1:7">
       <c r="A19" s="65"/>
       <c r="B19" s="45" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D19" s="162"/>
       <c r="E19" s="46">
@@ -11637,19 +11665,19 @@
     <row r="1" spans="1:5" ht="30" customHeight="1">
       <c r="A1" s="55"/>
       <c r="B1" s="70" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C1" s="143" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D1" s="143" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E1" s="184"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="56" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B2" s="185" t="s">
         <v>16</v>
@@ -11659,12 +11687,12 @@
         <v>2</v>
       </c>
       <c r="E2" s="188" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="53" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B3" s="185" t="s">
         <v>154</v>
@@ -11674,12 +11702,12 @@
         <v>36</v>
       </c>
       <c r="E3" s="189" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="53" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B4" s="185" t="s">
         <v>19</v>
@@ -11689,28 +11717,28 @@
         <v>24</v>
       </c>
       <c r="E4" s="189" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="53" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B5" s="185" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C5" s="186"/>
       <c r="D5" s="187">
         <v>4</v>
       </c>
       <c r="E5" s="189" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="27"/>
       <c r="B6" s="185" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C6" s="186"/>
       <c r="D6" s="187">
@@ -11721,7 +11749,7 @@
     <row r="7" spans="1:5">
       <c r="A7" s="27"/>
       <c r="B7" s="185" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C7" s="186"/>
       <c r="D7" s="187">
@@ -11732,7 +11760,7 @@
     <row r="8" spans="1:5">
       <c r="A8" s="27"/>
       <c r="B8" s="191" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C8" s="191"/>
       <c r="D8" s="187">
@@ -11743,7 +11771,7 @@
     <row r="9" spans="1:5">
       <c r="A9" s="27"/>
       <c r="B9" s="192" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C9" s="192"/>
       <c r="D9" s="187">
@@ -11754,7 +11782,7 @@
     <row r="10" spans="1:5">
       <c r="A10" s="27"/>
       <c r="B10" s="193" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C10" s="186"/>
       <c r="D10" s="187">
@@ -11765,7 +11793,7 @@
     <row r="11" spans="1:5">
       <c r="A11" s="27"/>
       <c r="B11" s="185" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C11" s="186"/>
       <c r="D11" s="187">
@@ -11775,17 +11803,17 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="53" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B12" s="185" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C12" s="186"/>
       <c r="D12" s="187">
         <v>8</v>
       </c>
       <c r="E12" s="197" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -11824,7 +11852,7 @@
     <row r="16" spans="1:5">
       <c r="A16" s="27"/>
       <c r="B16" s="193" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C16" s="186"/>
       <c r="D16" s="187">
@@ -11835,7 +11863,7 @@
     <row r="17" spans="1:5">
       <c r="A17" s="27"/>
       <c r="B17" s="193" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C17" s="186"/>
       <c r="D17" s="187">
@@ -11846,7 +11874,7 @@
     <row r="18" spans="1:5">
       <c r="A18" s="27"/>
       <c r="B18" s="193" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C18" s="186"/>
       <c r="D18" s="187">
@@ -11857,7 +11885,7 @@
     <row r="19" spans="1:5">
       <c r="A19" s="27"/>
       <c r="B19" s="193" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C19" s="186"/>
       <c r="D19" s="187">
@@ -11890,7 +11918,7 @@
     <row r="22" spans="1:5">
       <c r="A22" s="27"/>
       <c r="B22" s="193" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C22" s="186"/>
       <c r="D22" s="187">
@@ -11901,10 +11929,10 @@
     <row r="23" spans="1:5">
       <c r="A23" s="27"/>
       <c r="B23" s="185" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C23" s="194" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D23" s="187">
         <v>2</v>
@@ -11914,10 +11942,10 @@
     <row r="24" spans="1:5">
       <c r="A24" s="27"/>
       <c r="B24" s="185" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C24" s="194" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D24" s="187">
         <v>1</v>
@@ -11927,7 +11955,7 @@
     <row r="25" spans="1:5">
       <c r="A25" s="27"/>
       <c r="B25" s="185" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C25" s="186"/>
       <c r="D25" s="187">
@@ -11938,10 +11966,10 @@
     <row r="26" spans="1:5">
       <c r="A26" s="27"/>
       <c r="B26" s="193" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C26" s="183" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D26" s="187">
         <v>1</v>
@@ -11951,10 +11979,10 @@
     <row r="27" spans="1:5">
       <c r="A27" s="27"/>
       <c r="B27" s="193" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C27" s="185" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D27" s="187">
         <v>4</v>
@@ -11964,10 +11992,10 @@
     <row r="28" spans="1:5">
       <c r="A28" s="27"/>
       <c r="B28" s="193" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C28" s="185" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D28" s="187">
         <v>2</v>
@@ -11977,10 +12005,10 @@
     <row r="29" spans="1:5">
       <c r="A29" s="27"/>
       <c r="B29" s="193" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C29" s="185" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D29" s="187">
         <v>1</v>
@@ -11990,10 +12018,10 @@
     <row r="30" spans="1:5">
       <c r="A30" s="27"/>
       <c r="B30" s="193" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C30" s="185" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D30" s="187">
         <v>1</v>
@@ -12003,10 +12031,10 @@
     <row r="31" spans="1:5">
       <c r="A31" s="27"/>
       <c r="B31" s="193" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C31" s="185" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D31" s="187">
         <v>2</v>
@@ -12016,10 +12044,10 @@
     <row r="32" spans="1:5">
       <c r="A32" s="27"/>
       <c r="B32" s="193" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C32" s="185" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D32" s="187">
         <v>1</v>
@@ -12029,10 +12057,10 @@
     <row r="33" spans="1:5">
       <c r="A33" s="27"/>
       <c r="B33" s="193" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C33" s="185" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D33" s="187">
         <v>1</v>
@@ -12042,10 +12070,10 @@
     <row r="34" spans="1:5">
       <c r="A34" s="27"/>
       <c r="B34" s="193" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C34" s="185" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D34" s="187">
         <v>1</v>
@@ -12055,10 +12083,10 @@
     <row r="35" spans="1:5">
       <c r="A35" s="27"/>
       <c r="B35" s="193" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C35" s="185" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D35" s="187">
         <v>2</v>
@@ -12068,10 +12096,10 @@
     <row r="36" spans="1:5">
       <c r="A36" s="27"/>
       <c r="B36" s="193" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C36" s="185" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D36" s="187">
         <v>1</v>
@@ -12081,10 +12109,10 @@
     <row r="37" spans="1:5" ht="15.75" thickBot="1">
       <c r="A37" s="65"/>
       <c r="B37" s="54" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C37" s="163" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D37" s="66">
         <v>1</v>
@@ -12139,64 +12167,64 @@
     <row r="1" spans="1:5" ht="30" customHeight="1">
       <c r="A1" s="55"/>
       <c r="B1" s="70" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C1" s="143" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D1" s="143" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="56" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B2" s="61" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C2"/>
       <c r="D2" s="17">
         <v>1</v>
       </c>
       <c r="E2" s="57" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="53" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B3" s="146" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C3" s="146"/>
       <c r="D3" s="17">
         <v>1</v>
       </c>
       <c r="E3" s="58" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="53" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B4" s="146" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C4" s="146"/>
       <c r="D4" s="17">
         <v>1</v>
       </c>
       <c r="E4" s="58" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="53" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B5" t="s">
         <v>92</v>
@@ -12206,13 +12234,13 @@
         <v>1</v>
       </c>
       <c r="E5" s="58" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="27"/>
       <c r="B6" s="30" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C6"/>
       <c r="D6" s="17">
@@ -12223,7 +12251,7 @@
     <row r="7" spans="1:5">
       <c r="A7" s="27"/>
       <c r="B7" s="62" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C7"/>
       <c r="D7" s="17">
@@ -12234,7 +12262,7 @@
     <row r="8" spans="1:5">
       <c r="A8" s="27"/>
       <c r="B8" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C8" s="71"/>
       <c r="D8" s="17">
@@ -12245,7 +12273,7 @@
     <row r="9" spans="1:5">
       <c r="A9" s="27"/>
       <c r="B9" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C9"/>
       <c r="D9" s="17">
@@ -12256,7 +12284,7 @@
     <row r="10" spans="1:5">
       <c r="A10" s="27"/>
       <c r="B10" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="17">
@@ -12277,10 +12305,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="53" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="17">
@@ -12291,7 +12319,7 @@
     <row r="13" spans="1:5">
       <c r="A13" s="27"/>
       <c r="B13" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="17">
@@ -12302,7 +12330,7 @@
     <row r="14" spans="1:5">
       <c r="A14" s="27"/>
       <c r="B14" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="17">
@@ -12313,7 +12341,7 @@
     <row r="15" spans="1:5">
       <c r="A15" s="27"/>
       <c r="B15" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="17">
@@ -12324,7 +12352,7 @@
     <row r="16" spans="1:5">
       <c r="A16" s="27"/>
       <c r="B16" s="15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="17">
@@ -12335,7 +12363,7 @@
     <row r="17" spans="1:5">
       <c r="A17" s="27"/>
       <c r="B17" s="15" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="17">
@@ -12346,10 +12374,10 @@
     <row r="18" spans="1:5">
       <c r="A18" s="27"/>
       <c r="B18" s="164" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C18" s="72" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D18" s="60">
         <v>1</v>
@@ -12359,7 +12387,7 @@
     <row r="19" spans="1:5">
       <c r="A19" s="27"/>
       <c r="B19" s="73" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C19" s="73"/>
       <c r="D19" s="17">
@@ -12370,7 +12398,7 @@
     <row r="20" spans="1:5">
       <c r="A20" s="27"/>
       <c r="B20" s="165" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C20" s="165"/>
       <c r="D20" s="17">
@@ -12381,7 +12409,7 @@
     <row r="21" spans="1:5">
       <c r="A21" s="27"/>
       <c r="B21" s="71" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C21" s="71"/>
       <c r="D21" s="17">
@@ -12392,7 +12420,7 @@
     <row r="22" spans="1:5">
       <c r="A22" s="27"/>
       <c r="B22" s="165" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C22" s="165"/>
       <c r="D22" s="17">
@@ -12403,7 +12431,7 @@
     <row r="23" spans="1:5">
       <c r="A23" s="27"/>
       <c r="B23" s="71" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C23" s="71"/>
       <c r="D23" s="17">
@@ -12414,7 +12442,7 @@
     <row r="24" spans="1:5">
       <c r="A24" s="27"/>
       <c r="B24" s="74" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C24" s="74"/>
       <c r="D24" s="17">
@@ -12425,7 +12453,7 @@
     <row r="25" spans="1:5">
       <c r="A25" s="27"/>
       <c r="B25" s="71" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C25" s="71"/>
       <c r="D25" s="17">
@@ -12443,7 +12471,7 @@
     <row r="27" spans="1:5" ht="18.75">
       <c r="A27" s="27"/>
       <c r="B27" s="23" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C27" s="24"/>
       <c r="D27" s="48"/>
@@ -12452,20 +12480,20 @@
     <row r="28" spans="1:5" ht="30" customHeight="1">
       <c r="A28" s="27"/>
       <c r="B28" s="25" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C28" s="167" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D28" s="168" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E28" s="59"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="27"/>
       <c r="B29" s="22" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="49">
@@ -12476,7 +12504,7 @@
     <row r="30" spans="1:5">
       <c r="A30" s="27"/>
       <c r="B30" s="22" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C30"/>
       <c r="D30" s="49">
@@ -12487,7 +12515,7 @@
     <row r="31" spans="1:5">
       <c r="A31" s="27"/>
       <c r="B31" s="22" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="49">
@@ -12498,7 +12526,7 @@
     <row r="32" spans="1:5">
       <c r="A32" s="27"/>
       <c r="B32" s="26" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C32" s="71"/>
       <c r="D32" s="49">
@@ -12509,7 +12537,7 @@
     <row r="33" spans="1:5">
       <c r="A33" s="27"/>
       <c r="B33" s="19" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="49">
@@ -12520,7 +12548,7 @@
     <row r="34" spans="1:5">
       <c r="A34" s="27"/>
       <c r="B34" s="28" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C34" s="73"/>
       <c r="D34" s="49">
@@ -12531,7 +12559,7 @@
     <row r="35" spans="1:5">
       <c r="A35" s="27"/>
       <c r="B35" s="29" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C35" s="165"/>
       <c r="D35" s="49">
@@ -12542,7 +12570,7 @@
     <row r="36" spans="1:5">
       <c r="A36" s="27"/>
       <c r="B36" s="19" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C36" s="15"/>
       <c r="D36" s="49">
@@ -12553,7 +12581,7 @@
     <row r="37" spans="1:5">
       <c r="A37" s="27"/>
       <c r="B37" s="22" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="49">
@@ -12564,7 +12592,7 @@
     <row r="38" spans="1:5" ht="15.75" thickBot="1">
       <c r="A38" s="65"/>
       <c r="B38" s="45" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C38" s="46"/>
       <c r="D38" s="50">
@@ -12619,19 +12647,19 @@
     <row r="1" spans="1:5" ht="30" customHeight="1">
       <c r="A1" s="55"/>
       <c r="B1" s="12" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C1" s="167" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D1" s="167" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1">
       <c r="A2" s="56" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B2" s="30" t="s">
         <v>148</v>
@@ -12640,61 +12668,61 @@
         <v>12</v>
       </c>
       <c r="E2" s="57" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1">
       <c r="A3" s="53" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B3" s="61" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C3" s="61"/>
       <c r="D3" s="17">
         <v>12</v>
       </c>
       <c r="E3" s="58" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="53" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B4" s="61" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C4" s="61"/>
       <c r="D4" s="17">
         <v>3</v>
       </c>
       <c r="E4" s="58" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="53" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B5" s="61" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C5" s="61"/>
       <c r="D5" s="17">
         <v>6</v>
       </c>
       <c r="E5" s="58" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="27"/>
       <c r="B6" s="47" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C6" s="61" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D6" s="155">
         <v>1</v>
@@ -12704,10 +12732,10 @@
     <row r="7" spans="1:5">
       <c r="A7" s="27"/>
       <c r="B7" s="15" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C7" s="61" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D7" s="155">
         <v>28</v>
@@ -12717,7 +12745,7 @@
     <row r="8" spans="1:5">
       <c r="A8" s="27"/>
       <c r="B8" s="61" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C8" s="61"/>
       <c r="D8" s="17">
@@ -12728,7 +12756,7 @@
     <row r="9" spans="1:5">
       <c r="A9" s="27"/>
       <c r="B9" s="40" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D9" s="17">
         <v>3</v>
@@ -12738,7 +12766,7 @@
     <row r="10" spans="1:5">
       <c r="A10" s="27"/>
       <c r="B10" s="61" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C10" s="61"/>
       <c r="D10" s="155">
@@ -12749,7 +12777,7 @@
     <row r="11" spans="1:5">
       <c r="A11" s="27"/>
       <c r="B11" s="144" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C11" s="61"/>
       <c r="D11" s="17">
@@ -12759,10 +12787,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="53" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B12" s="61" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C12" s="61"/>
       <c r="D12" s="17">
@@ -12773,7 +12801,7 @@
     <row r="13" spans="1:5">
       <c r="A13" s="27"/>
       <c r="B13" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D13" s="17">
         <v>3</v>
@@ -12783,7 +12811,7 @@
     <row r="14" spans="1:5">
       <c r="A14" s="27"/>
       <c r="B14" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D14" s="17">
         <v>27</v>
@@ -12813,7 +12841,7 @@
     <row r="17" spans="1:5">
       <c r="A17" s="27"/>
       <c r="B17" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D17" s="17">
         <v>7</v>
@@ -12823,7 +12851,7 @@
     <row r="18" spans="1:5">
       <c r="A18" s="27"/>
       <c r="B18" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D18" s="17">
         <v>3</v>
@@ -12833,7 +12861,7 @@
     <row r="19" spans="1:5">
       <c r="A19" s="27"/>
       <c r="B19" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D19" s="17">
         <v>3</v>
@@ -12843,7 +12871,7 @@
     <row r="20" spans="1:5">
       <c r="A20" s="27"/>
       <c r="B20" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D20" s="17">
         <v>3</v>
@@ -12863,7 +12891,7 @@
     <row r="22" spans="1:5">
       <c r="A22" s="27"/>
       <c r="B22" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D22" s="17">
         <v>3</v>
@@ -12873,7 +12901,7 @@
     <row r="23" spans="1:5">
       <c r="A23" s="27"/>
       <c r="B23" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D23" s="17">
         <v>24</v>
@@ -12883,7 +12911,7 @@
     <row r="24" spans="1:5">
       <c r="A24" s="27"/>
       <c r="B24" s="61" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C24" s="61"/>
       <c r="D24" s="17">
@@ -12915,7 +12943,7 @@
     <row r="27" spans="1:5">
       <c r="A27" s="27"/>
       <c r="B27" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D27" s="17">
         <v>3</v>
@@ -12925,7 +12953,7 @@
     <row r="28" spans="1:5">
       <c r="A28" s="27"/>
       <c r="B28" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D28" s="17">
         <v>3</v>
@@ -12935,7 +12963,7 @@
     <row r="29" spans="1:5">
       <c r="A29" s="27"/>
       <c r="B29" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D29" s="17">
         <v>3</v>
@@ -12945,7 +12973,7 @@
     <row r="30" spans="1:5">
       <c r="A30" s="27"/>
       <c r="B30" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D30" s="17">
         <v>1</v>
@@ -12955,7 +12983,7 @@
     <row r="31" spans="1:5">
       <c r="A31" s="27"/>
       <c r="B31" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D31" s="17">
         <v>1</v>
@@ -12965,7 +12993,7 @@
     <row r="32" spans="1:5">
       <c r="A32" s="27"/>
       <c r="B32" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D32" s="17">
         <v>1</v>
@@ -12975,7 +13003,7 @@
     <row r="33" spans="1:5">
       <c r="A33" s="27"/>
       <c r="B33" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D33" s="17">
         <v>2</v>
@@ -12985,7 +13013,7 @@
     <row r="34" spans="1:5">
       <c r="A34" s="27"/>
       <c r="B34" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D34" s="17">
         <v>1</v>
@@ -12995,7 +13023,7 @@
     <row r="35" spans="1:5">
       <c r="A35" s="27"/>
       <c r="B35" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D35" s="17">
         <v>1</v>
@@ -13005,7 +13033,7 @@
     <row r="36" spans="1:5">
       <c r="A36" s="27"/>
       <c r="B36" s="61" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C36" s="61"/>
       <c r="D36" s="17">
@@ -13016,7 +13044,7 @@
     <row r="37" spans="1:5">
       <c r="A37" s="27"/>
       <c r="B37" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D37" s="17">
         <v>1</v>
@@ -13026,7 +13054,7 @@
     <row r="38" spans="1:5">
       <c r="A38" s="27"/>
       <c r="B38" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D38" s="17">
         <v>1</v>
@@ -13036,7 +13064,7 @@
     <row r="39" spans="1:5">
       <c r="A39" s="27"/>
       <c r="B39" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D39" s="17">
         <v>1</v>
@@ -13046,7 +13074,7 @@
     <row r="40" spans="1:5">
       <c r="A40" s="27"/>
       <c r="B40" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D40" s="17">
         <v>1</v>
@@ -13056,7 +13084,7 @@
     <row r="41" spans="1:5">
       <c r="A41" s="27"/>
       <c r="B41" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D41" s="17">
         <v>3</v>
@@ -13066,7 +13094,7 @@
     <row r="42" spans="1:5">
       <c r="A42" s="27"/>
       <c r="B42" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D42" s="17">
         <v>1</v>
@@ -13076,7 +13104,7 @@
     <row r="43" spans="1:5">
       <c r="A43" s="27"/>
       <c r="B43" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D43" s="17">
         <v>1</v>
@@ -13086,7 +13114,7 @@
     <row r="44" spans="1:5" ht="15.75" thickBot="1">
       <c r="A44" s="65"/>
       <c r="B44" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D44" s="17">
         <v>1</v>
@@ -13141,19 +13169,19 @@
     <row r="1" spans="1:5" ht="30" customHeight="1">
       <c r="A1" s="55"/>
       <c r="B1" s="70" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C1" s="143" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D1" s="143" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="56" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B2" s="30" t="s">
         <v>148</v>
@@ -13163,27 +13191,27 @@
         <v>14</v>
       </c>
       <c r="E2" s="57" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="53" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C3" s="61"/>
       <c r="D3" s="17">
         <v>13</v>
       </c>
       <c r="E3" s="58" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="53" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B4" s="61" t="s">
         <v>156</v>
@@ -13193,28 +13221,28 @@
         <v>2</v>
       </c>
       <c r="E4" s="58" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="53" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B5" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C5" s="61"/>
       <c r="D5" s="17">
         <v>2</v>
       </c>
       <c r="E5" s="58" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="27"/>
       <c r="B6" s="61" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C6" s="61"/>
       <c r="D6" s="17">
@@ -13225,7 +13253,7 @@
     <row r="7" spans="1:5">
       <c r="A7" s="27"/>
       <c r="B7" s="61" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C7" s="61"/>
       <c r="D7" s="17">
@@ -13236,7 +13264,7 @@
     <row r="8" spans="1:5">
       <c r="A8" s="27"/>
       <c r="B8" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C8" s="61"/>
       <c r="D8" s="17">
@@ -13247,7 +13275,7 @@
     <row r="9" spans="1:5">
       <c r="A9" s="27"/>
       <c r="B9" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C9" s="61"/>
       <c r="D9" s="17">
@@ -13258,10 +13286,10 @@
     <row r="10" spans="1:5">
       <c r="A10" s="27"/>
       <c r="B10" s="15" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C10" s="121" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D10" s="17">
         <v>2</v>
@@ -13271,7 +13299,7 @@
     <row r="11" spans="1:5">
       <c r="A11" s="27"/>
       <c r="B11" s="15" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C11" s="61"/>
       <c r="D11" s="17">
@@ -13292,7 +13320,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="53" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B13" s="61" t="s">
         <v>100</v>
@@ -13306,7 +13334,7 @@
     <row r="14" spans="1:5">
       <c r="A14" s="27"/>
       <c r="B14" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="17">
@@ -13317,7 +13345,7 @@
     <row r="15" spans="1:5">
       <c r="A15" s="27"/>
       <c r="B15" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="17">
@@ -13328,7 +13356,7 @@
     <row r="16" spans="1:5">
       <c r="A16" s="27"/>
       <c r="B16" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C16" s="61"/>
       <c r="D16" s="17">
@@ -13339,7 +13367,7 @@
     <row r="17" spans="1:5">
       <c r="A17" s="27"/>
       <c r="B17" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C17" s="61"/>
       <c r="D17" s="17">
@@ -13361,7 +13389,7 @@
     <row r="19" spans="1:5">
       <c r="A19" s="27"/>
       <c r="B19" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C19" s="61"/>
       <c r="D19" s="17">
@@ -13372,7 +13400,7 @@
     <row r="20" spans="1:5">
       <c r="A20" s="27"/>
       <c r="B20" s="61" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C20" s="61"/>
       <c r="D20" s="17">
@@ -13383,7 +13411,7 @@
     <row r="21" spans="1:5">
       <c r="A21" s="27"/>
       <c r="B21" s="61" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C21" s="61"/>
       <c r="D21" s="17">
@@ -13405,7 +13433,7 @@
     <row r="23" spans="1:5">
       <c r="A23" s="27"/>
       <c r="B23" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C23" s="61"/>
       <c r="D23" s="17">
@@ -13438,7 +13466,7 @@
     <row r="26" spans="1:5">
       <c r="A26" s="27"/>
       <c r="B26" s="61" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C26" s="61"/>
       <c r="D26" s="17">
@@ -13460,7 +13488,7 @@
     <row r="28" spans="1:5">
       <c r="A28" s="27"/>
       <c r="B28" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C28" s="61"/>
       <c r="D28" s="17">
@@ -13471,7 +13499,7 @@
     <row r="29" spans="1:5">
       <c r="A29" s="27"/>
       <c r="B29" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C29" s="61"/>
       <c r="D29" s="17">
@@ -13493,7 +13521,7 @@
     <row r="31" spans="1:5">
       <c r="A31" s="27"/>
       <c r="B31" s="61" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C31" s="61"/>
       <c r="D31" s="17">
@@ -13504,7 +13532,7 @@
     <row r="32" spans="1:5">
       <c r="A32" s="27"/>
       <c r="B32" s="61" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C32" s="61"/>
       <c r="D32" s="17">
@@ -13515,10 +13543,10 @@
     <row r="33" spans="1:5">
       <c r="A33" s="27"/>
       <c r="B33" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D33" s="17">
         <v>1</v>
@@ -13528,10 +13556,10 @@
     <row r="34" spans="1:5">
       <c r="A34" s="27"/>
       <c r="B34" s="61" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C34" s="61" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D34" s="17">
         <v>1</v>
@@ -13541,10 +13569,10 @@
     <row r="35" spans="1:5">
       <c r="A35" s="27"/>
       <c r="B35" s="61" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D35" s="17">
         <v>2</v>
@@ -13554,10 +13582,10 @@
     <row r="36" spans="1:5">
       <c r="A36" s="27"/>
       <c r="B36" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D36" s="17">
         <v>1</v>
@@ -13567,10 +13595,10 @@
     <row r="37" spans="1:5">
       <c r="A37" s="27"/>
       <c r="B37" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D37" s="17">
         <v>1</v>
@@ -13580,10 +13608,10 @@
     <row r="38" spans="1:5">
       <c r="A38" s="27"/>
       <c r="B38" s="164" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C38" s="164" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D38" s="60">
         <v>1</v>
@@ -13593,10 +13621,10 @@
     <row r="39" spans="1:5">
       <c r="A39" s="27"/>
       <c r="B39" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D39" s="17">
         <v>4</v>
@@ -13606,10 +13634,10 @@
     <row r="40" spans="1:5">
       <c r="A40" s="27"/>
       <c r="B40" s="61" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D40" s="17">
         <v>2</v>
@@ -13619,10 +13647,10 @@
     <row r="41" spans="1:5">
       <c r="A41" s="27"/>
       <c r="B41" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D41" s="17">
         <v>1</v>
@@ -13632,10 +13660,10 @@
     <row r="42" spans="1:5">
       <c r="A42" s="27"/>
       <c r="B42" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D42" s="17">
         <v>1</v>
@@ -13645,10 +13673,10 @@
     <row r="43" spans="1:5">
       <c r="A43" s="27"/>
       <c r="B43" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D43" s="17">
         <v>2</v>
@@ -13658,10 +13686,10 @@
     <row r="44" spans="1:5">
       <c r="A44" s="27"/>
       <c r="B44" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D44" s="17">
         <v>1</v>
@@ -13671,10 +13699,10 @@
     <row r="45" spans="1:5">
       <c r="A45" s="27"/>
       <c r="B45" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D45" s="17">
         <v>1</v>
@@ -13684,10 +13712,10 @@
     <row r="46" spans="1:5">
       <c r="A46" s="27"/>
       <c r="B46" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D46" s="17">
         <v>1</v>
@@ -13697,10 +13725,10 @@
     <row r="47" spans="1:5">
       <c r="A47" s="27"/>
       <c r="B47" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D47" s="17">
         <v>1</v>
@@ -13710,10 +13738,10 @@
     <row r="48" spans="1:5">
       <c r="A48" s="27"/>
       <c r="B48" s="61" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D48" s="17">
         <v>1</v>
@@ -13723,10 +13751,10 @@
     <row r="49" spans="1:5">
       <c r="A49" s="27"/>
       <c r="B49" s="61" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D49" s="17">
         <v>1</v>
@@ -13736,10 +13764,10 @@
     <row r="50" spans="1:5">
       <c r="A50" s="27"/>
       <c r="B50" s="61" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D50" s="17">
         <v>1</v>
@@ -13749,10 +13777,10 @@
     <row r="51" spans="1:5">
       <c r="A51" s="27"/>
       <c r="B51" s="61" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D51" s="17">
         <v>1</v>
@@ -13762,10 +13790,10 @@
     <row r="52" spans="1:5">
       <c r="A52" s="27"/>
       <c r="B52" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D52" s="17">
         <v>1</v>
@@ -13775,10 +13803,10 @@
     <row r="53" spans="1:5">
       <c r="A53" s="27"/>
       <c r="B53" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D53" s="17">
         <v>1</v>
@@ -13788,10 +13816,10 @@
     <row r="54" spans="1:5">
       <c r="A54" s="27"/>
       <c r="B54" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D54" s="17">
         <v>1</v>
@@ -13801,10 +13829,10 @@
     <row r="55" spans="1:5">
       <c r="A55" s="27"/>
       <c r="B55" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>515</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>514</v>
       </c>
       <c r="D55" s="17">
         <v>1</v>
@@ -13814,10 +13842,10 @@
     <row r="56" spans="1:5">
       <c r="A56" s="27"/>
       <c r="B56" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D56" s="17">
         <v>1</v>
@@ -13827,10 +13855,10 @@
     <row r="57" spans="1:5">
       <c r="A57" s="27"/>
       <c r="B57" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D57" s="17">
         <v>1</v>
@@ -13840,10 +13868,10 @@
     <row r="58" spans="1:5">
       <c r="A58" s="27"/>
       <c r="B58" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D58" s="17">
         <v>1</v>
@@ -13853,10 +13881,10 @@
     <row r="59" spans="1:5">
       <c r="A59" s="27"/>
       <c r="B59" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D59" s="17">
         <v>1</v>
@@ -13866,10 +13894,10 @@
     <row r="60" spans="1:5">
       <c r="A60" s="27"/>
       <c r="B60" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D60" s="17">
         <v>1</v>
@@ -13879,10 +13907,10 @@
     <row r="61" spans="1:5">
       <c r="A61" s="27"/>
       <c r="B61" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>522</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>521</v>
       </c>
       <c r="D61" s="17">
         <v>2</v>
@@ -13892,10 +13920,10 @@
     <row r="62" spans="1:5">
       <c r="A62" s="27"/>
       <c r="B62" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D62" s="17">
         <v>1</v>
@@ -13905,10 +13933,10 @@
     <row r="63" spans="1:5">
       <c r="A63" s="27"/>
       <c r="B63" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D63" s="17">
         <v>1</v>
@@ -13918,10 +13946,10 @@
     <row r="64" spans="1:5">
       <c r="A64" s="27"/>
       <c r="B64" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D64" s="17">
         <v>1</v>
@@ -13931,10 +13959,10 @@
     <row r="65" spans="1:5">
       <c r="A65" s="27"/>
       <c r="B65" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D65" s="17">
         <v>1</v>
@@ -13944,10 +13972,10 @@
     <row r="66" spans="1:5">
       <c r="A66" s="27"/>
       <c r="B66" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D66" s="17">
         <v>1</v>
@@ -13957,10 +13985,10 @@
     <row r="67" spans="1:5">
       <c r="A67" s="27"/>
       <c r="B67" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D67" s="17">
         <v>1</v>
@@ -13970,10 +13998,10 @@
     <row r="68" spans="1:5">
       <c r="A68" s="27"/>
       <c r="B68" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D68" s="17">
         <v>1</v>
@@ -13983,10 +14011,10 @@
     <row r="69" spans="1:5">
       <c r="A69" s="27"/>
       <c r="B69" s="61" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D69" s="17">
         <v>6</v>
@@ -13996,10 +14024,10 @@
     <row r="70" spans="1:5">
       <c r="A70" s="27"/>
       <c r="B70" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D70" s="17">
         <v>1</v>
@@ -14009,10 +14037,10 @@
     <row r="71" spans="1:5">
       <c r="A71" s="27"/>
       <c r="B71" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C71" s="61" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D71" s="17">
         <v>1</v>
@@ -14022,10 +14050,10 @@
     <row r="72" spans="1:5">
       <c r="A72" s="27"/>
       <c r="B72" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C72" s="61" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D72" s="17">
         <v>2</v>
@@ -14035,10 +14063,10 @@
     <row r="73" spans="1:5">
       <c r="A73" s="27"/>
       <c r="B73" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C73" s="61" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D73" s="17">
         <v>2</v>
@@ -14048,10 +14076,10 @@
     <row r="74" spans="1:5">
       <c r="A74" s="27"/>
       <c r="B74" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D74" s="17">
         <v>2</v>
@@ -14061,10 +14089,10 @@
     <row r="75" spans="1:5" ht="15.75" thickBot="1">
       <c r="A75" s="65"/>
       <c r="B75" s="54" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C75" s="54" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D75" s="66">
         <v>1</v>
@@ -14119,91 +14147,91 @@
     <row r="1" spans="1:5" ht="30" customHeight="1">
       <c r="A1" s="55"/>
       <c r="B1" s="12" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C1" s="167" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D1" s="167" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="56" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C2" s="167" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D2" s="169" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E2" s="57" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="53" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B3" s="61" t="s">
         <v>151</v>
       </c>
       <c r="C3" s="61" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D3" s="61">
         <v>1</v>
       </c>
       <c r="E3" s="58" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="53" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B4" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C4" s="61" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D4" s="61">
         <v>4</v>
       </c>
       <c r="E4" s="58" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="53" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B5" s="61" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C5" s="61" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D5" s="61">
         <v>3</v>
       </c>
       <c r="E5" s="58" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="27"/>
       <c r="B6" s="15" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C6" s="61" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D6" s="61">
         <v>1</v>
@@ -14213,10 +14241,10 @@
     <row r="7" spans="1:5">
       <c r="A7" s="27"/>
       <c r="B7" s="61" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C7" s="61" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D7" s="2">
         <v>2</v>
@@ -14226,10 +14254,10 @@
     <row r="8" spans="1:5">
       <c r="A8" s="27"/>
       <c r="B8" s="61" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C8" s="61" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D8" s="61">
         <v>1</v>
@@ -14242,7 +14270,7 @@
         <v>89</v>
       </c>
       <c r="C9" s="61" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D9" s="61">
         <v>1</v>
@@ -14255,7 +14283,7 @@
         <v>118</v>
       </c>
       <c r="C10" s="61" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D10" s="61">
         <v>1</v>
@@ -14265,10 +14293,10 @@
     <row r="11" spans="1:5">
       <c r="A11" s="27"/>
       <c r="B11" s="30" t="s">
+        <v>544</v>
+      </c>
+      <c r="C11" s="61" t="s">
         <v>543</v>
-      </c>
-      <c r="C11" s="61" t="s">
-        <v>542</v>
       </c>
       <c r="D11" s="61">
         <v>1</v>
@@ -14277,13 +14305,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="53" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>173</v>
       </c>
       <c r="C12" s="61" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D12" s="61">
         <v>10</v>
@@ -14296,7 +14324,7 @@
         <v>176</v>
       </c>
       <c r="C13" s="61" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D13" s="61">
         <v>1</v>
@@ -14306,10 +14334,10 @@
     <row r="14" spans="1:5">
       <c r="A14" s="27"/>
       <c r="B14" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C14" s="61" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D14" s="61">
         <v>2</v>
@@ -14319,10 +14347,10 @@
     <row r="15" spans="1:5">
       <c r="A15" s="27"/>
       <c r="B15" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C15" s="61" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D15" s="61">
         <v>7</v>
@@ -14335,7 +14363,7 @@
         <v>194</v>
       </c>
       <c r="C16" s="61" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D16" s="61">
         <v>3</v>
@@ -14345,10 +14373,10 @@
     <row r="17" spans="1:5">
       <c r="A17" s="27"/>
       <c r="B17" s="61" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C17" s="61" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D17" s="2">
         <v>2</v>
@@ -14361,7 +14389,7 @@
         <v>206</v>
       </c>
       <c r="C18" s="61" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D18" s="61">
         <v>1</v>
@@ -14371,10 +14399,10 @@
     <row r="19" spans="1:5">
       <c r="A19" s="27"/>
       <c r="B19" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C19" s="61" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D19" s="61">
         <v>2</v>
@@ -14384,10 +14412,10 @@
     <row r="20" spans="1:5">
       <c r="A20" s="27"/>
       <c r="B20" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C20" s="61" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D20" s="61">
         <v>2</v>
@@ -14397,10 +14425,10 @@
     <row r="21" spans="1:5">
       <c r="A21" s="27"/>
       <c r="B21" s="61" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C21" s="61" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
@@ -14410,10 +14438,10 @@
     <row r="22" spans="1:5">
       <c r="A22" s="27"/>
       <c r="B22" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C22" s="61" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
@@ -14423,10 +14451,10 @@
     <row r="23" spans="1:5">
       <c r="A23" s="27"/>
       <c r="B23" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C23" s="61" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D23" s="2">
         <v>2</v>
@@ -14436,10 +14464,10 @@
     <row r="24" spans="1:5">
       <c r="A24" s="27"/>
       <c r="B24" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C24" s="61" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
@@ -14449,10 +14477,10 @@
     <row r="25" spans="1:5">
       <c r="A25" s="27"/>
       <c r="B25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C25" s="61" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D25" s="61">
         <v>1</v>
@@ -14462,10 +14490,10 @@
     <row r="26" spans="1:5">
       <c r="A26" s="27"/>
       <c r="B26" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C26" s="61" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D26" s="1">
         <v>1</v>
@@ -14475,10 +14503,10 @@
     <row r="27" spans="1:5">
       <c r="A27" s="27"/>
       <c r="B27" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C27" s="61" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
@@ -14488,10 +14516,10 @@
     <row r="28" spans="1:5">
       <c r="A28" s="27"/>
       <c r="B28" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C28" s="61" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D28" s="61">
         <v>2</v>
@@ -14501,10 +14529,10 @@
     <row r="29" spans="1:5">
       <c r="A29" s="27"/>
       <c r="B29" s="61" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C29" s="61" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D29" s="2">
         <v>4</v>
@@ -14514,10 +14542,10 @@
     <row r="30" spans="1:5">
       <c r="A30" s="27"/>
       <c r="B30" s="61" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C30" s="61" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
@@ -14527,10 +14555,10 @@
     <row r="31" spans="1:5">
       <c r="A31" s="27"/>
       <c r="B31" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C31" s="61" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D31" s="61">
         <v>1</v>
@@ -14540,10 +14568,10 @@
     <row r="32" spans="1:5">
       <c r="A32" s="27"/>
       <c r="B32" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C32" s="61" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D32" s="61">
         <v>2</v>
@@ -14553,10 +14581,10 @@
     <row r="33" spans="1:5">
       <c r="A33" s="27"/>
       <c r="B33" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C33" s="61" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D33" s="61">
         <v>2</v>
@@ -14566,10 +14594,10 @@
     <row r="34" spans="1:5">
       <c r="A34" s="27"/>
       <c r="B34" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C34" s="61" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D34" s="61">
         <v>2</v>
@@ -14579,10 +14607,10 @@
     <row r="35" spans="1:5">
       <c r="A35" s="27"/>
       <c r="B35" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C35" s="61" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D35" s="61">
         <v>2</v>
@@ -14592,10 +14620,10 @@
     <row r="36" spans="1:5">
       <c r="A36" s="27"/>
       <c r="B36" s="61" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C36" s="61" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D36" s="61">
         <v>2</v>
@@ -14605,10 +14633,10 @@
     <row r="37" spans="1:5">
       <c r="A37" s="27"/>
       <c r="B37" s="61" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C37" s="61" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D37" s="61">
         <v>2</v>
@@ -14618,10 +14646,10 @@
     <row r="38" spans="1:5">
       <c r="A38" s="27"/>
       <c r="B38" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C38" s="61" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D38" s="61">
         <v>1</v>
@@ -14631,10 +14659,10 @@
     <row r="39" spans="1:5">
       <c r="A39" s="27"/>
       <c r="B39" s="61" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C39" s="61" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D39" s="2">
         <v>1</v>
@@ -14644,10 +14672,10 @@
     <row r="40" spans="1:5">
       <c r="A40" s="27"/>
       <c r="B40" s="61" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C40" s="61" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D40" s="2">
         <v>1</v>
@@ -14657,10 +14685,10 @@
     <row r="41" spans="1:5">
       <c r="A41" s="27"/>
       <c r="B41" s="61" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C41" s="61" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D41" s="2">
         <v>1</v>
@@ -14670,10 +14698,10 @@
     <row r="42" spans="1:5">
       <c r="A42" s="27"/>
       <c r="B42" s="61" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C42" s="61" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D42" s="2">
         <v>1</v>
@@ -14683,10 +14711,10 @@
     <row r="43" spans="1:5">
       <c r="A43" s="27"/>
       <c r="B43" s="61" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C43" s="61" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D43" s="61">
         <v>1</v>
@@ -14696,10 +14724,10 @@
     <row r="44" spans="1:5" ht="15.75" thickBot="1">
       <c r="A44" s="65"/>
       <c r="B44" s="61" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C44" s="61" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D44" s="2">
         <v>1</v>
@@ -14755,79 +14783,79 @@
     <row r="1" spans="1:5" ht="30" customHeight="1">
       <c r="A1" s="55"/>
       <c r="B1" s="70" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C1" s="143" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D1" s="143" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="56" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C2" s="61"/>
       <c r="D2" s="61">
         <v>6</v>
       </c>
       <c r="E2" s="57" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="53" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B3" s="148" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D3" s="61">
         <v>1</v>
       </c>
       <c r="E3" s="58" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="53" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B4" s="61" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C4" s="61"/>
       <c r="D4" s="61">
         <v>1</v>
       </c>
       <c r="E4" s="58" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="53" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B5" s="148" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C5" s="61"/>
       <c r="D5" s="61">
         <v>1</v>
       </c>
       <c r="E5" s="58" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="27"/>
       <c r="B6" s="148" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D6" s="61">
         <v>1</v>
@@ -14837,7 +14865,7 @@
     <row r="7" spans="1:5">
       <c r="A7" s="27"/>
       <c r="B7" s="61" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C7" s="61"/>
       <c r="D7" s="61">
@@ -14869,7 +14897,7 @@
     <row r="10" spans="1:5">
       <c r="A10" s="27"/>
       <c r="B10" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D10" s="61">
         <v>4</v>
@@ -14879,7 +14907,7 @@
     <row r="11" spans="1:5">
       <c r="A11" s="27"/>
       <c r="B11" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D11" s="61">
         <v>4</v>
@@ -14888,10 +14916,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="53" t="s">
+        <v>384</v>
+      </c>
+      <c r="B12" t="s">
         <v>383</v>
-      </c>
-      <c r="B12" t="s">
-        <v>382</v>
       </c>
       <c r="D12" s="61">
         <v>2</v>
@@ -14901,7 +14929,7 @@
     <row r="13" spans="1:5">
       <c r="A13" s="27"/>
       <c r="B13" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D13" s="61">
         <v>2</v>
@@ -14921,7 +14949,7 @@
     <row r="15" spans="1:5">
       <c r="A15" s="27"/>
       <c r="B15" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D15" s="61">
         <v>1</v>
@@ -14931,7 +14959,7 @@
     <row r="16" spans="1:5">
       <c r="A16" s="27"/>
       <c r="B16" s="144" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D16" s="61">
         <v>1</v>
@@ -14941,7 +14969,7 @@
     <row r="17" spans="1:5">
       <c r="A17" s="27"/>
       <c r="B17" s="30" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D17" s="61">
         <v>1</v>
@@ -14951,7 +14979,7 @@
     <row r="18" spans="1:5" ht="15.75" thickBot="1">
       <c r="A18" s="65"/>
       <c r="B18" s="54" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C18" s="54"/>
       <c r="D18" s="163">
@@ -15006,91 +15034,91 @@
     <row r="1" spans="1:5" ht="30" customHeight="1">
       <c r="A1" s="55"/>
       <c r="B1" s="21" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C1" s="143" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D1" s="143" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="56" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D2" s="17">
         <v>1</v>
       </c>
       <c r="E2" s="57" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="53" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D3" s="17">
         <v>1</v>
       </c>
       <c r="E3" s="58" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="53" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D4" s="17">
         <v>1</v>
       </c>
       <c r="E4" s="58" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="53" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C5" s="61" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D5" s="155">
         <v>2</v>
       </c>
       <c r="E5" s="58" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="27"/>
       <c r="B6" s="170" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C6" s="61" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D6" s="155">
         <v>5</v>
@@ -15100,10 +15128,10 @@
     <row r="7" spans="1:5">
       <c r="A7" s="27"/>
       <c r="B7" s="22" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C7" s="61" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D7" s="155">
         <v>2</v>
@@ -15113,10 +15141,10 @@
     <row r="8" spans="1:5">
       <c r="A8" s="27"/>
       <c r="B8" s="22" t="s">
+        <v>594</v>
+      </c>
+      <c r="C8" s="61" t="s">
         <v>593</v>
-      </c>
-      <c r="C8" s="61" t="s">
-        <v>592</v>
       </c>
       <c r="D8" s="17">
         <v>2</v>
@@ -15126,10 +15154,10 @@
     <row r="9" spans="1:5">
       <c r="A9" s="27"/>
       <c r="B9" s="32" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C9" s="61" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D9" s="155">
         <v>2</v>
@@ -15139,10 +15167,10 @@
     <row r="10" spans="1:5">
       <c r="A10" s="27"/>
       <c r="B10" s="32" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C10" s="61" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D10" s="17">
         <v>2</v>
@@ -15155,7 +15183,7 @@
         <v>71</v>
       </c>
       <c r="C11" s="61" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D11" s="17">
         <v>5</v>
@@ -15164,13 +15192,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="53" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C12" s="61" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D12" s="155">
         <v>2</v>
@@ -15180,10 +15208,10 @@
     <row r="13" spans="1:5">
       <c r="A13" s="27"/>
       <c r="B13" s="32" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C13" s="61" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D13" s="155">
         <v>5</v>
@@ -15193,10 +15221,10 @@
     <row r="14" spans="1:5">
       <c r="A14" s="27"/>
       <c r="B14" s="171" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C14" s="61" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D14" s="155">
         <v>5</v>
@@ -15206,10 +15234,10 @@
     <row r="15" spans="1:5">
       <c r="A15" s="27"/>
       <c r="B15" s="171" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C15" s="61" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D15" s="155">
         <v>5</v>
@@ -15222,7 +15250,7 @@
         <v>64</v>
       </c>
       <c r="C16" s="61" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D16" s="17">
         <v>1</v>
@@ -15232,10 +15260,10 @@
     <row r="17" spans="1:5">
       <c r="A17" s="27"/>
       <c r="B17" s="164" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C17" s="164" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D17" s="60"/>
       <c r="E17" s="59"/>
@@ -15246,7 +15274,7 @@
         <v>81</v>
       </c>
       <c r="C18" s="61" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D18" s="61">
         <v>1</v>
@@ -15266,7 +15294,7 @@
     <row r="20" spans="1:5">
       <c r="A20" s="27"/>
       <c r="B20" s="62" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D20" s="17">
         <v>1</v>
@@ -15352,7 +15380,7 @@
     <row r="28" spans="1:5">
       <c r="A28" s="27"/>
       <c r="B28" s="20" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C28" s="30"/>
       <c r="D28">
@@ -15363,7 +15391,7 @@
     <row r="29" spans="1:5">
       <c r="A29" s="27"/>
       <c r="B29" s="20" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C29" s="30"/>
       <c r="D29">
@@ -15385,7 +15413,7 @@
     <row r="31" spans="1:5">
       <c r="A31" s="27"/>
       <c r="B31" s="20" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C31" s="30"/>
       <c r="D31">
@@ -15396,7 +15424,7 @@
     <row r="32" spans="1:5">
       <c r="A32" s="27"/>
       <c r="B32" s="20" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C32" s="30"/>
       <c r="D32">
@@ -15418,10 +15446,10 @@
     <row r="34" spans="1:5">
       <c r="A34" s="27"/>
       <c r="B34" s="171" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C34" s="61" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D34" s="17">
         <v>2</v>
@@ -15434,7 +15462,7 @@
         <v>128</v>
       </c>
       <c r="C35" s="61" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D35" s="17">
         <v>2</v>
@@ -15447,7 +15475,7 @@
         <v>131</v>
       </c>
       <c r="C36" s="61" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D36" s="17">
         <v>1</v>
@@ -15460,7 +15488,7 @@
         <v>133</v>
       </c>
       <c r="C37" s="61" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D37" s="17">
         <v>1</v>
@@ -15473,7 +15501,7 @@
         <v>135</v>
       </c>
       <c r="C38" s="61" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D38" s="17">
         <v>1</v>
@@ -15486,7 +15514,7 @@
         <v>138</v>
       </c>
       <c r="C39" s="61" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D39" s="61">
         <v>1</v>
@@ -15499,7 +15527,7 @@
         <v>141</v>
       </c>
       <c r="C40" s="61" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D40" s="61">
         <v>1</v>
@@ -15512,7 +15540,7 @@
         <v>143</v>
       </c>
       <c r="C41" s="61" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D41" s="17">
         <v>3</v>
@@ -15522,10 +15550,10 @@
     <row r="42" spans="1:5" ht="16.5" customHeight="1">
       <c r="A42" s="27"/>
       <c r="B42" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C42" s="61" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D42" s="17">
         <v>1</v>
@@ -15535,10 +15563,10 @@
     <row r="43" spans="1:5" ht="16.5" customHeight="1">
       <c r="A43" s="27"/>
       <c r="B43" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C43" s="61" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D43" s="17">
         <v>1</v>
@@ -15548,10 +15576,10 @@
     <row r="44" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
       <c r="A44" s="65"/>
       <c r="B44" s="51" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C44" s="163" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D44" s="66">
         <v>1</v>

--- a/V2 BETA/BOM/Valkyrie V2 HT100 BOM Beta.xlsx
+++ b/V2 BETA/BOM/Valkyrie V2 HT100 BOM Beta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/V2 BETA/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="407" documentId="8_{5107759B-8870-48A8-933E-C4A7F6F41B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F45983B9-C682-493C-95F3-213253C7EDE3}"/>
+  <xr:revisionPtr revIDLastSave="408" documentId="8_{5107759B-8870-48A8-933E-C4A7F6F41B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB21C872-A4DD-457B-A543-A69277D6161D}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="16440" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2153,7 +2153,7 @@
     <t>Spanner  AF 7mm,</t>
   </si>
   <si>
-    <t>Drill bits ,M5,M4</t>
+    <t>Drill bits ,M5,M4,M3</t>
   </si>
   <si>
     <t xml:space="preserve">solder iron and solder </t>
@@ -5471,8 +5471,8 @@
   </sheetPr>
   <dimension ref="A1:O146"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O95" sqref="O95:O96"/>
+    <sheetView topLeftCell="A90" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O95" sqref="O95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -11118,7 +11118,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/V2 BETA/BOM/Valkyrie V2 HT100 BOM Beta.xlsx
+++ b/V2 BETA/BOM/Valkyrie V2 HT100 BOM Beta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/V2 BETA/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="408" documentId="8_{5107759B-8870-48A8-933E-C4A7F6F41B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB21C872-A4DD-457B-A543-A69277D6161D}"/>
+  <xr:revisionPtr revIDLastSave="525" documentId="8_{5107759B-8870-48A8-933E-C4A7F6F41B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42D14BD4-BEF2-40ED-85FA-DACDD10BE090}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="16440" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="16440" firstSheet="10" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PARTS LIST" sheetId="43" r:id="rId1"/>
@@ -24,7 +24,8 @@
     <sheet name="V2 Electronics BOM" sheetId="42" r:id="rId9"/>
     <sheet name="Chamber connections" sheetId="35" r:id="rId10"/>
     <sheet name="To Do" sheetId="34" r:id="rId11"/>
-    <sheet name="MISC" sheetId="30" r:id="rId12"/>
+    <sheet name="Macro &amp; system names " sheetId="44" r:id="rId12"/>
+    <sheet name="MISC" sheetId="30" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'PARTS LIST'!$A$1:$L$145</definedName>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="745">
   <si>
     <t>Type</t>
   </si>
@@ -1370,7 +1371,10 @@
     <t>V2 Toolhead Cover_1x</t>
   </si>
   <si>
-    <t>V2 Valkyrie Tool Plate _1x</t>
+    <t>V2 Toolcarrier_1x</t>
+  </si>
+  <si>
+    <t>V2 Tool Plate _1x</t>
   </si>
   <si>
     <t>MOTHEND HOTEND BOM</t>
@@ -2009,66 +2013,54 @@
     <t>20mm neodynium POT magnet in the oven at 115C for 2 hours it seems ok,</t>
   </si>
   <si>
-    <t xml:space="preserve">Finish Fitstone Docking Station </t>
+    <t xml:space="preserve">Test new  CPAP fan  </t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>tested</t>
+  </si>
+  <si>
+    <t>will need external fan 4020  to keep PCB cool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cpap  duct  redesign </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roy </t>
+  </si>
+  <si>
+    <t>needs printing /testing / In progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cpap fan modeled </t>
+  </si>
+  <si>
+    <t xml:space="preserve">magnet layout on heated bed  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mark </t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test new Chamber  Heater &amp; Fan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In testing </t>
+  </si>
+  <si>
+    <t>Mark to Find  HT Fan for chamber heater  or use external motor  as per Roys previous design.</t>
+  </si>
+  <si>
+    <t>New  Flintstone probe  BOM to be updated.</t>
   </si>
   <si>
     <t>Roy</t>
   </si>
   <si>
-    <t xml:space="preserve">complete </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finish Brushing Station </t>
-  </si>
-  <si>
-    <t>complete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test new  CPAP fan  </t>
-  </si>
-  <si>
-    <t>Mark</t>
-  </si>
-  <si>
-    <t>tested</t>
-  </si>
-  <si>
-    <t>will need external fan 4020  to keep PCB cool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cpap  duct  redesign </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roy </t>
-  </si>
-  <si>
-    <t>needs printing /testing / In progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cpap fan modeled </t>
-  </si>
-  <si>
-    <t xml:space="preserve">magnet layout on heated bed  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">mark </t>
-  </si>
-  <si>
-    <t>completed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test new Chamber  Heater &amp; Fan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">In testing </t>
-  </si>
-  <si>
-    <t>Mark to Find  HT Fan for chamber heater  or use external motor  as per Roys previous design.</t>
-  </si>
-  <si>
-    <t>New  Flintstone probe  BOM to be updated.</t>
-  </si>
-  <si>
     <t>Hotend BOM to be completed in Tool head.</t>
   </si>
   <si>
@@ -2093,25 +2085,154 @@
     <t xml:space="preserve">finally  finish the Hardware BOM  when all above done </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>update  Git Hub  pre release  B</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">OM </t>
-    </r>
+    <t>make a list of basic macros</t>
+  </si>
+  <si>
+    <t>make a basic config</t>
+  </si>
+  <si>
+    <t>finish the swiwel</t>
+  </si>
+  <si>
+    <t>Do electrical drawings  load cell, Mains,  others</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sort out the minimal macro list and the names </t>
+  </si>
+  <si>
+    <t>Work out gland sealing for cpap tube, water pipes , cable loom</t>
+  </si>
+  <si>
+    <t>One more thing to figure out. Cable entrance to the toolhead</t>
+  </si>
+  <si>
+    <t>send bed drawing with magnet to Roy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roys  names </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mark names </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macros </t>
+  </si>
+  <si>
+    <t>AnvilZoffset</t>
+  </si>
+  <si>
+    <t>filament-change</t>
+  </si>
+  <si>
+    <t>home_max_Z</t>
+  </si>
+  <si>
+    <t>MenuG29</t>
+  </si>
+  <si>
+    <t>ProbeDropOff</t>
+  </si>
+  <si>
+    <t>ProbePickUp</t>
+  </si>
+  <si>
+    <t>startupSequence</t>
+  </si>
+  <si>
+    <t>Wipe</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>bed.g</t>
+  </si>
+  <si>
+    <t>board.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">needed for super 8/octopus </t>
+  </si>
+  <si>
+    <t>cancel.g</t>
+  </si>
+  <si>
+    <t>config.g</t>
+  </si>
+  <si>
+    <t>daemon.g</t>
+  </si>
+  <si>
+    <t>end.g</t>
+  </si>
+  <si>
+    <t>global.g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">may need for scales </t>
+  </si>
+  <si>
+    <t>homeall.g</t>
+  </si>
+  <si>
+    <t>homex.g</t>
+  </si>
+  <si>
+    <t>homey.g</t>
+  </si>
+  <si>
+    <t>homez.g</t>
+  </si>
+  <si>
+    <t>mesh.g</t>
+  </si>
+  <si>
+    <t>pause.g</t>
+  </si>
+  <si>
+    <t>resume.g</t>
+  </si>
+  <si>
+    <t>stop.g</t>
+  </si>
+  <si>
+    <t>tool.g</t>
+  </si>
+  <si>
+    <t>totalValue.g</t>
+  </si>
+  <si>
+    <t>valuesAnvil.csv</t>
+  </si>
+  <si>
+    <t>Machine Gcode</t>
+  </si>
+  <si>
+    <t>Machine start gcode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">txt file </t>
+  </si>
+  <si>
+    <t>Machine end  gcode</t>
+  </si>
+  <si>
+    <t>Before layer change gcode</t>
+  </si>
+  <si>
+    <t>Change filament gcode</t>
+  </si>
+  <si>
+    <t>Pause gcode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Also need  Btn Cmd  json file for scales </t>
+  </si>
+  <si>
+    <t xml:space="preserve">need program for ESP 32  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chris </t>
   </si>
   <si>
     <t>Quantity M</t>
@@ -2182,7 +2303,7 @@
     <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="168" formatCode="_([$$-409]* #,##0_);_([$$-409]* \(#,##0\);_([$$-409]* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2381,13 +2502,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Aptos Black"/>
@@ -2436,6 +2550,26 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Gg Sans"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2701,7 +2835,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="209">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2"/>
@@ -2746,8 +2880,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2795,7 +2929,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="10" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1"/>
@@ -2811,7 +2945,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="2" applyBorder="1"/>
     <xf numFmtId="1" fontId="10" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2906,7 +3040,7 @@
     <xf numFmtId="164" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="36" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2917,7 +3051,6 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2933,15 +3066,15 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -3055,7 +3188,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3099,27 +3232,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="8" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="8" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="8" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="8" applyFont="1"/>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3132,6 +3257,10 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3141,6 +3270,14 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5193,10 +5330,10 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{0D081A3B-5ADC-4D38-A88B-EBE88E8EC051}" name="Table916" displayName="Table916" ref="B1:D25" totalsRowShown="0" headerRowDxfId="45" tableBorderDxfId="44" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
-  <autoFilter ref="B1:D25" xr:uid="{BAD2131D-41B2-42EA-A67B-FBB781AD12E7}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D25">
-    <sortCondition ref="B1:B25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{0D081A3B-5ADC-4D38-A88B-EBE88E8EC051}" name="Table916" displayName="Table916" ref="B1:D26" totalsRowShown="0" headerRowDxfId="45" tableBorderDxfId="44" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+  <autoFilter ref="B1:D26" xr:uid="{BAD2131D-41B2-42EA-A67B-FBB781AD12E7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D26">
+    <sortCondition ref="B1:B26"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{0F292740-142C-4538-B6E0-04426284E315}" name="Part name" totalsRowDxfId="43" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
@@ -5208,10 +5345,10 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DA456747-D398-4471-8B86-AB700DA339AD}" name="Table91629" displayName="Table91629" ref="B28:D38" totalsRowShown="0" headerRowDxfId="39" tableBorderDxfId="38" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
-  <autoFilter ref="B28:D38" xr:uid="{DA456747-D398-4471-8B86-AB700DA339AD}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B29:D38">
-    <sortCondition ref="B28:B38"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DA456747-D398-4471-8B86-AB700DA339AD}" name="Table91629" displayName="Table91629" ref="B29:D39" totalsRowShown="0" headerRowDxfId="39" tableBorderDxfId="38" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+  <autoFilter ref="B29:D39" xr:uid="{DA456747-D398-4471-8B86-AB700DA339AD}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B30:D39">
+    <sortCondition ref="B29:B39"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{B397B237-34CC-4F05-A03A-172D9B10CC01}" name="Part name" totalsRowDxfId="37" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
@@ -5471,15 +5608,15 @@
   </sheetPr>
   <dimension ref="A1:O146"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O95" sqref="O95"/>
+    <sheetView topLeftCell="A132" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.5703125" style="13" customWidth="1"/>
     <col min="2" max="2" width="36.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="124" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" style="13" customWidth="1"/>
     <col min="5" max="5" width="6.5703125" style="13" customWidth="1"/>
     <col min="6" max="6" width="6.28515625" style="17" customWidth="1"/>
@@ -5495,34 +5632,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="193" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="118" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="139" t="s">
+      <c r="B1" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="118" t="s">
+      <c r="E1" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="118" t="s">
+      <c r="F1" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="118" t="s">
+      <c r="G1" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="140" t="s">
+      <c r="H1" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="141" t="s">
+      <c r="I1" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="142" t="s">
+      <c r="J1" s="141" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="74" t="s">
@@ -5536,10 +5673,10 @@
       <c r="A2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="145" t="s">
+      <c r="B2" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="122"/>
+      <c r="C2" s="121"/>
       <c r="D2" s="75">
         <v>1</v>
       </c>
@@ -5550,13 +5687,13 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="G2" s="77">
-        <f>E2*F2</f>
+        <f t="shared" ref="G2:G33" si="0">E2*F2</f>
         <v>4.0999999999999996</v>
       </c>
       <c r="H2" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="108" t="s">
+      <c r="I2" s="107" t="s">
         <v>15</v>
       </c>
       <c r="J2" s="30">
@@ -5572,7 +5709,7 @@
       <c r="B3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="123"/>
+      <c r="C3" s="122"/>
       <c r="D3" s="79">
         <v>31</v>
       </c>
@@ -5583,13 +5720,13 @@
         <v>4.95</v>
       </c>
       <c r="G3" s="77">
-        <f>E3*F3</f>
+        <f t="shared" si="0"/>
         <v>19.8</v>
       </c>
       <c r="H3" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="108" t="s">
+      <c r="I3" s="107" t="s">
         <v>18</v>
       </c>
       <c r="J3" s="30">
@@ -5605,7 +5742,7 @@
       <c r="B4" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="124"/>
+      <c r="C4" s="123"/>
       <c r="D4" s="79">
         <v>24</v>
       </c>
@@ -5616,13 +5753,13 @@
         <v>7.84</v>
       </c>
       <c r="G4" s="77">
-        <f>E4*F4</f>
+        <f t="shared" si="0"/>
         <v>23.52</v>
       </c>
       <c r="H4" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="108" t="s">
+      <c r="I4" s="107" t="s">
         <v>18</v>
       </c>
       <c r="J4" s="30">
@@ -5648,13 +5785,13 @@
         <v>4.7300000000000004</v>
       </c>
       <c r="G5" s="77">
-        <f>E5*F5</f>
+        <f t="shared" si="0"/>
         <v>4.7300000000000004</v>
       </c>
       <c r="H5" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="108" t="s">
+      <c r="I5" s="107" t="s">
         <v>18</v>
       </c>
       <c r="J5" s="30">
@@ -5680,13 +5817,13 @@
         <v>18.27</v>
       </c>
       <c r="G6" s="77">
-        <f>E6*F6</f>
+        <f t="shared" si="0"/>
         <v>18.27</v>
       </c>
       <c r="H6" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="119" t="s">
+      <c r="I6" s="118" t="s">
         <v>25</v>
       </c>
       <c r="J6" s="30">
@@ -5699,10 +5836,10 @@
       <c r="A7" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="143" t="s">
+      <c r="B7" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="122"/>
+      <c r="C7" s="121"/>
       <c r="D7" s="75">
         <v>3</v>
       </c>
@@ -5713,13 +5850,13 @@
         <v>5.4</v>
       </c>
       <c r="G7" s="77">
-        <f>E7*F7</f>
+        <f t="shared" si="0"/>
         <v>5.4</v>
       </c>
       <c r="H7" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="119" t="s">
+      <c r="I7" s="118" t="s">
         <v>28</v>
       </c>
       <c r="J7" s="30">
@@ -5732,10 +5869,10 @@
       <c r="A8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="143" t="s">
+      <c r="B8" s="142" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="122"/>
+      <c r="C8" s="121"/>
       <c r="D8" s="82">
         <v>3</v>
       </c>
@@ -5746,13 +5883,13 @@
         <v>42</v>
       </c>
       <c r="G8" s="77">
-        <f>E8*F8</f>
+        <f t="shared" si="0"/>
         <v>126</v>
       </c>
       <c r="H8" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="109" t="s">
+      <c r="I8" s="108" t="s">
         <v>31</v>
       </c>
       <c r="J8" s="30">
@@ -5765,10 +5902,10 @@
       <c r="A9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="144" t="s">
+      <c r="B9" s="143" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="126"/>
+      <c r="C9" s="125"/>
       <c r="D9" s="83">
         <v>2</v>
       </c>
@@ -5779,13 +5916,13 @@
         <v>38</v>
       </c>
       <c r="G9" s="77">
-        <f>E9*F9</f>
+        <f t="shared" si="0"/>
         <v>76</v>
       </c>
       <c r="H9" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="109" t="s">
+      <c r="I9" s="108" t="s">
         <v>31</v>
       </c>
       <c r="J9" s="30">
@@ -5798,10 +5935,10 @@
       <c r="A10" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="144" t="s">
+      <c r="B10" s="143" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="126"/>
+      <c r="C10" s="125"/>
       <c r="D10" s="83">
         <v>1</v>
       </c>
@@ -5812,13 +5949,13 @@
         <v>36</v>
       </c>
       <c r="G10" s="77">
-        <f>E10*F10</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="H10" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="109" t="s">
+      <c r="I10" s="108" t="s">
         <v>31</v>
       </c>
       <c r="J10" s="30">
@@ -5834,7 +5971,7 @@
       <c r="B11" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="122"/>
+      <c r="C11" s="121"/>
       <c r="D11" s="63">
         <v>1</v>
       </c>
@@ -5845,13 +5982,13 @@
         <v>39.520000000000003</v>
       </c>
       <c r="G11" s="77">
-        <f>E11*F11</f>
+        <f t="shared" si="0"/>
         <v>39.520000000000003</v>
       </c>
       <c r="H11" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="119" t="s">
+      <c r="I11" s="118" t="s">
         <v>28</v>
       </c>
       <c r="J11" s="30">
@@ -5864,10 +6001,10 @@
       <c r="A12" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="143" t="s">
+      <c r="B12" s="142" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="121" t="s">
+      <c r="C12" s="120" t="s">
         <v>40</v>
       </c>
       <c r="D12" s="79">
@@ -5880,13 +6017,13 @@
         <v>78.39</v>
       </c>
       <c r="G12" s="77">
-        <f>E12*F12</f>
+        <f t="shared" si="0"/>
         <v>78.39</v>
       </c>
       <c r="H12" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="119" t="s">
+      <c r="I12" s="118" t="s">
         <v>42</v>
       </c>
       <c r="J12" s="30">
@@ -5902,7 +6039,7 @@
       <c r="B13" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="146"/>
+      <c r="C13" s="145"/>
       <c r="D13" s="63">
         <v>1</v>
       </c>
@@ -5913,13 +6050,13 @@
         <v>5</v>
       </c>
       <c r="G13" s="77">
-        <f>E13*F13</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H13" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="I13" s="110" t="s">
+      <c r="I13" s="109" t="s">
         <v>45</v>
       </c>
       <c r="J13" s="30">
@@ -5935,7 +6072,7 @@
       <c r="B14" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="146"/>
+      <c r="C14" s="145"/>
       <c r="D14" s="63">
         <v>2</v>
       </c>
@@ -5946,13 +6083,13 @@
         <v>5</v>
       </c>
       <c r="G14" s="77">
-        <f>E14*F14</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="H14" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="I14" s="110" t="s">
+      <c r="I14" s="109" t="s">
         <v>45</v>
       </c>
       <c r="J14" s="30">
@@ -5968,7 +6105,7 @@
       <c r="B15" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="127"/>
+      <c r="C15" s="126"/>
       <c r="D15" s="16">
         <v>1</v>
       </c>
@@ -5979,13 +6116,13 @@
         <v>0.54</v>
       </c>
       <c r="G15" s="77">
-        <f>E15*F15</f>
+        <f t="shared" si="0"/>
         <v>0.54</v>
       </c>
       <c r="H15" s="102" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="148" t="s">
+      <c r="I15" s="147" t="s">
         <v>49</v>
       </c>
       <c r="J15" s="30">
@@ -6001,7 +6138,7 @@
       <c r="B16" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="127"/>
+      <c r="C16" s="126"/>
       <c r="D16" s="16">
         <v>1</v>
       </c>
@@ -6012,13 +6149,13 @@
         <v>0.54</v>
       </c>
       <c r="G16" s="77">
-        <f>E16*F16</f>
+        <f t="shared" si="0"/>
         <v>0.54</v>
       </c>
       <c r="H16" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="148" t="s">
+      <c r="I16" s="147" t="s">
         <v>49</v>
       </c>
       <c r="J16" s="30">
@@ -6034,7 +6171,7 @@
       <c r="B17" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="127"/>
+      <c r="C17" s="126"/>
       <c r="D17" s="16">
         <v>1</v>
       </c>
@@ -6045,13 +6182,13 @@
         <v>0.54</v>
       </c>
       <c r="G17" s="77">
-        <f>E17*F17</f>
+        <f t="shared" si="0"/>
         <v>0.54</v>
       </c>
       <c r="H17" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="I17" s="148" t="s">
+      <c r="I17" s="147" t="s">
         <v>49</v>
       </c>
       <c r="J17" s="30">
@@ -6067,8 +6204,8 @@
       <c r="B18" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="120"/>
-      <c r="D18" s="154">
+      <c r="C18" s="119"/>
+      <c r="D18" s="153">
         <v>2</v>
       </c>
       <c r="E18" s="76">
@@ -6078,13 +6215,13 @@
         <v>1.45</v>
       </c>
       <c r="G18" s="77">
-        <f>E18*F18</f>
+        <f t="shared" si="0"/>
         <v>1.45</v>
       </c>
       <c r="H18" s="102" t="s">
         <v>55</v>
       </c>
-      <c r="I18" s="148" t="s">
+      <c r="I18" s="147" t="s">
         <v>49</v>
       </c>
       <c r="J18" s="30">
@@ -6097,11 +6234,11 @@
       <c r="A19" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="147" t="s">
+      <c r="B19" s="146" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="120"/>
-      <c r="D19" s="154">
+      <c r="C19" s="119"/>
+      <c r="D19" s="153">
         <v>5</v>
       </c>
       <c r="E19" s="76">
@@ -6111,13 +6248,13 @@
         <v>0.86</v>
       </c>
       <c r="G19" s="77">
-        <f>E19*F19</f>
+        <f t="shared" si="0"/>
         <v>0.86</v>
       </c>
       <c r="H19" s="102" t="s">
         <v>57</v>
       </c>
-      <c r="I19" s="148" t="s">
+      <c r="I19" s="147" t="s">
         <v>49</v>
       </c>
       <c r="J19" s="30">
@@ -6133,8 +6270,8 @@
       <c r="B20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="120"/>
-      <c r="D20" s="154">
+      <c r="C20" s="119"/>
+      <c r="D20" s="153">
         <v>2</v>
       </c>
       <c r="E20" s="76">
@@ -6144,13 +6281,13 @@
         <v>1.45</v>
       </c>
       <c r="G20" s="77">
-        <f>E20*F20</f>
+        <f t="shared" si="0"/>
         <v>1.45</v>
       </c>
       <c r="H20" s="102" t="s">
         <v>59</v>
       </c>
-      <c r="I20" s="148" t="s">
+      <c r="I20" s="147" t="s">
         <v>49</v>
       </c>
       <c r="J20" s="30">
@@ -6166,7 +6303,7 @@
       <c r="B21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="120"/>
+      <c r="C21" s="119"/>
       <c r="D21" s="16">
         <v>5</v>
       </c>
@@ -6177,13 +6314,13 @@
         <v>0.86</v>
       </c>
       <c r="G21" s="77">
-        <f>E21*F21</f>
+        <f t="shared" si="0"/>
         <v>0.86</v>
       </c>
       <c r="H21" s="102" t="s">
         <v>61</v>
       </c>
-      <c r="I21" s="148" t="s">
+      <c r="I21" s="147" t="s">
         <v>49</v>
       </c>
       <c r="J21" s="30">
@@ -6199,7 +6336,7 @@
       <c r="B22" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="146"/>
+      <c r="C22" s="145"/>
       <c r="D22" s="63">
         <v>1</v>
       </c>
@@ -6210,13 +6347,13 @@
         <v>5</v>
       </c>
       <c r="G22" s="77">
-        <f>E22*F22</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H22" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="I22" s="110" t="s">
+      <c r="I22" s="109" t="s">
         <v>45</v>
       </c>
       <c r="J22" s="30">
@@ -6232,7 +6369,7 @@
       <c r="B23" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="122"/>
+      <c r="C23" s="121"/>
       <c r="D23" s="63">
         <v>1</v>
       </c>
@@ -6243,13 +6380,13 @@
         <v>2.35</v>
       </c>
       <c r="G23" s="77">
-        <f>E23*F23</f>
+        <f t="shared" si="0"/>
         <v>2.35</v>
       </c>
       <c r="H23" s="102" t="s">
         <v>65</v>
       </c>
-      <c r="I23" s="148" t="s">
+      <c r="I23" s="147" t="s">
         <v>66</v>
       </c>
       <c r="J23" s="30">
@@ -6265,8 +6402,8 @@
       <c r="B24" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="120"/>
-      <c r="D24" s="154">
+      <c r="C24" s="119"/>
+      <c r="D24" s="153">
         <v>2</v>
       </c>
       <c r="E24" s="76">
@@ -6276,13 +6413,13 @@
         <v>1.45</v>
       </c>
       <c r="G24" s="77">
-        <f>E24*F24</f>
+        <f t="shared" si="0"/>
         <v>1.45</v>
       </c>
       <c r="H24" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="I24" s="148" t="s">
+      <c r="I24" s="147" t="s">
         <v>49</v>
       </c>
       <c r="J24" s="30">
@@ -6298,7 +6435,7 @@
       <c r="B25" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="120"/>
+      <c r="C25" s="119"/>
       <c r="D25" s="16">
         <v>5</v>
       </c>
@@ -6309,13 +6446,13 @@
         <v>0.86</v>
       </c>
       <c r="G25" s="77">
-        <f>E25*F25</f>
+        <f t="shared" si="0"/>
         <v>0.86</v>
       </c>
       <c r="H25" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="I25" s="148" t="s">
+      <c r="I25" s="147" t="s">
         <v>49</v>
       </c>
       <c r="J25" s="30">
@@ -6331,7 +6468,7 @@
       <c r="B26" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="120"/>
+      <c r="C26" s="119"/>
       <c r="D26" s="16">
         <v>5</v>
       </c>
@@ -6342,13 +6479,13 @@
         <v>3.77</v>
       </c>
       <c r="G26" s="77">
-        <f>E26*F26</f>
+        <f t="shared" si="0"/>
         <v>3.77</v>
       </c>
       <c r="H26" s="102" t="s">
         <v>72</v>
       </c>
-      <c r="I26" s="148" t="s">
+      <c r="I26" s="147" t="s">
         <v>49</v>
       </c>
       <c r="J26" s="30">
@@ -6364,8 +6501,8 @@
       <c r="B27" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="120"/>
-      <c r="D27" s="154">
+      <c r="C27" s="119"/>
+      <c r="D27" s="153">
         <v>2</v>
       </c>
       <c r="E27" s="76">
@@ -6375,13 +6512,13 @@
         <v>1.45</v>
       </c>
       <c r="G27" s="77">
-        <f>E27*F27</f>
+        <f t="shared" si="0"/>
         <v>1.45</v>
       </c>
       <c r="H27" s="102" t="s">
         <v>74</v>
       </c>
-      <c r="I27" s="148" t="s">
+      <c r="I27" s="147" t="s">
         <v>49</v>
       </c>
       <c r="J27" s="30">
@@ -6397,8 +6534,8 @@
       <c r="B28" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="120"/>
-      <c r="D28" s="154">
+      <c r="C28" s="119"/>
+      <c r="D28" s="153">
         <v>5</v>
       </c>
       <c r="E28" s="76">
@@ -6408,13 +6545,13 @@
         <v>0.86</v>
       </c>
       <c r="G28" s="77">
-        <f>E28*F28</f>
+        <f t="shared" si="0"/>
         <v>0.86</v>
       </c>
       <c r="H28" s="102" t="s">
         <v>76</v>
       </c>
-      <c r="I28" s="148" t="s">
+      <c r="I28" s="147" t="s">
         <v>49</v>
       </c>
       <c r="J28" s="30">
@@ -6430,8 +6567,8 @@
       <c r="B29" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C29" s="120"/>
-      <c r="D29" s="154">
+      <c r="C29" s="119"/>
+      <c r="D29" s="153">
         <v>5</v>
       </c>
       <c r="E29" s="76">
@@ -6441,13 +6578,13 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="G29" s="77">
-        <f>E29*F29</f>
+        <f t="shared" si="0"/>
         <v>2.2200000000000002</v>
       </c>
       <c r="H29" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="I29" s="148" t="s">
+      <c r="I29" s="147" t="s">
         <v>49</v>
       </c>
       <c r="J29" s="30">
@@ -6463,8 +6600,8 @@
       <c r="B30" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="120"/>
-      <c r="D30" s="154">
+      <c r="C30" s="119"/>
+      <c r="D30" s="153">
         <v>5</v>
       </c>
       <c r="E30" s="76">
@@ -6474,13 +6611,13 @@
         <v>0.86</v>
       </c>
       <c r="G30" s="77">
-        <f>E30*F30</f>
+        <f t="shared" si="0"/>
         <v>0.86</v>
       </c>
       <c r="H30" s="102" t="s">
         <v>80</v>
       </c>
-      <c r="I30" s="148" t="s">
+      <c r="I30" s="147" t="s">
         <v>49</v>
       </c>
       <c r="J30" s="30">
@@ -6496,7 +6633,7 @@
       <c r="B31" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="120"/>
+      <c r="C31" s="119"/>
       <c r="D31" s="60">
         <v>1</v>
       </c>
@@ -6507,13 +6644,13 @@
         <v>148</v>
       </c>
       <c r="G31" s="77">
-        <f>E31*F31</f>
+        <f t="shared" si="0"/>
         <v>148</v>
       </c>
       <c r="H31" s="102" t="s">
         <v>82</v>
       </c>
-      <c r="I31" s="148" t="s">
+      <c r="I31" s="147" t="s">
         <v>83</v>
       </c>
       <c r="J31" s="30">
@@ -6529,7 +6666,7 @@
       <c r="B32" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="C32" s="122"/>
+      <c r="C32" s="121"/>
       <c r="D32" s="63">
         <v>1</v>
       </c>
@@ -6540,13 +6677,13 @@
         <v>12.07</v>
       </c>
       <c r="G32" s="77">
-        <f>E32*F32</f>
+        <f t="shared" si="0"/>
         <v>12.07</v>
       </c>
       <c r="H32" s="102" t="s">
         <v>85</v>
       </c>
-      <c r="I32" s="119" t="s">
+      <c r="I32" s="118" t="s">
         <v>86</v>
       </c>
       <c r="J32" s="30">
@@ -6562,7 +6699,7 @@
       <c r="B33" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="127"/>
+      <c r="C33" s="126"/>
       <c r="D33" s="16">
         <v>1</v>
       </c>
@@ -6573,13 +6710,13 @@
         <v>33.590000000000003</v>
       </c>
       <c r="G33" s="77">
-        <f>E33*F33</f>
+        <f t="shared" si="0"/>
         <v>33.590000000000003</v>
       </c>
       <c r="H33" s="102" t="s">
         <v>88</v>
       </c>
-      <c r="I33" s="148" t="s">
+      <c r="I33" s="147" t="s">
         <v>66</v>
       </c>
       <c r="J33" s="30">
@@ -6592,10 +6729,10 @@
       <c r="A34" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="151" t="s">
+      <c r="B34" s="150" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="128"/>
+      <c r="C34" s="127"/>
       <c r="D34" s="63">
         <v>1</v>
       </c>
@@ -6606,13 +6743,13 @@
         <v>16.82</v>
       </c>
       <c r="G34" s="77">
-        <f>E34*F34</f>
+        <f t="shared" ref="G34:G65" si="1">E34*F34</f>
         <v>16.82</v>
       </c>
       <c r="H34" s="102" t="s">
         <v>90</v>
       </c>
-      <c r="I34" s="119" t="s">
+      <c r="I34" s="118" t="s">
         <v>91</v>
       </c>
       <c r="J34" s="30">
@@ -6628,7 +6765,7 @@
       <c r="B35" t="s">
         <v>92</v>
       </c>
-      <c r="C35" s="129"/>
+      <c r="C35" s="128"/>
       <c r="D35">
         <v>1</v>
       </c>
@@ -6639,13 +6776,13 @@
         <v>10.32</v>
       </c>
       <c r="G35" s="77">
-        <f>E35*F35</f>
+        <f t="shared" si="1"/>
         <v>10.32</v>
       </c>
       <c r="H35" s="102" t="s">
         <v>93</v>
       </c>
-      <c r="I35" s="153" t="s">
+      <c r="I35" s="152" t="s">
         <v>94</v>
       </c>
       <c r="J35" s="30">
@@ -6661,7 +6798,7 @@
       <c r="B36" t="s">
         <v>95</v>
       </c>
-      <c r="C36" s="122"/>
+      <c r="C36" s="121"/>
       <c r="D36" s="13">
         <v>2</v>
       </c>
@@ -6672,13 +6809,13 @@
         <v>5.07</v>
       </c>
       <c r="G36" s="77">
-        <f>E36*F36</f>
+        <f t="shared" si="1"/>
         <v>10.14</v>
       </c>
       <c r="H36" s="102" t="s">
         <v>96</v>
       </c>
-      <c r="I36" s="119" t="s">
+      <c r="I36" s="118" t="s">
         <v>28</v>
       </c>
       <c r="J36" s="30">
@@ -6704,13 +6841,13 @@
         <v>3.35</v>
       </c>
       <c r="G37" s="77">
-        <f>E37*F37</f>
+        <f t="shared" si="1"/>
         <v>3.35</v>
       </c>
       <c r="H37" s="102" t="s">
         <v>98</v>
       </c>
-      <c r="I37" s="111" t="s">
+      <c r="I37" s="110" t="s">
         <v>99</v>
       </c>
       <c r="J37" s="30">
@@ -6736,13 +6873,13 @@
         <v>3.25</v>
       </c>
       <c r="G38" s="77">
-        <f>E38*F38</f>
+        <f t="shared" si="1"/>
         <v>3.25</v>
       </c>
       <c r="H38" s="102" t="s">
         <v>101</v>
       </c>
-      <c r="I38" s="111" t="s">
+      <c r="I38" s="110" t="s">
         <v>99</v>
       </c>
       <c r="J38" s="30">
@@ -6758,7 +6895,7 @@
       <c r="B39" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="C39" s="122"/>
+      <c r="C39" s="121"/>
       <c r="D39" s="63">
         <v>1</v>
       </c>
@@ -6769,13 +6906,13 @@
         <v>4.95</v>
       </c>
       <c r="G39" s="77">
-        <f>E39*F39</f>
+        <f t="shared" si="1"/>
         <v>4.95</v>
       </c>
       <c r="H39" s="102" t="s">
         <v>103</v>
       </c>
-      <c r="I39" s="112" t="s">
+      <c r="I39" s="111" t="s">
         <v>104</v>
       </c>
       <c r="J39" s="30">
@@ -6791,7 +6928,7 @@
       <c r="B40" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="C40" s="122"/>
+      <c r="C40" s="121"/>
       <c r="D40" s="63">
         <v>1</v>
       </c>
@@ -6802,13 +6939,13 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="G40" s="77">
-        <f>E40*F40</f>
+        <f t="shared" si="1"/>
         <v>4.9000000000000004</v>
       </c>
       <c r="H40" s="102" t="s">
         <v>106</v>
       </c>
-      <c r="I40" s="112" t="s">
+      <c r="I40" s="111" t="s">
         <v>104</v>
       </c>
       <c r="J40" s="30">
@@ -6824,7 +6961,7 @@
       <c r="B41" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="122"/>
+      <c r="C41" s="121"/>
       <c r="D41" s="63">
         <v>2</v>
       </c>
@@ -6835,13 +6972,13 @@
         <v>4.45</v>
       </c>
       <c r="G41" s="77">
-        <f>E41*F41</f>
+        <f t="shared" si="1"/>
         <v>8.9</v>
       </c>
       <c r="H41" s="102" t="s">
         <v>108</v>
       </c>
-      <c r="I41" s="112" t="s">
+      <c r="I41" s="111" t="s">
         <v>104</v>
       </c>
       <c r="J41" s="30">
@@ -6857,7 +6994,7 @@
       <c r="B42" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="C42" s="122"/>
+      <c r="C42" s="121"/>
       <c r="D42" s="63">
         <v>2</v>
       </c>
@@ -6868,13 +7005,13 @@
         <v>4.3499999999999996</v>
       </c>
       <c r="G42" s="77">
-        <f>E42*F42</f>
+        <f t="shared" si="1"/>
         <v>8.6999999999999993</v>
       </c>
       <c r="H42" s="102" t="s">
         <v>110</v>
       </c>
-      <c r="I42" s="112" t="s">
+      <c r="I42" s="111" t="s">
         <v>104</v>
       </c>
       <c r="J42" s="30">
@@ -6887,10 +7024,10 @@
       <c r="A43" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="B43" s="145" t="s">
+      <c r="B43" s="144" t="s">
         <v>111</v>
       </c>
-      <c r="C43" s="130"/>
+      <c r="C43" s="129"/>
       <c r="D43" s="75">
         <v>1</v>
       </c>
@@ -6901,13 +7038,13 @@
         <v>3.92</v>
       </c>
       <c r="G43" s="77">
-        <f>E43*F43</f>
+        <f t="shared" si="1"/>
         <v>3.92</v>
       </c>
       <c r="H43" s="102" t="s">
         <v>96</v>
       </c>
-      <c r="I43" s="119" t="s">
+      <c r="I43" s="118" t="s">
         <v>28</v>
       </c>
       <c r="J43" s="30">
@@ -6923,7 +7060,7 @@
       <c r="B44" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C44" s="122"/>
+      <c r="C44" s="121"/>
       <c r="D44" s="63">
         <v>1</v>
       </c>
@@ -6934,13 +7071,13 @@
         <v>13.9</v>
       </c>
       <c r="G44" s="77">
-        <f>E44*F44</f>
+        <f t="shared" si="1"/>
         <v>13.9</v>
       </c>
       <c r="H44" s="102" t="s">
         <v>113</v>
       </c>
-      <c r="I44" s="119" t="s">
+      <c r="I44" s="118" t="s">
         <v>114</v>
       </c>
       <c r="J44" s="30">
@@ -6953,10 +7090,10 @@
       <c r="A45" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="147" t="s">
+      <c r="B45" s="146" t="s">
         <v>115</v>
       </c>
-      <c r="C45" s="127"/>
+      <c r="C45" s="126"/>
       <c r="D45" s="60">
         <v>1</v>
       </c>
@@ -6967,13 +7104,13 @@
         <v>6.35</v>
       </c>
       <c r="G45" s="77">
-        <f>E45*F45</f>
+        <f t="shared" si="1"/>
         <v>6.35</v>
       </c>
       <c r="H45" s="102" t="s">
         <v>116</v>
       </c>
-      <c r="I45" s="148" t="s">
+      <c r="I45" s="147" t="s">
         <v>117</v>
       </c>
       <c r="J45" s="30">
@@ -6986,11 +7123,11 @@
       <c r="A46" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="151" t="s">
+      <c r="B46" s="150" t="s">
         <v>118</v>
       </c>
-      <c r="C46" s="152"/>
-      <c r="D46" s="151">
+      <c r="C46" s="151"/>
+      <c r="D46" s="150">
         <v>1</v>
       </c>
       <c r="E46" s="76">
@@ -7000,13 +7137,13 @@
         <v>3.95</v>
       </c>
       <c r="G46" s="77">
-        <f>E46*F46</f>
+        <f t="shared" si="1"/>
         <v>3.95</v>
       </c>
       <c r="H46" s="102" t="s">
         <v>119</v>
       </c>
-      <c r="I46" s="119" t="s">
+      <c r="I46" s="118" t="s">
         <v>120</v>
       </c>
       <c r="J46" s="30">
@@ -7022,8 +7159,8 @@
       <c r="B47" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="C47" s="122"/>
-      <c r="D47" s="151">
+      <c r="C47" s="121"/>
+      <c r="D47" s="150">
         <v>1</v>
       </c>
       <c r="E47" s="76">
@@ -7033,13 +7170,13 @@
         <v>11.5</v>
       </c>
       <c r="G47" s="77">
-        <f>E47*F47</f>
+        <f t="shared" si="1"/>
         <v>11.5</v>
       </c>
       <c r="H47" s="102" t="s">
         <v>122</v>
       </c>
-      <c r="I47" s="119" t="s">
+      <c r="I47" s="118" t="s">
         <v>120</v>
       </c>
       <c r="J47" s="30">
@@ -7052,10 +7189,10 @@
       <c r="A48" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="144" t="s">
+      <c r="B48" s="143" t="s">
         <v>123</v>
       </c>
-      <c r="C48" s="122"/>
+      <c r="C48" s="121"/>
       <c r="D48" s="83">
         <v>3</v>
       </c>
@@ -7066,13 +7203,13 @@
         <v>46</v>
       </c>
       <c r="G48" s="77">
-        <f>E48*F48</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="H48" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="I48" s="109" t="s">
+      <c r="I48" s="108" t="s">
         <v>125</v>
       </c>
       <c r="J48" s="30">
@@ -7085,10 +7222,10 @@
       <c r="A49" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="B49" s="144" t="s">
+      <c r="B49" s="143" t="s">
         <v>126</v>
       </c>
-      <c r="C49" s="126"/>
+      <c r="C49" s="125"/>
       <c r="D49" s="83">
         <v>2</v>
       </c>
@@ -7099,13 +7236,13 @@
         <v>22.5</v>
       </c>
       <c r="G49" s="77">
-        <f>E49*F49</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="H49" s="102" t="s">
         <v>127</v>
       </c>
-      <c r="I49" s="109" t="s">
+      <c r="I49" s="108" t="s">
         <v>125</v>
       </c>
       <c r="J49" s="30">
@@ -7121,7 +7258,7 @@
       <c r="B50" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="C50" s="120"/>
+      <c r="C50" s="119"/>
       <c r="D50" s="16">
         <v>2</v>
       </c>
@@ -7132,13 +7269,13 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="G50" s="77">
-        <f>E50*F50</f>
+        <f t="shared" si="1"/>
         <v>2.3199999999999998</v>
       </c>
       <c r="H50" s="102" t="s">
         <v>129</v>
       </c>
-      <c r="I50" s="148" t="s">
+      <c r="I50" s="147" t="s">
         <v>130</v>
       </c>
       <c r="J50" s="30">
@@ -7154,24 +7291,24 @@
       <c r="B51" s="60" t="s">
         <v>131</v>
       </c>
-      <c r="C51" s="120"/>
+      <c r="C51" s="119"/>
       <c r="D51" s="16">
         <v>1</v>
       </c>
       <c r="E51" s="76">
         <v>1</v>
       </c>
-      <c r="F51" s="149">
+      <c r="F51" s="148">
         <v>4.82</v>
       </c>
       <c r="G51" s="77">
-        <f>E51*F51</f>
+        <f t="shared" si="1"/>
         <v>4.82</v>
       </c>
       <c r="H51" s="102" t="s">
         <v>132</v>
       </c>
-      <c r="I51" s="150" t="s">
+      <c r="I51" s="149" t="s">
         <v>130</v>
       </c>
       <c r="J51" s="30">
@@ -7187,24 +7324,24 @@
       <c r="B52" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C52" s="120"/>
+      <c r="C52" s="119"/>
       <c r="D52" s="16">
         <v>1</v>
       </c>
       <c r="E52" s="76">
         <v>1</v>
       </c>
-      <c r="F52" s="149">
+      <c r="F52" s="148">
         <v>12.01</v>
       </c>
       <c r="G52" s="77">
-        <f>E52*F52</f>
+        <f t="shared" si="1"/>
         <v>12.01</v>
       </c>
       <c r="H52" s="102" t="s">
         <v>134</v>
       </c>
-      <c r="I52" s="150" t="s">
+      <c r="I52" s="149" t="s">
         <v>130</v>
       </c>
       <c r="J52" s="30">
@@ -7220,24 +7357,24 @@
       <c r="B53" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="C53" s="120"/>
+      <c r="C53" s="119"/>
       <c r="D53" s="16">
         <v>1</v>
       </c>
       <c r="E53" s="76">
         <v>1</v>
       </c>
-      <c r="F53" s="149">
+      <c r="F53" s="148">
         <v>3.22</v>
       </c>
       <c r="G53" s="77">
-        <f>E53*F53</f>
+        <f t="shared" si="1"/>
         <v>3.22</v>
       </c>
       <c r="H53" s="102" t="s">
         <v>136</v>
       </c>
-      <c r="I53" s="113" t="s">
+      <c r="I53" s="112" t="s">
         <v>137</v>
       </c>
       <c r="J53" s="30">
@@ -7253,24 +7390,24 @@
       <c r="B54" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="C54" s="120"/>
+      <c r="C54" s="119"/>
       <c r="D54" s="60">
         <v>1</v>
       </c>
       <c r="E54" s="76">
         <v>1</v>
       </c>
-      <c r="F54" s="149">
+      <c r="F54" s="148">
         <v>13.59</v>
       </c>
       <c r="G54" s="77">
-        <f>E54*F54</f>
+        <f t="shared" si="1"/>
         <v>13.59</v>
       </c>
       <c r="H54" s="102" t="s">
         <v>139</v>
       </c>
-      <c r="I54" s="114" t="s">
+      <c r="I54" s="113" t="s">
         <v>140</v>
       </c>
       <c r="J54" s="30">
@@ -7286,24 +7423,24 @@
       <c r="B55" s="60" t="s">
         <v>141</v>
       </c>
-      <c r="C55" s="120"/>
+      <c r="C55" s="119"/>
       <c r="D55" s="60">
         <v>1</v>
       </c>
       <c r="E55" s="76">
         <v>1</v>
       </c>
-      <c r="F55" s="149">
+      <c r="F55" s="148">
         <v>33.700000000000003</v>
       </c>
       <c r="G55" s="77">
-        <f>E55*F55</f>
+        <f t="shared" si="1"/>
         <v>33.700000000000003</v>
       </c>
       <c r="H55" s="102" t="s">
         <v>142</v>
       </c>
-      <c r="I55" s="113" t="s">
+      <c r="I55" s="112" t="s">
         <v>125</v>
       </c>
       <c r="J55" s="30">
@@ -7319,7 +7456,7 @@
       <c r="B56" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C56" s="120"/>
+      <c r="C56" s="119"/>
       <c r="D56" s="16">
         <v>3</v>
       </c>
@@ -7330,13 +7467,13 @@
         <v>15.18</v>
       </c>
       <c r="G56" s="77">
-        <f>E56*F56</f>
+        <f t="shared" si="1"/>
         <v>45.54</v>
       </c>
       <c r="H56" s="102" t="s">
         <v>144</v>
       </c>
-      <c r="I56" s="148" t="s">
+      <c r="I56" s="147" t="s">
         <v>28</v>
       </c>
       <c r="J56" s="30">
@@ -7349,10 +7486,10 @@
       <c r="A57" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="B57" s="145" t="s">
+      <c r="B57" s="144" t="s">
         <v>145</v>
       </c>
-      <c r="C57" s="122"/>
+      <c r="C57" s="121"/>
       <c r="D57" s="63">
         <v>1</v>
       </c>
@@ -7363,13 +7500,13 @@
         <v>12.4</v>
       </c>
       <c r="G57" s="77">
-        <f>E57*F57</f>
+        <f t="shared" si="1"/>
         <v>12.4</v>
       </c>
       <c r="H57" s="102" t="s">
         <v>146</v>
       </c>
-      <c r="I57" s="119" t="s">
+      <c r="I57" s="118" t="s">
         <v>28</v>
       </c>
       <c r="J57" s="30">
@@ -7385,7 +7522,7 @@
       <c r="B58" s="80" t="s">
         <v>148</v>
       </c>
-      <c r="C58" s="124"/>
+      <c r="C58" s="123"/>
       <c r="D58" s="79">
         <v>32</v>
       </c>
@@ -7396,13 +7533,13 @@
         <v>3.26</v>
       </c>
       <c r="G58" s="77">
-        <f>E58*F58</f>
+        <f t="shared" si="1"/>
         <v>3.26</v>
       </c>
-      <c r="H58" s="106" t="s">
+      <c r="H58" s="105" t="s">
         <v>149</v>
       </c>
-      <c r="I58" s="108" t="s">
+      <c r="I58" s="107" t="s">
         <v>150</v>
       </c>
       <c r="J58" s="30">
@@ -7432,13 +7569,13 @@
         <v>4.34</v>
       </c>
       <c r="G59" s="77">
-        <f>E59*F59</f>
+        <f t="shared" si="1"/>
         <v>4.34</v>
       </c>
       <c r="H59" s="102" t="s">
         <v>152</v>
       </c>
-      <c r="I59" s="108" t="s">
+      <c r="I59" s="107" t="s">
         <v>153</v>
       </c>
       <c r="J59" s="30">
@@ -7454,7 +7591,7 @@
       <c r="B60" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="C60" s="123"/>
+      <c r="C60" s="122"/>
       <c r="D60" s="79">
         <v>36</v>
       </c>
@@ -7465,13 +7602,13 @@
         <v>2.87</v>
       </c>
       <c r="G60" s="77">
-        <f>E60*F60</f>
+        <f t="shared" si="1"/>
         <v>2.87</v>
       </c>
-      <c r="H60" s="106" t="s">
+      <c r="H60" s="105" t="s">
         <v>155</v>
       </c>
-      <c r="I60" s="108" t="s">
+      <c r="I60" s="107" t="s">
         <v>150</v>
       </c>
       <c r="J60" s="30">
@@ -7491,7 +7628,7 @@
       <c r="B61" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="C61" s="123"/>
+      <c r="C61" s="122"/>
       <c r="D61" s="79">
         <v>2</v>
       </c>
@@ -7502,13 +7639,13 @@
         <v>2.84</v>
       </c>
       <c r="G61" s="77">
-        <f>E61*F61</f>
+        <f t="shared" si="1"/>
         <v>2.84</v>
       </c>
-      <c r="H61" s="106" t="s">
+      <c r="H61" s="105" t="s">
         <v>157</v>
       </c>
-      <c r="I61" s="108" t="s">
+      <c r="I61" s="107" t="s">
         <v>150</v>
       </c>
       <c r="J61" s="30">
@@ -7536,13 +7673,13 @@
         <v>1</v>
       </c>
       <c r="G62" s="77">
-        <f>E62*F62</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H62" s="103" t="s">
         <v>159</v>
       </c>
-      <c r="I62" s="111" t="s">
+      <c r="I62" s="110" t="s">
         <v>150</v>
       </c>
       <c r="J62" s="30">
@@ -7570,13 +7707,13 @@
         <v>3</v>
       </c>
       <c r="G63" s="77">
-        <f>E63*F63</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="H63" s="103" t="s">
         <v>161</v>
       </c>
-      <c r="I63" s="119" t="s">
+      <c r="I63" s="118" t="s">
         <v>162</v>
       </c>
       <c r="J63" s="30">
@@ -7592,7 +7729,7 @@
       <c r="B64" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="C64" s="123"/>
+      <c r="C64" s="122"/>
       <c r="D64" s="79">
         <v>11</v>
       </c>
@@ -7603,13 +7740,13 @@
         <v>1</v>
       </c>
       <c r="G64" s="77">
-        <f>E64*F64</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H64" s="103" t="s">
         <v>164</v>
       </c>
-      <c r="I64" s="111" t="s">
+      <c r="I64" s="110" t="s">
         <v>150</v>
       </c>
       <c r="J64" s="30">
@@ -7627,7 +7764,7 @@
       <c r="B65" s="80" t="s">
         <v>165</v>
       </c>
-      <c r="C65" s="124"/>
+      <c r="C65" s="123"/>
       <c r="D65" s="79">
         <v>88</v>
       </c>
@@ -7638,13 +7775,13 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="G65" s="77">
-        <f>E65*F65</f>
+        <f t="shared" si="1"/>
         <v>4.0199999999999996</v>
       </c>
       <c r="H65" s="103" t="s">
         <v>166</v>
       </c>
-      <c r="I65" s="111" t="s">
+      <c r="I65" s="110" t="s">
         <v>150</v>
       </c>
       <c r="J65" s="30">
@@ -7672,13 +7809,13 @@
         <v>2.06</v>
       </c>
       <c r="G66" s="77">
-        <f>E66*F66</f>
+        <f t="shared" ref="G66:G97" si="2">E66*F66</f>
         <v>2.06</v>
       </c>
       <c r="H66" s="104" t="s">
         <v>168</v>
       </c>
-      <c r="I66" s="111" t="s">
+      <c r="I66" s="110" t="s">
         <v>150</v>
       </c>
       <c r="J66" s="30">
@@ -7696,7 +7833,7 @@
       <c r="B67" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="C67" s="122"/>
+      <c r="C67" s="121"/>
       <c r="D67" s="13">
         <v>4</v>
       </c>
@@ -7707,13 +7844,13 @@
         <v>2.74</v>
       </c>
       <c r="G67" s="77">
-        <f>E67*F67</f>
+        <f t="shared" si="2"/>
         <v>2.74</v>
       </c>
       <c r="H67" s="104" t="s">
         <v>170</v>
       </c>
-      <c r="I67" s="111" t="s">
+      <c r="I67" s="110" t="s">
         <v>150</v>
       </c>
       <c r="J67" s="30">
@@ -7731,7 +7868,7 @@
       <c r="B68" s="80" t="s">
         <v>171</v>
       </c>
-      <c r="C68" s="124"/>
+      <c r="C68" s="123"/>
       <c r="D68" s="13">
         <v>8</v>
       </c>
@@ -7742,13 +7879,13 @@
         <v>2.2599999999999998</v>
       </c>
       <c r="G68" s="77">
-        <f>E68*F68</f>
+        <f t="shared" si="2"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="H68" s="104" t="s">
         <v>172</v>
       </c>
-      <c r="I68" s="111" t="s">
+      <c r="I68" s="110" t="s">
         <v>150</v>
       </c>
       <c r="J68" s="30">
@@ -7766,7 +7903,7 @@
       <c r="B69" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="C69" s="123"/>
+      <c r="C69" s="122"/>
       <c r="D69" s="13">
         <v>16</v>
       </c>
@@ -7777,13 +7914,13 @@
         <v>2.2599999999999998</v>
       </c>
       <c r="G69" s="77">
-        <f>E69*F69</f>
+        <f t="shared" si="2"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="H69" s="104" t="s">
         <v>172</v>
       </c>
-      <c r="I69" s="111" t="s">
+      <c r="I69" s="110" t="s">
         <v>150</v>
       </c>
       <c r="J69" s="30">
@@ -7801,7 +7938,7 @@
       <c r="B70" s="80" t="s">
         <v>174</v>
       </c>
-      <c r="C70" s="124"/>
+      <c r="C70" s="123"/>
       <c r="D70" s="13">
         <v>122</v>
       </c>
@@ -7812,13 +7949,13 @@
         <v>2</v>
       </c>
       <c r="G70" s="77">
-        <f>E70*F70</f>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="H70" s="104" t="s">
         <v>175</v>
       </c>
-      <c r="I70" s="111" t="s">
+      <c r="I70" s="110" t="s">
         <v>150</v>
       </c>
       <c r="J70" s="30">
@@ -7836,7 +7973,7 @@
       <c r="B71" s="80" t="s">
         <v>176</v>
       </c>
-      <c r="C71" s="124"/>
+      <c r="C71" s="123"/>
       <c r="D71" s="13">
         <v>38</v>
       </c>
@@ -7847,13 +7984,13 @@
         <v>2.83</v>
       </c>
       <c r="G71" s="77">
-        <f>E71*F71</f>
+        <f t="shared" si="2"/>
         <v>11.32</v>
       </c>
       <c r="H71" s="104" t="s">
         <v>177</v>
       </c>
-      <c r="I71" s="111" t="s">
+      <c r="I71" s="110" t="s">
         <v>150</v>
       </c>
       <c r="J71" s="30">
@@ -7871,7 +8008,7 @@
       <c r="B72" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="C72" s="122"/>
+      <c r="C72" s="121"/>
       <c r="D72" s="13">
         <v>6</v>
       </c>
@@ -7882,13 +8019,13 @@
         <v>2.34</v>
       </c>
       <c r="G72" s="77">
-        <f>E72*F72</f>
+        <f t="shared" si="2"/>
         <v>2.34</v>
       </c>
       <c r="H72" s="104" t="s">
         <v>179</v>
       </c>
-      <c r="I72" s="111" t="s">
+      <c r="I72" s="110" t="s">
         <v>150</v>
       </c>
       <c r="J72" s="30">
@@ -7904,7 +8041,7 @@
       <c r="B73" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="C73" s="122"/>
+      <c r="C73" s="121"/>
       <c r="D73" s="13">
         <v>20</v>
       </c>
@@ -7915,13 +8052,13 @@
         <v>2.91</v>
       </c>
       <c r="G73" s="77">
-        <f>E73*F73</f>
+        <f t="shared" si="2"/>
         <v>5.82</v>
       </c>
       <c r="H73" s="104" t="s">
         <v>181</v>
       </c>
-      <c r="I73" s="111" t="s">
+      <c r="I73" s="110" t="s">
         <v>150</v>
       </c>
       <c r="J73" s="30">
@@ -7939,7 +8076,7 @@
       <c r="B74" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="C74" s="122"/>
+      <c r="C74" s="121"/>
       <c r="D74" s="13">
         <v>1</v>
       </c>
@@ -7950,13 +8087,13 @@
         <v>3.05</v>
       </c>
       <c r="G74" s="77">
-        <f>E74*F74</f>
+        <f t="shared" si="2"/>
         <v>3.05</v>
       </c>
       <c r="H74" s="104" t="s">
         <v>183</v>
       </c>
-      <c r="I74" s="111" t="s">
+      <c r="I74" s="110" t="s">
         <v>150</v>
       </c>
       <c r="J74" s="30">
@@ -7972,7 +8109,7 @@
       <c r="B75" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="C75" s="123"/>
+      <c r="C75" s="122"/>
       <c r="D75" s="13">
         <v>7</v>
       </c>
@@ -7983,13 +8120,13 @@
         <v>3</v>
       </c>
       <c r="G75" s="77">
-        <f>E75*F75</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H75" s="104" t="s">
         <v>185</v>
       </c>
-      <c r="I75" s="111" t="s">
+      <c r="I75" s="110" t="s">
         <v>150</v>
       </c>
       <c r="J75" s="30">
@@ -8019,13 +8156,13 @@
         <v>1</v>
       </c>
       <c r="G76" s="77">
-        <f>E76*F76</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H76" s="103" t="s">
         <v>187</v>
       </c>
-      <c r="I76" s="111" t="s">
+      <c r="I76" s="110" t="s">
         <v>150</v>
       </c>
       <c r="J76" s="30">
@@ -8043,7 +8180,7 @@
       <c r="B77" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="C77" s="123"/>
+      <c r="C77" s="122"/>
       <c r="D77" s="13">
         <v>3</v>
       </c>
@@ -8054,13 +8191,13 @@
         <v>1</v>
       </c>
       <c r="G77" s="77">
-        <f>E77*F77</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H77" s="103" t="s">
         <v>189</v>
       </c>
-      <c r="I77" s="111" t="s">
+      <c r="I77" s="110" t="s">
         <v>150</v>
       </c>
       <c r="J77" s="30">
@@ -8090,13 +8227,13 @@
         <v>2.5</v>
       </c>
       <c r="G78" s="77">
-        <f>E78*F78</f>
+        <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
       <c r="H78" s="103" t="s">
         <v>191</v>
       </c>
-      <c r="I78" s="111" t="s">
+      <c r="I78" s="110" t="s">
         <v>150</v>
       </c>
       <c r="J78" s="30">
@@ -8111,10 +8248,10 @@
       <c r="A79" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="B79" s="143" t="s">
+      <c r="B79" s="142" t="s">
         <v>192</v>
       </c>
-      <c r="C79" s="122"/>
+      <c r="C79" s="121"/>
       <c r="D79" s="13">
         <v>1</v>
       </c>
@@ -8125,13 +8262,13 @@
         <v>2.2599999999999998</v>
       </c>
       <c r="G79" s="77">
-        <f>E79*F79</f>
+        <f t="shared" si="2"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="H79" s="104" t="s">
         <v>193</v>
       </c>
-      <c r="I79" s="111" t="s">
+      <c r="I79" s="110" t="s">
         <v>150</v>
       </c>
       <c r="J79" s="30">
@@ -8147,7 +8284,7 @@
       <c r="B80" s="85" t="s">
         <v>194</v>
       </c>
-      <c r="C80" s="122"/>
+      <c r="C80" s="121"/>
       <c r="D80" s="13">
         <v>3</v>
       </c>
@@ -8158,13 +8295,13 @@
         <v>1.2</v>
       </c>
       <c r="G80" s="77">
-        <f>E80*F80</f>
+        <f t="shared" si="2"/>
         <v>1.2</v>
       </c>
       <c r="H80" s="104" t="s">
         <v>195</v>
       </c>
-      <c r="I80" s="111" t="s">
+      <c r="I80" s="110" t="s">
         <v>150</v>
       </c>
       <c r="J80" s="30">
@@ -8182,7 +8319,7 @@
       <c r="B81" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="C81" s="123"/>
+      <c r="C81" s="122"/>
       <c r="D81" s="13">
         <v>6</v>
       </c>
@@ -8193,13 +8330,13 @@
         <v>1.21</v>
       </c>
       <c r="G81" s="77">
-        <f>E81*F81</f>
+        <f t="shared" si="2"/>
         <v>7.26</v>
       </c>
       <c r="H81" s="104" t="s">
         <v>197</v>
       </c>
-      <c r="I81" s="119" t="s">
+      <c r="I81" s="118" t="s">
         <v>150</v>
       </c>
       <c r="J81" s="30">
@@ -8225,13 +8362,13 @@
         <v>2.42</v>
       </c>
       <c r="G82" s="77">
-        <f>E82*F82</f>
+        <f t="shared" si="2"/>
         <v>2.42</v>
       </c>
-      <c r="H82" s="106" t="s">
+      <c r="H82" s="105" t="s">
         <v>199</v>
       </c>
-      <c r="I82" s="111" t="s">
+      <c r="I82" s="110" t="s">
         <v>150</v>
       </c>
       <c r="J82" s="30">
@@ -8248,10 +8385,10 @@
       <c r="A83" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="B83" s="143" t="s">
+      <c r="B83" s="142" t="s">
         <v>200</v>
       </c>
-      <c r="C83" s="122"/>
+      <c r="C83" s="121"/>
       <c r="D83" s="13">
         <v>3</v>
       </c>
@@ -8262,13 +8399,13 @@
         <v>2.5</v>
       </c>
       <c r="G83" s="77">
-        <f>E83*F83</f>
+        <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
-      <c r="H83" s="106" t="s">
+      <c r="H83" s="105" t="s">
         <v>201</v>
       </c>
-      <c r="I83" s="111" t="s">
+      <c r="I83" s="110" t="s">
         <v>150</v>
       </c>
       <c r="J83" s="30">
@@ -8286,7 +8423,7 @@
       <c r="B84" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="C84" s="122"/>
+      <c r="C84" s="121"/>
       <c r="D84" s="13">
         <v>2</v>
       </c>
@@ -8297,13 +8434,13 @@
         <v>2.5299999999999998</v>
       </c>
       <c r="G84" s="77">
-        <f>E84*F84</f>
+        <f t="shared" si="2"/>
         <v>2.5299999999999998</v>
       </c>
-      <c r="H84" s="106" t="s">
+      <c r="H84" s="105" t="s">
         <v>203</v>
       </c>
-      <c r="I84" s="111" t="s">
+      <c r="I84" s="110" t="s">
         <v>150</v>
       </c>
       <c r="J84" s="30">
@@ -8321,7 +8458,7 @@
       <c r="B85" s="94" t="s">
         <v>204</v>
       </c>
-      <c r="C85" s="135"/>
+      <c r="C85" s="134"/>
       <c r="D85" s="13">
         <v>4</v>
       </c>
@@ -8332,13 +8469,13 @@
         <v>3.08</v>
       </c>
       <c r="G85" s="77">
-        <f>E85*F85</f>
+        <f t="shared" si="2"/>
         <v>3.08</v>
       </c>
-      <c r="H85" s="106" t="s">
+      <c r="H85" s="105" t="s">
         <v>205</v>
       </c>
-      <c r="I85" s="111" t="s">
+      <c r="I85" s="110" t="s">
         <v>150</v>
       </c>
       <c r="J85" s="30">
@@ -8368,13 +8505,13 @@
         <v>5.61</v>
       </c>
       <c r="G86" s="77">
-        <f>E86*F86</f>
+        <f t="shared" si="2"/>
         <v>5.61</v>
       </c>
-      <c r="H86" s="106" t="s">
+      <c r="H86" s="105" t="s">
         <v>207</v>
       </c>
-      <c r="I86" s="115" t="s">
+      <c r="I86" s="114" t="s">
         <v>150</v>
       </c>
       <c r="J86" s="30">
@@ -8390,7 +8527,7 @@
       <c r="B87" s="80" t="s">
         <v>208</v>
       </c>
-      <c r="C87" s="124"/>
+      <c r="C87" s="123"/>
       <c r="D87" s="13">
         <v>42</v>
       </c>
@@ -8401,13 +8538,13 @@
         <v>1</v>
       </c>
       <c r="G87" s="77">
-        <f>E87*F87</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H87" s="103" t="s">
         <v>209</v>
       </c>
-      <c r="I87" s="111" t="s">
+      <c r="I87" s="110" t="s">
         <v>150</v>
       </c>
       <c r="J87" s="30">
@@ -8435,13 +8572,13 @@
         <v>3</v>
       </c>
       <c r="G88" s="77">
-        <f>E88*F88</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="H88" s="103" t="s">
         <v>211</v>
       </c>
-      <c r="I88" s="119" t="s">
+      <c r="I88" s="118" t="s">
         <v>162</v>
       </c>
       <c r="J88" s="30">
@@ -8467,13 +8604,13 @@
         <v>1</v>
       </c>
       <c r="G89" s="77">
-        <f>E89*F89</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H89" s="103" t="s">
         <v>213</v>
       </c>
-      <c r="I89" s="111" t="s">
+      <c r="I89" s="110" t="s">
         <v>150</v>
       </c>
       <c r="J89" s="30">
@@ -8493,7 +8630,7 @@
       <c r="B90" s="80" t="s">
         <v>214</v>
       </c>
-      <c r="C90" s="124"/>
+      <c r="C90" s="123"/>
       <c r="D90" s="13">
         <v>183</v>
       </c>
@@ -8504,13 +8641,13 @@
         <v>2.67</v>
       </c>
       <c r="G90" s="77">
-        <f>E90*F90</f>
+        <f t="shared" si="2"/>
         <v>10.68</v>
       </c>
       <c r="H90" s="103" t="s">
         <v>215</v>
       </c>
-      <c r="I90" s="111" t="s">
+      <c r="I90" s="110" t="s">
         <v>150</v>
       </c>
       <c r="J90" s="30">
@@ -8528,7 +8665,7 @@
       <c r="B91" s="80" t="s">
         <v>216</v>
       </c>
-      <c r="C91" s="124"/>
+      <c r="C91" s="123"/>
       <c r="D91" s="13">
         <v>166</v>
       </c>
@@ -8539,13 +8676,13 @@
         <v>2.42</v>
       </c>
       <c r="G91" s="77">
-        <f>E91*F91</f>
+        <f t="shared" si="2"/>
         <v>41.14</v>
       </c>
-      <c r="H91" s="106" t="s">
+      <c r="H91" s="105" t="s">
         <v>217</v>
       </c>
-      <c r="I91" s="111" t="s">
+      <c r="I91" s="110" t="s">
         <v>150</v>
       </c>
       <c r="J91" s="30">
@@ -8563,7 +8700,7 @@
       <c r="B92" s="80" t="s">
         <v>218</v>
       </c>
-      <c r="C92" s="122"/>
+      <c r="C92" s="121"/>
       <c r="D92" s="13">
         <v>3</v>
       </c>
@@ -8574,13 +8711,13 @@
         <v>2.59</v>
       </c>
       <c r="G92" s="77">
-        <f>E92*F92</f>
+        <f t="shared" si="2"/>
         <v>2.59</v>
       </c>
-      <c r="H92" s="106" t="s">
+      <c r="H92" s="105" t="s">
         <v>219</v>
       </c>
-      <c r="I92" s="111" t="s">
+      <c r="I92" s="110" t="s">
         <v>150</v>
       </c>
       <c r="J92" s="30">
@@ -8598,7 +8735,7 @@
       <c r="B93" s="80" t="s">
         <v>220</v>
       </c>
-      <c r="C93" s="124"/>
+      <c r="C93" s="123"/>
       <c r="D93" s="13">
         <v>6</v>
       </c>
@@ -8609,13 +8746,13 @@
         <v>2.75</v>
       </c>
       <c r="G93" s="77">
-        <f>E93*F93</f>
+        <f t="shared" si="2"/>
         <v>2.75</v>
       </c>
-      <c r="H93" s="106" t="s">
+      <c r="H93" s="105" t="s">
         <v>221</v>
       </c>
-      <c r="I93" s="111" t="s">
+      <c r="I93" s="110" t="s">
         <v>150</v>
       </c>
       <c r="J93" s="30">
@@ -8632,10 +8769,10 @@
       <c r="A94" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="B94" s="144" t="s">
+      <c r="B94" s="143" t="s">
         <v>222</v>
       </c>
-      <c r="C94" s="122"/>
+      <c r="C94" s="121"/>
       <c r="D94" s="83">
         <v>3</v>
       </c>
@@ -8646,13 +8783,13 @@
         <v>2.61</v>
       </c>
       <c r="G94" s="77">
-        <f>E94*F94</f>
+        <f t="shared" si="2"/>
         <v>2.61</v>
       </c>
-      <c r="H94" s="106" t="s">
+      <c r="H94" s="105" t="s">
         <v>223</v>
       </c>
-      <c r="I94" s="111" t="s">
+      <c r="I94" s="110" t="s">
         <v>150</v>
       </c>
       <c r="J94" s="30">
@@ -8670,7 +8807,7 @@
       <c r="B95" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="C95" s="122"/>
+      <c r="C95" s="121"/>
       <c r="D95" s="83">
         <v>4</v>
       </c>
@@ -8681,13 +8818,13 @@
         <v>2.92</v>
       </c>
       <c r="G95" s="77">
-        <f>E95*F95</f>
+        <f t="shared" si="2"/>
         <v>2.92</v>
       </c>
-      <c r="H95" s="106" t="s">
+      <c r="H95" s="105" t="s">
         <v>225</v>
       </c>
-      <c r="I95" s="111" t="s">
+      <c r="I95" s="110" t="s">
         <v>150</v>
       </c>
       <c r="J95" s="30">
@@ -8705,10 +8842,10 @@
       <c r="A96" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="B96" s="144" t="s">
+      <c r="B96" s="143" t="s">
         <v>227</v>
       </c>
-      <c r="C96" s="126"/>
+      <c r="C96" s="125"/>
       <c r="D96" s="83">
         <v>2</v>
       </c>
@@ -8719,13 +8856,13 @@
         <v>2.92</v>
       </c>
       <c r="G96" s="77">
-        <f>E96*F96</f>
+        <f t="shared" si="2"/>
         <v>2.92</v>
       </c>
-      <c r="H96" s="106" t="s">
+      <c r="H96" s="105" t="s">
         <v>228</v>
       </c>
-      <c r="I96" s="111" t="s">
+      <c r="I96" s="110" t="s">
         <v>150</v>
       </c>
       <c r="J96" s="30">
@@ -8743,7 +8880,7 @@
       <c r="B97" s="83" t="s">
         <v>229</v>
       </c>
-      <c r="C97" s="126"/>
+      <c r="C97" s="125"/>
       <c r="D97" s="83">
         <v>44</v>
       </c>
@@ -8754,13 +8891,13 @@
         <v>3.21</v>
       </c>
       <c r="G97" s="77">
-        <f>E97*F97</f>
+        <f t="shared" si="2"/>
         <v>16.05</v>
       </c>
-      <c r="H97" s="106" t="s">
+      <c r="H97" s="105" t="s">
         <v>230</v>
       </c>
-      <c r="I97" s="111" t="s">
+      <c r="I97" s="110" t="s">
         <v>150</v>
       </c>
       <c r="J97" s="30">
@@ -8778,7 +8915,7 @@
       <c r="B98" s="83" t="s">
         <v>231</v>
       </c>
-      <c r="C98" s="126"/>
+      <c r="C98" s="125"/>
       <c r="D98" s="83">
         <v>17</v>
       </c>
@@ -8789,13 +8926,13 @@
         <v>3.57</v>
       </c>
       <c r="G98" s="77">
-        <f>E98*F98</f>
+        <f t="shared" ref="G98:G129" si="3">E98*F98</f>
         <v>7.14</v>
       </c>
-      <c r="H98" s="106" t="s">
+      <c r="H98" s="105" t="s">
         <v>232</v>
       </c>
-      <c r="I98" s="111" t="s">
+      <c r="I98" s="110" t="s">
         <v>150</v>
       </c>
       <c r="J98" s="30">
@@ -8813,7 +8950,7 @@
       <c r="B99" s="94" t="s">
         <v>233</v>
       </c>
-      <c r="C99" s="122"/>
+      <c r="C99" s="121"/>
       <c r="D99" s="13">
         <v>24</v>
       </c>
@@ -8824,13 +8961,13 @@
         <v>2.59</v>
       </c>
       <c r="G99" s="77">
-        <f>E99*F99</f>
+        <f t="shared" si="3"/>
         <v>7.77</v>
       </c>
-      <c r="H99" s="106" t="s">
+      <c r="H99" s="105" t="s">
         <v>234</v>
       </c>
-      <c r="I99" s="111" t="s">
+      <c r="I99" s="110" t="s">
         <v>150</v>
       </c>
       <c r="J99" s="30">
@@ -8848,7 +8985,7 @@
       <c r="B100" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="C100" s="122"/>
+      <c r="C100" s="121"/>
       <c r="D100" s="83">
         <v>5</v>
       </c>
@@ -8859,13 +8996,13 @@
         <v>18.79</v>
       </c>
       <c r="G100" s="77">
-        <f>E100*F100</f>
+        <f t="shared" si="3"/>
         <v>18.79</v>
       </c>
       <c r="H100" s="103" t="s">
         <v>237</v>
       </c>
-      <c r="I100" s="119" t="s">
+      <c r="I100" s="118" t="s">
         <v>238</v>
       </c>
       <c r="J100" s="30">
@@ -8881,7 +9018,7 @@
       <c r="B101" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="C101" s="122"/>
+      <c r="C101" s="121"/>
       <c r="D101" s="79">
         <v>2</v>
       </c>
@@ -8892,13 +9029,13 @@
         <v>2</v>
       </c>
       <c r="G101" s="77">
-        <f>E101*F101</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="H101" s="103" t="s">
         <v>240</v>
       </c>
-      <c r="I101" s="119" t="s">
+      <c r="I101" s="118" t="s">
         <v>238</v>
       </c>
       <c r="J101" s="30">
@@ -8914,7 +9051,7 @@
       <c r="B102" s="86" t="s">
         <v>241</v>
       </c>
-      <c r="C102" s="122"/>
+      <c r="C102" s="121"/>
       <c r="D102" s="79">
         <v>3</v>
       </c>
@@ -8925,13 +9062,13 @@
         <v>16</v>
       </c>
       <c r="G102" s="77">
-        <f>E102*F102</f>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="H102" s="103" t="s">
         <v>242</v>
       </c>
-      <c r="I102" s="119" t="s">
+      <c r="I102" s="118" t="s">
         <v>238</v>
       </c>
       <c r="J102" s="30">
@@ -8947,7 +9084,7 @@
       <c r="B103" s="83" t="s">
         <v>243</v>
       </c>
-      <c r="C103" s="126"/>
+      <c r="C103" s="125"/>
       <c r="D103" s="79">
         <v>6</v>
       </c>
@@ -8958,13 +9095,13 @@
         <v>12</v>
       </c>
       <c r="G103" s="77">
-        <f>E103*F103</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="H103" s="103" t="s">
         <v>244</v>
       </c>
-      <c r="I103" s="119" t="s">
+      <c r="I103" s="118" t="s">
         <v>238</v>
       </c>
       <c r="J103" s="30">
@@ -8980,7 +9117,7 @@
       <c r="B104" s="87" t="s">
         <v>245</v>
       </c>
-      <c r="C104" s="122"/>
+      <c r="C104" s="121"/>
       <c r="D104" s="83">
         <v>4</v>
       </c>
@@ -8991,13 +9128,13 @@
         <v>25</v>
       </c>
       <c r="G104" s="77">
-        <f>E104*F104</f>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="H104" s="103" t="s">
         <v>246</v>
       </c>
-      <c r="I104" s="119" t="s">
+      <c r="I104" s="118" t="s">
         <v>238</v>
       </c>
       <c r="J104" s="30">
@@ -9013,7 +9150,7 @@
       <c r="B105" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="C105" s="123" t="s">
+      <c r="C105" s="122" t="s">
         <v>249</v>
       </c>
       <c r="D105" s="79">
@@ -9026,13 +9163,13 @@
         <v>60</v>
       </c>
       <c r="G105" s="77">
-        <f>E105*F105</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="H105" s="104" t="s">
         <v>250</v>
       </c>
-      <c r="I105" s="119" t="s">
+      <c r="I105" s="118" t="s">
         <v>251</v>
       </c>
       <c r="J105" s="30"/>
@@ -9046,7 +9183,7 @@
       <c r="B106" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="C106" s="130"/>
+      <c r="C106" s="129"/>
       <c r="D106" s="79">
         <v>4</v>
       </c>
@@ -9057,13 +9194,13 @@
         <v>9</v>
       </c>
       <c r="G106" s="77">
-        <f>E106*F106</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="H106" s="103" t="s">
         <v>253</v>
       </c>
-      <c r="I106" s="119" t="s">
+      <c r="I106" s="118" t="s">
         <v>254</v>
       </c>
       <c r="J106" s="30">
@@ -9089,13 +9226,13 @@
         <v>10.23</v>
       </c>
       <c r="G107" s="77">
-        <f>E107*F107</f>
+        <f t="shared" si="3"/>
         <v>10.23</v>
       </c>
       <c r="H107" s="103" t="s">
         <v>256</v>
       </c>
-      <c r="I107" s="108" t="s">
+      <c r="I107" s="107" t="s">
         <v>257</v>
       </c>
       <c r="J107" s="30">
@@ -9121,13 +9258,13 @@
         <v>2.04</v>
       </c>
       <c r="G108" s="77">
-        <f>E108*F108</f>
+        <f t="shared" si="3"/>
         <v>4.08</v>
       </c>
       <c r="H108" s="104" t="s">
         <v>259</v>
       </c>
-      <c r="I108" s="119" t="s">
+      <c r="I108" s="118" t="s">
         <v>150</v>
       </c>
       <c r="J108" s="30">
@@ -9143,7 +9280,7 @@
       <c r="B109" s="89" t="s">
         <v>261</v>
       </c>
-      <c r="C109" s="131"/>
+      <c r="C109" s="130"/>
       <c r="D109" s="90">
         <v>6</v>
       </c>
@@ -9154,13 +9291,13 @@
         <v>2.23</v>
       </c>
       <c r="G109" s="77">
-        <f>E109*F109</f>
+        <f t="shared" si="3"/>
         <v>13.379999999999999</v>
       </c>
       <c r="H109" s="103" t="s">
         <v>262</v>
       </c>
-      <c r="I109" s="108" t="s">
+      <c r="I109" s="107" t="s">
         <v>263</v>
       </c>
       <c r="J109" s="30">
@@ -9176,7 +9313,7 @@
       <c r="B110" s="63" t="s">
         <v>264</v>
       </c>
-      <c r="C110" s="130"/>
+      <c r="C110" s="129"/>
       <c r="D110" s="75">
         <v>1</v>
       </c>
@@ -9187,13 +9324,13 @@
         <v>12.69</v>
       </c>
       <c r="G110" s="77">
-        <f>E110*F110</f>
+        <f t="shared" si="3"/>
         <v>12.69</v>
       </c>
       <c r="H110" s="103" t="s">
         <v>265</v>
       </c>
-      <c r="I110" s="108" t="s">
+      <c r="I110" s="107" t="s">
         <v>266</v>
       </c>
       <c r="J110" s="30">
@@ -9206,10 +9343,10 @@
       <c r="A111" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="B111" s="147" t="s">
+      <c r="B111" s="146" t="s">
         <v>267</v>
       </c>
-      <c r="C111" s="132"/>
+      <c r="C111" s="131"/>
       <c r="D111" s="90">
         <v>1</v>
       </c>
@@ -9220,13 +9357,13 @@
         <v>13.87</v>
       </c>
       <c r="G111" s="77">
-        <f>E111*F111</f>
+        <f t="shared" si="3"/>
         <v>13.87</v>
       </c>
       <c r="H111" s="102" t="s">
         <v>268</v>
       </c>
-      <c r="I111" s="119" t="s">
+      <c r="I111" s="118" t="s">
         <v>269</v>
       </c>
       <c r="J111" s="30">
@@ -9239,10 +9376,10 @@
       <c r="A112" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="B112" s="147" t="s">
+      <c r="B112" s="146" t="s">
         <v>270</v>
       </c>
-      <c r="C112" s="132"/>
+      <c r="C112" s="131"/>
       <c r="D112" s="90">
         <v>1</v>
       </c>
@@ -9253,13 +9390,13 @@
         <v>30.61</v>
       </c>
       <c r="G112" s="77">
-        <f>E112*F112</f>
+        <f t="shared" si="3"/>
         <v>30.61</v>
       </c>
       <c r="H112" s="102" t="s">
         <v>271</v>
       </c>
-      <c r="I112" s="119" t="s">
+      <c r="I112" s="118" t="s">
         <v>272</v>
       </c>
       <c r="J112" s="30">
@@ -9272,10 +9409,10 @@
       <c r="A113" s="34" t="s">
         <v>260</v>
       </c>
-      <c r="B113" s="145" t="s">
+      <c r="B113" s="144" t="s">
         <v>273</v>
       </c>
-      <c r="C113" s="122"/>
+      <c r="C113" s="121"/>
       <c r="D113" s="91">
         <v>2</v>
       </c>
@@ -9286,13 +9423,13 @@
         <v>3.49</v>
       </c>
       <c r="G113" s="77">
-        <f>E113*F113</f>
+        <f t="shared" si="3"/>
         <v>3.49</v>
       </c>
       <c r="H113" s="103" t="s">
         <v>274</v>
       </c>
-      <c r="I113" s="119" t="s">
+      <c r="I113" s="118" t="s">
         <v>275</v>
       </c>
       <c r="J113" s="30">
@@ -9308,7 +9445,7 @@
       <c r="B114" s="89" t="s">
         <v>276</v>
       </c>
-      <c r="C114" s="131"/>
+      <c r="C114" s="130"/>
       <c r="D114" s="90">
         <v>1</v>
       </c>
@@ -9319,13 +9456,13 @@
         <v>44</v>
       </c>
       <c r="G114" s="77">
-        <f>E114*F114</f>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="H114" s="102" t="s">
         <v>277</v>
       </c>
-      <c r="I114" s="119" t="s">
+      <c r="I114" s="118" t="s">
         <v>278</v>
       </c>
       <c r="J114" s="30">
@@ -9338,10 +9475,10 @@
       <c r="A115" s="34" t="s">
         <v>260</v>
       </c>
-      <c r="B115" s="147" t="s">
+      <c r="B115" s="146" t="s">
         <v>279</v>
       </c>
-      <c r="C115" s="132"/>
+      <c r="C115" s="131"/>
       <c r="D115" s="90">
         <v>1</v>
       </c>
@@ -9352,13 +9489,13 @@
         <v>30</v>
       </c>
       <c r="G115" s="77">
-        <f>E115*F115</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="H115" s="102" t="s">
         <v>280</v>
       </c>
-      <c r="I115" s="119" t="s">
+      <c r="I115" s="118" t="s">
         <v>278</v>
       </c>
       <c r="J115" s="30">
@@ -9374,7 +9511,7 @@
       <c r="B116" s="89" t="s">
         <v>281</v>
       </c>
-      <c r="C116" s="131"/>
+      <c r="C116" s="130"/>
       <c r="D116" s="90">
         <v>3</v>
       </c>
@@ -9385,13 +9522,13 @@
         <v>9.42</v>
       </c>
       <c r="G116" s="77">
-        <f>E116*F116</f>
+        <f t="shared" si="3"/>
         <v>9.42</v>
       </c>
       <c r="H116" s="102" t="s">
         <v>282</v>
       </c>
-      <c r="I116" s="119" t="s">
+      <c r="I116" s="118" t="s">
         <v>283</v>
       </c>
       <c r="J116" s="30">
@@ -9404,10 +9541,10 @@
       <c r="A117" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="B117" s="155" t="s">
+      <c r="B117" s="154" t="s">
         <v>285</v>
       </c>
-      <c r="C117" s="133">
+      <c r="C117" s="132">
         <v>230</v>
       </c>
       <c r="D117" s="92">
@@ -9420,13 +9557,13 @@
         <v>4</v>
       </c>
       <c r="G117" s="77">
-        <f>E117*F117</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="H117" s="104" t="s">
         <v>286</v>
       </c>
-      <c r="I117" s="148" t="s">
+      <c r="I117" s="147" t="s">
         <v>287</v>
       </c>
       <c r="J117" s="30">
@@ -9442,7 +9579,7 @@
       <c r="B118" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="C118" s="122"/>
+      <c r="C118" s="121"/>
       <c r="D118" s="93">
         <v>2</v>
       </c>
@@ -9453,13 +9590,13 @@
         <v>14.96</v>
       </c>
       <c r="G118" s="77">
-        <f>E118*F118</f>
+        <f t="shared" si="3"/>
         <v>14.96</v>
       </c>
       <c r="H118" s="104" t="s">
         <v>289</v>
       </c>
-      <c r="I118" s="119" t="s">
+      <c r="I118" s="118" t="s">
         <v>162</v>
       </c>
       <c r="J118" s="30">
@@ -9475,7 +9612,7 @@
       <c r="B119" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="C119" s="134">
+      <c r="C119" s="133">
         <v>420</v>
       </c>
       <c r="D119" s="13">
@@ -9488,13 +9625,13 @@
         <v>12</v>
       </c>
       <c r="G119" s="77">
-        <f>E119*F119</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="H119" s="104" t="s">
         <v>291</v>
       </c>
-      <c r="I119" s="119" t="s">
+      <c r="I119" s="118" t="s">
         <v>292</v>
       </c>
       <c r="J119" s="30">
@@ -9510,7 +9647,7 @@
       <c r="B120" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="C120" s="134">
+      <c r="C120" s="133">
         <v>368</v>
       </c>
       <c r="D120" s="13">
@@ -9523,13 +9660,13 @@
         <v>11</v>
       </c>
       <c r="G120" s="77">
-        <f>E120*F120</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="H120" s="104" t="s">
         <v>294</v>
       </c>
-      <c r="I120" s="119" t="s">
+      <c r="I120" s="118" t="s">
         <v>292</v>
       </c>
       <c r="J120" s="30">
@@ -9545,7 +9682,7 @@
       <c r="B121" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="C121" s="134">
+      <c r="C121" s="133">
         <v>172</v>
       </c>
       <c r="D121" s="13">
@@ -9558,13 +9695,13 @@
         <v>9</v>
       </c>
       <c r="G121" s="77">
-        <f>E121*F121</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="H121" s="104" t="s">
         <v>296</v>
       </c>
-      <c r="I121" s="119" t="s">
+      <c r="I121" s="118" t="s">
         <v>292</v>
       </c>
       <c r="J121" s="30">
@@ -9580,7 +9717,7 @@
       <c r="B122" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="C122" s="122"/>
+      <c r="C122" s="121"/>
       <c r="D122" s="75">
         <v>34</v>
       </c>
@@ -9591,13 +9728,13 @@
         <v>5.49</v>
       </c>
       <c r="G122" s="77">
-        <f>E122*F122</f>
+        <f t="shared" si="3"/>
         <v>21.96</v>
       </c>
       <c r="H122" s="104" t="s">
         <v>298</v>
       </c>
-      <c r="I122" s="119" t="s">
+      <c r="I122" s="118" t="s">
         <v>299</v>
       </c>
       <c r="J122" s="30">
@@ -9613,7 +9750,7 @@
       <c r="B123" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="C123" s="134">
+      <c r="C123" s="133">
         <v>420</v>
       </c>
       <c r="D123" s="13">
@@ -9626,13 +9763,13 @@
         <v>15</v>
       </c>
       <c r="G123" s="77">
-        <f>E123*F123</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="H123" s="104" t="s">
         <v>301</v>
       </c>
-      <c r="I123" s="119" t="s">
+      <c r="I123" s="118" t="s">
         <v>292</v>
       </c>
       <c r="J123" s="30">
@@ -9648,7 +9785,7 @@
       <c r="B124" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="C124" s="134">
+      <c r="C124" s="133">
         <v>480</v>
       </c>
       <c r="D124" s="13">
@@ -9661,13 +9798,13 @@
         <v>16</v>
       </c>
       <c r="G124" s="77">
-        <f>E124*F124</f>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="H124" s="104" t="s">
         <v>303</v>
       </c>
-      <c r="I124" s="119" t="s">
+      <c r="I124" s="118" t="s">
         <v>292</v>
       </c>
       <c r="J124" s="30">
@@ -9683,7 +9820,7 @@
       <c r="B125" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="C125" s="134">
+      <c r="C125" s="133">
         <v>750</v>
       </c>
       <c r="D125" s="13">
@@ -9696,13 +9833,13 @@
         <v>40</v>
       </c>
       <c r="G125" s="77">
-        <f>E125*F125</f>
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
       <c r="H125" s="104" t="s">
         <v>305</v>
       </c>
-      <c r="I125" s="119" t="s">
+      <c r="I125" s="118" t="s">
         <v>292</v>
       </c>
       <c r="J125" s="30">
@@ -9715,10 +9852,10 @@
       <c r="A126" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="B126" s="144" t="s">
+      <c r="B126" s="143" t="s">
         <v>306</v>
       </c>
-      <c r="C126" s="126">
+      <c r="C126" s="125">
         <v>410</v>
       </c>
       <c r="D126" s="83">
@@ -9731,13 +9868,13 @@
         <v>4.07</v>
       </c>
       <c r="G126" s="77">
-        <f>E126*F126</f>
+        <f t="shared" si="3"/>
         <v>4.07</v>
       </c>
       <c r="H126" s="104" t="s">
         <v>307</v>
       </c>
-      <c r="I126" s="148" t="s">
+      <c r="I126" s="147" t="s">
         <v>287</v>
       </c>
       <c r="J126" s="30">
@@ -9753,7 +9890,7 @@
       <c r="B127" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="C127" s="122">
+      <c r="C127" s="121">
         <v>286</v>
       </c>
       <c r="D127" s="75">
@@ -9766,13 +9903,13 @@
         <v>18</v>
       </c>
       <c r="G127" s="77">
-        <f>E127*F127</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="H127" s="103" t="s">
         <v>309</v>
       </c>
-      <c r="I127" s="119" t="s">
+      <c r="I127" s="118" t="s">
         <v>310</v>
       </c>
       <c r="J127" s="30">
@@ -9788,7 +9925,7 @@
       <c r="B128" s="46" t="s">
         <v>311</v>
       </c>
-      <c r="C128" s="121" t="s">
+      <c r="C128" s="120" t="s">
         <v>312</v>
       </c>
       <c r="D128" s="63">
@@ -9797,17 +9934,17 @@
       <c r="E128" s="76">
         <v>1</v>
       </c>
-      <c r="F128" s="205">
+      <c r="F128" s="196">
         <v>100</v>
       </c>
       <c r="G128" s="77">
-        <f>E128*F128</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="H128" s="105" t="s">
+      <c r="H128" s="197" t="s">
         <v>313</v>
       </c>
-      <c r="I128" s="119" t="s">
+      <c r="I128" s="118" t="s">
         <v>314</v>
       </c>
       <c r="J128" s="30">
@@ -9823,7 +9960,7 @@
       <c r="B129" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C129" s="120" t="s">
+      <c r="C129" s="119" t="s">
         <v>316</v>
       </c>
       <c r="D129" s="16">
@@ -9836,13 +9973,13 @@
         <v>9.7200000000000006</v>
       </c>
       <c r="G129" s="77">
-        <f>E129*F129</f>
+        <f t="shared" si="3"/>
         <v>19.440000000000001</v>
       </c>
       <c r="H129" s="102" t="s">
         <v>317</v>
       </c>
-      <c r="I129" s="148" t="s">
+      <c r="I129" s="147" t="s">
         <v>287</v>
       </c>
       <c r="J129" s="30">
@@ -9858,7 +9995,7 @@
       <c r="B130" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="C130" s="125"/>
+      <c r="C130" s="124"/>
       <c r="D130" s="79">
         <v>1</v>
       </c>
@@ -9869,13 +10006,13 @@
         <v>2.84</v>
       </c>
       <c r="G130" s="77">
-        <f>E130*F130</f>
+        <f t="shared" ref="G130:G161" si="4">E130*F130</f>
         <v>2.84</v>
       </c>
       <c r="H130" s="102" t="s">
         <v>320</v>
       </c>
-      <c r="I130" s="108" t="s">
+      <c r="I130" s="107" t="s">
         <v>150</v>
       </c>
       <c r="J130" s="30">
@@ -9888,10 +10025,10 @@
       <c r="A131" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B131" s="144" t="s">
+      <c r="B131" s="143" t="s">
         <v>321</v>
       </c>
-      <c r="C131" s="126"/>
+      <c r="C131" s="125"/>
       <c r="D131" s="79">
         <v>6</v>
       </c>
@@ -9902,13 +10039,13 @@
         <v>10.36</v>
       </c>
       <c r="G131" s="77">
-        <f>E131*F131</f>
+        <f t="shared" si="4"/>
         <v>10.36</v>
       </c>
       <c r="H131" s="103" t="s">
         <v>322</v>
       </c>
-      <c r="I131" s="119" t="s">
+      <c r="I131" s="118" t="s">
         <v>323</v>
       </c>
       <c r="J131" s="30">
@@ -9921,10 +10058,10 @@
       <c r="A132" s="34" t="s">
         <v>318</v>
       </c>
-      <c r="B132" s="144" t="s">
+      <c r="B132" s="143" t="s">
         <v>324</v>
       </c>
-      <c r="C132" s="122"/>
+      <c r="C132" s="121"/>
       <c r="D132" s="79">
         <v>6</v>
       </c>
@@ -9935,13 +10072,13 @@
         <v>11.78</v>
       </c>
       <c r="G132" s="77">
-        <f>E132*F132</f>
+        <f t="shared" si="4"/>
         <v>11.78</v>
       </c>
       <c r="H132" s="103" t="s">
         <v>325</v>
       </c>
-      <c r="I132" s="119" t="s">
+      <c r="I132" s="118" t="s">
         <v>323</v>
       </c>
       <c r="J132" s="30">
@@ -9954,10 +10091,10 @@
       <c r="A133" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B133" s="144" t="s">
+      <c r="B133" s="143" t="s">
         <v>326</v>
       </c>
-      <c r="C133" s="126"/>
+      <c r="C133" s="125"/>
       <c r="D133" s="79">
         <v>4</v>
       </c>
@@ -9968,13 +10105,13 @@
         <v>10.08</v>
       </c>
       <c r="G133" s="77">
-        <f>E133*F133</f>
+        <f t="shared" si="4"/>
         <v>10.08</v>
       </c>
       <c r="H133" s="103" t="s">
         <v>327</v>
       </c>
-      <c r="I133" s="119" t="s">
+      <c r="I133" s="118" t="s">
         <v>323</v>
       </c>
       <c r="J133" s="30">
@@ -9987,10 +10124,10 @@
       <c r="A134" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="B134" s="144" t="s">
+      <c r="B134" s="143" t="s">
         <v>328</v>
       </c>
-      <c r="C134" s="126"/>
+      <c r="C134" s="125"/>
       <c r="D134" s="79">
         <v>8</v>
       </c>
@@ -10001,13 +10138,13 @@
         <v>12.42</v>
       </c>
       <c r="G134" s="77">
-        <f>E134*F134</f>
+        <f t="shared" si="4"/>
         <v>12.42</v>
       </c>
       <c r="H134" s="103" t="s">
         <v>329</v>
       </c>
-      <c r="I134" s="119" t="s">
+      <c r="I134" s="118" t="s">
         <v>323</v>
       </c>
       <c r="J134" s="30">
@@ -10023,7 +10160,7 @@
       <c r="B135" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="C135" s="123">
+      <c r="C135" s="122">
         <v>400</v>
       </c>
       <c r="D135" s="79">
@@ -10036,13 +10173,13 @@
         <v>5.92</v>
       </c>
       <c r="G135" s="77">
-        <f>E135*F135</f>
+        <f t="shared" si="4"/>
         <v>5.92</v>
       </c>
       <c r="H135" s="103" t="s">
         <v>331</v>
       </c>
-      <c r="I135" s="119" t="s">
+      <c r="I135" s="118" t="s">
         <v>332</v>
       </c>
       <c r="J135" s="30">
@@ -10058,7 +10195,7 @@
       <c r="B136" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="C136" s="122"/>
+      <c r="C136" s="121"/>
       <c r="D136" s="79">
         <v>2</v>
       </c>
@@ -10069,13 +10206,13 @@
         <v>12.84</v>
       </c>
       <c r="G136" s="77">
-        <f>E136*F136</f>
+        <f t="shared" si="4"/>
         <v>12.84</v>
       </c>
       <c r="H136" s="103" t="s">
         <v>335</v>
       </c>
-      <c r="I136" s="116" t="s">
+      <c r="I136" s="115" t="s">
         <v>336</v>
       </c>
       <c r="J136" s="30">
@@ -10085,13 +10222,13 @@
       <c r="L136" s="78"/>
     </row>
     <row r="137" spans="1:12" s="15" customFormat="1" ht="15.75">
-      <c r="A137" s="156" t="s">
+      <c r="A137" s="155" t="s">
         <v>337</v>
       </c>
       <c r="B137" s="93" t="s">
         <v>338</v>
       </c>
-      <c r="C137" s="136"/>
+      <c r="C137" s="135"/>
       <c r="D137" s="95">
         <v>1</v>
       </c>
@@ -10102,16 +10239,16 @@
         <v>68</v>
       </c>
       <c r="G137" s="97">
-        <f>E137*F137</f>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="H137" s="103" t="s">
         <v>339</v>
       </c>
-      <c r="I137" s="157" t="s">
+      <c r="I137" s="156" t="s">
         <v>340</v>
       </c>
-      <c r="J137" s="158">
+      <c r="J137" s="157">
         <v>1</v>
       </c>
       <c r="K137" s="95"/>
@@ -10121,10 +10258,10 @@
       <c r="A138" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="B138" s="145" t="s">
+      <c r="B138" s="144" t="s">
         <v>341</v>
       </c>
-      <c r="C138" s="130"/>
+      <c r="C138" s="129"/>
       <c r="D138" s="75">
         <v>1</v>
       </c>
@@ -10135,13 +10272,13 @@
         <v>35.42</v>
       </c>
       <c r="G138" s="77">
-        <f>E138*F138</f>
+        <f t="shared" si="4"/>
         <v>35.42</v>
       </c>
       <c r="H138" s="103" t="s">
         <v>342</v>
       </c>
-      <c r="I138" s="119" t="s">
+      <c r="I138" s="118" t="s">
         <v>343</v>
       </c>
       <c r="J138" s="30">
@@ -10157,7 +10294,7 @@
       <c r="B139" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C139" s="137"/>
+      <c r="C139" s="136"/>
       <c r="D139" s="16">
         <v>1</v>
       </c>
@@ -10168,13 +10305,13 @@
         <v>18</v>
       </c>
       <c r="G139" s="77">
-        <f>E139*F139</f>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="H139" s="103" t="s">
         <v>345</v>
       </c>
-      <c r="I139" s="119" t="s">
+      <c r="I139" s="118" t="s">
         <v>28</v>
       </c>
       <c r="J139" s="30">
@@ -10190,7 +10327,7 @@
       <c r="B140" s="14" t="s">
         <v>346</v>
       </c>
-      <c r="C140" s="122"/>
+      <c r="C140" s="121"/>
       <c r="D140" s="75">
         <v>1</v>
       </c>
@@ -10201,13 +10338,13 @@
         <v>48</v>
       </c>
       <c r="G140" s="77">
-        <f>E140*F140</f>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="H140" s="103" t="s">
         <v>347</v>
       </c>
-      <c r="I140" s="119" t="s">
+      <c r="I140" s="118" t="s">
         <v>348</v>
       </c>
       <c r="J140" s="30">
@@ -10223,7 +10360,7 @@
       <c r="B141" s="72" t="s">
         <v>349</v>
       </c>
-      <c r="C141" s="122"/>
+      <c r="C141" s="121"/>
       <c r="D141" s="75">
         <v>1</v>
       </c>
@@ -10234,13 +10371,13 @@
         <v>1.48</v>
       </c>
       <c r="G141" s="77">
-        <f>E141*F141</f>
+        <f t="shared" si="4"/>
         <v>1.48</v>
       </c>
       <c r="H141" s="103" t="s">
         <v>350</v>
       </c>
-      <c r="I141" s="119" t="s">
+      <c r="I141" s="118" t="s">
         <v>28</v>
       </c>
       <c r="J141" s="30">
@@ -10256,7 +10393,7 @@
       <c r="B142" s="73" t="s">
         <v>351</v>
       </c>
-      <c r="C142" s="122"/>
+      <c r="C142" s="121"/>
       <c r="D142" s="75">
         <v>1</v>
       </c>
@@ -10267,13 +10404,13 @@
         <v>2.17</v>
       </c>
       <c r="G142" s="77">
-        <f>E142*F142</f>
+        <f t="shared" si="4"/>
         <v>2.17</v>
       </c>
       <c r="H142" s="103" t="s">
         <v>352</v>
       </c>
-      <c r="I142" s="119" t="s">
+      <c r="I142" s="118" t="s">
         <v>28</v>
       </c>
       <c r="J142" s="30">
@@ -10289,7 +10426,7 @@
       <c r="B143" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="C143" s="122"/>
+      <c r="C143" s="121"/>
       <c r="D143" s="75">
         <v>1</v>
       </c>
@@ -10300,13 +10437,13 @@
         <v>10.62</v>
       </c>
       <c r="G143" s="77">
-        <f>E143*F143</f>
+        <f t="shared" si="4"/>
         <v>10.62</v>
       </c>
       <c r="H143" s="103" t="s">
         <v>354</v>
       </c>
-      <c r="I143" s="113" t="s">
+      <c r="I143" s="112" t="s">
         <v>28</v>
       </c>
       <c r="J143" s="30">
@@ -10322,7 +10459,7 @@
       <c r="B144" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="C144" s="122"/>
+      <c r="C144" s="121"/>
       <c r="D144" s="75">
         <v>1</v>
       </c>
@@ -10333,13 +10470,13 @@
         <v>10</v>
       </c>
       <c r="G144" s="77">
-        <f>E144*F144</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="H144" s="103" t="s">
         <v>356</v>
       </c>
-      <c r="I144" s="112" t="s">
+      <c r="I144" s="111" t="s">
         <v>357</v>
       </c>
       <c r="J144" s="30">
@@ -10353,7 +10490,7 @@
       <c r="B145" s="36" t="s">
         <v>358</v>
       </c>
-      <c r="C145" s="138"/>
+      <c r="C145" s="137"/>
       <c r="D145" s="36"/>
       <c r="E145" s="36"/>
       <c r="F145" s="37"/>
@@ -10361,17 +10498,17 @@
         <f>SUBTOTAL(109,Table1321[*Cost Price $USD])</f>
         <v>2339.0300000000011</v>
       </c>
-      <c r="H145" s="107" t="s">
+      <c r="H145" s="106" t="s">
         <v>359</v>
       </c>
-      <c r="I145" s="117"/>
+      <c r="I145" s="116"/>
       <c r="J145" s="99"/>
       <c r="K145" s="100"/>
       <c r="L145" s="101"/>
     </row>
     <row r="146" spans="1:12">
       <c r="G146" s="14"/>
-      <c r="K146" s="159"/>
+      <c r="K146" s="158"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -10561,32 +10698,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
-      <c r="B1" s="206" t="s">
-        <v>615</v>
-      </c>
-      <c r="C1" s="207"/>
-      <c r="D1" s="207"/>
-      <c r="E1" s="208"/>
+      <c r="B1" s="201" t="s">
+        <v>616</v>
+      </c>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="203"/>
       <c r="F1" s="43"/>
     </row>
     <row r="2" spans="2:6">
       <c r="B2" s="41" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>618</v>
-      </c>
-      <c r="E2" s="171" t="s">
         <v>619</v>
+      </c>
+      <c r="E2" s="170" t="s">
+        <v>620</v>
       </c>
       <c r="F2" s="43"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="41" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C3" s="43"/>
       <c r="E3" s="40"/>
@@ -10597,13 +10734,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>622</v>
-      </c>
-      <c r="E4" s="171" t="s">
         <v>623</v>
+      </c>
+      <c r="E4" s="170" t="s">
+        <v>624</v>
       </c>
       <c r="F4" s="43"/>
     </row>
@@ -10612,13 +10749,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>622</v>
-      </c>
-      <c r="E5" s="171" t="s">
-        <v>625</v>
+        <v>623</v>
+      </c>
+      <c r="E5" s="170" t="s">
+        <v>626</v>
       </c>
       <c r="F5" s="43"/>
     </row>
@@ -10627,13 +10764,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>622</v>
-      </c>
-      <c r="E6" s="171" t="s">
-        <v>627</v>
+        <v>623</v>
+      </c>
+      <c r="E6" s="170" t="s">
+        <v>628</v>
       </c>
       <c r="F6" s="43"/>
     </row>
@@ -10642,33 +10779,33 @@
         <v>4</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="171"/>
+      <c r="E7" s="170"/>
       <c r="F7" s="43"/>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="41"/>
       <c r="C8" s="43"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="171"/>
+      <c r="E8" s="170"/>
       <c r="F8" s="43"/>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="41"/>
       <c r="C9" s="43"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="171"/>
+      <c r="E9" s="170"/>
       <c r="F9" s="43"/>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="41" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C10" s="43"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="171"/>
+      <c r="E10" s="170"/>
       <c r="F10" s="43"/>
     </row>
     <row r="11" spans="2:6">
@@ -10677,10 +10814,10 @@
       </c>
       <c r="C11" s="43"/>
       <c r="D11" s="6" t="s">
-        <v>630</v>
-      </c>
-      <c r="E11" s="171" t="s">
         <v>631</v>
+      </c>
+      <c r="E11" s="170" t="s">
+        <v>632</v>
       </c>
       <c r="F11" s="43"/>
     </row>
@@ -10690,10 +10827,10 @@
       </c>
       <c r="C12" s="43"/>
       <c r="D12" s="6" t="s">
-        <v>630</v>
-      </c>
-      <c r="E12" s="171" t="s">
         <v>631</v>
+      </c>
+      <c r="E12" s="170" t="s">
+        <v>632</v>
       </c>
       <c r="F12" s="43"/>
     </row>
@@ -10703,10 +10840,10 @@
       </c>
       <c r="C13" s="43"/>
       <c r="D13" s="6" t="s">
-        <v>632</v>
-      </c>
-      <c r="E13" s="171" t="s">
         <v>633</v>
+      </c>
+      <c r="E13" s="170" t="s">
+        <v>634</v>
       </c>
       <c r="F13" s="43"/>
     </row>
@@ -10716,10 +10853,10 @@
       </c>
       <c r="C14" s="43"/>
       <c r="D14" s="6" t="s">
-        <v>632</v>
-      </c>
-      <c r="E14" s="171" t="s">
-        <v>634</v>
+        <v>633</v>
+      </c>
+      <c r="E14" s="170" t="s">
+        <v>635</v>
       </c>
       <c r="F14" s="43"/>
     </row>
@@ -10729,10 +10866,10 @@
       </c>
       <c r="C15" s="43"/>
       <c r="D15" s="6" t="s">
-        <v>635</v>
-      </c>
-      <c r="E15" s="171" t="s">
         <v>636</v>
+      </c>
+      <c r="E15" s="170" t="s">
+        <v>637</v>
       </c>
       <c r="F15" s="43"/>
     </row>
@@ -10742,10 +10879,10 @@
       </c>
       <c r="C16" s="43"/>
       <c r="D16" s="6" t="s">
-        <v>635</v>
-      </c>
-      <c r="E16" s="171" t="s">
         <v>636</v>
+      </c>
+      <c r="E16" s="170" t="s">
+        <v>637</v>
       </c>
       <c r="F16" s="43"/>
     </row>
@@ -10756,7 +10893,7 @@
       <c r="C17" s="43"/>
       <c r="D17" s="6"/>
       <c r="E17" s="42" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F17" s="43"/>
     </row>
@@ -10767,7 +10904,7 @@
       <c r="C18" s="43"/>
       <c r="D18" s="6"/>
       <c r="E18" s="42" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="F18" s="43"/>
     </row>
@@ -10777,10 +10914,10 @@
       </c>
       <c r="C19" s="43"/>
       <c r="D19" s="6" t="s">
-        <v>632</v>
-      </c>
-      <c r="E19" s="171" t="s">
-        <v>639</v>
+        <v>633</v>
+      </c>
+      <c r="E19" s="170" t="s">
+        <v>640</v>
       </c>
       <c r="F19" s="43"/>
     </row>
@@ -10790,10 +10927,10 @@
       </c>
       <c r="C20" s="43"/>
       <c r="D20" s="6" t="s">
-        <v>632</v>
-      </c>
-      <c r="E20" s="171" t="s">
-        <v>640</v>
+        <v>633</v>
+      </c>
+      <c r="E20" s="170" t="s">
+        <v>641</v>
       </c>
       <c r="F20" s="43"/>
     </row>
@@ -10801,20 +10938,20 @@
       <c r="B21" s="41"/>
       <c r="C21" s="43"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="171"/>
+      <c r="E21" s="170"/>
       <c r="F21" s="43"/>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="41" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>618</v>
-      </c>
-      <c r="E22" s="171"/>
+        <v>619</v>
+      </c>
+      <c r="E22" s="170"/>
       <c r="F22" s="43"/>
     </row>
     <row r="23" spans="2:6">
@@ -10822,13 +10959,13 @@
         <v>1</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>622</v>
-      </c>
-      <c r="E23" s="171" t="s">
-        <v>642</v>
+        <v>623</v>
+      </c>
+      <c r="E23" s="170" t="s">
+        <v>643</v>
       </c>
       <c r="F23" s="43"/>
     </row>
@@ -10837,13 +10974,13 @@
         <v>2</v>
       </c>
       <c r="C24" s="43" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>622</v>
-      </c>
-      <c r="E24" s="171" t="s">
-        <v>642</v>
+        <v>623</v>
+      </c>
+      <c r="E24" s="170" t="s">
+        <v>643</v>
       </c>
       <c r="F24" s="43"/>
     </row>
@@ -10852,25 +10989,25 @@
         <v>3</v>
       </c>
       <c r="C25" s="43" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>622</v>
-      </c>
-      <c r="E25" s="171" t="s">
-        <v>642</v>
+        <v>623</v>
+      </c>
+      <c r="E25" s="170" t="s">
+        <v>643</v>
       </c>
       <c r="F25" s="43"/>
     </row>
     <row r="26" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B26" s="172">
+      <c r="B26" s="171">
         <v>4</v>
       </c>
-      <c r="C26" s="173" t="s">
-        <v>628</v>
-      </c>
-      <c r="D26" s="174"/>
-      <c r="E26" s="175"/>
+      <c r="C26" s="172" t="s">
+        <v>629</v>
+      </c>
+      <c r="D26" s="173"/>
+      <c r="E26" s="174"/>
       <c r="F26" s="43"/>
     </row>
     <row r="27" spans="2:6">
@@ -10913,10 +11050,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10929,126 +11066,126 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75">
       <c r="A1" s="5" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.25" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B3" t="s">
-        <v>652</v>
-      </c>
-      <c r="C3" s="7" t="s">
         <v>653</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="D3" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B4" t="s">
-        <v>652</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>655</v>
+        <v>657</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="D4" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="B5" t="s">
+        <v>661</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A6" t="s">
+        <v>663</v>
+      </c>
+      <c r="B6" t="s">
         <v>657</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>658</v>
-      </c>
-      <c r="D5" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>660</v>
-      </c>
-      <c r="B6" t="s">
-        <v>661</v>
-      </c>
       <c r="C6" s="4" t="s">
-        <v>662</v>
-      </c>
-      <c r="D6" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>664</v>
-      </c>
-      <c r="B7" t="s">
         <v>665</v>
       </c>
-      <c r="C7" s="7" t="s">
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="7" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A8" t="s">
+      <c r="B8" s="7" t="s">
         <v>667</v>
       </c>
-      <c r="B8" t="s">
-        <v>661</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>668</v>
+      <c r="C8" s="7" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>669</v>
+        <v>668</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>670</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>652</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>671</v>
       </c>
+      <c r="B11" t="s">
+        <v>653</v>
+      </c>
       <c r="C11" s="7" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -11056,56 +11193,66 @@
         <v>672</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="6" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>674</v>
       </c>
-      <c r="B13" t="s">
-        <v>657</v>
-      </c>
       <c r="C13" s="7" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="7" t="s">
+      <c r="A14" t="s">
         <v>675</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>657</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>666</v>
-      </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="6" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
         <v>679</v>
       </c>
-      <c r="B17" t="s">
-        <v>652</v>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15.75">
+      <c r="A21" s="200" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>683</v>
       </c>
     </row>
   </sheetData>
@@ -11114,10 +11261,251 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F4FD623-0653-4148-A217-057459B36D84}">
+  <dimension ref="A1:D40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" s="205" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="204" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="204" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="204" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="204" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="204" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="204" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="204" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="204" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" s="204"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" s="205" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="204" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="204" t="s">
+        <v>697</v>
+      </c>
+      <c r="C14" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="204" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" s="204" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="204" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="204" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="204" t="s">
+        <v>703</v>
+      </c>
+      <c r="C19" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="204" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="204" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="204" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="204" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="204" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="204" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="204" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="204" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" s="204" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" s="204" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" s="204" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" s="204"/>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" s="206" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="207" t="s">
+        <v>717</v>
+      </c>
+      <c r="C33" s="207" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="207" t="s">
+        <v>719</v>
+      </c>
+      <c r="C34" s="207" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="207" t="s">
+        <v>720</v>
+      </c>
+      <c r="C35" s="207" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="207" t="s">
+        <v>721</v>
+      </c>
+      <c r="C36" s="207" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="207" t="s">
+        <v>722</v>
+      </c>
+      <c r="C37" s="207" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" t="s">
+        <v>723</v>
+      </c>
+      <c r="D39" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" t="s">
+        <v>724</v>
+      </c>
+      <c r="D40" t="s">
+        <v>725</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617F1214-FEDF-4959-B6B1-8C60CA48A0FC}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -11135,7 +11523,7 @@
         <v>360</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>680</v>
+        <v>726</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>361</v>
@@ -11144,80 +11532,80 @@
         <v>8</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>681</v>
+        <v>727</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>682</v>
+        <v>728</v>
       </c>
       <c r="B2" t="s">
-        <v>683</v>
+        <v>729</v>
       </c>
       <c r="C2" t="s">
-        <v>684</v>
+        <v>730</v>
       </c>
       <c r="D2" t="s">
-        <v>685</v>
+        <v>731</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>686</v>
+        <v>732</v>
       </c>
       <c r="C3" t="s">
-        <v>687</v>
+        <v>733</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>688</v>
+        <v>734</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>689</v>
+        <v>735</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" customHeight="1">
       <c r="A6" t="s">
-        <v>690</v>
+        <v>736</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>691</v>
+        <v>737</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>692</v>
+        <v>738</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>693</v>
+        <v>739</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>694</v>
+        <v>740</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>695</v>
+        <v>741</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>696</v>
+        <v>742</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>697</v>
+        <v>743</v>
       </c>
       <c r="C12" t="s">
-        <v>698</v>
+        <v>744</v>
       </c>
     </row>
   </sheetData>
@@ -11233,7 +11621,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
@@ -11254,16 +11642,16 @@
       <c r="B1" s="20" t="s">
         <v>360</v>
       </c>
-      <c r="C1" s="142" t="s">
+      <c r="C1" s="141" t="s">
         <v>361</v>
       </c>
-      <c r="D1" s="142" t="s">
+      <c r="D1" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="142" t="s">
+      <c r="E1" s="141" t="s">
         <v>362</v>
       </c>
-      <c r="F1" s="176"/>
+      <c r="F1" s="175"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="55" t="s">
@@ -11275,19 +11663,19 @@
       <c r="C2" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="D2" s="160">
+      <c r="D2" s="159">
         <v>420</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="177" t="s">
+      <c r="F2" s="176" t="s">
         <v>366</v>
       </c>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="165"/>
-      <c r="J2" s="165"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="164"/>
+      <c r="J2" s="164"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="52" t="s">
@@ -11299,19 +11687,19 @@
       <c r="C3" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="D3" s="160">
+      <c r="D3" s="159">
         <v>368</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="178" t="s">
+      <c r="F3" s="177" t="s">
         <v>369</v>
       </c>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="165"/>
-      <c r="J3" s="165"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
+      <c r="J3" s="164"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="52" t="s">
@@ -11323,19 +11711,19 @@
       <c r="C4" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="D4" s="160">
+      <c r="D4" s="159">
         <v>172</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="178" t="s">
+      <c r="F4" s="177" t="s">
         <v>372</v>
       </c>
-      <c r="G4" s="165"/>
-      <c r="H4" s="165"/>
-      <c r="I4" s="165"/>
-      <c r="J4" s="165"/>
+      <c r="G4" s="164"/>
+      <c r="H4" s="164"/>
+      <c r="I4" s="164"/>
+      <c r="J4" s="164"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="52" t="s">
@@ -11347,19 +11735,19 @@
       <c r="C5" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="D5" s="160">
+      <c r="D5" s="159">
         <v>420</v>
       </c>
       <c r="E5" s="1">
         <v>4</v>
       </c>
-      <c r="F5" s="178" t="s">
+      <c r="F5" s="177" t="s">
         <v>376</v>
       </c>
-      <c r="G5" s="165"/>
-      <c r="H5" s="165"/>
-      <c r="I5" s="165"/>
-      <c r="J5" s="165"/>
+      <c r="G5" s="164"/>
+      <c r="H5" s="164"/>
+      <c r="I5" s="164"/>
+      <c r="J5" s="164"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="26"/>
@@ -11369,17 +11757,17 @@
       <c r="C6" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D6" s="160">
+      <c r="D6" s="159">
         <v>480</v>
       </c>
       <c r="E6" s="1">
         <v>4</v>
       </c>
-      <c r="F6" s="179"/>
-      <c r="G6" s="165"/>
-      <c r="H6" s="165"/>
-      <c r="I6" s="165"/>
-      <c r="J6" s="165"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="164"/>
+      <c r="H6" s="164"/>
+      <c r="I6" s="164"/>
+      <c r="J6" s="164"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="26"/>
@@ -11389,17 +11777,17 @@
       <c r="C7" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="D7" s="160">
+      <c r="D7" s="159">
         <v>750</v>
       </c>
       <c r="E7" s="1">
         <v>4</v>
       </c>
-      <c r="F7" s="179"/>
-      <c r="G7" s="165"/>
-      <c r="H7" s="165"/>
-      <c r="I7" s="165"/>
-      <c r="J7" s="165"/>
+      <c r="F7" s="178"/>
+      <c r="G7" s="164"/>
+      <c r="H7" s="164"/>
+      <c r="I7" s="164"/>
+      <c r="J7" s="164"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="26"/>
@@ -11409,15 +11797,15 @@
       <c r="C8" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="D8" s="160"/>
+      <c r="D8" s="159"/>
       <c r="E8" s="1">
         <v>34</v>
       </c>
-      <c r="F8" s="179"/>
-      <c r="G8" s="165"/>
-      <c r="H8" s="201"/>
-      <c r="I8" s="165"/>
-      <c r="J8" s="165"/>
+      <c r="F8" s="178"/>
+      <c r="G8" s="164"/>
+      <c r="H8" s="164"/>
+      <c r="I8" s="164"/>
+      <c r="J8" s="164"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="26"/>
@@ -11427,15 +11815,15 @@
       <c r="C9" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D9" s="160"/>
+      <c r="D9" s="159"/>
       <c r="E9" s="1">
         <v>2</v>
       </c>
-      <c r="F9" s="179"/>
-      <c r="G9" s="165"/>
-      <c r="H9" s="165"/>
-      <c r="I9" s="165"/>
-      <c r="J9" s="165"/>
+      <c r="F9" s="178"/>
+      <c r="G9" s="164"/>
+      <c r="H9" s="164"/>
+      <c r="I9" s="164"/>
+      <c r="J9" s="164"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="26"/>
@@ -11445,15 +11833,15 @@
       <c r="C10" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="D10" s="160"/>
+      <c r="D10" s="159"/>
       <c r="E10" s="1">
         <v>81</v>
       </c>
-      <c r="F10" s="179"/>
-      <c r="G10" s="165"/>
-      <c r="H10" s="165"/>
-      <c r="I10" s="165"/>
-      <c r="J10" s="165"/>
+      <c r="F10" s="178"/>
+      <c r="G10" s="164"/>
+      <c r="H10" s="164"/>
+      <c r="I10" s="164"/>
+      <c r="J10" s="164"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="26"/>
@@ -11463,15 +11851,15 @@
       <c r="C11" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="D11" s="160"/>
+      <c r="D11" s="159"/>
       <c r="E11" s="1">
         <v>8</v>
       </c>
-      <c r="F11" s="198"/>
-      <c r="G11" s="165"/>
-      <c r="H11" s="165"/>
-      <c r="I11" s="165"/>
-      <c r="J11" s="165"/>
+      <c r="F11" s="190"/>
+      <c r="G11" s="164"/>
+      <c r="H11" s="164"/>
+      <c r="I11" s="164"/>
+      <c r="J11" s="164"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="52" t="s">
@@ -11483,15 +11871,15 @@
       <c r="C12" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="D12" s="160"/>
-      <c r="E12" s="181">
+      <c r="D12" s="159"/>
+      <c r="E12" s="1">
         <v>78</v>
       </c>
-      <c r="F12" s="203"/>
-      <c r="G12" s="165"/>
-      <c r="H12" s="165"/>
-      <c r="I12" s="165"/>
-      <c r="J12" s="165"/>
+      <c r="F12" s="194"/>
+      <c r="G12" s="164"/>
+      <c r="H12" s="164"/>
+      <c r="I12" s="164"/>
+      <c r="J12" s="164"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="26"/>
@@ -11501,15 +11889,15 @@
       <c r="C13" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="D13" s="160"/>
+      <c r="D13" s="159"/>
       <c r="E13" s="1">
         <v>81</v>
       </c>
-      <c r="F13" s="199"/>
-      <c r="G13" s="165"/>
-      <c r="H13" s="165"/>
-      <c r="I13" s="165"/>
-      <c r="J13" s="201"/>
+      <c r="F13" s="191"/>
+      <c r="G13" s="164"/>
+      <c r="H13" s="164"/>
+      <c r="I13" s="164"/>
+      <c r="J13" s="164"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="26"/>
@@ -11519,15 +11907,15 @@
       <c r="C14" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="160"/>
+      <c r="D14" s="159"/>
       <c r="E14" s="1">
         <v>4</v>
       </c>
-      <c r="F14" s="198"/>
-      <c r="G14" s="165"/>
-      <c r="H14" s="165"/>
-      <c r="I14" s="165"/>
-      <c r="J14" s="165"/>
+      <c r="F14" s="190"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="164"/>
+      <c r="I14" s="164"/>
+      <c r="J14" s="164"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="26"/>
@@ -11537,50 +11925,50 @@
       <c r="C15" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="160"/>
+      <c r="D15" s="159"/>
       <c r="E15" s="1">
         <v>24</v>
       </c>
-      <c r="F15" s="199"/>
-      <c r="G15" s="165"/>
-      <c r="H15" s="165"/>
-      <c r="I15" s="165"/>
-      <c r="J15" s="165"/>
+      <c r="F15" s="191"/>
+      <c r="G15" s="164"/>
+      <c r="H15" s="164"/>
+      <c r="I15" s="164"/>
+      <c r="J15" s="164"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="204" t="s">
+      <c r="A16" s="195" t="s">
         <v>386</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>387</v>
       </c>
-      <c r="C16" s="197" t="s">
+      <c r="C16" s="189" t="s">
         <v>388</v>
       </c>
-      <c r="D16" s="160"/>
+      <c r="D16" s="159"/>
       <c r="E16" s="1">
         <v>1</v>
       </c>
-      <c r="F16" s="180"/>
-      <c r="G16" s="165"/>
-      <c r="H16" s="165"/>
-      <c r="I16" s="165"/>
-      <c r="J16" s="165"/>
+      <c r="F16" s="179"/>
+      <c r="G16" s="164"/>
+      <c r="H16" s="164"/>
+      <c r="I16" s="164"/>
+      <c r="J16" s="164"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="26"/>
       <c r="B17" s="21" t="s">
         <v>389</v>
       </c>
-      <c r="C17" s="182" t="s">
+      <c r="C17" s="180" t="s">
         <v>390</v>
       </c>
-      <c r="D17" s="160"/>
+      <c r="D17" s="159"/>
       <c r="E17" s="1">
         <v>4</v>
       </c>
-      <c r="F17" s="198"/>
-      <c r="G17" s="165"/>
+      <c r="F17" s="190"/>
+      <c r="G17" s="164"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="26"/>
@@ -11590,12 +11978,12 @@
       <c r="C18" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="D18" s="160"/>
+      <c r="D18" s="159"/>
       <c r="E18" s="1">
         <v>4</v>
       </c>
-      <c r="F18" s="198"/>
-      <c r="G18" s="165"/>
+      <c r="F18" s="190"/>
+      <c r="G18" s="164"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="64"/>
@@ -11605,18 +11993,18 @@
       <c r="C19" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="D19" s="161"/>
+      <c r="D19" s="160"/>
       <c r="E19" s="45">
         <v>4</v>
       </c>
-      <c r="F19" s="200"/>
-      <c r="G19" s="165"/>
+      <c r="F19" s="192"/>
+      <c r="G19" s="164"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="B20" s="165"/>
-      <c r="C20" s="165"/>
-      <c r="E20" s="165"/>
-      <c r="G20" s="165"/>
+      <c r="B20" s="164"/>
+      <c r="C20" s="164"/>
+      <c r="E20" s="164"/>
+      <c r="G20" s="164"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -11669,26 +12057,26 @@
       <c r="B1" s="69" t="s">
         <v>360</v>
       </c>
-      <c r="C1" s="142" t="s">
+      <c r="C1" s="141" t="s">
         <v>361</v>
       </c>
-      <c r="D1" s="142" t="s">
+      <c r="D1" s="141" t="s">
         <v>362</v>
       </c>
-      <c r="E1" s="183"/>
+      <c r="E1" s="181"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="55" t="s">
         <v>363</v>
       </c>
-      <c r="B2" s="184" t="s">
+      <c r="B2" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="185"/>
-      <c r="D2" s="186">
+      <c r="C2" s="29"/>
+      <c r="D2" s="16">
         <v>2</v>
       </c>
-      <c r="E2" s="187" t="s">
+      <c r="E2" s="182" t="s">
         <v>366</v>
       </c>
     </row>
@@ -11696,14 +12084,14 @@
       <c r="A3" s="52" t="s">
         <v>367</v>
       </c>
-      <c r="B3" s="184" t="s">
+      <c r="B3" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="C3" s="185"/>
-      <c r="D3" s="186">
+      <c r="C3" s="29"/>
+      <c r="D3" s="16">
         <v>36</v>
       </c>
-      <c r="E3" s="188" t="s">
+      <c r="E3" s="183" t="s">
         <v>369</v>
       </c>
     </row>
@@ -11711,14 +12099,14 @@
       <c r="A4" s="52" t="s">
         <v>370</v>
       </c>
-      <c r="B4" s="184" t="s">
+      <c r="B4" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="185"/>
-      <c r="D4" s="186">
+      <c r="C4" s="29"/>
+      <c r="D4" s="16">
         <v>24</v>
       </c>
-      <c r="E4" s="188" t="s">
+      <c r="E4" s="183" t="s">
         <v>372</v>
       </c>
     </row>
@@ -11726,400 +12114,400 @@
       <c r="A5" s="52" t="s">
         <v>373</v>
       </c>
-      <c r="B5" s="184" t="s">
+      <c r="B5" s="60" t="s">
         <v>326</v>
       </c>
-      <c r="C5" s="185"/>
-      <c r="D5" s="186">
+      <c r="C5" s="29"/>
+      <c r="D5" s="16">
         <v>4</v>
       </c>
-      <c r="E5" s="188" t="s">
+      <c r="E5" s="183" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="26"/>
-      <c r="B6" s="184" t="s">
+      <c r="B6" s="60" t="s">
         <v>328</v>
       </c>
-      <c r="C6" s="185"/>
-      <c r="D6" s="186">
+      <c r="C6" s="29"/>
+      <c r="D6" s="16">
         <v>8</v>
       </c>
-      <c r="E6" s="189"/>
+      <c r="E6" s="184"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="26"/>
-      <c r="B7" s="184" t="s">
+      <c r="B7" s="60" t="s">
         <v>393</v>
       </c>
-      <c r="C7" s="185"/>
-      <c r="D7" s="186">
-        <v>1</v>
-      </c>
-      <c r="E7" s="189"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="16">
+        <v>1</v>
+      </c>
+      <c r="E7" s="184"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="26"/>
-      <c r="B8" s="190" t="s">
+      <c r="B8" t="s">
         <v>394</v>
       </c>
-      <c r="C8" s="190"/>
-      <c r="D8" s="186">
+      <c r="C8"/>
+      <c r="D8" s="16">
         <v>2</v>
       </c>
-      <c r="E8" s="189"/>
+      <c r="E8" s="184"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="26"/>
-      <c r="B9" s="191" t="s">
+      <c r="B9" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="C9" s="191"/>
-      <c r="D9" s="186">
+      <c r="C9" s="1"/>
+      <c r="D9" s="16">
         <v>5</v>
       </c>
-      <c r="E9" s="189"/>
+      <c r="E9" s="184"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="26"/>
-      <c r="B10" s="192" t="s">
+      <c r="B10" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="C10" s="185"/>
-      <c r="D10" s="186">
+      <c r="C10" s="29"/>
+      <c r="D10" s="16">
         <v>52</v>
       </c>
-      <c r="E10" s="189"/>
+      <c r="E10" s="184"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="26"/>
-      <c r="B11" s="184" t="s">
+      <c r="B11" s="60" t="s">
         <v>397</v>
       </c>
-      <c r="C11" s="185"/>
-      <c r="D11" s="186">
+      <c r="C11" s="29"/>
+      <c r="D11" s="16">
         <v>8</v>
       </c>
-      <c r="E11" s="189"/>
+      <c r="E11" s="184"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="52" t="s">
         <v>384</v>
       </c>
-      <c r="B12" s="184" t="s">
+      <c r="B12" s="60" t="s">
         <v>398</v>
       </c>
-      <c r="C12" s="185"/>
-      <c r="D12" s="186">
+      <c r="C12" s="29"/>
+      <c r="D12" s="16">
         <v>8</v>
       </c>
-      <c r="E12" s="196" t="s">
+      <c r="E12" s="188" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="26"/>
-      <c r="B13" s="192" t="s">
+      <c r="B13" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C13" s="185"/>
-      <c r="D13" s="186">
+      <c r="C13" s="29"/>
+      <c r="D13" s="16">
         <v>8</v>
       </c>
-      <c r="E13" s="189"/>
+      <c r="E13" s="184"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="26"/>
-      <c r="B14" s="192" t="s">
+      <c r="B14" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C14" s="185"/>
-      <c r="D14" s="186">
+      <c r="C14" s="29"/>
+      <c r="D14" s="16">
         <v>52</v>
       </c>
-      <c r="E14" s="189"/>
+      <c r="E14" s="184"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="26"/>
-      <c r="B15" s="192" t="s">
+      <c r="B15" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C15" s="185"/>
-      <c r="D15" s="186">
+      <c r="C15" s="29"/>
+      <c r="D15" s="16">
         <v>8</v>
       </c>
-      <c r="E15" s="189"/>
+      <c r="E15" s="184"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="26"/>
-      <c r="B16" s="192" t="s">
+      <c r="B16" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="C16" s="185"/>
-      <c r="D16" s="186">
+      <c r="C16" s="29"/>
+      <c r="D16" s="16">
         <v>2</v>
       </c>
-      <c r="E16" s="189"/>
+      <c r="E16" s="184"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="26"/>
-      <c r="B17" s="192" t="s">
+      <c r="B17" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="C17" s="185"/>
-      <c r="D17" s="186">
+      <c r="C17" s="29"/>
+      <c r="D17" s="16">
         <v>11</v>
       </c>
-      <c r="E17" s="189"/>
+      <c r="E17" s="184"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="26"/>
-      <c r="B18" s="192" t="s">
+      <c r="B18" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="C18" s="185"/>
-      <c r="D18" s="186">
+      <c r="C18" s="29"/>
+      <c r="D18" s="16">
         <v>19</v>
       </c>
-      <c r="E18" s="189"/>
+      <c r="E18" s="184"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="26"/>
-      <c r="B19" s="192" t="s">
+      <c r="B19" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="C19" s="185"/>
-      <c r="D19" s="186">
+      <c r="C19" s="29"/>
+      <c r="D19" s="16">
         <v>4</v>
       </c>
-      <c r="E19" s="189"/>
+      <c r="E19" s="184"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="26"/>
-      <c r="B20" s="192" t="s">
+      <c r="B20" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C20" s="185"/>
-      <c r="D20" s="186">
+      <c r="C20" s="29"/>
+      <c r="D20" s="16">
         <v>27</v>
       </c>
-      <c r="E20" s="189"/>
+      <c r="E20" s="184"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="26"/>
-      <c r="B21" s="192" t="s">
+      <c r="B21" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C21" s="185"/>
-      <c r="D21" s="186">
+      <c r="C21" s="29"/>
+      <c r="D21" s="16">
         <v>4</v>
       </c>
-      <c r="E21" s="189"/>
+      <c r="E21" s="184"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="26"/>
-      <c r="B22" s="192" t="s">
+      <c r="B22" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C22" s="185"/>
-      <c r="D22" s="186">
+      <c r="C22" s="29"/>
+      <c r="D22" s="16">
         <v>2</v>
       </c>
-      <c r="E22" s="189"/>
+      <c r="E22" s="184"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="26"/>
-      <c r="B23" s="184" t="s">
+      <c r="B23" s="60" t="s">
         <v>401</v>
       </c>
-      <c r="C23" s="193" t="s">
+      <c r="C23" s="185" t="s">
         <v>402</v>
       </c>
-      <c r="D23" s="186">
+      <c r="D23" s="16">
         <v>2</v>
       </c>
-      <c r="E23" s="189"/>
+      <c r="E23" s="184"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="26"/>
-      <c r="B24" s="184" t="s">
+      <c r="B24" s="60" t="s">
         <v>403</v>
       </c>
-      <c r="C24" s="193" t="s">
+      <c r="C24" s="185" t="s">
         <v>404</v>
       </c>
-      <c r="D24" s="186">
-        <v>1</v>
-      </c>
-      <c r="E24" s="189"/>
+      <c r="D24" s="16">
+        <v>1</v>
+      </c>
+      <c r="E24" s="184"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="26"/>
-      <c r="B25" s="184" t="s">
+      <c r="B25" s="60" t="s">
         <v>405</v>
       </c>
-      <c r="C25" s="185"/>
-      <c r="D25" s="186">
+      <c r="C25" s="29"/>
+      <c r="D25" s="16">
         <v>2</v>
       </c>
-      <c r="E25" s="189"/>
+      <c r="E25" s="184"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="26"/>
-      <c r="B26" s="192" t="s">
+      <c r="B26" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="C26" s="182" t="s">
+      <c r="C26" s="180" t="s">
         <v>386</v>
       </c>
-      <c r="D26" s="186">
-        <v>1</v>
-      </c>
-      <c r="E26" s="194"/>
+      <c r="D26" s="16">
+        <v>1</v>
+      </c>
+      <c r="E26" s="186"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="26"/>
-      <c r="B27" s="192" t="s">
+      <c r="B27" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="C27" s="184" t="s">
+      <c r="C27" s="60" t="s">
         <v>388</v>
       </c>
-      <c r="D27" s="186">
+      <c r="D27" s="16">
         <v>4</v>
       </c>
-      <c r="E27" s="189"/>
+      <c r="E27" s="184"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="26"/>
-      <c r="B28" s="192" t="s">
+      <c r="B28" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="C28" s="184" t="s">
+      <c r="C28" s="60" t="s">
         <v>388</v>
       </c>
-      <c r="D28" s="186">
+      <c r="D28" s="16">
         <v>2</v>
       </c>
-      <c r="E28" s="189"/>
+      <c r="E28" s="184"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="26"/>
-      <c r="B29" s="192" t="s">
+      <c r="B29" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="C29" s="184" t="s">
+      <c r="C29" s="60" t="s">
         <v>388</v>
       </c>
-      <c r="D29" s="186">
-        <v>1</v>
-      </c>
-      <c r="E29" s="189"/>
+      <c r="D29" s="16">
+        <v>1</v>
+      </c>
+      <c r="E29" s="184"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="26"/>
-      <c r="B30" s="192" t="s">
+      <c r="B30" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="C30" s="184" t="s">
+      <c r="C30" s="60" t="s">
         <v>388</v>
       </c>
-      <c r="D30" s="186">
-        <v>1</v>
-      </c>
-      <c r="E30" s="189"/>
+      <c r="D30" s="16">
+        <v>1</v>
+      </c>
+      <c r="E30" s="184"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="26"/>
-      <c r="B31" s="192" t="s">
+      <c r="B31" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="C31" s="184" t="s">
+      <c r="C31" s="60" t="s">
         <v>388</v>
       </c>
-      <c r="D31" s="186">
+      <c r="D31" s="16">
         <v>2</v>
       </c>
-      <c r="E31" s="189"/>
+      <c r="E31" s="184"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="26"/>
-      <c r="B32" s="192" t="s">
+      <c r="B32" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="C32" s="184" t="s">
+      <c r="C32" s="60" t="s">
         <v>388</v>
       </c>
-      <c r="D32" s="186">
-        <v>1</v>
-      </c>
-      <c r="E32" s="189"/>
+      <c r="D32" s="16">
+        <v>1</v>
+      </c>
+      <c r="E32" s="184"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="26"/>
-      <c r="B33" s="192" t="s">
+      <c r="B33" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="C33" s="184" t="s">
+      <c r="C33" s="60" t="s">
         <v>388</v>
       </c>
-      <c r="D33" s="186">
-        <v>1</v>
-      </c>
-      <c r="E33" s="189"/>
+      <c r="D33" s="16">
+        <v>1</v>
+      </c>
+      <c r="E33" s="184"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="26"/>
-      <c r="B34" s="192" t="s">
+      <c r="B34" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="C34" s="184" t="s">
+      <c r="C34" s="60" t="s">
         <v>388</v>
       </c>
-      <c r="D34" s="186">
-        <v>1</v>
-      </c>
-      <c r="E34" s="189"/>
+      <c r="D34" s="16">
+        <v>1</v>
+      </c>
+      <c r="E34" s="184"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="26"/>
-      <c r="B35" s="192" t="s">
+      <c r="B35" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="C35" s="184" t="s">
+      <c r="C35" s="60" t="s">
         <v>388</v>
       </c>
-      <c r="D35" s="186">
+      <c r="D35" s="16">
         <v>2</v>
       </c>
-      <c r="E35" s="189"/>
+      <c r="E35" s="184"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="26"/>
-      <c r="B36" s="192" t="s">
+      <c r="B36" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="C36" s="184" t="s">
+      <c r="C36" s="60" t="s">
         <v>388</v>
       </c>
-      <c r="D36" s="186">
-        <v>1</v>
-      </c>
-      <c r="E36" s="189"/>
+      <c r="D36" s="16">
+        <v>1</v>
+      </c>
+      <c r="E36" s="184"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" thickBot="1">
       <c r="A37" s="64"/>
       <c r="B37" s="53" t="s">
         <v>417</v>
       </c>
-      <c r="C37" s="162" t="s">
+      <c r="C37" s="161" t="s">
         <v>388</v>
       </c>
       <c r="D37" s="65">
         <v>1</v>
       </c>
-      <c r="E37" s="195"/>
+      <c r="E37" s="187"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -12150,7 +12538,7 @@
     <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -12171,10 +12559,10 @@
       <c r="B1" s="69" t="s">
         <v>360</v>
       </c>
-      <c r="C1" s="142" t="s">
+      <c r="C1" s="141" t="s">
         <v>361</v>
       </c>
-      <c r="D1" s="142" t="s">
+      <c r="D1" s="141" t="s">
         <v>362</v>
       </c>
       <c r="E1" s="51"/>
@@ -12198,10 +12586,10 @@
       <c r="A3" s="52" t="s">
         <v>367</v>
       </c>
-      <c r="B3" s="145" t="s">
+      <c r="B3" s="144" t="s">
         <v>341</v>
       </c>
-      <c r="C3" s="145"/>
+      <c r="C3" s="144"/>
       <c r="D3" s="16">
         <v>1</v>
       </c>
@@ -12213,10 +12601,10 @@
       <c r="A4" s="52" t="s">
         <v>370</v>
       </c>
-      <c r="B4" s="145" t="s">
+      <c r="B4" s="144" t="s">
         <v>419</v>
       </c>
-      <c r="C4" s="145"/>
+      <c r="C4" s="144"/>
       <c r="D4" s="16">
         <v>1</v>
       </c>
@@ -12375,7 +12763,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="26"/>
-      <c r="B18" s="163" t="s">
+      <c r="B18" s="162" t="s">
         <v>430</v>
       </c>
       <c r="C18" s="71" t="s">
@@ -12399,10 +12787,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="26"/>
-      <c r="B20" s="164" t="s">
+      <c r="B20" s="163" t="s">
         <v>433</v>
       </c>
-      <c r="C20" s="164"/>
+      <c r="C20" s="163"/>
       <c r="D20" s="16">
         <v>1</v>
       </c>
@@ -12421,10 +12809,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="26"/>
-      <c r="B22" s="164" t="s">
+      <c r="B22" s="163" t="s">
         <v>435</v>
       </c>
-      <c r="C22" s="164"/>
+      <c r="C22" s="163"/>
       <c r="D22" s="16">
         <v>1</v>
       </c>
@@ -12454,61 +12842,61 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="26"/>
-      <c r="B25" s="70" t="s">
+      <c r="B25" s="199" t="s">
         <v>438</v>
       </c>
-      <c r="C25" s="70"/>
-      <c r="D25" s="16">
+      <c r="C25" s="73"/>
+      <c r="D25" s="198">
         <v>1</v>
       </c>
       <c r="E25" s="58"/>
     </row>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1">
+    <row r="26" spans="1:5">
       <c r="A26" s="26"/>
-      <c r="B26" s="67"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="165"/>
+      <c r="B26" s="73" t="s">
+        <v>439</v>
+      </c>
+      <c r="C26" s="70"/>
+      <c r="D26" s="16">
+        <v>1</v>
+      </c>
       <c r="E26" s="58"/>
     </row>
-    <row r="27" spans="1:5" ht="18.75">
+    <row r="27" spans="1:5" ht="15.75" thickBot="1">
       <c r="A27" s="26"/>
-      <c r="B27" s="22" t="s">
-        <v>439</v>
-      </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="47"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="164"/>
       <c r="E27" s="58"/>
     </row>
-    <row r="28" spans="1:5" ht="30" customHeight="1">
+    <row r="28" spans="1:5" ht="18.75">
       <c r="A28" s="26"/>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="22" t="s">
+        <v>440</v>
+      </c>
+      <c r="C28" s="23"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="58"/>
+    </row>
+    <row r="29" spans="1:5" ht="30" customHeight="1">
+      <c r="A29" s="26"/>
+      <c r="B29" s="24" t="s">
         <v>360</v>
       </c>
-      <c r="C28" s="166" t="s">
+      <c r="C29" s="165" t="s">
         <v>361</v>
       </c>
-      <c r="D28" s="167" t="s">
+      <c r="D29" s="166" t="s">
         <v>362</v>
-      </c>
-      <c r="E28" s="58"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="26"/>
-      <c r="B29" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="48">
-        <v>1</v>
       </c>
       <c r="E29" s="58"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="26"/>
       <c r="B30" s="21" t="s">
-        <v>440</v>
-      </c>
-      <c r="C30"/>
+        <v>344</v>
+      </c>
+      <c r="C30" s="1"/>
       <c r="D30" s="48">
         <v>1</v>
       </c>
@@ -12519,29 +12907,29 @@
       <c r="B31" s="21" t="s">
         <v>441</v>
       </c>
-      <c r="C31" s="1"/>
+      <c r="C31"/>
       <c r="D31" s="48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31" s="58"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="26"/>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="21" t="s">
         <v>442</v>
       </c>
-      <c r="C32" s="70"/>
+      <c r="C32" s="1"/>
       <c r="D32" s="48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32" s="58"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="26"/>
-      <c r="B33" s="18" t="s">
-        <v>346</v>
-      </c>
-      <c r="C33" s="14"/>
+      <c r="B33" s="25" t="s">
+        <v>443</v>
+      </c>
+      <c r="C33" s="70"/>
       <c r="D33" s="48">
         <v>1</v>
       </c>
@@ -12549,10 +12937,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="26"/>
-      <c r="B34" s="27" t="s">
-        <v>349</v>
-      </c>
-      <c r="C34" s="72"/>
+      <c r="B34" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="C34" s="14"/>
       <c r="D34" s="48">
         <v>1</v>
       </c>
@@ -12560,10 +12948,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="26"/>
-      <c r="B35" s="28" t="s">
-        <v>351</v>
-      </c>
-      <c r="C35" s="164"/>
+      <c r="B35" s="27" t="s">
+        <v>349</v>
+      </c>
+      <c r="C35" s="72"/>
       <c r="D35" s="48">
         <v>1</v>
       </c>
@@ -12571,10 +12959,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="26"/>
-      <c r="B36" s="18" t="s">
-        <v>353</v>
-      </c>
-      <c r="C36" s="14"/>
+      <c r="B36" s="28" t="s">
+        <v>351</v>
+      </c>
+      <c r="C36" s="163"/>
       <c r="D36" s="48">
         <v>1</v>
       </c>
@@ -12582,25 +12970,36 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="26"/>
-      <c r="B37" s="21" t="s">
-        <v>443</v>
-      </c>
-      <c r="C37" s="1"/>
+      <c r="B37" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="C37" s="14"/>
       <c r="D37" s="48">
         <v>1</v>
       </c>
       <c r="E37" s="58"/>
     </row>
-    <row r="38" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A38" s="64"/>
-      <c r="B38" s="44" t="s">
+    <row r="38" spans="1:5">
+      <c r="A38" s="26"/>
+      <c r="B38" s="21" t="s">
+        <v>444</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="48">
+        <v>1</v>
+      </c>
+      <c r="E38" s="58"/>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A39" s="64"/>
+      <c r="B39" s="44" t="s">
         <v>355</v>
       </c>
-      <c r="C38" s="45"/>
-      <c r="D38" s="49">
-        <v>1</v>
-      </c>
-      <c r="E38" s="66"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="49">
+        <v>1</v>
+      </c>
+      <c r="E39" s="66"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -12632,7 +13031,9 @@
   </sheetPr>
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
@@ -12651,10 +13052,10 @@
       <c r="B1" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="C1" s="166" t="s">
+      <c r="C1" s="165" t="s">
         <v>361</v>
       </c>
-      <c r="D1" s="166" t="s">
+      <c r="D1" s="165" t="s">
         <v>362</v>
       </c>
       <c r="E1" s="51"/>
@@ -12678,7 +13079,7 @@
         <v>367</v>
       </c>
       <c r="B3" s="60" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C3" s="60"/>
       <c r="D3" s="16">
@@ -12726,7 +13127,7 @@
       <c r="C6" s="60" t="s">
         <v>312</v>
       </c>
-      <c r="D6" s="154">
+      <c r="D6" s="153">
         <v>1</v>
       </c>
       <c r="E6" s="58"/>
@@ -12734,12 +13135,12 @@
     <row r="7" spans="1:5">
       <c r="A7" s="26"/>
       <c r="B7" s="14" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C7" s="60" t="s">
-        <v>446</v>
-      </c>
-      <c r="D7" s="154">
+        <v>447</v>
+      </c>
+      <c r="D7" s="153">
         <v>28</v>
       </c>
       <c r="E7" s="58"/>
@@ -12747,7 +13148,7 @@
     <row r="8" spans="1:5">
       <c r="A8" s="26"/>
       <c r="B8" s="60" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C8" s="60"/>
       <c r="D8" s="16">
@@ -12758,7 +13159,7 @@
     <row r="9" spans="1:5">
       <c r="A9" s="26"/>
       <c r="B9" s="39" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D9" s="16">
         <v>3</v>
@@ -12771,15 +13172,15 @@
         <v>243</v>
       </c>
       <c r="C10" s="60"/>
-      <c r="D10" s="154">
+      <c r="D10" s="153">
         <v>6</v>
       </c>
       <c r="E10" s="58"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="26"/>
-      <c r="B11" s="143" t="s">
-        <v>449</v>
+      <c r="B11" s="142" t="s">
+        <v>450</v>
       </c>
       <c r="C11" s="60"/>
       <c r="D11" s="16">
@@ -12803,7 +13204,7 @@
     <row r="13" spans="1:5">
       <c r="A13" s="26"/>
       <c r="B13" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D13" s="16">
         <v>3</v>
@@ -12813,7 +13214,7 @@
     <row r="14" spans="1:5">
       <c r="A14" s="26"/>
       <c r="B14" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D14" s="16">
         <v>27</v>
@@ -12843,7 +13244,7 @@
     <row r="17" spans="1:5">
       <c r="A17" s="26"/>
       <c r="B17" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D17" s="16">
         <v>7</v>
@@ -12853,7 +13254,7 @@
     <row r="18" spans="1:5">
       <c r="A18" s="26"/>
       <c r="B18" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D18" s="16">
         <v>3</v>
@@ -12863,7 +13264,7 @@
     <row r="19" spans="1:5">
       <c r="A19" s="26"/>
       <c r="B19" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D19" s="16">
         <v>3</v>
@@ -12873,7 +13274,7 @@
     <row r="20" spans="1:5">
       <c r="A20" s="26"/>
       <c r="B20" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D20" s="16">
         <v>3</v>
@@ -12945,7 +13346,7 @@
     <row r="27" spans="1:5">
       <c r="A27" s="26"/>
       <c r="B27" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D27" s="16">
         <v>3</v>
@@ -12955,7 +13356,7 @@
     <row r="28" spans="1:5">
       <c r="A28" s="26"/>
       <c r="B28" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D28" s="16">
         <v>3</v>
@@ -12965,7 +13366,7 @@
     <row r="29" spans="1:5">
       <c r="A29" s="26"/>
       <c r="B29" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D29" s="16">
         <v>3</v>
@@ -12975,7 +13376,7 @@
     <row r="30" spans="1:5">
       <c r="A30" s="26"/>
       <c r="B30" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D30" s="16">
         <v>1</v>
@@ -12985,7 +13386,7 @@
     <row r="31" spans="1:5">
       <c r="A31" s="26"/>
       <c r="B31" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D31" s="16">
         <v>1</v>
@@ -12995,7 +13396,7 @@
     <row r="32" spans="1:5">
       <c r="A32" s="26"/>
       <c r="B32" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D32" s="16">
         <v>1</v>
@@ -13005,7 +13406,7 @@
     <row r="33" spans="1:5">
       <c r="A33" s="26"/>
       <c r="B33" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D33" s="16">
         <v>2</v>
@@ -13015,7 +13416,7 @@
     <row r="34" spans="1:5">
       <c r="A34" s="26"/>
       <c r="B34" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D34" s="16">
         <v>1</v>
@@ -13025,7 +13426,7 @@
     <row r="35" spans="1:5">
       <c r="A35" s="26"/>
       <c r="B35" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D35" s="16">
         <v>1</v>
@@ -13035,7 +13436,7 @@
     <row r="36" spans="1:5">
       <c r="A36" s="26"/>
       <c r="B36" s="60" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C36" s="60"/>
       <c r="D36" s="16">
@@ -13046,7 +13447,7 @@
     <row r="37" spans="1:5">
       <c r="A37" s="26"/>
       <c r="B37" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D37" s="16">
         <v>1</v>
@@ -13056,7 +13457,7 @@
     <row r="38" spans="1:5">
       <c r="A38" s="26"/>
       <c r="B38" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D38" s="16">
         <v>1</v>
@@ -13066,7 +13467,7 @@
     <row r="39" spans="1:5">
       <c r="A39" s="26"/>
       <c r="B39" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D39" s="16">
         <v>1</v>
@@ -13076,7 +13477,7 @@
     <row r="40" spans="1:5">
       <c r="A40" s="26"/>
       <c r="B40" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D40" s="16">
         <v>1</v>
@@ -13086,7 +13487,7 @@
     <row r="41" spans="1:5">
       <c r="A41" s="26"/>
       <c r="B41" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D41" s="16">
         <v>3</v>
@@ -13096,7 +13497,7 @@
     <row r="42" spans="1:5">
       <c r="A42" s="26"/>
       <c r="B42" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D42" s="16">
         <v>1</v>
@@ -13106,7 +13507,7 @@
     <row r="43" spans="1:5">
       <c r="A43" s="26"/>
       <c r="B43" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D43" s="16">
         <v>1</v>
@@ -13116,7 +13517,7 @@
     <row r="44" spans="1:5" ht="15.75" thickBot="1">
       <c r="A44" s="64"/>
       <c r="B44" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D44" s="16">
         <v>1</v>
@@ -13147,13 +13548,13 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF9E66A9-2DE8-4309-B046-5549D41C73FC}">
   <sheetPr>
-    <tabColor rgb="FF00B050"/>
+    <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView view="pageLayout" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15"/>
@@ -13162,7 +13563,7 @@
     <col min="2" max="2" width="34.140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="15" style="2" customWidth="1"/>
     <col min="4" max="4" width="10" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" style="2" customWidth="1"/>
     <col min="6" max="16338" width="3.7109375" style="2"/>
     <col min="16339" max="16344" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="16345" max="16384" width="3.7109375" style="2"/>
@@ -13173,10 +13574,10 @@
       <c r="B1" s="69" t="s">
         <v>360</v>
       </c>
-      <c r="C1" s="142" t="s">
+      <c r="C1" s="141" t="s">
         <v>361</v>
       </c>
-      <c r="D1" s="142" t="s">
+      <c r="D1" s="141" t="s">
         <v>362</v>
       </c>
       <c r="E1" s="51"/>
@@ -13201,7 +13602,7 @@
         <v>367</v>
       </c>
       <c r="B3" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C3" s="60"/>
       <c r="D3" s="16">
@@ -13231,7 +13632,7 @@
         <v>373</v>
       </c>
       <c r="B5" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C5" s="60"/>
       <c r="D5" s="16">
@@ -13244,7 +13645,7 @@
     <row r="6" spans="1:5">
       <c r="A6" s="26"/>
       <c r="B6" s="60" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C6" s="60"/>
       <c r="D6" s="16">
@@ -13255,7 +13656,7 @@
     <row r="7" spans="1:5">
       <c r="A7" s="26"/>
       <c r="B7" s="60" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C7" s="60"/>
       <c r="D7" s="16">
@@ -13266,7 +13667,7 @@
     <row r="8" spans="1:5">
       <c r="A8" s="26"/>
       <c r="B8" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C8" s="60"/>
       <c r="D8" s="16">
@@ -13277,7 +13678,7 @@
     <row r="9" spans="1:5">
       <c r="A9" s="26"/>
       <c r="B9" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C9" s="60"/>
       <c r="D9" s="16">
@@ -13290,8 +13691,8 @@
       <c r="B10" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="C10" s="120" t="s">
-        <v>480</v>
+      <c r="C10" s="119" t="s">
+        <v>481</v>
       </c>
       <c r="D10" s="16">
         <v>2</v>
@@ -13301,7 +13702,7 @@
     <row r="11" spans="1:5">
       <c r="A11" s="26"/>
       <c r="B11" s="14" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C11" s="60"/>
       <c r="D11" s="16">
@@ -13347,7 +13748,7 @@
     <row r="15" spans="1:5">
       <c r="A15" s="26"/>
       <c r="B15" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="16">
@@ -13358,7 +13759,7 @@
     <row r="16" spans="1:5">
       <c r="A16" s="26"/>
       <c r="B16" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C16" s="60"/>
       <c r="D16" s="16">
@@ -13391,7 +13792,7 @@
     <row r="19" spans="1:5">
       <c r="A19" s="26"/>
       <c r="B19" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C19" s="60"/>
       <c r="D19" s="16">
@@ -13402,7 +13803,7 @@
     <row r="20" spans="1:5">
       <c r="A20" s="26"/>
       <c r="B20" s="60" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C20" s="60"/>
       <c r="D20" s="16">
@@ -13413,7 +13814,7 @@
     <row r="21" spans="1:5">
       <c r="A21" s="26"/>
       <c r="B21" s="60" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C21" s="60"/>
       <c r="D21" s="16">
@@ -13435,7 +13836,7 @@
     <row r="23" spans="1:5">
       <c r="A23" s="26"/>
       <c r="B23" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C23" s="60"/>
       <c r="D23" s="16">
@@ -13468,7 +13869,7 @@
     <row r="26" spans="1:5">
       <c r="A26" s="26"/>
       <c r="B26" s="60" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C26" s="60"/>
       <c r="D26" s="16">
@@ -13523,7 +13924,7 @@
     <row r="31" spans="1:5">
       <c r="A31" s="26"/>
       <c r="B31" s="60" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C31" s="60"/>
       <c r="D31" s="16">
@@ -13534,7 +13935,7 @@
     <row r="32" spans="1:5">
       <c r="A32" s="26"/>
       <c r="B32" s="60" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C32" s="60"/>
       <c r="D32" s="16">
@@ -13545,10 +13946,10 @@
     <row r="33" spans="1:5">
       <c r="A33" s="26"/>
       <c r="B33" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D33" s="16">
         <v>1</v>
@@ -13558,10 +13959,10 @@
     <row r="34" spans="1:5">
       <c r="A34" s="26"/>
       <c r="B34" s="60" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C34" s="60" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D34" s="16">
         <v>1</v>
@@ -13571,10 +13972,10 @@
     <row r="35" spans="1:5">
       <c r="A35" s="26"/>
       <c r="B35" s="60" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D35" s="16">
         <v>2</v>
@@ -13584,10 +13985,10 @@
     <row r="36" spans="1:5">
       <c r="A36" s="26"/>
       <c r="B36" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D36" s="16">
         <v>1</v>
@@ -13597,10 +13998,10 @@
     <row r="37" spans="1:5">
       <c r="A37" s="26"/>
       <c r="B37" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D37" s="16">
         <v>1</v>
@@ -13609,11 +14010,11 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="26"/>
-      <c r="B38" s="163" t="s">
-        <v>497</v>
-      </c>
-      <c r="C38" s="163" t="s">
+      <c r="B38" s="162" t="s">
         <v>498</v>
+      </c>
+      <c r="C38" s="162" t="s">
+        <v>499</v>
       </c>
       <c r="D38" s="59">
         <v>1</v>
@@ -13623,10 +14024,10 @@
     <row r="39" spans="1:5">
       <c r="A39" s="26"/>
       <c r="B39" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D39" s="16">
         <v>4</v>
@@ -13636,10 +14037,10 @@
     <row r="40" spans="1:5">
       <c r="A40" s="26"/>
       <c r="B40" s="60" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D40" s="16">
         <v>2</v>
@@ -13649,10 +14050,10 @@
     <row r="41" spans="1:5">
       <c r="A41" s="26"/>
       <c r="B41" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D41" s="16">
         <v>1</v>
@@ -13662,10 +14063,10 @@
     <row r="42" spans="1:5">
       <c r="A42" s="26"/>
       <c r="B42" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D42" s="16">
         <v>1</v>
@@ -13675,10 +14076,10 @@
     <row r="43" spans="1:5">
       <c r="A43" s="26"/>
       <c r="B43" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D43" s="16">
         <v>2</v>
@@ -13688,10 +14089,10 @@
     <row r="44" spans="1:5">
       <c r="A44" s="26"/>
       <c r="B44" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D44" s="16">
         <v>1</v>
@@ -13701,10 +14102,10 @@
     <row r="45" spans="1:5">
       <c r="A45" s="26"/>
       <c r="B45" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D45" s="16">
         <v>1</v>
@@ -13714,10 +14115,10 @@
     <row r="46" spans="1:5">
       <c r="A46" s="26"/>
       <c r="B46" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D46" s="16">
         <v>1</v>
@@ -13727,10 +14128,10 @@
     <row r="47" spans="1:5">
       <c r="A47" s="26"/>
       <c r="B47" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D47" s="16">
         <v>1</v>
@@ -13740,10 +14141,10 @@
     <row r="48" spans="1:5">
       <c r="A48" s="26"/>
       <c r="B48" s="60" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D48" s="16">
         <v>1</v>
@@ -13753,10 +14154,10 @@
     <row r="49" spans="1:5">
       <c r="A49" s="26"/>
       <c r="B49" s="60" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D49" s="16">
         <v>1</v>
@@ -13766,10 +14167,10 @@
     <row r="50" spans="1:5">
       <c r="A50" s="26"/>
       <c r="B50" s="60" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D50" s="16">
         <v>1</v>
@@ -13779,10 +14180,10 @@
     <row r="51" spans="1:5">
       <c r="A51" s="26"/>
       <c r="B51" s="60" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D51" s="16">
         <v>1</v>
@@ -13792,10 +14193,10 @@
     <row r="52" spans="1:5">
       <c r="A52" s="26"/>
       <c r="B52" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D52" s="16">
         <v>1</v>
@@ -13805,10 +14206,10 @@
     <row r="53" spans="1:5">
       <c r="A53" s="26"/>
       <c r="B53" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D53" s="16">
         <v>1</v>
@@ -13818,10 +14219,10 @@
     <row r="54" spans="1:5">
       <c r="A54" s="26"/>
       <c r="B54" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D54" s="16">
         <v>1</v>
@@ -13831,10 +14232,10 @@
     <row r="55" spans="1:5">
       <c r="A55" s="26"/>
       <c r="B55" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>516</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>515</v>
       </c>
       <c r="D55" s="16">
         <v>1</v>
@@ -13844,10 +14245,10 @@
     <row r="56" spans="1:5">
       <c r="A56" s="26"/>
       <c r="B56" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D56" s="16">
         <v>1</v>
@@ -13857,10 +14258,10 @@
     <row r="57" spans="1:5">
       <c r="A57" s="26"/>
       <c r="B57" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D57" s="16">
         <v>1</v>
@@ -13870,10 +14271,10 @@
     <row r="58" spans="1:5">
       <c r="A58" s="26"/>
       <c r="B58" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D58" s="16">
         <v>1</v>
@@ -13883,10 +14284,10 @@
     <row r="59" spans="1:5">
       <c r="A59" s="26"/>
       <c r="B59" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D59" s="16">
         <v>1</v>
@@ -13896,10 +14297,10 @@
     <row r="60" spans="1:5">
       <c r="A60" s="26"/>
       <c r="B60" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D60" s="16">
         <v>1</v>
@@ -13909,10 +14310,10 @@
     <row r="61" spans="1:5">
       <c r="A61" s="26"/>
       <c r="B61" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>523</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>522</v>
       </c>
       <c r="D61" s="16">
         <v>2</v>
@@ -13922,10 +14323,10 @@
     <row r="62" spans="1:5">
       <c r="A62" s="26"/>
       <c r="B62" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D62" s="16">
         <v>1</v>
@@ -13935,10 +14336,10 @@
     <row r="63" spans="1:5">
       <c r="A63" s="26"/>
       <c r="B63" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D63" s="16">
         <v>1</v>
@@ -13948,10 +14349,10 @@
     <row r="64" spans="1:5">
       <c r="A64" s="26"/>
       <c r="B64" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D64" s="16">
         <v>1</v>
@@ -13961,10 +14362,10 @@
     <row r="65" spans="1:5">
       <c r="A65" s="26"/>
       <c r="B65" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D65" s="16">
         <v>1</v>
@@ -13974,10 +14375,10 @@
     <row r="66" spans="1:5">
       <c r="A66" s="26"/>
       <c r="B66" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D66" s="16">
         <v>1</v>
@@ -13987,10 +14388,10 @@
     <row r="67" spans="1:5">
       <c r="A67" s="26"/>
       <c r="B67" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D67" s="16">
         <v>1</v>
@@ -14000,10 +14401,10 @@
     <row r="68" spans="1:5">
       <c r="A68" s="26"/>
       <c r="B68" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D68" s="16">
         <v>1</v>
@@ -14013,10 +14414,10 @@
     <row r="69" spans="1:5">
       <c r="A69" s="26"/>
       <c r="B69" s="60" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D69" s="16">
         <v>6</v>
@@ -14026,10 +14427,10 @@
     <row r="70" spans="1:5">
       <c r="A70" s="26"/>
       <c r="B70" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D70" s="16">
         <v>1</v>
@@ -14039,10 +14440,10 @@
     <row r="71" spans="1:5">
       <c r="A71" s="26"/>
       <c r="B71" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C71" s="60" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D71" s="16">
         <v>1</v>
@@ -14052,10 +14453,10 @@
     <row r="72" spans="1:5">
       <c r="A72" s="26"/>
       <c r="B72" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C72" s="60" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D72" s="16">
         <v>2</v>
@@ -14065,10 +14466,10 @@
     <row r="73" spans="1:5">
       <c r="A73" s="26"/>
       <c r="B73" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C73" s="60" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D73" s="16">
         <v>2</v>
@@ -14078,10 +14479,10 @@
     <row r="74" spans="1:5">
       <c r="A74" s="26"/>
       <c r="B74" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D74" s="16">
         <v>2</v>
@@ -14091,10 +14492,10 @@
     <row r="75" spans="1:5" ht="15.75" thickBot="1">
       <c r="A75" s="64"/>
       <c r="B75" s="53" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C75" s="53" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D75" s="65">
         <v>1</v>
@@ -14151,10 +14552,10 @@
       <c r="B1" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="C1" s="166" t="s">
+      <c r="C1" s="165" t="s">
         <v>361</v>
       </c>
-      <c r="D1" s="166" t="s">
+      <c r="D1" s="165" t="s">
         <v>362</v>
       </c>
       <c r="E1" s="51"/>
@@ -14164,13 +14565,13 @@
         <v>363</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>538</v>
-      </c>
-      <c r="C2" s="166" t="s">
         <v>539</v>
       </c>
-      <c r="D2" s="168" t="s">
+      <c r="C2" s="165" t="s">
         <v>540</v>
+      </c>
+      <c r="D2" s="167" t="s">
+        <v>541</v>
       </c>
       <c r="E2" s="56" t="s">
         <v>366</v>
@@ -14184,7 +14585,7 @@
         <v>151</v>
       </c>
       <c r="C3" s="60" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D3" s="60">
         <v>1</v>
@@ -14198,10 +14599,10 @@
         <v>370</v>
       </c>
       <c r="B4" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C4" s="60" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D4" s="60">
         <v>4</v>
@@ -14218,7 +14619,7 @@
         <v>321</v>
       </c>
       <c r="C5" s="60" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D5" s="60">
         <v>3</v>
@@ -14233,7 +14634,7 @@
         <v>334</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D6" s="60">
         <v>1</v>
@@ -14243,10 +14644,10 @@
     <row r="7" spans="1:5">
       <c r="A7" s="26"/>
       <c r="B7" s="60" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C7" s="60" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D7" s="2">
         <v>2</v>
@@ -14256,10 +14657,10 @@
     <row r="8" spans="1:5">
       <c r="A8" s="26"/>
       <c r="B8" s="60" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C8" s="60" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D8" s="60">
         <v>1</v>
@@ -14268,11 +14669,11 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="26"/>
-      <c r="B9" s="151" t="s">
+      <c r="B9" s="150" t="s">
         <v>89</v>
       </c>
       <c r="C9" s="60" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D9" s="60">
         <v>1</v>
@@ -14285,7 +14686,7 @@
         <v>118</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D10" s="60">
         <v>1</v>
@@ -14295,10 +14696,10 @@
     <row r="11" spans="1:5">
       <c r="A11" s="26"/>
       <c r="B11" s="29" t="s">
+        <v>545</v>
+      </c>
+      <c r="C11" s="60" t="s">
         <v>544</v>
-      </c>
-      <c r="C11" s="60" t="s">
-        <v>543</v>
       </c>
       <c r="D11" s="60">
         <v>1</v>
@@ -14313,7 +14714,7 @@
         <v>173</v>
       </c>
       <c r="C12" s="60" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D12" s="60">
         <v>10</v>
@@ -14326,7 +14727,7 @@
         <v>176</v>
       </c>
       <c r="C13" s="60" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D13" s="60">
         <v>1</v>
@@ -14336,10 +14737,10 @@
     <row r="14" spans="1:5">
       <c r="A14" s="26"/>
       <c r="B14" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C14" s="60" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D14" s="60">
         <v>2</v>
@@ -14349,10 +14750,10 @@
     <row r="15" spans="1:5">
       <c r="A15" s="26"/>
       <c r="B15" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C15" s="60" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D15" s="60">
         <v>7</v>
@@ -14365,7 +14766,7 @@
         <v>194</v>
       </c>
       <c r="C16" s="60" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D16" s="60">
         <v>3</v>
@@ -14375,10 +14776,10 @@
     <row r="17" spans="1:5">
       <c r="A17" s="26"/>
       <c r="B17" s="60" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C17" s="60" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D17" s="2">
         <v>2</v>
@@ -14391,7 +14792,7 @@
         <v>206</v>
       </c>
       <c r="C18" s="60" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D18" s="60">
         <v>1</v>
@@ -14401,10 +14802,10 @@
     <row r="19" spans="1:5">
       <c r="A19" s="26"/>
       <c r="B19" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C19" s="60" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D19" s="60">
         <v>2</v>
@@ -14414,10 +14815,10 @@
     <row r="20" spans="1:5">
       <c r="A20" s="26"/>
       <c r="B20" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C20" s="60" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D20" s="60">
         <v>2</v>
@@ -14427,10 +14828,10 @@
     <row r="21" spans="1:5">
       <c r="A21" s="26"/>
       <c r="B21" s="60" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C21" s="60" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
@@ -14440,7 +14841,7 @@
     <row r="22" spans="1:5">
       <c r="A22" s="26"/>
       <c r="B22" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C22" s="60" t="s">
         <v>388</v>
@@ -14453,7 +14854,7 @@
     <row r="23" spans="1:5">
       <c r="A23" s="26"/>
       <c r="B23" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C23" s="60" t="s">
         <v>388</v>
@@ -14466,7 +14867,7 @@
     <row r="24" spans="1:5">
       <c r="A24" s="26"/>
       <c r="B24" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C24" s="60" t="s">
         <v>388</v>
@@ -14479,7 +14880,7 @@
     <row r="25" spans="1:5">
       <c r="A25" s="26"/>
       <c r="B25" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C25" s="60" t="s">
         <v>388</v>
@@ -14492,7 +14893,7 @@
     <row r="26" spans="1:5">
       <c r="A26" s="26"/>
       <c r="B26" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C26" s="60" t="s">
         <v>388</v>
@@ -14505,7 +14906,7 @@
     <row r="27" spans="1:5">
       <c r="A27" s="26"/>
       <c r="B27" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C27" s="60" t="s">
         <v>388</v>
@@ -14518,7 +14919,7 @@
     <row r="28" spans="1:5">
       <c r="A28" s="26"/>
       <c r="B28" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C28" s="60" t="s">
         <v>388</v>
@@ -14531,7 +14932,7 @@
     <row r="29" spans="1:5">
       <c r="A29" s="26"/>
       <c r="B29" s="60" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C29" s="60" t="s">
         <v>388</v>
@@ -14544,10 +14945,10 @@
     <row r="30" spans="1:5">
       <c r="A30" s="26"/>
       <c r="B30" s="60" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C30" s="60" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
@@ -14557,7 +14958,7 @@
     <row r="31" spans="1:5">
       <c r="A31" s="26"/>
       <c r="B31" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C31" s="60" t="s">
         <v>388</v>
@@ -14570,10 +14971,10 @@
     <row r="32" spans="1:5">
       <c r="A32" s="26"/>
       <c r="B32" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C32" s="60" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D32" s="60">
         <v>2</v>
@@ -14583,10 +14984,10 @@
     <row r="33" spans="1:5">
       <c r="A33" s="26"/>
       <c r="B33" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C33" s="60" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D33" s="60">
         <v>2</v>
@@ -14596,10 +14997,10 @@
     <row r="34" spans="1:5">
       <c r="A34" s="26"/>
       <c r="B34" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C34" s="60" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D34" s="60">
         <v>2</v>
@@ -14609,10 +15010,10 @@
     <row r="35" spans="1:5">
       <c r="A35" s="26"/>
       <c r="B35" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C35" s="60" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D35" s="60">
         <v>2</v>
@@ -14622,10 +15023,10 @@
     <row r="36" spans="1:5">
       <c r="A36" s="26"/>
       <c r="B36" s="60" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C36" s="60" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D36" s="60">
         <v>2</v>
@@ -14635,10 +15036,10 @@
     <row r="37" spans="1:5">
       <c r="A37" s="26"/>
       <c r="B37" s="60" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C37" s="60" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D37" s="60">
         <v>2</v>
@@ -14648,7 +15049,7 @@
     <row r="38" spans="1:5">
       <c r="A38" s="26"/>
       <c r="B38" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C38" s="60" t="s">
         <v>388</v>
@@ -14661,7 +15062,7 @@
     <row r="39" spans="1:5">
       <c r="A39" s="26"/>
       <c r="B39" s="60" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C39" s="60" t="s">
         <v>388</v>
@@ -14674,7 +15075,7 @@
     <row r="40" spans="1:5">
       <c r="A40" s="26"/>
       <c r="B40" s="60" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C40" s="60" t="s">
         <v>388</v>
@@ -14687,7 +15088,7 @@
     <row r="41" spans="1:5">
       <c r="A41" s="26"/>
       <c r="B41" s="60" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C41" s="60" t="s">
         <v>388</v>
@@ -14700,7 +15101,7 @@
     <row r="42" spans="1:5">
       <c r="A42" s="26"/>
       <c r="B42" s="60" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C42" s="60" t="s">
         <v>388</v>
@@ -14713,7 +15114,7 @@
     <row r="43" spans="1:5">
       <c r="A43" s="26"/>
       <c r="B43" s="60" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C43" s="60" t="s">
         <v>388</v>
@@ -14726,7 +15127,7 @@
     <row r="44" spans="1:5" ht="15.75" thickBot="1">
       <c r="A44" s="64"/>
       <c r="B44" s="60" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C44" s="60" t="s">
         <v>388</v>
@@ -14737,7 +15138,7 @@
       <c r="E44" s="66"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="C45" s="165"/>
+      <c r="C45" s="164"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -14787,10 +15188,10 @@
       <c r="B1" s="69" t="s">
         <v>360</v>
       </c>
-      <c r="C1" s="142" t="s">
+      <c r="C1" s="141" t="s">
         <v>361</v>
       </c>
-      <c r="D1" s="142" t="s">
+      <c r="D1" s="141" t="s">
         <v>362</v>
       </c>
       <c r="E1" s="51"/>
@@ -14800,7 +15201,7 @@
         <v>363</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C2" s="60"/>
       <c r="D2" s="60">
@@ -14814,7 +15215,7 @@
       <c r="A3" s="52" t="s">
         <v>367</v>
       </c>
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="146" t="s">
         <v>270</v>
       </c>
       <c r="D3" s="60">
@@ -14829,7 +15230,7 @@
         <v>370</v>
       </c>
       <c r="B4" s="60" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C4" s="60"/>
       <c r="D4" s="60">
@@ -14843,7 +15244,7 @@
       <c r="A5" s="52" t="s">
         <v>373</v>
       </c>
-      <c r="B5" s="147" t="s">
+      <c r="B5" s="146" t="s">
         <v>279</v>
       </c>
       <c r="C5" s="60"/>
@@ -14856,8 +15257,8 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="26"/>
-      <c r="B6" s="147" t="s">
-        <v>580</v>
+      <c r="B6" s="146" t="s">
+        <v>581</v>
       </c>
       <c r="D6" s="60">
         <v>1</v>
@@ -14867,7 +15268,7 @@
     <row r="7" spans="1:5">
       <c r="A7" s="26"/>
       <c r="B7" s="60" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C7" s="60"/>
       <c r="D7" s="60">
@@ -14899,7 +15300,7 @@
     <row r="10" spans="1:5">
       <c r="A10" s="26"/>
       <c r="B10" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D10" s="60">
         <v>4</v>
@@ -14951,7 +15352,7 @@
     <row r="15" spans="1:5">
       <c r="A15" s="26"/>
       <c r="B15" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D15" s="60">
         <v>1</v>
@@ -14960,8 +15361,8 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="26"/>
-      <c r="B16" s="143" t="s">
-        <v>584</v>
+      <c r="B16" s="142" t="s">
+        <v>585</v>
       </c>
       <c r="D16" s="60">
         <v>1</v>
@@ -14971,7 +15372,7 @@
     <row r="17" spans="1:5">
       <c r="A17" s="26"/>
       <c r="B17" s="29" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D17" s="60">
         <v>1</v>
@@ -14981,16 +15382,16 @@
     <row r="18" spans="1:5" ht="15.75" thickBot="1">
       <c r="A18" s="64"/>
       <c r="B18" s="53" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C18" s="53"/>
-      <c r="D18" s="162">
+      <c r="D18" s="161">
         <v>1</v>
       </c>
       <c r="E18" s="66"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="32" type="noConversion"/>
+  <phoneticPr fontId="31" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{56D987F7-1DEA-4AB6-8914-496460BCDA52}"/>
     <hyperlink ref="A4" r:id="rId2" xr:uid="{1D303F7D-0D91-4B14-8D79-05AA3A12FF0C}"/>
@@ -15038,10 +15439,10 @@
       <c r="B1" s="20" t="s">
         <v>360</v>
       </c>
-      <c r="C1" s="142" t="s">
+      <c r="C1" s="141" t="s">
         <v>361</v>
       </c>
-      <c r="D1" s="142" t="s">
+      <c r="D1" s="141" t="s">
         <v>362</v>
       </c>
       <c r="E1" s="51"/>
@@ -15051,10 +15452,10 @@
         <v>363</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D2" s="16">
         <v>1</v>
@@ -15068,10 +15469,10 @@
         <v>367</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D3" s="16">
         <v>1</v>
@@ -15085,10 +15486,10 @@
         <v>370</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D4" s="16">
         <v>1</v>
@@ -15102,12 +15503,12 @@
         <v>373</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C5" s="60" t="s">
-        <v>592</v>
-      </c>
-      <c r="D5" s="154">
+        <v>593</v>
+      </c>
+      <c r="D5" s="153">
         <v>2</v>
       </c>
       <c r="E5" s="57" t="s">
@@ -15116,13 +15517,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="26"/>
-      <c r="B6" s="169" t="s">
-        <v>591</v>
+      <c r="B6" s="168" t="s">
+        <v>592</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>593</v>
-      </c>
-      <c r="D6" s="154">
+        <v>594</v>
+      </c>
+      <c r="D6" s="153">
         <v>5</v>
       </c>
       <c r="E6" s="58"/>
@@ -15130,12 +15531,12 @@
     <row r="7" spans="1:5">
       <c r="A7" s="26"/>
       <c r="B7" s="21" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C7" s="60" t="s">
-        <v>592</v>
-      </c>
-      <c r="D7" s="154">
+        <v>593</v>
+      </c>
+      <c r="D7" s="153">
         <v>2</v>
       </c>
       <c r="E7" s="58"/>
@@ -15143,10 +15544,10 @@
     <row r="8" spans="1:5">
       <c r="A8" s="26"/>
       <c r="B8" s="21" t="s">
+        <v>595</v>
+      </c>
+      <c r="C8" s="60" t="s">
         <v>594</v>
-      </c>
-      <c r="C8" s="60" t="s">
-        <v>593</v>
       </c>
       <c r="D8" s="16">
         <v>2</v>
@@ -15156,12 +15557,12 @@
     <row r="9" spans="1:5">
       <c r="A9" s="26"/>
       <c r="B9" s="31" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C9" s="60" t="s">
-        <v>592</v>
-      </c>
-      <c r="D9" s="154">
+        <v>593</v>
+      </c>
+      <c r="D9" s="153">
         <v>2</v>
       </c>
       <c r="E9" s="58"/>
@@ -15169,10 +15570,10 @@
     <row r="10" spans="1:5">
       <c r="A10" s="26"/>
       <c r="B10" s="31" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D10" s="16">
         <v>2</v>
@@ -15181,11 +15582,11 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="26"/>
-      <c r="B11" s="170" t="s">
+      <c r="B11" s="169" t="s">
         <v>71</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D11" s="16">
         <v>5</v>
@@ -15197,12 +15598,12 @@
         <v>384</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C12" s="60" t="s">
-        <v>592</v>
-      </c>
-      <c r="D12" s="154">
+        <v>593</v>
+      </c>
+      <c r="D12" s="153">
         <v>2</v>
       </c>
       <c r="E12" s="58"/>
@@ -15210,49 +15611,49 @@
     <row r="13" spans="1:5">
       <c r="A13" s="26"/>
       <c r="B13" s="31" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C13" s="60" t="s">
-        <v>593</v>
-      </c>
-      <c r="D13" s="154">
+        <v>594</v>
+      </c>
+      <c r="D13" s="153">
         <v>5</v>
       </c>
       <c r="E13" s="58"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="26"/>
-      <c r="B14" s="170" t="s">
-        <v>598</v>
+      <c r="B14" s="169" t="s">
+        <v>599</v>
       </c>
       <c r="C14" s="60" t="s">
-        <v>599</v>
-      </c>
-      <c r="D14" s="154">
+        <v>600</v>
+      </c>
+      <c r="D14" s="153">
         <v>5</v>
       </c>
       <c r="E14" s="58"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="26"/>
-      <c r="B15" s="170" t="s">
-        <v>598</v>
+      <c r="B15" s="169" t="s">
+        <v>599</v>
       </c>
       <c r="C15" s="60" t="s">
-        <v>593</v>
-      </c>
-      <c r="D15" s="154">
+        <v>594</v>
+      </c>
+      <c r="D15" s="153">
         <v>5</v>
       </c>
       <c r="E15" s="58"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="26"/>
-      <c r="B16" s="170" t="s">
+      <c r="B16" s="169" t="s">
         <v>64</v>
       </c>
       <c r="C16" s="60" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D16" s="16">
         <v>1</v>
@@ -15261,10 +15662,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="26"/>
-      <c r="B17" s="163" t="s">
-        <v>601</v>
-      </c>
-      <c r="C17" s="163" t="s">
+      <c r="B17" s="162" t="s">
+        <v>602</v>
+      </c>
+      <c r="C17" s="162" t="s">
         <v>431</v>
       </c>
       <c r="D17" s="59"/>
@@ -15276,7 +15677,7 @@
         <v>81</v>
       </c>
       <c r="C18" s="60" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D18" s="60">
         <v>1</v>
@@ -15349,7 +15750,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="26"/>
-      <c r="B25" s="147" t="s">
+      <c r="B25" s="146" t="s">
         <v>115</v>
       </c>
       <c r="D25" s="60">
@@ -15382,7 +15783,7 @@
     <row r="28" spans="1:5">
       <c r="A28" s="26"/>
       <c r="B28" s="19" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C28" s="29"/>
       <c r="D28">
@@ -15447,11 +15848,11 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="26"/>
-      <c r="B34" s="170" t="s">
-        <v>603</v>
+      <c r="B34" s="169" t="s">
+        <v>604</v>
       </c>
       <c r="C34" s="60" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D34" s="16">
         <v>2</v>
@@ -15460,11 +15861,11 @@
     </row>
     <row r="35" spans="1:5" ht="15" customHeight="1">
       <c r="A35" s="26"/>
-      <c r="B35" s="170" t="s">
+      <c r="B35" s="169" t="s">
         <v>128</v>
       </c>
       <c r="C35" s="60" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D35" s="16">
         <v>2</v>
@@ -15473,11 +15874,11 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="26"/>
-      <c r="B36" s="170" t="s">
+      <c r="B36" s="169" t="s">
         <v>131</v>
       </c>
       <c r="C36" s="60" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D36" s="16">
         <v>1</v>
@@ -15490,7 +15891,7 @@
         <v>133</v>
       </c>
       <c r="C37" s="60" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D37" s="16">
         <v>1</v>
@@ -15499,11 +15900,11 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="26"/>
-      <c r="B38" s="170" t="s">
+      <c r="B38" s="169" t="s">
         <v>135</v>
       </c>
       <c r="C38" s="60" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D38" s="16">
         <v>1</v>
@@ -15516,7 +15917,7 @@
         <v>138</v>
       </c>
       <c r="C39" s="60" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D39" s="60">
         <v>1</v>
@@ -15529,7 +15930,7 @@
         <v>141</v>
       </c>
       <c r="C40" s="60" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D40" s="60">
         <v>1</v>
@@ -15542,7 +15943,7 @@
         <v>143</v>
       </c>
       <c r="C41" s="60" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D41" s="16">
         <v>3</v>
@@ -15552,10 +15953,10 @@
     <row r="42" spans="1:5" ht="16.5" customHeight="1">
       <c r="A42" s="26"/>
       <c r="B42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C42" s="60" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D42" s="16">
         <v>1</v>
@@ -15565,10 +15966,10 @@
     <row r="43" spans="1:5" ht="16.5" customHeight="1">
       <c r="A43" s="26"/>
       <c r="B43" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C43" s="60" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D43" s="16">
         <v>1</v>
@@ -15578,10 +15979,10 @@
     <row r="44" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
       <c r="A44" s="64"/>
       <c r="B44" s="50" t="s">
-        <v>614</v>
-      </c>
-      <c r="C44" s="162" t="s">
-        <v>611</v>
+        <v>615</v>
+      </c>
+      <c r="C44" s="161" t="s">
+        <v>612</v>
       </c>
       <c r="D44" s="65">
         <v>1</v>

--- a/V2 BETA/BOM/Valkyrie V2 HT100 BOM Beta.xlsx
+++ b/V2 BETA/BOM/Valkyrie V2 HT100 BOM Beta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/V2 BETA/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1313" documentId="8_{5107759B-8870-48A8-933E-C4A7F6F41B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDBA0D13-2BC0-41AC-9D1E-2D4C5ACA9EB2}"/>
+  <xr:revisionPtr revIDLastSave="1317" documentId="8_{5107759B-8870-48A8-933E-C4A7F6F41B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F358835-E5E1-44FE-8CC8-DF79A67D220E}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="16440" firstSheet="9" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PARTS LIST" sheetId="43" r:id="rId1"/>
@@ -1315,12 +1315,6 @@
     <t>V2 AB Motor Bracket</t>
   </si>
   <si>
-    <t>V2 FZ Dock Bracket_1x</t>
-  </si>
-  <si>
-    <t>V2 FZ Dock_1x</t>
-  </si>
-  <si>
     <t>V2 Idler Bracket Front A_1X</t>
   </si>
   <si>
@@ -2507,6 +2501,12 @@
   </si>
   <si>
     <t>EPDM profile</t>
+  </si>
+  <si>
+    <t>V2 FlintZone Dock Bracket_1x</t>
+  </si>
+  <si>
+    <t>V2 FlintZone Dock_1x</t>
   </si>
 </sst>
 </file>
@@ -2522,7 +2522,7 @@
     <numFmt numFmtId="169" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="170" formatCode="[$]hh:mm;@" x16r2:formatCode16="[$-en-150,1]hh:mm;@"/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3097,7 +3097,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="225">
+  <cellXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2"/>
@@ -3543,15 +3543,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="170" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3560,12 +3560,6 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -3582,6 +3576,69 @@
     <cellStyle name="Normal 9" xfId="9" xr:uid="{40B67649-AC0A-4FC1-B41E-42AB5C2B58C9}"/>
   </cellStyles>
   <dxfs count="92">
+    <dxf>
+      <numFmt numFmtId="169" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3698,12 +3755,6 @@
       <numFmt numFmtId="169" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;_ ;_-@_ "/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;_ ;_-@_ "/>
     </dxf>
     <dxf>
@@ -3724,9 +3775,6 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3802,63 +3850,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -3874,6 +3865,9 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3932,9 +3926,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -3951,6 +3942,9 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <font>
@@ -4009,9 +4003,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -4028,6 +4019,9 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <font>
@@ -4086,9 +4080,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -4105,6 +4096,9 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <font>
@@ -4163,9 +4157,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -4182,6 +4173,9 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <font>
@@ -4240,9 +4234,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -4259,6 +4250,9 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <font>
@@ -4333,9 +4327,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -4352,6 +4343,9 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <font>
@@ -4410,9 +4404,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -4429,6 +4420,9 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <font>
@@ -4821,13 +4815,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <top style="medium">
           <color rgb="FF000000"/>
@@ -4846,6 +4833,13 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5781,7 +5775,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{1DE5977A-0070-4907-B3F1-83B3E9D3EAF9}" name="Table1321" displayName="Table1321" ref="A1:L145" totalsRowShown="0" dataDxfId="91" headerRowBorderDxfId="89" tableBorderDxfId="90" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{1DE5977A-0070-4907-B3F1-83B3E9D3EAF9}" name="Table1321" displayName="Table1321" ref="A1:L145" totalsRowShown="0" dataDxfId="90" headerRowBorderDxfId="91" tableBorderDxfId="89" headerRowCellStyle="Normal 2">
   <autoFilter ref="A1:L145" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L145">
     <sortCondition ref="A1:A145"/>
@@ -5815,7 +5809,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{D7153C23-8479-4254-BF69-2A4089CB71C0}" name="Part name" totalsRowDxfId="28" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
     <tableColumn id="7" xr3:uid="{5CF4E952-095C-46AE-A57F-99A26E57C478}" name="Description" totalsRowDxfId="27" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{8AE4D1C0-7F70-4D1E-B6EC-42038CE642DF}" name="BOM Quantity" dataDxfId="25" totalsRowDxfId="26" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
+    <tableColumn id="2" xr3:uid="{8AE4D1C0-7F70-4D1E-B6EC-42038CE642DF}" name="BOM Quantity" dataDxfId="26" totalsRowDxfId="25" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5830,7 +5824,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{E0A0C165-2589-4FA7-A356-93EEE88B2095}" name="Part name" totalsRowDxfId="22" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
     <tableColumn id="7" xr3:uid="{49376C16-406D-4D5F-8B92-3BFE5FB962B9}" name="Description" totalsRowDxfId="21" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{6252F354-5A67-4DD7-A1AA-3DADB5EF6BF7}" name="BOM Quantity" dataDxfId="19" totalsRowDxfId="20" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
+    <tableColumn id="2" xr3:uid="{6252F354-5A67-4DD7-A1AA-3DADB5EF6BF7}" name="BOM Quantity" dataDxfId="20" totalsRowDxfId="19" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5843,19 +5837,19 @@
     <sortCondition ref="A1:A90"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{C89F3025-C91C-4D89-A5CC-8772042DE324}" name="System" dataDxfId="16" totalsRowDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{FCE9DC81-99C5-4DE1-AE60-3B3DE0EE8421}" name="Part" dataDxfId="14" totalsRowDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{C89F3025-C91C-4D89-A5CC-8772042DE324}" name="System" dataDxfId="17" totalsRowDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{FCE9DC81-99C5-4DE1-AE60-3B3DE0EE8421}" name="Part" dataDxfId="16" totalsRowDxfId="4"/>
     <tableColumn id="3" xr3:uid="{6512942A-B4C3-4998-AA54-D3A429CF1394}" name="Meters"/>
     <tableColumn id="6" xr3:uid="{672D19F0-1E84-4954-AA80-1A756FF64B85}" name="Weight Ea"/>
-    <tableColumn id="11" xr3:uid="{B345B84F-64A2-4E92-BB95-3C9B14E2A5EA}" name="Items" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="13" dataCellStyle="Normal 7"/>
-    <tableColumn id="4" xr3:uid="{8A449E36-4741-4576-8011-21C1B3D5DB29}" name="weight Tot" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="11" dataCellStyle="Normal 7">
+    <tableColumn id="11" xr3:uid="{B345B84F-64A2-4E92-BB95-3C9B14E2A5EA}" name="Items" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="3" dataCellStyle="Normal 7"/>
+    <tableColumn id="4" xr3:uid="{8A449E36-4741-4576-8011-21C1B3D5DB29}" name="weight Tot" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="2" dataCellStyle="Normal 7">
       <calculatedColumnFormula>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(109,Table6[weight Tot])&amp;"g"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{DF7CF065-4550-4DB7-B341-EF87320D0C8E}" name="Cost/part" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="9">
+    <tableColumn id="9" xr3:uid="{DF7CF065-4550-4DB7-B341-EF87320D0C8E}" name="Cost/part" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="1">
       <calculatedColumnFormula>$K$2/1000*Table6[[#This Row],[Weight Ea]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{84F519DD-FB90-4299-8700-857D723260B1}" name="Time estimate" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{84F519DD-FB90-4299-8700-857D723260B1}" name="Time estimate" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5865,10 +5859,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD3A9734-505A-4671-9A99-A5AD0241BC9E}" name="Table1" displayName="Table1" ref="B2:E26" totalsRowShown="0">
   <autoFilter ref="B2:E26" xr:uid="{CD3A9734-505A-4671-9A99-A5AD0241BC9E}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{8F04C4EB-A680-469A-88ED-4273832B70AF}" name="Pin #" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{B8C131DA-A4D9-4F02-8FF8-BEC8A246B232}" name="Voltage" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{2BE108EC-DC74-4753-9C2F-DD3CBA203E0E}" name="Wire Size Type" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{E530F612-D9CA-42AF-B8BF-BDE36218865A}" name="Device " dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{8F04C4EB-A680-469A-88ED-4273832B70AF}" name="Pin #" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{B8C131DA-A4D9-4F02-8FF8-BEC8A246B232}" name="Voltage" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{2BE108EC-DC74-4753-9C2F-DD3CBA203E0E}" name="Wire Size Type" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{E530F612-D9CA-42AF-B8BF-BDE36218865A}" name="Device " dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5882,7 +5876,7 @@
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{E1FF070C-6993-4332-802B-B4D29E1606E7}" name="Function"/>
-    <tableColumn id="2" xr3:uid="{54776E09-074A-46D8-A8AF-0675792CABF2}" name="Macro" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{54776E09-074A-46D8-A8AF-0675792CABF2}" name="Macro" dataDxfId="7"/>
     <tableColumn id="3" xr3:uid="{8FBB1689-4854-43C5-AC93-F6E571CF242D}" name="Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5894,7 +5888,7 @@
   <autoFilter ref="A19:C37" xr:uid="{22CC0901-A1E8-42BF-83D2-CD8909D9E84D}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{72FB4F94-B23A-4D8C-9115-4A4A22828CD8}" name="Function"/>
-    <tableColumn id="2" xr3:uid="{72E39D2F-151A-44B2-BA84-B7F34C14C282}" name="System" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{72E39D2F-151A-44B2-BA84-B7F34C14C282}" name="System" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{5B376876-1002-41A2-9B1B-97FBB74534E9}" name="Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5948,7 +5942,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{C5533925-B810-4F05-9221-5D5DC08A3846}" name="Part name" totalsRowDxfId="64" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
     <tableColumn id="7" xr3:uid="{13C33B91-92BB-4F0B-8B89-D7D5416E5479}" name="Description" totalsRowDxfId="63" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{684CEE11-8A68-45FD-871F-FFCFA808FEBD}" name="BOM Quantity" dataDxfId="61" totalsRowDxfId="62" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
+    <tableColumn id="2" xr3:uid="{684CEE11-8A68-45FD-871F-FFCFA808FEBD}" name="BOM Quantity" dataDxfId="62" totalsRowDxfId="61" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5963,7 +5957,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{0F292740-142C-4538-B6E0-04426284E315}" name="Part name" totalsRowDxfId="58" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
     <tableColumn id="7" xr3:uid="{150C9F57-34E9-40EB-9D7E-4F2F4DC1A13F}" name="Description" totalsRowDxfId="57" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{A7D6434D-4498-49EB-9D73-D244744029D3}" name="BOM Quantity" dataDxfId="55" totalsRowDxfId="56" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
+    <tableColumn id="2" xr3:uid="{A7D6434D-4498-49EB-9D73-D244744029D3}" name="BOM Quantity" dataDxfId="56" totalsRowDxfId="55" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5978,7 +5972,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{B397B237-34CC-4F05-A03A-172D9B10CC01}" name="Part name" totalsRowDxfId="52" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
     <tableColumn id="7" xr3:uid="{A1AF3E5A-9878-43E6-8325-6EA13891B687}" name="Description" totalsRowDxfId="51" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{1585E650-1008-4DC9-8D1C-8F6E78001D58}" name="BOM Quantity" dataDxfId="49" totalsRowDxfId="50" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
+    <tableColumn id="2" xr3:uid="{1585E650-1008-4DC9-8D1C-8F6E78001D58}" name="BOM Quantity" dataDxfId="50" totalsRowDxfId="49" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5993,7 +5987,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1CE47076-A60D-4220-8B3D-C6D4BAFB1164}" name="Part name" totalsRowDxfId="46" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
     <tableColumn id="7" xr3:uid="{D41EBA7C-1A32-4553-871C-D0C5C96C9E90}" name="Description" totalsRowDxfId="45" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{1A8F0BE6-05F1-4339-9CFB-0F9B7B4E13D4}" name="BOM Quantity" dataDxfId="43" totalsRowDxfId="44" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
+    <tableColumn id="2" xr3:uid="{1A8F0BE6-05F1-4339-9CFB-0F9B7B4E13D4}" name="BOM Quantity" dataDxfId="44" totalsRowDxfId="43" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6008,7 +6002,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{FEDEBDB4-D2A0-4044-865C-6B89D3CC7592}" name="Part name" totalsRowDxfId="40" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
     <tableColumn id="7" xr3:uid="{4C265877-F081-4975-80F2-6B962EBD7F5B}" name="Description" totalsRowDxfId="39" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{C58356B1-645B-4209-9365-0DE732AD7AAF}" name="BOM Quantity" dataDxfId="37" totalsRowDxfId="38" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
+    <tableColumn id="2" xr3:uid="{C58356B1-645B-4209-9365-0DE732AD7AAF}" name="BOM Quantity" dataDxfId="38" totalsRowDxfId="37" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6023,7 +6017,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{3C370705-9D71-4B07-907E-72DEACEAFBA2}" name="Part name" totalsRowDxfId="34" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
     <tableColumn id="7" xr3:uid="{D11DB86B-2519-40CE-A3B1-2DFF1E8D8BAF}" name="Description" totalsRowDxfId="33" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{030B0BC7-E7B6-43C0-9200-DE84B404D5FA}" name="BOM Quantity" dataDxfId="31" totalsRowDxfId="32" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
+    <tableColumn id="2" xr3:uid="{030B0BC7-E7B6-43C0-9200-DE84B404D5FA}" name="BOM Quantity" dataDxfId="32" totalsRowDxfId="31" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6237,7 +6231,7 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" style="12" customWidth="1"/>
     <col min="2" max="2" width="36.7109375" style="12" bestFit="1" customWidth="1"/>
@@ -6256,7 +6250,7 @@
     <col min="16" max="16384" width="8.7109375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="44.25" customHeight="1" thickBot="1">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="150" t="s">
         <v>0</v>
       </c>
@@ -6294,7 +6288,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>12</v>
       </c>
@@ -6327,7 +6321,7 @@
       <c r="K2" s="12"/>
       <c r="L2" s="75"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>12</v>
       </c>
@@ -6360,7 +6354,7 @@
       <c r="K3" s="12"/>
       <c r="L3" s="75"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>12</v>
       </c>
@@ -6393,7 +6387,7 @@
       <c r="K4" s="12"/>
       <c r="L4" s="75"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>12</v>
       </c>
@@ -6425,7 +6419,7 @@
       <c r="K5" s="76"/>
       <c r="L5" s="78"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>12</v>
       </c>
@@ -6457,7 +6451,7 @@
       <c r="K6" s="76"/>
       <c r="L6" s="78"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>12</v>
       </c>
@@ -6490,7 +6484,7 @@
       <c r="K7" s="12"/>
       <c r="L7" s="75"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>12</v>
       </c>
@@ -6523,7 +6517,7 @@
       <c r="K8" s="12"/>
       <c r="L8" s="75"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>12</v>
       </c>
@@ -6556,7 +6550,7 @@
       <c r="K9" s="12"/>
       <c r="L9" s="75"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>12</v>
       </c>
@@ -6589,7 +6583,7 @@
       <c r="K10" s="12"/>
       <c r="L10" s="75"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
         <v>36</v>
       </c>
@@ -6622,7 +6616,7 @@
       <c r="K11" s="12"/>
       <c r="L11" s="75"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
         <v>36</v>
       </c>
@@ -6657,7 +6651,7 @@
       <c r="K12" s="12"/>
       <c r="L12" s="75"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
         <v>36</v>
       </c>
@@ -6690,7 +6684,7 @@
       <c r="K13" s="12"/>
       <c r="L13" s="75"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
         <v>36</v>
       </c>
@@ -6723,7 +6717,7 @@
       <c r="K14" s="12"/>
       <c r="L14" s="75"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
         <v>36</v>
       </c>
@@ -6756,7 +6750,7 @@
       <c r="K15" s="12"/>
       <c r="L15" s="75"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
         <v>36</v>
       </c>
@@ -6789,7 +6783,7 @@
       <c r="K16" s="12"/>
       <c r="L16" s="75"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
         <v>36</v>
       </c>
@@ -6822,7 +6816,7 @@
       <c r="K17" s="12"/>
       <c r="L17" s="75"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
         <v>36</v>
       </c>
@@ -6855,7 +6849,7 @@
       <c r="K18" s="12"/>
       <c r="L18" s="75"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
         <v>36</v>
       </c>
@@ -6888,7 +6882,7 @@
       <c r="K19" s="12"/>
       <c r="L19" s="75"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
         <v>36</v>
       </c>
@@ -6921,7 +6915,7 @@
       <c r="K20" s="12"/>
       <c r="L20" s="75"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
         <v>36</v>
       </c>
@@ -6954,7 +6948,7 @@
       <c r="K21" s="12"/>
       <c r="L21" s="75"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
         <v>36</v>
       </c>
@@ -6987,7 +6981,7 @@
       <c r="K22" s="12"/>
       <c r="L22" s="75"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
         <v>36</v>
       </c>
@@ -7020,7 +7014,7 @@
       <c r="K23" s="12"/>
       <c r="L23" s="75"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
         <v>36</v>
       </c>
@@ -7053,7 +7047,7 @@
       <c r="K24" s="12"/>
       <c r="L24" s="75"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
         <v>36</v>
       </c>
@@ -7086,7 +7080,7 @@
       <c r="K25" s="12"/>
       <c r="L25" s="75"/>
     </row>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1">
+    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
         <v>36</v>
       </c>
@@ -7119,7 +7113,7 @@
       <c r="K26" s="12"/>
       <c r="L26" s="75"/>
     </row>
-    <row r="27" spans="1:12" ht="16.5" customHeight="1">
+    <row r="27" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
         <v>36</v>
       </c>
@@ -7152,7 +7146,7 @@
       <c r="K27" s="12"/>
       <c r="L27" s="75"/>
     </row>
-    <row r="28" spans="1:12" ht="16.5" customHeight="1">
+    <row r="28" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
         <v>36</v>
       </c>
@@ -7185,7 +7179,7 @@
       <c r="K28" s="12"/>
       <c r="L28" s="75"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
         <v>36</v>
       </c>
@@ -7218,7 +7212,7 @@
       <c r="K29" s="12"/>
       <c r="L29" s="75"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
         <v>36</v>
       </c>
@@ -7251,7 +7245,7 @@
       <c r="K30" s="12"/>
       <c r="L30" s="75"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
         <v>36</v>
       </c>
@@ -7284,7 +7278,7 @@
       <c r="K31" s="12"/>
       <c r="L31" s="75"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="33" t="s">
         <v>36</v>
       </c>
@@ -7317,7 +7311,7 @@
       <c r="K32" s="12"/>
       <c r="L32" s="75"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
         <v>36</v>
       </c>
@@ -7350,7 +7344,7 @@
       <c r="K33" s="12"/>
       <c r="L33" s="75"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="33" t="s">
         <v>36</v>
       </c>
@@ -7383,7 +7377,7 @@
       <c r="K34" s="12"/>
       <c r="L34" s="75"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>36</v>
       </c>
@@ -7416,7 +7410,7 @@
       <c r="K35"/>
       <c r="L35" s="39"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>36</v>
       </c>
@@ -7449,7 +7443,7 @@
       <c r="K36" s="12"/>
       <c r="L36" s="75"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="33" t="s">
         <v>36</v>
       </c>
@@ -7481,7 +7475,7 @@
       <c r="K37" s="12"/>
       <c r="L37" s="75"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="33" t="s">
         <v>36</v>
       </c>
@@ -7513,7 +7507,7 @@
       <c r="K38" s="12"/>
       <c r="L38" s="75"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="33" t="s">
         <v>36</v>
       </c>
@@ -7546,7 +7540,7 @@
       <c r="K39" s="12"/>
       <c r="L39" s="75"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="33" t="s">
         <v>36</v>
       </c>
@@ -7579,7 +7573,7 @@
       <c r="K40" s="12"/>
       <c r="L40" s="75"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="33" t="s">
         <v>36</v>
       </c>
@@ -7612,7 +7606,7 @@
       <c r="K41" s="12"/>
       <c r="L41" s="75"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="33" t="s">
         <v>36</v>
       </c>
@@ -7645,7 +7639,7 @@
       <c r="K42" s="12"/>
       <c r="L42" s="75"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="33" t="s">
         <v>36</v>
       </c>
@@ -7678,7 +7672,7 @@
       <c r="K43" s="12"/>
       <c r="L43" s="75"/>
     </row>
-    <row r="44" spans="1:12" ht="15.75" customHeight="1">
+    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="33" t="s">
         <v>36</v>
       </c>
@@ -7711,7 +7705,7 @@
       <c r="K44" s="12"/>
       <c r="L44" s="75"/>
     </row>
-    <row r="45" spans="1:12" ht="15.75" customHeight="1">
+    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="33" t="s">
         <v>36</v>
       </c>
@@ -7744,7 +7738,7 @@
       <c r="K45" s="12"/>
       <c r="L45" s="75"/>
     </row>
-    <row r="46" spans="1:12" ht="15.75" customHeight="1">
+    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="33" t="s">
         <v>36</v>
       </c>
@@ -7777,7 +7771,7 @@
       <c r="K46" s="12"/>
       <c r="L46" s="75"/>
     </row>
-    <row r="47" spans="1:12" ht="15.75" customHeight="1">
+    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="33" t="s">
         <v>36</v>
       </c>
@@ -7810,7 +7804,7 @@
       <c r="K47" s="12"/>
       <c r="L47" s="75"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="33" t="s">
         <v>36</v>
       </c>
@@ -7843,7 +7837,7 @@
       <c r="K48" s="12"/>
       <c r="L48" s="75"/>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="33" t="s">
         <v>36</v>
       </c>
@@ -7876,7 +7870,7 @@
       <c r="K49" s="12"/>
       <c r="L49" s="75"/>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="33" t="s">
         <v>36</v>
       </c>
@@ -7909,7 +7903,7 @@
       <c r="K50" s="12"/>
       <c r="L50" s="75"/>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="33" t="s">
         <v>36</v>
       </c>
@@ -7942,7 +7936,7 @@
       <c r="K51" s="12"/>
       <c r="L51" s="75"/>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="33" t="s">
         <v>36</v>
       </c>
@@ -7975,7 +7969,7 @@
       <c r="K52" s="12"/>
       <c r="L52" s="75"/>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="33" t="s">
         <v>36</v>
       </c>
@@ -8008,7 +8002,7 @@
       <c r="K53" s="12"/>
       <c r="L53" s="75"/>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="33" t="s">
         <v>36</v>
       </c>
@@ -8041,7 +8035,7 @@
       <c r="K54" s="12"/>
       <c r="L54" s="75"/>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="33" t="s">
         <v>36</v>
       </c>
@@ -8074,7 +8068,7 @@
       <c r="K55" s="12"/>
       <c r="L55" s="75"/>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="33" t="s">
         <v>36</v>
       </c>
@@ -8107,7 +8101,7 @@
       <c r="K56" s="12"/>
       <c r="L56" s="75"/>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="33" t="s">
         <v>36</v>
       </c>
@@ -8140,7 +8134,7 @@
       <c r="K57" s="12"/>
       <c r="L57" s="75"/>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="17" t="s">
         <v>147</v>
       </c>
@@ -8177,7 +8171,7 @@
         <v>10642</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="17" t="s">
         <v>147</v>
       </c>
@@ -8209,7 +8203,7 @@
       <c r="K59" s="12"/>
       <c r="L59" s="75"/>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="17" t="s">
         <v>147</v>
       </c>
@@ -8246,7 +8240,7 @@
         <v>7380</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="17" t="s">
         <v>147</v>
       </c>
@@ -8281,7 +8275,7 @@
       </c>
       <c r="L61" s="75"/>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="33" t="s">
         <v>147</v>
       </c>
@@ -8315,7 +8309,7 @@
       </c>
       <c r="L62" s="75"/>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="33" t="s">
         <v>147</v>
       </c>
@@ -8347,7 +8341,7 @@
       <c r="K63" s="12"/>
       <c r="L63" s="75"/>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="33" t="s">
         <v>147</v>
       </c>
@@ -8382,7 +8376,7 @@
       </c>
       <c r="L64" s="78"/>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="33" t="s">
         <v>147</v>
       </c>
@@ -8417,7 +8411,7 @@
       </c>
       <c r="L65" s="75"/>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="33" t="s">
         <v>147</v>
       </c>
@@ -8451,7 +8445,7 @@
       </c>
       <c r="L66" s="75"/>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="33" t="s">
         <v>147</v>
       </c>
@@ -8486,7 +8480,7 @@
       </c>
       <c r="L67" s="75"/>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="33" t="s">
         <v>147</v>
       </c>
@@ -8521,7 +8515,7 @@
         <v>7380</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="17" t="s">
         <v>147</v>
       </c>
@@ -8556,7 +8550,7 @@
       </c>
       <c r="L69" s="75"/>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="33" t="s">
         <v>147</v>
       </c>
@@ -8591,7 +8585,7 @@
       </c>
       <c r="L70" s="75"/>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="17" t="s">
         <v>147</v>
       </c>
@@ -8626,7 +8620,7 @@
       </c>
       <c r="L71" s="78"/>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="17" t="s">
         <v>147</v>
       </c>
@@ -8659,7 +8653,7 @@
       <c r="K72" s="12"/>
       <c r="L72" s="75"/>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="17" t="s">
         <v>147</v>
       </c>
@@ -8694,7 +8688,7 @@
       </c>
       <c r="L73" s="75"/>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="17" t="s">
         <v>147</v>
       </c>
@@ -8727,7 +8721,7 @@
       <c r="K74" s="12"/>
       <c r="L74" s="75"/>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="17" t="s">
         <v>147</v>
       </c>
@@ -8764,7 +8758,7 @@
         <v>7380</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="15.75" customHeight="1">
+    <row r="76" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="33" t="s">
         <v>147</v>
       </c>
@@ -8798,7 +8792,7 @@
       </c>
       <c r="L76" s="78"/>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="33" t="s">
         <v>147</v>
       </c>
@@ -8835,7 +8829,7 @@
         <v>10511</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="33" t="s">
         <v>147</v>
       </c>
@@ -8869,7 +8863,7 @@
       </c>
       <c r="L78" s="78"/>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="17" t="s">
         <v>147</v>
       </c>
@@ -8902,7 +8896,7 @@
       <c r="K79" s="12"/>
       <c r="L79" s="75"/>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="33" t="s">
         <v>147</v>
       </c>
@@ -8937,7 +8931,7 @@
       </c>
       <c r="L80" s="75"/>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="17" t="s">
         <v>147</v>
       </c>
@@ -8970,7 +8964,7 @@
       <c r="K81" s="12"/>
       <c r="L81" s="75"/>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="33" t="s">
         <v>147</v>
       </c>
@@ -9006,7 +9000,7 @@
         <v>10642</v>
       </c>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="33" t="s">
         <v>147</v>
       </c>
@@ -9041,7 +9035,7 @@
       </c>
       <c r="L83" s="78"/>
     </row>
-    <row r="84" spans="1:15">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="33" t="s">
         <v>147</v>
       </c>
@@ -9076,7 +9070,7 @@
       </c>
       <c r="L84" s="78"/>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="33" t="s">
         <v>147</v>
       </c>
@@ -9113,7 +9107,7 @@
         <v>10642</v>
       </c>
     </row>
-    <row r="86" spans="1:15">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="33" t="s">
         <v>147</v>
       </c>
@@ -9145,7 +9139,7 @@
       <c r="K86" s="12"/>
       <c r="L86" s="75"/>
     </row>
-    <row r="87" spans="1:15">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="33" t="s">
         <v>147</v>
       </c>
@@ -9180,7 +9174,7 @@
       </c>
       <c r="L87" s="78"/>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="33" t="s">
         <v>147</v>
       </c>
@@ -9212,7 +9206,7 @@
       <c r="K88" s="76"/>
       <c r="L88" s="78"/>
     </row>
-    <row r="89" spans="1:15">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="33" t="s">
         <v>147</v>
       </c>
@@ -9248,7 +9242,7 @@
         <v>10511</v>
       </c>
     </row>
-    <row r="90" spans="1:15">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="33" t="s">
         <v>147</v>
       </c>
@@ -9283,7 +9277,7 @@
       </c>
       <c r="L90" s="75"/>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="33" t="s">
         <v>147</v>
       </c>
@@ -9318,7 +9312,7 @@
         <v>7380</v>
       </c>
     </row>
-    <row r="92" spans="1:15">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="33" t="s">
         <v>147</v>
       </c>
@@ -9353,7 +9347,7 @@
         <v>7380</v>
       </c>
     </row>
-    <row r="93" spans="1:15">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="33" t="s">
         <v>147</v>
       </c>
@@ -9390,7 +9384,7 @@
         <v>7380</v>
       </c>
     </row>
-    <row r="94" spans="1:15">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="33" t="s">
         <v>147</v>
       </c>
@@ -9425,7 +9419,7 @@
       </c>
       <c r="L94" s="75"/>
     </row>
-    <row r="95" spans="1:15">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="33" t="s">
         <v>147</v>
       </c>
@@ -9463,7 +9457,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="33" t="s">
         <v>147</v>
       </c>
@@ -9498,7 +9492,7 @@
       </c>
       <c r="L96" s="75"/>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="33" t="s">
         <v>147</v>
       </c>
@@ -9533,7 +9527,7 @@
       </c>
       <c r="L97" s="75"/>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="33" t="s">
         <v>147</v>
       </c>
@@ -9568,7 +9562,7 @@
       </c>
       <c r="L98" s="75"/>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="17" t="s">
         <v>147</v>
       </c>
@@ -9603,7 +9597,7 @@
         <v>7380</v>
       </c>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="17" t="s">
         <v>235</v>
       </c>
@@ -9636,7 +9630,7 @@
       <c r="K100" s="12"/>
       <c r="L100" s="75"/>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="17" t="s">
         <v>235</v>
       </c>
@@ -9669,7 +9663,7 @@
       <c r="K101" s="12"/>
       <c r="L101" s="75"/>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="17" t="s">
         <v>235</v>
       </c>
@@ -9702,7 +9696,7 @@
       <c r="K102" s="12"/>
       <c r="L102" s="75"/>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="17" t="s">
         <v>235</v>
       </c>
@@ -9735,7 +9729,7 @@
       <c r="K103" s="12"/>
       <c r="L103" s="75"/>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="17" t="s">
         <v>235</v>
       </c>
@@ -9768,7 +9762,7 @@
       <c r="K104" s="12"/>
       <c r="L104" s="75"/>
     </row>
-    <row r="105" spans="1:12">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="17" t="s">
         <v>247</v>
       </c>
@@ -9801,7 +9795,7 @@
       <c r="K105" s="12"/>
       <c r="L105" s="75"/>
     </row>
-    <row r="106" spans="1:12">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="17" t="s">
         <v>247</v>
       </c>
@@ -9834,7 +9828,7 @@
       <c r="K106" s="85"/>
       <c r="L106" s="75"/>
     </row>
-    <row r="107" spans="1:12">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="17" t="s">
         <v>247</v>
       </c>
@@ -9866,7 +9860,7 @@
       <c r="K107" s="85"/>
       <c r="L107" s="75"/>
     </row>
-    <row r="108" spans="1:12">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="17" t="s">
         <v>247</v>
       </c>
@@ -9898,7 +9892,7 @@
       <c r="K108" s="12"/>
       <c r="L108" s="75"/>
     </row>
-    <row r="109" spans="1:12">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="33" t="s">
         <v>260</v>
       </c>
@@ -9931,7 +9925,7 @@
       <c r="K109" s="12"/>
       <c r="L109" s="75"/>
     </row>
-    <row r="110" spans="1:12">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="33" t="s">
         <v>260</v>
       </c>
@@ -9964,7 +9958,7 @@
       <c r="K110" s="12"/>
       <c r="L110" s="75"/>
     </row>
-    <row r="111" spans="1:12">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="17" t="s">
         <v>260</v>
       </c>
@@ -9997,7 +9991,7 @@
       <c r="K111" s="12"/>
       <c r="L111" s="75"/>
     </row>
-    <row r="112" spans="1:12">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="17" t="s">
         <v>260</v>
       </c>
@@ -10030,7 +10024,7 @@
       <c r="K112" s="12"/>
       <c r="L112" s="75"/>
     </row>
-    <row r="113" spans="1:12">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="33" t="s">
         <v>260</v>
       </c>
@@ -10063,7 +10057,7 @@
       <c r="K113" s="12"/>
       <c r="L113" s="75"/>
     </row>
-    <row r="114" spans="1:12">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="33" t="s">
         <v>260</v>
       </c>
@@ -10096,7 +10090,7 @@
       <c r="K114" s="12"/>
       <c r="L114" s="75"/>
     </row>
-    <row r="115" spans="1:12">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="33" t="s">
         <v>260</v>
       </c>
@@ -10129,7 +10123,7 @@
       <c r="K115" s="12"/>
       <c r="L115" s="75"/>
     </row>
-    <row r="116" spans="1:12">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="33" t="s">
         <v>260</v>
       </c>
@@ -10162,7 +10156,7 @@
       <c r="K116" s="12"/>
       <c r="L116" s="75"/>
     </row>
-    <row r="117" spans="1:12">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="33" t="s">
         <v>284</v>
       </c>
@@ -10197,7 +10191,7 @@
       <c r="K117" s="12"/>
       <c r="L117" s="75"/>
     </row>
-    <row r="118" spans="1:12">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="33" t="s">
         <v>284</v>
       </c>
@@ -10230,7 +10224,7 @@
       <c r="K118" s="12"/>
       <c r="L118" s="75"/>
     </row>
-    <row r="119" spans="1:12" s="14" customFormat="1" ht="15.75">
+    <row r="119" spans="1:12" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="17" t="s">
         <v>284</v>
       </c>
@@ -10265,7 +10259,7 @@
       <c r="K119" s="12"/>
       <c r="L119" s="75"/>
     </row>
-    <row r="120" spans="1:12" s="14" customFormat="1" ht="15.75">
+    <row r="120" spans="1:12" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="17" t="s">
         <v>284</v>
       </c>
@@ -10300,7 +10294,7 @@
       <c r="K120" s="12"/>
       <c r="L120" s="75"/>
     </row>
-    <row r="121" spans="1:12" s="14" customFormat="1" ht="15.75">
+    <row r="121" spans="1:12" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="17" t="s">
         <v>284</v>
       </c>
@@ -10335,7 +10329,7 @@
       <c r="K121" s="12"/>
       <c r="L121" s="75"/>
     </row>
-    <row r="122" spans="1:12" s="14" customFormat="1" ht="15.75">
+    <row r="122" spans="1:12" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="33" t="s">
         <v>284</v>
       </c>
@@ -10368,7 +10362,7 @@
       <c r="K122" s="12"/>
       <c r="L122" s="75"/>
     </row>
-    <row r="123" spans="1:12" s="14" customFormat="1" ht="15.75">
+    <row r="123" spans="1:12" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="17" t="s">
         <v>284</v>
       </c>
@@ -10403,7 +10397,7 @@
       <c r="K123" s="12"/>
       <c r="L123" s="75"/>
     </row>
-    <row r="124" spans="1:12" s="14" customFormat="1" ht="15.75">
+    <row r="124" spans="1:12" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="17" t="s">
         <v>284</v>
       </c>
@@ -10438,7 +10432,7 @@
       <c r="K124" s="12"/>
       <c r="L124" s="75"/>
     </row>
-    <row r="125" spans="1:12" s="14" customFormat="1" ht="15.75">
+    <row r="125" spans="1:12" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="17" t="s">
         <v>284</v>
       </c>
@@ -10473,7 +10467,7 @@
       <c r="K125" s="12"/>
       <c r="L125" s="75"/>
     </row>
-    <row r="126" spans="1:12" s="14" customFormat="1" ht="15.75">
+    <row r="126" spans="1:12" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="33" t="s">
         <v>284</v>
       </c>
@@ -10508,7 +10502,7 @@
       <c r="K126" s="12"/>
       <c r="L126" s="75"/>
     </row>
-    <row r="127" spans="1:12" s="14" customFormat="1" ht="15.75">
+    <row r="127" spans="1:12" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="17" t="s">
         <v>284</v>
       </c>
@@ -10543,7 +10537,7 @@
       <c r="K127" s="12"/>
       <c r="L127" s="75"/>
     </row>
-    <row r="128" spans="1:12" s="14" customFormat="1" ht="15.75">
+    <row r="128" spans="1:12" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="17" t="s">
         <v>284</v>
       </c>
@@ -10578,7 +10572,7 @@
       <c r="K128" s="12"/>
       <c r="L128" s="75"/>
     </row>
-    <row r="129" spans="1:12" s="14" customFormat="1" ht="15.75">
+    <row r="129" spans="1:12" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="17" t="s">
         <v>284</v>
       </c>
@@ -10613,7 +10607,7 @@
       <c r="K129" s="12"/>
       <c r="L129" s="75"/>
     </row>
-    <row r="130" spans="1:12" s="14" customFormat="1" ht="15.75">
+    <row r="130" spans="1:12" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="17" t="s">
         <v>318</v>
       </c>
@@ -10646,7 +10640,7 @@
       <c r="K130" s="76"/>
       <c r="L130" s="78"/>
     </row>
-    <row r="131" spans="1:12" s="14" customFormat="1" ht="15.75">
+    <row r="131" spans="1:12" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="17" t="s">
         <v>318</v>
       </c>
@@ -10679,7 +10673,7 @@
       <c r="K131" s="76"/>
       <c r="L131" s="78"/>
     </row>
-    <row r="132" spans="1:12" s="14" customFormat="1" ht="15.75">
+    <row r="132" spans="1:12" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="33" t="s">
         <v>318</v>
       </c>
@@ -10712,7 +10706,7 @@
       <c r="K132" s="76"/>
       <c r="L132" s="78"/>
     </row>
-    <row r="133" spans="1:12" s="14" customFormat="1" ht="15.75">
+    <row r="133" spans="1:12" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="17" t="s">
         <v>318</v>
       </c>
@@ -10745,7 +10739,7 @@
       <c r="K133" s="76"/>
       <c r="L133" s="78"/>
     </row>
-    <row r="134" spans="1:12" s="14" customFormat="1" ht="15.75">
+    <row r="134" spans="1:12" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="17" t="s">
         <v>318</v>
       </c>
@@ -10778,7 +10772,7 @@
       <c r="K134" s="76"/>
       <c r="L134" s="78"/>
     </row>
-    <row r="135" spans="1:12" s="14" customFormat="1" ht="15.75">
+    <row r="135" spans="1:12" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="17" t="s">
         <v>318</v>
       </c>
@@ -10813,7 +10807,7 @@
       <c r="K135" s="76"/>
       <c r="L135" s="78"/>
     </row>
-    <row r="136" spans="1:12" s="14" customFormat="1" ht="15.75">
+    <row r="136" spans="1:12" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="17" t="s">
         <v>333</v>
       </c>
@@ -10846,7 +10840,7 @@
       <c r="K136" s="85"/>
       <c r="L136" s="75"/>
     </row>
-    <row r="137" spans="1:12" s="14" customFormat="1" ht="15.75">
+    <row r="137" spans="1:12" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="133" t="s">
         <v>337</v>
       </c>
@@ -10879,7 +10873,7 @@
       <c r="K137" s="92"/>
       <c r="L137" s="95"/>
     </row>
-    <row r="138" spans="1:12" s="14" customFormat="1" ht="15.75">
+    <row r="138" spans="1:12" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="17" t="s">
         <v>337</v>
       </c>
@@ -10912,7 +10906,7 @@
       <c r="K138" s="12"/>
       <c r="L138" s="75"/>
     </row>
-    <row r="139" spans="1:12" s="14" customFormat="1" ht="15.75">
+    <row r="139" spans="1:12" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="17" t="s">
         <v>337</v>
       </c>
@@ -10945,7 +10939,7 @@
       <c r="K139" s="12"/>
       <c r="L139" s="75"/>
     </row>
-    <row r="140" spans="1:12" s="14" customFormat="1" ht="15.75">
+    <row r="140" spans="1:12" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="17" t="s">
         <v>337</v>
       </c>
@@ -10978,7 +10972,7 @@
       <c r="K140" s="12"/>
       <c r="L140" s="75"/>
     </row>
-    <row r="141" spans="1:12" s="14" customFormat="1" ht="15.75">
+    <row r="141" spans="1:12" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="17" t="s">
         <v>337</v>
       </c>
@@ -11011,7 +11005,7 @@
       <c r="K141" s="12"/>
       <c r="L141" s="75"/>
     </row>
-    <row r="142" spans="1:12" s="14" customFormat="1" ht="15.75">
+    <row r="142" spans="1:12" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="17" t="s">
         <v>337</v>
       </c>
@@ -11044,7 +11038,7 @@
       <c r="K142" s="12"/>
       <c r="L142" s="75"/>
     </row>
-    <row r="143" spans="1:12" s="14" customFormat="1" ht="15.75">
+    <row r="143" spans="1:12" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="17" t="s">
         <v>337</v>
       </c>
@@ -11077,7 +11071,7 @@
       <c r="K143" s="12"/>
       <c r="L143" s="75"/>
     </row>
-    <row r="144" spans="1:12" s="14" customFormat="1" ht="15.75">
+    <row r="144" spans="1:12" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="17" t="s">
         <v>337</v>
       </c>
@@ -11101,14 +11095,14 @@
       <c r="H144" s="100" t="s">
         <v>356</v>
       </c>
-      <c r="I144" s="224" t="s">
+      <c r="I144" s="215" t="s">
         <v>357</v>
       </c>
       <c r="J144" s="157"/>
       <c r="K144" s="12"/>
       <c r="L144" s="75"/>
     </row>
-    <row r="145" spans="1:12">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="17" t="s">
         <v>337</v>
       </c>
@@ -11141,7 +11135,7 @@
       <c r="K145" s="12"/>
       <c r="L145" s="75"/>
     </row>
-    <row r="146" spans="1:12" ht="15.75">
+    <row r="146" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="34"/>
       <c r="B146" s="35" t="s">
         <v>361</v>
@@ -11162,7 +11156,7 @@
       <c r="K146" s="97"/>
       <c r="L146" s="98"/>
     </row>
-    <row r="147" spans="1:12">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G147" s="13"/>
       <c r="K147" s="193"/>
     </row>
@@ -11341,12 +11335,12 @@
   </sheetPr>
   <dimension ref="A1:M91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J6" sqref="J6:M6"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
@@ -11361,59 +11355,58 @@
     <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30.75">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="173" t="s">
         <v>627</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="F1" s="173" t="s">
+      <c r="H1" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="L1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="211" t="s">
-        <v>636</v>
-      </c>
-      <c r="B2" s="215" t="s">
+      <c r="B2" s="38" t="s">
         <v>413</v>
       </c>
-      <c r="C2" s="212"/>
       <c r="D2">
         <v>98</v>
       </c>
-      <c r="E2" s="215">
-        <v>1</v>
-      </c>
-      <c r="F2" s="215">
+      <c r="E2" s="38">
+        <v>1</v>
+      </c>
+      <c r="F2" s="38">
         <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
         <v>98</v>
       </c>
@@ -11421,9 +11414,9 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>12.74</v>
       </c>
-      <c r="H2" s="214"/>
+      <c r="H2" s="211"/>
       <c r="J2" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="K2" s="1">
         <v>130</v>
@@ -11432,18 +11425,17 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="211" t="s">
-        <v>636</v>
-      </c>
-      <c r="B3" s="215" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B3" s="38" t="s">
         <v>414</v>
       </c>
-      <c r="C3" s="212"/>
-      <c r="E3" s="215">
+      <c r="E3" s="38">
         <v>4</v>
       </c>
-      <c r="F3" s="215">
+      <c r="F3" s="38">
         <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
@@ -11451,9 +11443,9 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H3" s="214"/>
+      <c r="H3" s="211"/>
       <c r="J3" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="K3" s="1">
         <v>155</v>
@@ -11462,9 +11454,9 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>415</v>
@@ -11483,9 +11475,9 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>6.37</v>
       </c>
-      <c r="H4" s="214"/>
+      <c r="H4" s="211"/>
       <c r="J4" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="K4" s="1">
         <v>150</v>
@@ -11494,9 +11486,9 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>416</v>
@@ -11515,32 +11507,31 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>6.11</v>
       </c>
-      <c r="H5" s="214"/>
+      <c r="H5" s="211"/>
       <c r="J5" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="L5">
         <v>1.3</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="211" t="s">
-        <v>636</v>
-      </c>
-      <c r="B6" s="215" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B6" s="38" t="s">
         <v>417</v>
       </c>
-      <c r="C6" s="212"/>
       <c r="D6">
         <v>11</v>
       </c>
-      <c r="E6" s="215">
+      <c r="E6" s="38">
         <v>2</v>
       </c>
-      <c r="F6" s="215">
+      <c r="F6" s="38">
         <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
         <v>22</v>
       </c>
@@ -11548,11 +11539,11 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>1.4300000000000002</v>
       </c>
-      <c r="H6" s="214"/>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="H6" s="211"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>418</v>
@@ -11571,25 +11562,24 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>26</v>
       </c>
-      <c r="H7" s="219">
+      <c r="H7" s="213">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="211" t="s">
-        <v>636</v>
-      </c>
-      <c r="B8" s="211" t="s">
-        <v>419</v>
-      </c>
-      <c r="C8" s="212"/>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>815</v>
+      </c>
       <c r="D8">
         <v>28</v>
       </c>
-      <c r="E8" s="211">
-        <v>1</v>
-      </c>
-      <c r="F8" s="211">
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
         <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
         <v>28</v>
       </c>
@@ -11597,14 +11587,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>3.64</v>
       </c>
-      <c r="H8" s="214"/>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="H8" s="211"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>420</v>
+        <v>816</v>
       </c>
       <c r="D9">
         <v>15</v>
@@ -11620,14 +11610,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>1.9500000000000002</v>
       </c>
-      <c r="H9" s="214"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="H9" s="211"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E10" s="38">
         <v>1</v>
@@ -11640,14 +11630,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H10" s="214"/>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="H10" s="211"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E11" s="38">
         <v>1</v>
@@ -11660,14 +11650,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H11" s="214"/>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="H11" s="211"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E12" s="38">
         <v>2</v>
@@ -11680,14 +11670,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H12" s="214"/>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="H12" s="211"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E13" s="38">
         <v>2</v>
@@ -11700,14 +11690,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H13" s="214"/>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="H13" s="211"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -11720,14 +11710,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H14" s="214"/>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="H14" s="211"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -11740,14 +11730,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H15" s="214"/>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="H15" s="211"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E16" s="38">
         <v>1</v>
@@ -11760,36 +11750,34 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H16" s="214"/>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="H16" s="211"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="B17" s="215" t="s">
-        <v>428</v>
-      </c>
-      <c r="C17" s="212"/>
-      <c r="D17" s="212"/>
-      <c r="E17" s="215">
-        <v>1</v>
-      </c>
-      <c r="F17" s="215">
+        <v>634</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="E17" s="38">
+        <v>1</v>
+      </c>
+      <c r="F17" s="38">
         <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
-      <c r="G17" s="213">
+      <c r="G17" s="210">
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H17" s="216"/>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="H17" s="211"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -11802,14 +11790,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H18" s="214"/>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="H18" s="211"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -11822,14 +11810,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H19" s="214"/>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="H19" s="211"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -11842,14 +11830,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H20" s="214"/>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="H20" s="211"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -11862,14 +11850,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H21" s="214"/>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="H21" s="211"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -11882,14 +11870,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H22" s="214"/>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="H22" s="211"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -11902,14 +11890,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H23" s="214"/>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="H23" s="211"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E24" s="1">
         <v>2</v>
@@ -11922,14 +11910,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H24" s="214"/>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="H24" s="211"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B25" s="38" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E25" s="38">
         <v>4</v>
@@ -11942,14 +11930,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H25" s="214"/>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="H25" s="211"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -11962,14 +11950,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H26" s="214"/>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="H26" s="211"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
@@ -11982,14 +11970,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H27" s="214"/>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="H27" s="211"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B28" s="38" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E28" s="38">
         <v>1</v>
@@ -12002,14 +11990,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H28" s="214"/>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="H28" s="211"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B29" s="38" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E29" s="38">
         <v>1</v>
@@ -12022,14 +12010,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H29" s="214"/>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="H29" s="211"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B30" s="38" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E30" s="38">
         <v>1</v>
@@ -12042,14 +12030,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H30" s="214"/>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="H30" s="211"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B31" s="38" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E31" s="38">
         <v>1</v>
@@ -12062,14 +12050,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H31" s="214"/>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="H31" s="211"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B32" s="38" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E32" s="38">
         <v>1</v>
@@ -12082,14 +12070,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H32" s="214"/>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="H32" s="211"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E33" s="38">
         <v>1</v>
@@ -12102,14 +12090,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H33" s="214"/>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="H33" s="211"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B34" s="38" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E34" s="38">
         <v>1</v>
@@ -12122,14 +12110,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H34" s="214"/>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="H34" s="211"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B35" s="38" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E35" s="38">
         <v>1</v>
@@ -12142,14 +12130,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H35" s="214"/>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="H35" s="211"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B36" s="38" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E36" s="38">
         <v>1</v>
@@ -12162,14 +12150,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H36" s="214"/>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="H36" s="211"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B37" s="38" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E37" s="38">
         <v>1</v>
@@ -12182,19 +12170,19 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H37" s="214"/>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="H37" s="211"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="B38" s="217" t="s">
-        <v>508</v>
-      </c>
-      <c r="E38" s="217">
-        <v>1</v>
-      </c>
-      <c r="F38" s="217">
+        <v>641</v>
+      </c>
+      <c r="B38" s="212" t="s">
+        <v>506</v>
+      </c>
+      <c r="E38" s="212">
+        <v>1</v>
+      </c>
+      <c r="F38" s="212">
         <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
@@ -12202,14 +12190,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H38" s="214"/>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="H38" s="211"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B39" s="38" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E39" s="38">
         <v>4</v>
@@ -12222,14 +12210,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H39" s="214"/>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="H39" s="211"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B40" s="38" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E40" s="38">
         <v>2</v>
@@ -12242,14 +12230,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H40" s="214"/>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="H40" s="211"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B41" s="38" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E41" s="38">
         <v>1</v>
@@ -12262,14 +12250,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H41" s="214"/>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="H41" s="211"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B42" s="38" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E42" s="38">
         <v>1</v>
@@ -12282,14 +12270,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H42" s="214"/>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="H42" s="211"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B43" s="38" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E43" s="38">
         <v>2</v>
@@ -12302,14 +12290,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H43" s="214"/>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="H43" s="211"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B44" s="38" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E44" s="38">
         <v>1</v>
@@ -12322,14 +12310,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H44" s="214"/>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="H44" s="211"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B45" s="38" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E45" s="38">
         <v>1</v>
@@ -12342,14 +12330,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H45" s="214"/>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="H45" s="211"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B46" s="38" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E46" s="38">
         <v>1</v>
@@ -12362,14 +12350,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H46" s="214"/>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="H46" s="211"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B47" s="38" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E47" s="38">
         <v>1</v>
@@ -12382,14 +12370,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H47" s="214"/>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="H47" s="211"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B48" s="38" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E48" s="38">
         <v>1</v>
@@ -12402,14 +12390,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H48" s="214"/>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="H48" s="211"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B49" s="38" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E49" s="38">
         <v>1</v>
@@ -12422,14 +12410,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H49" s="214"/>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="H49" s="211"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B50" s="38" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E50" s="38">
         <v>1</v>
@@ -12442,14 +12430,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H50" s="214"/>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="H50" s="211"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B51" s="38" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E51" s="38">
         <v>1</v>
@@ -12462,14 +12450,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H51" s="214"/>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="H51" s="211"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B52" s="38" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E52" s="38">
         <v>1</v>
@@ -12482,14 +12470,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H52" s="214"/>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="H52" s="211"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B53" s="38" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E53" s="38">
         <v>1</v>
@@ -12502,14 +12490,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H53" s="214"/>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="H53" s="211"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B54" s="38" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E54" s="38">
         <v>6</v>
@@ -12522,14 +12510,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H54" s="214"/>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="H54" s="211"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E55" s="1">
         <v>1</v>
@@ -12542,14 +12530,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H55" s="214"/>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="H55" s="211"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E56" s="1">
         <v>1</v>
@@ -12562,14 +12550,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H56" s="214"/>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="H56" s="211"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B57" s="38" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E57" s="38">
         <v>2</v>
@@ -12582,44 +12570,42 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H57" s="214"/>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="H57" s="211"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="B58" s="215" t="s">
-        <v>547</v>
-      </c>
-      <c r="C58" s="212"/>
-      <c r="D58" s="212"/>
-      <c r="E58" s="215">
-        <v>1</v>
-      </c>
-      <c r="F58" s="215">
+        <v>641</v>
+      </c>
+      <c r="B58" s="38" t="s">
+        <v>545</v>
+      </c>
+      <c r="E58" s="38">
+        <v>1</v>
+      </c>
+      <c r="F58" s="38">
         <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
-      <c r="G58" s="213">
+      <c r="G58" s="210">
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H58" s="216"/>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="H58" s="211"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="B59" s="211" t="s">
+        <v>642</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>390</v>
       </c>
       <c r="D59">
         <v>17</v>
       </c>
-      <c r="E59" s="211">
-        <v>1</v>
-      </c>
-      <c r="F59" s="211">
+      <c r="E59" s="1">
+        <v>1</v>
+      </c>
+      <c r="F59" s="1">
         <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
         <v>17</v>
       </c>
@@ -12627,19 +12613,19 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>2.21</v>
       </c>
-      <c r="H59" s="214"/>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="H59" s="211"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="B60" s="211" t="s">
+        <v>642</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="E60" s="211">
+      <c r="E60" s="1">
         <v>4</v>
       </c>
-      <c r="F60" s="211">
+      <c r="F60" s="1">
         <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
@@ -12647,22 +12633,22 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H60" s="214"/>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="H60" s="211"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="B61" s="211" t="s">
+        <v>642</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>394</v>
       </c>
       <c r="D61">
         <v>6</v>
       </c>
-      <c r="E61" s="211">
+      <c r="E61" s="1">
         <v>4</v>
       </c>
-      <c r="F61" s="211">
+      <c r="F61" s="1">
         <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
         <v>24</v>
       </c>
@@ -12670,38 +12656,37 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0.78</v>
       </c>
-      <c r="H61" s="214"/>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="H61" s="211"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="B62" s="211" t="s">
+        <v>642</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="C62" s="212"/>
-      <c r="D62" s="212">
+      <c r="D62">
         <v>9</v>
       </c>
-      <c r="E62" s="211">
+      <c r="E62" s="1">
         <v>4</v>
       </c>
-      <c r="F62" s="211">
+      <c r="F62" s="1">
         <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
         <v>36</v>
       </c>
-      <c r="G62" s="213">
+      <c r="G62" s="210">
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>1.17</v>
       </c>
-      <c r="H62" s="214"/>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="H62" s="211"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E63" s="1">
         <v>1</v>
@@ -12714,14 +12699,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H63" s="214"/>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="H63" s="211"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B64" s="45" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E64" s="45">
         <v>1</v>
@@ -12734,14 +12719,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H64" s="214"/>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="H64" s="211"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B65" s="38" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E65" s="38">
         <v>1</v>
@@ -12754,41 +12739,39 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H65" s="214"/>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="H65" s="211"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="B66" s="215" t="s">
-        <v>646</v>
-      </c>
-      <c r="C66" s="212"/>
-      <c r="D66" s="212"/>
-      <c r="E66" s="215">
-        <v>1</v>
-      </c>
-      <c r="F66" s="215">
+        <v>643</v>
+      </c>
+      <c r="B66" s="38" t="s">
+        <v>644</v>
+      </c>
+      <c r="E66" s="38">
+        <v>1</v>
+      </c>
+      <c r="F66" s="38">
         <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
-      <c r="G66" s="213">
+      <c r="G66" s="210">
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H66" s="216"/>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="H66" s="211"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="B67" s="217" t="s">
-        <v>441</v>
-      </c>
-      <c r="E67" s="217">
-        <v>1</v>
-      </c>
-      <c r="F67" s="217">
+        <v>645</v>
+      </c>
+      <c r="B67" s="212" t="s">
+        <v>439</v>
+      </c>
+      <c r="E67" s="212">
+        <v>1</v>
+      </c>
+      <c r="F67" s="212">
         <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
@@ -12796,14 +12779,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H67" s="214"/>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="H67" s="211"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B68" s="69" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E68" s="69">
         <v>1</v>
@@ -12816,14 +12799,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H68" s="214"/>
-    </row>
-    <row r="69" spans="1:8">
+      <c r="H68" s="211"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B69" s="69" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D69">
         <v>2</v>
@@ -12839,14 +12822,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0.26</v>
       </c>
-      <c r="H69" s="214"/>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="H69" s="211"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B70" s="69" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D70">
         <v>9</v>
@@ -12862,14 +12845,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>1.17</v>
       </c>
-      <c r="H70" s="214"/>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="H70" s="211"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B71" s="69" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E71" s="69">
         <v>1</v>
@@ -12882,14 +12865,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H71" s="214"/>
-    </row>
-    <row r="72" spans="1:8">
+      <c r="H71" s="211"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B72" s="69" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E72" s="69">
         <v>1</v>
@@ -12902,14 +12885,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H72" s="214"/>
-    </row>
-    <row r="73" spans="1:8">
+      <c r="H72" s="211"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B73" s="69" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D73">
         <v>44</v>
@@ -12925,14 +12908,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>5.7200000000000006</v>
       </c>
-      <c r="H73" s="214"/>
-    </row>
-    <row r="74" spans="1:8">
+      <c r="H73" s="211"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B74" s="38" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D74">
         <v>42</v>
@@ -12948,14 +12931,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>5.46</v>
       </c>
-      <c r="H74" s="214"/>
-    </row>
-    <row r="75" spans="1:8">
+      <c r="H74" s="211"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B75" s="69" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D75">
         <v>45</v>
@@ -12971,14 +12954,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>5.8500000000000005</v>
       </c>
-      <c r="H75" s="214"/>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="H75" s="211"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B76" s="38" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E76" s="69">
         <v>1</v>
@@ -12991,14 +12974,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H76" s="214"/>
-    </row>
-    <row r="77" spans="1:8">
+      <c r="H76" s="211"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B77" s="38" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E77" s="69">
         <v>1</v>
@@ -13011,14 +12994,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H77" s="214"/>
-    </row>
-    <row r="78" spans="1:8">
+      <c r="H77" s="211"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B78" s="38" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E78" s="69">
         <v>1</v>
@@ -13031,14 +13014,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H78" s="214"/>
-    </row>
-    <row r="79" spans="1:8">
+      <c r="H78" s="211"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B79" s="38" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E79" s="69">
         <v>2</v>
@@ -13051,14 +13034,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H79" s="214"/>
-    </row>
-    <row r="80" spans="1:8">
+      <c r="H79" s="211"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B80" s="38" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E80" s="69">
         <v>1</v>
@@ -13071,14 +13054,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H80" s="214"/>
-    </row>
-    <row r="81" spans="1:8">
+      <c r="H80" s="211"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B81" s="38" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E81" s="69">
         <v>1</v>
@@ -13091,14 +13074,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H81" s="214"/>
-    </row>
-    <row r="82" spans="1:8">
+      <c r="H81" s="211"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B82" s="38" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E82" s="69">
         <v>1</v>
@@ -13111,14 +13094,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H82" s="214"/>
-    </row>
-    <row r="83" spans="1:8">
+      <c r="H82" s="211"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B83" s="38" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E83" s="69">
         <v>1</v>
@@ -13131,14 +13114,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H83" s="214"/>
-    </row>
-    <row r="84" spans="1:8">
+      <c r="H83" s="211"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B84" s="38" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E84" s="69">
         <v>1</v>
@@ -13151,14 +13134,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H84" s="214"/>
-    </row>
-    <row r="85" spans="1:8">
+      <c r="H84" s="211"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B85" s="38" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E85" s="69">
         <v>1</v>
@@ -13171,14 +13154,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H85" s="214"/>
-    </row>
-    <row r="86" spans="1:8">
+      <c r="H85" s="211"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B86" s="38" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E86" s="69">
         <v>1</v>
@@ -13191,14 +13174,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H86" s="214"/>
-    </row>
-    <row r="87" spans="1:8">
+      <c r="H86" s="211"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B87" s="38" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E87" s="69">
         <v>3</v>
@@ -13211,14 +13194,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H87" s="214"/>
-    </row>
-    <row r="88" spans="1:8">
+      <c r="H87" s="211"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B88" s="38" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E88" s="69">
         <v>1</v>
@@ -13231,14 +13214,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H88" s="214"/>
-    </row>
-    <row r="89" spans="1:8">
+      <c r="H88" s="211"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B89" s="38" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E89" s="69">
         <v>1</v>
@@ -13251,14 +13234,14 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H89" s="214"/>
-    </row>
-    <row r="90" spans="1:8">
+      <c r="H89" s="211"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B90" s="38" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E90" s="69">
         <v>1</v>
@@ -13271,16 +13254,16 @@
         <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
         <v>0</v>
       </c>
-      <c r="H90" s="214"/>
-    </row>
-    <row r="91" spans="1:8">
+      <c r="H90" s="211"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
-      <c r="E91" s="218">
+      <c r="E91" s="1">
         <f>SUBTOTAL(109,Table6[Items])</f>
         <v>122</v>
       </c>
-      <c r="F91" s="223" t="str">
+      <c r="F91" s="214" t="str">
         <f>SUBTOTAL(109,Table6[weight Tot])&amp;"g"</f>
         <v>678g</v>
       </c>
@@ -13288,7 +13271,7 @@
         <f>SUBTOTAL(109,Table6[Cost/part])</f>
         <v>80.86</v>
       </c>
-      <c r="H91" s="214">
+      <c r="H91" s="211">
         <f>SUBTOTAL(109,Table6[Time estimate])</f>
         <v>7</v>
       </c>
@@ -13310,7 +13293,7 @@
   <sheetViews>
     <sheetView view="pageLayout" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
@@ -13319,334 +13302,334 @@
     <col min="6" max="6" width="57.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
-      <c r="B1" s="220" t="s">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="216" t="s">
+        <v>647</v>
+      </c>
+      <c r="C1" s="217"/>
+      <c r="D1" s="217"/>
+      <c r="E1" s="218"/>
+      <c r="F1" s="42"/>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="40" t="s">
+        <v>648</v>
+      </c>
+      <c r="C2" s="42" t="s">
         <v>649</v>
       </c>
-      <c r="C1" s="221"/>
-      <c r="D1" s="221"/>
-      <c r="E1" s="222"/>
-      <c r="F1" s="42"/>
-    </row>
-    <row r="2" spans="2:6">
-      <c r="B2" s="40" t="s">
+      <c r="D2" s="6" t="s">
         <v>650</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="E2" s="136" t="s">
         <v>651</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="F2" s="42"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="40" t="s">
         <v>652</v>
-      </c>
-      <c r="E2" s="136" t="s">
-        <v>653</v>
-      </c>
-      <c r="F2" s="42"/>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="40" t="s">
-        <v>654</v>
       </c>
       <c r="C3" s="42"/>
       <c r="E3" s="39"/>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="40">
         <v>1</v>
       </c>
       <c r="C4" s="42" t="s">
+        <v>653</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="E4" s="136" t="s">
         <v>655</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="E4" s="136" t="s">
-        <v>657</v>
-      </c>
       <c r="F4" s="42"/>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="40">
         <v>2</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E5" s="136" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F5" s="42"/>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="40">
         <v>3</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E6" s="136" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F6" s="42"/>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="40">
         <v>4</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="136"/>
       <c r="F7" s="42"/>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="40"/>
       <c r="C8" s="42"/>
       <c r="D8" s="6"/>
       <c r="E8" s="136"/>
       <c r="F8" s="42"/>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="40"/>
       <c r="C9" s="42"/>
       <c r="D9" s="6"/>
       <c r="E9" s="136"/>
       <c r="F9" s="42"/>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="40" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C10" s="42"/>
       <c r="D10" s="6"/>
       <c r="E10" s="136"/>
       <c r="F10" s="42"/>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="40">
         <v>1</v>
       </c>
       <c r="C11" s="42"/>
       <c r="D11" s="6" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E11" s="136" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F11" s="42"/>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="40">
         <v>2</v>
       </c>
       <c r="C12" s="42"/>
       <c r="D12" s="6" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E12" s="136" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F12" s="42"/>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="40">
         <v>3</v>
       </c>
       <c r="C13" s="42"/>
       <c r="D13" s="6" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E13" s="136" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F13" s="42"/>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="40">
         <v>4</v>
       </c>
       <c r="C14" s="42"/>
       <c r="D14" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="E14" s="136" t="s">
         <v>666</v>
       </c>
-      <c r="E14" s="136" t="s">
-        <v>668</v>
-      </c>
       <c r="F14" s="42"/>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="40">
         <v>5</v>
       </c>
       <c r="C15" s="42"/>
       <c r="D15" s="6" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E15" s="136" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="F15" s="42"/>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="40">
         <v>6</v>
       </c>
       <c r="C16" s="42"/>
       <c r="D16" s="6" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E16" s="136" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="F16" s="42"/>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="40">
         <v>7</v>
       </c>
       <c r="C17" s="42"/>
       <c r="D17" s="6"/>
       <c r="E17" s="41" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F17" s="42"/>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="40">
         <v>8</v>
       </c>
       <c r="C18" s="42"/>
       <c r="D18" s="6"/>
       <c r="E18" s="41" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="F18" s="42"/>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="40">
         <v>9</v>
       </c>
       <c r="C19" s="42"/>
       <c r="D19" s="6" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E19" s="136" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F19" s="42"/>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="40">
         <v>10</v>
       </c>
       <c r="C20" s="42"/>
       <c r="D20" s="6" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E20" s="136" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="F20" s="42"/>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="40"/>
       <c r="C21" s="42"/>
       <c r="D21" s="6"/>
       <c r="E21" s="136"/>
       <c r="F21" s="42"/>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E22" s="136"/>
       <c r="F22" s="42"/>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="40">
         <v>1</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E23" s="136" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F23" s="42"/>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="40">
         <v>2</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E24" s="136" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F24" s="42"/>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="40">
         <v>3</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E25" s="136" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F25" s="42"/>
     </row>
-    <row r="26" spans="2:6" ht="15.75" thickBot="1">
+    <row r="26" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="137">
         <v>4</v>
       </c>
       <c r="C26" s="138" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D26" s="139"/>
       <c r="E26" s="140"/>
       <c r="F26" s="42"/>
     </row>
-    <row r="27" spans="2:6">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="42"/>
       <c r="C27" s="42"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="42"/>
     </row>
-    <row r="28" spans="2:6">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="42"/>
       <c r="C28" s="42"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="42"/>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="42"/>
@@ -13678,7 +13661,7 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="83.140625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
@@ -13686,191 +13669,191 @@
     <col min="4" max="4" width="70.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="B1" t="s">
+        <v>676</v>
+      </c>
+      <c r="C1" t="s">
         <v>677</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>678</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>679</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>681</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="8" t="s">
         <v>682</v>
       </c>
-      <c r="C2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>683</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="B3" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>685</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>686</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="B4" t="s">
         <v>687</v>
       </c>
-      <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="C4" s="173" t="s">
         <v>688</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>689</v>
       </c>
-      <c r="C4" s="173" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>690</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B5" t="s">
+        <v>687</v>
+      </c>
+      <c r="C5" s="173" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A5" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>692</v>
       </c>
-      <c r="B5" t="s">
-        <v>689</v>
-      </c>
-      <c r="C5" s="173" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="B7" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
+      <c r="C7" s="7" t="s">
         <v>694</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" s="68" t="s">
         <v>695</v>
       </c>
-      <c r="C7" s="7" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="D7" s="68" t="s">
+      <c r="C8" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>698</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
+      <c r="B10" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
+      <c r="C10" s="173" t="s">
+        <v>688</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>700</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="C10" s="173" t="s">
-        <v>690</v>
-      </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
+      <c r="C11" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="D12" t="s">
         <v>703</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="D12" t="s">
+      <c r="B13" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
+      <c r="B14" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>706</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
+      <c r="B15" t="s">
+        <v>684</v>
+      </c>
+      <c r="D15" t="s">
         <v>707</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>708</v>
       </c>
-      <c r="B15" t="s">
-        <v>686</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
+      <c r="B17" t="s">
         <v>710</v>
       </c>
-      <c r="D16" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>711</v>
       </c>
-      <c r="B17" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>712</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>714</v>
       </c>
     </row>
   </sheetData>
@@ -13887,390 +13870,390 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="73.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>716</v>
+      </c>
+      <c r="C2" t="s">
         <v>717</v>
       </c>
-      <c r="B2" s="42" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>718</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" s="42" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1">
-      <c r="A3" t="s">
+      <c r="C3" s="4" t="s">
         <v>720</v>
       </c>
-      <c r="B3" s="42" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>721</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="B4" s="42" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
         <v>723</v>
       </c>
-      <c r="B4" s="42" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>724</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" s="42" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="C5" s="4" t="s">
         <v>726</v>
       </c>
-      <c r="B5" s="42" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>727</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="B6" s="42" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="C6" t="s">
         <v>729</v>
       </c>
-      <c r="B6" s="42" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>730</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" s="42" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="C7" t="s">
         <v>732</v>
       </c>
-      <c r="B7" s="42" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>733</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" s="42" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="C8" t="s">
         <v>735</v>
       </c>
-      <c r="B8" s="42" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>736</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B9" s="42" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+      <c r="C9" t="s">
         <v>738</v>
       </c>
-      <c r="B9" s="42" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>739</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" s="42" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="C10" t="s">
         <v>741</v>
       </c>
-      <c r="B10" s="42" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>742</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B11" s="42" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="C11" t="s">
         <v>744</v>
       </c>
-      <c r="B11" s="42" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>745</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" s="42" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+      <c r="C12" t="s">
         <v>747</v>
       </c>
-      <c r="B12" s="42" t="s">
-        <v>748</v>
-      </c>
-      <c r="C12" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="42"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="42"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="42"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="42"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" s="42"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B19" s="155" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C19" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>748</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>749</v>
+      </c>
+      <c r="C20" t="s">
         <v>750</v>
       </c>
-      <c r="B20" s="42" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="42" t="s">
         <v>751</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" s="4" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="B21" s="42" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="42" t="s">
         <v>753</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C22" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="B22" s="42" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="42" t="s">
         <v>755</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="B23" s="42" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="42" t="s">
         <v>757</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="B24" s="42" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="42" t="s">
         <v>759</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="B25" s="42" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="42" t="s">
         <v>761</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="B26" s="42" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="42" t="s">
         <v>763</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="B27" s="42" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="42" t="s">
         <v>765</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="B28" s="42" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="42" t="s">
         <v>767</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="B29" s="42" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="42" t="s">
         <v>769</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="B30" s="42" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>717</v>
+      </c>
+      <c r="B31" s="42" t="s">
         <v>771</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>719</v>
-      </c>
-      <c r="B31" s="42" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="42" t="s">
         <v>773</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="B32" s="42" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="42" t="s">
         <v>775</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="B33" s="42" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="42" t="s">
         <v>777</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="B34" s="42" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="42" t="s">
         <v>779</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="B35" s="42" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>781</v>
       </c>
-      <c r="C35" t="s">
+      <c r="B36" s="42" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
+      <c r="C36" t="s">
         <v>783</v>
       </c>
-      <c r="B36" s="42" t="s">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="42"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="42"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>784</v>
       </c>
-      <c r="C36" t="s">
+      <c r="B39" s="156" t="s">
         <v>785</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="B37" s="42"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="B38" s="42"/>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>786</v>
-      </c>
-      <c r="B39" s="156" t="s">
-        <v>787</v>
       </c>
       <c r="C39" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
+        <v>786</v>
+      </c>
+      <c r="C40" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>788</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="B41" t="s">
+      <c r="C42" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>790</v>
       </c>
-      <c r="C41" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="B42" t="s">
+      <c r="C43" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>791</v>
       </c>
-      <c r="C42" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="B43" t="s">
+      <c r="C44" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>792</v>
       </c>
-      <c r="C43" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="B44" t="s">
+      <c r="D46" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>793</v>
       </c>
-      <c r="C44" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="B46" t="s">
+      <c r="D47" t="s">
         <v>794</v>
-      </c>
-      <c r="D46" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="B47" t="s">
-        <v>795</v>
-      </c>
-      <c r="D47" t="s">
-        <v>796</v>
       </c>
     </row>
   </sheetData>
@@ -14291,7 +14274,7 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.7109375" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
@@ -14300,12 +14283,12 @@
     <col min="5" max="5" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>363</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>364</v>
@@ -14314,85 +14297,85 @@
         <v>8</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>797</v>
+      </c>
+      <c r="B2" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>799</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>800</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>801</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>803</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+    <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
+      <c r="C6" s="4" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A6" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>807</v>
       </c>
-      <c r="C6" s="4" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
+    <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A10" s="4" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
+      <c r="C12" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" s="174" t="s">
         <v>814</v>
-      </c>
-      <c r="C12" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="E15" s="174" t="s">
-        <v>816</v>
       </c>
     </row>
   </sheetData>
@@ -14412,7 +14395,7 @@
       <selection activeCell="B16" sqref="B16:B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" style="2" customWidth="1"/>
     <col min="2" max="2" width="34.140625" style="11" customWidth="1"/>
@@ -14425,7 +14408,7 @@
     <col min="9" max="16384" width="11" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="30">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="53"/>
       <c r="B1" s="19" t="s">
         <v>363</v>
@@ -14441,7 +14424,7 @@
       </c>
       <c r="F1" s="141"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="54" t="s">
         <v>366</v>
       </c>
@@ -14465,7 +14448,7 @@
       <c r="I2" s="195"/>
       <c r="J2" s="195"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="51" t="s">
         <v>370</v>
       </c>
@@ -14489,7 +14472,7 @@
       <c r="I3" s="195"/>
       <c r="J3" s="195"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="51" t="s">
         <v>373</v>
       </c>
@@ -14513,7 +14496,7 @@
       <c r="I4" s="195"/>
       <c r="J4" s="195"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="51" t="s">
         <v>376</v>
       </c>
@@ -14537,7 +14520,7 @@
       <c r="I5" s="195"/>
       <c r="J5" s="195"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="25"/>
       <c r="B6" s="20" t="s">
         <v>377</v>
@@ -14557,7 +14540,7 @@
       <c r="I6" s="195"/>
       <c r="J6" s="195"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="20" t="s">
         <v>377</v>
@@ -14577,7 +14560,7 @@
       <c r="I7" s="195"/>
       <c r="J7" s="195"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
       <c r="B8" s="20" t="s">
         <v>382</v>
@@ -14595,7 +14578,7 @@
       <c r="I8" s="195"/>
       <c r="J8" s="195"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
       <c r="B9" s="20" t="s">
         <v>384</v>
@@ -14613,7 +14596,7 @@
       <c r="I9" s="195"/>
       <c r="J9" s="195"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
       <c r="B10" s="20" t="s">
         <v>386</v>
@@ -14631,7 +14614,7 @@
       <c r="I10" s="195"/>
       <c r="J10" s="195"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="25"/>
       <c r="B11" s="20" t="s">
         <v>212</v>
@@ -14649,7 +14632,7 @@
       <c r="I11" s="195"/>
       <c r="J11" s="195"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="51" t="s">
         <v>387</v>
       </c>
@@ -14669,7 +14652,7 @@
       <c r="I12" s="195"/>
       <c r="J12" s="195"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
       <c r="B13" s="20" t="s">
         <v>216</v>
@@ -14687,7 +14670,7 @@
       <c r="I13" s="195"/>
       <c r="J13" s="195"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
       <c r="B14" s="20" t="s">
         <v>224</v>
@@ -14705,7 +14688,7 @@
       <c r="I14" s="195"/>
       <c r="J14" s="195"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
       <c r="B15" s="20" t="s">
         <v>233</v>
@@ -14723,7 +14706,7 @@
       <c r="I15" s="195"/>
       <c r="J15" s="195"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="152" t="s">
         <v>389</v>
       </c>
@@ -14743,7 +14726,7 @@
       <c r="I16" s="195"/>
       <c r="J16" s="195"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="25"/>
       <c r="B17" s="20" t="s">
         <v>392</v>
@@ -14758,7 +14741,7 @@
       <c r="F17" s="147"/>
       <c r="G17" s="195"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="25"/>
       <c r="B18" s="20" t="s">
         <v>394</v>
@@ -14773,7 +14756,7 @@
       <c r="F18" s="147"/>
       <c r="G18" s="195"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="61"/>
       <c r="B19" s="43" t="s">
         <v>395</v>
@@ -14788,7 +14771,7 @@
       <c r="F19" s="149"/>
       <c r="G19" s="195"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" s="195"/>
       <c r="C20" s="195"/>
       <c r="E20" s="195"/>
@@ -14824,11 +14807,11 @@
   </sheetPr>
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" style="2" customWidth="1"/>
     <col min="2" max="2" width="34.140625" style="2" customWidth="1"/>
@@ -14842,7 +14825,7 @@
     <col min="16356" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1">
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="159"/>
       <c r="B1" s="160" t="s">
         <v>363</v>
@@ -14857,7 +14840,7 @@
       <c r="G1"/>
       <c r="H1"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="162" t="s">
         <v>366</v>
       </c>
@@ -14874,7 +14857,7 @@
       <c r="G2"/>
       <c r="H2"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="164" t="s">
         <v>370</v>
       </c>
@@ -14891,7 +14874,7 @@
       <c r="G3"/>
       <c r="H3"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="164" t="s">
         <v>373</v>
       </c>
@@ -14908,7 +14891,7 @@
       <c r="G4"/>
       <c r="H4"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="164" t="s">
         <v>376</v>
       </c>
@@ -14925,7 +14908,7 @@
       <c r="G5"/>
       <c r="H5"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="165"/>
       <c r="B6" s="172" t="s">
         <v>326</v>
@@ -14938,7 +14921,7 @@
       <c r="G6" s="1"/>
       <c r="H6"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="165"/>
       <c r="B7" s="172" t="s">
         <v>328</v>
@@ -14951,7 +14934,7 @@
       <c r="G7" s="1"/>
       <c r="H7"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="165"/>
       <c r="B8" s="172" t="s">
         <v>397</v>
@@ -14964,7 +14947,7 @@
       <c r="G8"/>
       <c r="H8"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="165"/>
       <c r="B9" t="s">
         <v>398</v>
@@ -14977,7 +14960,7 @@
       <c r="G9"/>
       <c r="H9"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="165"/>
       <c r="B10" t="s">
         <v>399</v>
@@ -14990,7 +14973,7 @@
       <c r="G10"/>
       <c r="H10"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="165"/>
       <c r="B11" s="1" t="s">
         <v>400</v>
@@ -15003,7 +14986,7 @@
       <c r="G11" s="1"/>
       <c r="H11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="164" t="s">
         <v>387</v>
       </c>
@@ -15020,7 +15003,7 @@
       <c r="G12"/>
       <c r="H12"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="165"/>
       <c r="B13" s="172" t="s">
         <v>402</v>
@@ -15035,7 +15018,7 @@
       <c r="G13"/>
       <c r="H13"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="165"/>
       <c r="B14" s="172" t="s">
         <v>404</v>
@@ -15048,7 +15031,7 @@
       <c r="G14"/>
       <c r="H14"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="165"/>
       <c r="B15" s="2" t="s">
         <v>171</v>
@@ -15061,7 +15044,7 @@
       <c r="G15"/>
       <c r="H15"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="165"/>
       <c r="B16" s="2" t="s">
         <v>174</v>
@@ -15074,7 +15057,7 @@
       <c r="G16"/>
       <c r="H16"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="165"/>
       <c r="B17" s="2" t="s">
         <v>176</v>
@@ -15087,7 +15070,7 @@
       <c r="G17"/>
       <c r="H17"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="165"/>
       <c r="B18" t="s">
         <v>405</v>
@@ -15100,7 +15083,7 @@
       <c r="G18"/>
       <c r="H18"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="165"/>
       <c r="B19" s="2" t="s">
         <v>406</v>
@@ -15113,7 +15096,7 @@
       <c r="G19"/>
       <c r="H19"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="165"/>
       <c r="B20" s="2" t="s">
         <v>407</v>
@@ -15126,7 +15109,7 @@
       <c r="G20"/>
       <c r="H20"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="165"/>
       <c r="B21" s="2" t="s">
         <v>386</v>
@@ -15139,7 +15122,7 @@
       <c r="G21"/>
       <c r="H21"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="165"/>
       <c r="B22" s="2" t="s">
         <v>388</v>
@@ -15152,7 +15135,7 @@
       <c r="G22"/>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="165"/>
       <c r="B23" s="2" t="s">
         <v>216</v>
@@ -15165,7 +15148,7 @@
       <c r="G23"/>
       <c r="H23"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="165"/>
       <c r="B24" s="2" t="s">
         <v>220</v>
@@ -15178,7 +15161,7 @@
       <c r="G24"/>
       <c r="H24"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="165"/>
       <c r="B25" s="2" t="s">
         <v>227</v>
@@ -15191,7 +15174,7 @@
       <c r="G25"/>
       <c r="H25"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="165"/>
       <c r="B26" s="172" t="s">
         <v>408</v>
@@ -15206,7 +15189,7 @@
       <c r="G26"/>
       <c r="H26"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="165"/>
       <c r="B27" s="172" t="s">
         <v>410</v>
@@ -15221,7 +15204,7 @@
       <c r="G27"/>
       <c r="H27"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="165"/>
       <c r="B28" s="172" t="s">
         <v>412</v>
@@ -15234,7 +15217,7 @@
       <c r="G28"/>
       <c r="H28"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="165"/>
       <c r="B29" s="38" t="s">
         <v>413</v>
@@ -15250,7 +15233,7 @@
       <c r="G29"/>
       <c r="H29"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="165"/>
       <c r="B30" s="38" t="s">
         <v>414</v>
@@ -15266,7 +15249,7 @@
       <c r="G30"/>
       <c r="H30"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="165"/>
       <c r="B31" t="s">
         <v>415</v>
@@ -15282,7 +15265,7 @@
       <c r="G31" s="172"/>
       <c r="H31"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="165"/>
       <c r="B32" t="s">
         <v>416</v>
@@ -15298,7 +15281,7 @@
       <c r="G32"/>
       <c r="H32"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="165"/>
       <c r="B33" s="38" t="s">
         <v>417</v>
@@ -15314,7 +15297,7 @@
       <c r="G33"/>
       <c r="H33"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="165"/>
       <c r="B34" t="s">
         <v>418</v>
@@ -15330,10 +15313,10 @@
       <c r="G34"/>
       <c r="H34"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="165"/>
-      <c r="B35" t="s">
-        <v>419</v>
+      <c r="B35" s="1" t="s">
+        <v>815</v>
       </c>
       <c r="C35" s="172" t="s">
         <v>391</v>
@@ -15346,10 +15329,10 @@
       <c r="G35"/>
       <c r="H35"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="165"/>
-      <c r="B36" t="s">
-        <v>420</v>
+      <c r="B36" s="1" t="s">
+        <v>816</v>
       </c>
       <c r="C36" s="172" t="s">
         <v>391</v>
@@ -15362,10 +15345,10 @@
       <c r="G36"/>
       <c r="H36"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="165"/>
       <c r="B37" s="38" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C37" s="172" t="s">
         <v>391</v>
@@ -15378,10 +15361,10 @@
       <c r="G37"/>
       <c r="H37"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="165"/>
       <c r="B38" s="38" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C38" s="172" t="s">
         <v>391</v>
@@ -15394,10 +15377,10 @@
       <c r="G38" s="1"/>
       <c r="H38"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="165"/>
       <c r="B39" s="38" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C39" s="172" t="s">
         <v>391</v>
@@ -15410,10 +15393,10 @@
       <c r="G39"/>
       <c r="H39"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="165"/>
       <c r="B40" s="38" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C40" s="172" t="s">
         <v>391</v>
@@ -15426,10 +15409,10 @@
       <c r="G40"/>
       <c r="H40"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="165"/>
       <c r="B41" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C41" s="172" t="s">
         <v>391</v>
@@ -15442,10 +15425,10 @@
       <c r="G41"/>
       <c r="H41"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="165"/>
       <c r="B42" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C42" s="172" t="s">
         <v>391</v>
@@ -15458,10 +15441,10 @@
       <c r="G42"/>
       <c r="H42"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="165"/>
       <c r="B43" s="38" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C43" s="172" t="s">
         <v>391</v>
@@ -15474,10 +15457,10 @@
       <c r="G43"/>
       <c r="H43"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="168"/>
       <c r="B44" s="38" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C44" s="200" t="s">
         <v>391</v>
@@ -15490,7 +15473,7 @@
       <c r="G44"/>
       <c r="H44"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F45" s="172"/>
     </row>
   </sheetData>
@@ -15529,7 +15512,7 @@
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" style="2" customWidth="1"/>
     <col min="2" max="2" width="34.140625" style="2" customWidth="1"/>
@@ -15541,7 +15524,7 @@
     <col min="16368" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1">
+    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="53"/>
       <c r="B1" s="66" t="s">
         <v>363</v>
@@ -15554,12 +15537,12 @@
       </c>
       <c r="E1" s="50"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="54" t="s">
         <v>366</v>
       </c>
       <c r="B2" s="172" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C2"/>
       <c r="D2" s="15">
@@ -15569,7 +15552,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="51" t="s">
         <v>370</v>
       </c>
@@ -15584,12 +15567,12 @@
         <v>372</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="51" t="s">
         <v>373</v>
       </c>
       <c r="B4" s="180" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C4" s="180"/>
       <c r="D4" s="15">
@@ -15599,7 +15582,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="51" t="s">
         <v>376</v>
       </c>
@@ -15614,10 +15597,10 @@
         <v>379</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="25"/>
       <c r="B6" s="28" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C6"/>
       <c r="D6" s="15">
@@ -15625,10 +15608,10 @@
       </c>
       <c r="E6" s="56"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="58" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C7"/>
       <c r="D7" s="15">
@@ -15636,10 +15619,10 @@
       </c>
       <c r="E7" s="56"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
       <c r="B8" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C8" s="67"/>
       <c r="D8" s="15">
@@ -15647,10 +15630,10 @@
       </c>
       <c r="E8" s="56"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
       <c r="B9" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C9"/>
       <c r="D9" s="15">
@@ -15658,10 +15641,10 @@
       </c>
       <c r="E9" s="56"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
       <c r="B10" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="15">
@@ -15669,7 +15652,7 @@
       </c>
       <c r="E10" s="56"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="25"/>
       <c r="B11" t="s">
         <v>173</v>
@@ -15680,12 +15663,12 @@
       </c>
       <c r="E11" s="56"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="51" t="s">
         <v>387</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="15">
@@ -15693,10 +15676,10 @@
       </c>
       <c r="E12" s="56"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
       <c r="B13" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="15">
@@ -15704,10 +15687,10 @@
       </c>
       <c r="E13" s="56"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
       <c r="B14" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="15">
@@ -15715,10 +15698,10 @@
       </c>
       <c r="E14" s="56"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
       <c r="B15" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="15">
@@ -15726,7 +15709,7 @@
       </c>
       <c r="E15" s="56"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
       <c r="B16" s="13" t="s">
         <v>252</v>
@@ -15737,10 +15720,10 @@
       </c>
       <c r="E16" s="56"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="25"/>
       <c r="B17" s="13" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="15">
@@ -15748,23 +15731,23 @@
       </c>
       <c r="E17" s="56"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="25"/>
       <c r="B18" s="202" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C18" s="68" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D18" s="57">
         <v>1</v>
       </c>
       <c r="E18" s="56"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="25"/>
       <c r="B19" s="69" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C19" s="69"/>
       <c r="D19" s="15">
@@ -15772,10 +15755,10 @@
       </c>
       <c r="E19" s="56"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
       <c r="B20" s="203" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C20" s="203"/>
       <c r="D20" s="15">
@@ -15783,10 +15766,10 @@
       </c>
       <c r="E20" s="56"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="25"/>
       <c r="B21" s="67" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C21" s="67"/>
       <c r="D21" s="15">
@@ -15794,10 +15777,10 @@
       </c>
       <c r="E21" s="56"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
       <c r="B22" s="203" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C22" s="203"/>
       <c r="D22" s="15">
@@ -15805,10 +15788,10 @@
       </c>
       <c r="E22" s="56"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="67" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C23" s="67"/>
       <c r="D23" s="15">
@@ -15816,10 +15799,10 @@
       </c>
       <c r="E23" s="56"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="25"/>
       <c r="B24" s="70" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C24" s="70"/>
       <c r="D24" s="15">
@@ -15827,10 +15810,10 @@
       </c>
       <c r="E24" s="56"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="25"/>
       <c r="B25" s="38" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C25" s="70"/>
       <c r="D25" s="15">
@@ -15838,10 +15821,10 @@
       </c>
       <c r="E25" s="56"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="25"/>
       <c r="B26" s="70" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C26" s="67"/>
       <c r="D26" s="15">
@@ -15849,23 +15832,23 @@
       </c>
       <c r="E26" s="56"/>
     </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1">
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="25"/>
       <c r="B27" s="64"/>
       <c r="C27" s="64"/>
       <c r="D27" s="195"/>
       <c r="E27" s="56"/>
     </row>
-    <row r="28" spans="1:5" ht="18.75">
+    <row r="28" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="25"/>
       <c r="B28" s="21" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C28" s="22"/>
       <c r="D28" s="46"/>
       <c r="E28" s="56"/>
     </row>
-    <row r="29" spans="1:5" ht="30" customHeight="1">
+    <row r="29" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="25"/>
       <c r="B29" s="23" t="s">
         <v>363</v>
@@ -15878,7 +15861,7 @@
       </c>
       <c r="E29" s="56"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="25"/>
       <c r="B30" s="20" t="s">
         <v>344</v>
@@ -15889,10 +15872,10 @@
       </c>
       <c r="E30" s="56"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="25"/>
       <c r="B31" s="20" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C31"/>
       <c r="D31" s="47">
@@ -15900,10 +15883,10 @@
       </c>
       <c r="E31" s="56"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="25"/>
       <c r="B32" s="20" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="47">
@@ -15911,10 +15894,10 @@
       </c>
       <c r="E32" s="56"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
       <c r="B33" s="24" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C33" s="67"/>
       <c r="D33" s="47">
@@ -15922,7 +15905,7 @@
       </c>
       <c r="E33" s="56"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="25"/>
       <c r="B34" s="17" t="s">
         <v>346</v>
@@ -15933,7 +15916,7 @@
       </c>
       <c r="E34" s="56"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="25"/>
       <c r="B35" s="26" t="s">
         <v>349</v>
@@ -15944,7 +15927,7 @@
       </c>
       <c r="E35" s="56"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="25"/>
       <c r="B36" s="27" t="s">
         <v>351</v>
@@ -15955,7 +15938,7 @@
       </c>
       <c r="E36" s="56"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="25"/>
       <c r="B37" s="17" t="s">
         <v>353</v>
@@ -15966,10 +15949,10 @@
       </c>
       <c r="E37" s="56"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="25"/>
       <c r="B38" s="20" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="47">
@@ -15977,7 +15960,7 @@
       </c>
       <c r="E38" s="56"/>
     </row>
-    <row r="39" spans="1:5" ht="15.75" thickBot="1">
+    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="61"/>
       <c r="B39" s="43" t="s">
         <v>358</v>
@@ -16022,7 +16005,7 @@
       <selection activeCell="B30" sqref="B30:B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" style="2" customWidth="1"/>
     <col min="2" max="2" width="34.140625" style="2" customWidth="1"/>
@@ -16034,7 +16017,7 @@
     <col min="16368" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1">
+    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="53"/>
       <c r="B1" s="10" t="s">
         <v>363</v>
@@ -16047,7 +16030,7 @@
       </c>
       <c r="E1" s="50"/>
     </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1">
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="54" t="s">
         <v>366</v>
       </c>
@@ -16061,12 +16044,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="51" t="s">
         <v>370</v>
       </c>
       <c r="B3" s="172" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C3" s="172"/>
       <c r="D3" s="15">
@@ -16076,7 +16059,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="51" t="s">
         <v>373</v>
       </c>
@@ -16091,7 +16074,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="51" t="s">
         <v>376</v>
       </c>
@@ -16106,7 +16089,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="25"/>
       <c r="B6" s="45" t="s">
         <v>311</v>
@@ -16119,23 +16102,23 @@
       </c>
       <c r="E6" s="56"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="13" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C7" s="172" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D7" s="186">
         <v>28</v>
       </c>
       <c r="E7" s="56"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
       <c r="B8" s="172" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C8" s="172"/>
       <c r="D8" s="15">
@@ -16143,17 +16126,17 @@
       </c>
       <c r="E8" s="56"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
       <c r="B9" s="38" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D9" s="15">
         <v>3</v>
       </c>
       <c r="E9" s="56"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
       <c r="B10" s="172" t="s">
         <v>243</v>
@@ -16164,10 +16147,10 @@
       </c>
       <c r="E10" s="56"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="25"/>
       <c r="B11" s="182" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C11" s="172"/>
       <c r="D11" s="15">
@@ -16175,7 +16158,7 @@
       </c>
       <c r="E11" s="56"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="51" t="s">
         <v>387</v>
       </c>
@@ -16188,27 +16171,27 @@
       </c>
       <c r="E12" s="56"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
       <c r="B13" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D13" s="15">
         <v>3</v>
       </c>
       <c r="E13" s="56"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
       <c r="B14" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D14" s="15">
         <v>27</v>
       </c>
       <c r="E14" s="56"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
       <c r="B15" s="2" t="s">
         <v>174</v>
@@ -16218,7 +16201,7 @@
       </c>
       <c r="E15" s="56"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
       <c r="B16" s="2" t="s">
         <v>176</v>
@@ -16228,7 +16211,7 @@
       </c>
       <c r="E16" s="56"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="25"/>
       <c r="B17" s="2" t="s">
         <v>405</v>
@@ -16238,37 +16221,37 @@
       </c>
       <c r="E17" s="56"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="25"/>
       <c r="B18" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D18" s="15">
         <v>3</v>
       </c>
       <c r="E18" s="56"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="25"/>
       <c r="B19" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D19" s="15">
         <v>3</v>
       </c>
       <c r="E19" s="56"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
       <c r="B20" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D20" s="15">
         <v>3</v>
       </c>
       <c r="E20" s="56"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="25"/>
       <c r="B21" s="2" t="s">
         <v>200</v>
@@ -16278,7 +16261,7 @@
       </c>
       <c r="E21" s="56"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
       <c r="B22" s="2" t="s">
         <v>406</v>
@@ -16288,7 +16271,7 @@
       </c>
       <c r="E22" s="56"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="2" t="s">
         <v>386</v>
@@ -16298,7 +16281,7 @@
       </c>
       <c r="E23" s="56"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="25"/>
       <c r="B24" s="172" t="s">
         <v>388</v>
@@ -16309,7 +16292,7 @@
       </c>
       <c r="E24" s="56"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="25"/>
       <c r="B25" s="172" t="s">
         <v>216</v>
@@ -16320,7 +16303,7 @@
       </c>
       <c r="E25" s="56"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="25"/>
       <c r="B26" s="2" t="s">
         <v>218</v>
@@ -16330,100 +16313,100 @@
       </c>
       <c r="E26" s="56"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="25"/>
       <c r="B27" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D27" s="15">
         <v>3</v>
       </c>
       <c r="E27" s="56"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="25"/>
       <c r="B28" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D28" s="15">
         <v>3</v>
       </c>
       <c r="E28" s="56"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="25"/>
       <c r="B29" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D29" s="15">
         <v>3</v>
       </c>
       <c r="E29" s="56"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="25"/>
       <c r="B30" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D30" s="15">
         <v>1</v>
       </c>
       <c r="E30" s="56"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="25"/>
       <c r="B31" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D31" s="15">
         <v>1</v>
       </c>
       <c r="E31" s="56"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="25"/>
       <c r="B32" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D32" s="15">
         <v>1</v>
       </c>
       <c r="E32" s="56"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
       <c r="B33" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D33" s="15">
         <v>2</v>
       </c>
       <c r="E33" s="56"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="25"/>
       <c r="B34" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D34" s="15">
         <v>1</v>
       </c>
       <c r="E34" s="56"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="25"/>
       <c r="B35" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D35" s="15">
         <v>1</v>
       </c>
       <c r="E35" s="56"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="25"/>
       <c r="B36" s="172" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C36" s="172"/>
       <c r="D36" s="15">
@@ -16431,80 +16414,80 @@
       </c>
       <c r="E36" s="56"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="25"/>
       <c r="B37" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D37" s="15">
         <v>1</v>
       </c>
       <c r="E37" s="56"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="25"/>
       <c r="B38" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D38" s="15">
         <v>1</v>
       </c>
       <c r="E38" s="56"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="25"/>
       <c r="B39" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D39" s="15">
         <v>1</v>
       </c>
       <c r="E39" s="56"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="25"/>
       <c r="B40" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D40" s="15">
         <v>1</v>
       </c>
       <c r="E40" s="56"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="25"/>
       <c r="B41" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D41" s="15">
         <v>3</v>
       </c>
       <c r="E41" s="56"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="25"/>
       <c r="B42" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D42" s="15">
         <v>1</v>
       </c>
       <c r="E42" s="56"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="25"/>
       <c r="B43" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D43" s="15">
         <v>1</v>
       </c>
       <c r="E43" s="56"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75" thickBot="1">
+    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="61"/>
       <c r="B44" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D44" s="15">
         <v>1</v>
@@ -16544,7 +16527,7 @@
       <selection activeCell="B33" sqref="B33:B74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" style="2" customWidth="1"/>
     <col min="2" max="2" width="34.140625" style="2" customWidth="1"/>
@@ -16556,7 +16539,7 @@
     <col min="16345" max="16384" width="3.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1">
+    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="53"/>
       <c r="B1" s="66" t="s">
         <v>363</v>
@@ -16569,7 +16552,7 @@
       </c>
       <c r="E1" s="50"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="54" t="s">
         <v>366</v>
       </c>
@@ -16584,12 +16567,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="51" t="s">
         <v>370</v>
       </c>
       <c r="B3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C3" s="172"/>
       <c r="D3" s="15">
@@ -16599,7 +16582,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="51" t="s">
         <v>373</v>
       </c>
@@ -16614,12 +16597,12 @@
         <v>375</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="51" t="s">
         <v>376</v>
       </c>
       <c r="B5" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C5" s="172"/>
       <c r="D5" s="15">
@@ -16629,10 +16612,10 @@
         <v>379</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="25"/>
       <c r="B6" s="172" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C6" s="172"/>
       <c r="D6" s="15">
@@ -16640,10 +16623,10 @@
       </c>
       <c r="E6" s="56"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="172" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C7" s="172"/>
       <c r="D7" s="15">
@@ -16651,10 +16634,10 @@
       </c>
       <c r="E7" s="56"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
       <c r="B8" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C8" s="172"/>
       <c r="D8" s="15">
@@ -16662,10 +16645,10 @@
       </c>
       <c r="E8" s="56"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
       <c r="B9" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C9" s="172"/>
       <c r="D9" s="15">
@@ -16673,23 +16656,23 @@
       </c>
       <c r="E9" s="56"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
       <c r="B10" s="13" t="s">
         <v>308</v>
       </c>
       <c r="C10" s="185" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D10" s="15">
         <v>2</v>
       </c>
       <c r="E10" s="56"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="25"/>
       <c r="B11" s="13" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C11" s="172"/>
       <c r="D11" s="15">
@@ -16697,7 +16680,7 @@
       </c>
       <c r="E11" s="56"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="25"/>
       <c r="B12" s="172" t="s">
         <v>97</v>
@@ -16708,7 +16691,7 @@
       </c>
       <c r="E12" s="56"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="51" t="s">
         <v>387</v>
       </c>
@@ -16721,10 +16704,10 @@
       </c>
       <c r="E13" s="56"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
       <c r="B14" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="15">
@@ -16732,10 +16715,10 @@
       </c>
       <c r="E14" s="56"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
       <c r="B15" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="15">
@@ -16743,10 +16726,10 @@
       </c>
       <c r="E15" s="56"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
       <c r="B16" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C16" s="172"/>
       <c r="D16" s="15">
@@ -16754,10 +16737,10 @@
       </c>
       <c r="E16" s="56"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="25"/>
       <c r="B17" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C17" s="172"/>
       <c r="D17" s="15">
@@ -16765,7 +16748,7 @@
       </c>
       <c r="E17" s="56"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="25"/>
       <c r="B18" s="65" t="s">
         <v>178</v>
@@ -16776,10 +16759,10 @@
       </c>
       <c r="E18" s="56"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="25"/>
       <c r="B19" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C19" s="172"/>
       <c r="D19" s="15">
@@ -16787,10 +16770,10 @@
       </c>
       <c r="E19" s="56"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
       <c r="B20" s="172" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C20" s="172"/>
       <c r="D20" s="15">
@@ -16798,10 +16781,10 @@
       </c>
       <c r="E20" s="56"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="25"/>
       <c r="B21" s="172" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C21" s="172"/>
       <c r="D21" s="15">
@@ -16809,7 +16792,7 @@
       </c>
       <c r="E21" s="56"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
       <c r="B22" s="28" t="s">
         <v>192</v>
@@ -16820,10 +16803,10 @@
       </c>
       <c r="E22" s="56"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C23" s="172"/>
       <c r="D23" s="15">
@@ -16831,7 +16814,7 @@
       </c>
       <c r="E23" s="56"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="25"/>
       <c r="B24" s="28" t="s">
         <v>198</v>
@@ -16842,7 +16825,7 @@
       </c>
       <c r="E24" s="56"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="25"/>
       <c r="B25" s="28" t="s">
         <v>204</v>
@@ -16853,10 +16836,10 @@
       </c>
       <c r="E25" s="56"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="25"/>
       <c r="B26" s="172" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C26" s="172"/>
       <c r="D26" s="15">
@@ -16864,7 +16847,7 @@
       </c>
       <c r="E26" s="56"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="25"/>
       <c r="B27" s="172" t="s">
         <v>208</v>
@@ -16875,7 +16858,7 @@
       </c>
       <c r="E27" s="56"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="25"/>
       <c r="B28" s="2" t="s">
         <v>386</v>
@@ -16886,7 +16869,7 @@
       </c>
       <c r="E28" s="56"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="25"/>
       <c r="B29" s="2" t="s">
         <v>388</v>
@@ -16897,7 +16880,7 @@
       </c>
       <c r="E29" s="56"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="25"/>
       <c r="B30" s="2" t="s">
         <v>216</v>
@@ -16908,10 +16891,10 @@
       </c>
       <c r="E30" s="56"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="25"/>
       <c r="B31" s="172" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C31" s="172"/>
       <c r="D31" s="15">
@@ -16919,10 +16902,10 @@
       </c>
       <c r="E31" s="56"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="25"/>
       <c r="B32" s="172" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C32" s="172"/>
       <c r="D32" s="15">
@@ -16930,546 +16913,546 @@
       </c>
       <c r="E32" s="56"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
       <c r="B33" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D33" s="15">
         <v>1</v>
       </c>
       <c r="E33" s="56"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="25"/>
       <c r="B34" s="172" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C34" s="172" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D34" s="15">
         <v>1</v>
       </c>
       <c r="E34" s="56"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="25"/>
       <c r="B35" s="172" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D35" s="15">
         <v>2</v>
       </c>
       <c r="E35" s="56"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="25"/>
       <c r="B36" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D36" s="15">
         <v>1</v>
       </c>
       <c r="E36" s="56"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="25"/>
       <c r="B37" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D37" s="15">
         <v>1</v>
       </c>
       <c r="E37" s="56"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="25"/>
       <c r="B38" s="202" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C38" s="202" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D38" s="57">
         <v>1</v>
       </c>
       <c r="E38" s="56"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="25"/>
       <c r="B39" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D39" s="15">
         <v>4</v>
       </c>
       <c r="E39" s="56"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="25"/>
       <c r="B40" s="172" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D40" s="15">
         <v>2</v>
       </c>
       <c r="E40" s="56"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="25"/>
       <c r="B41" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D41" s="15">
         <v>1</v>
       </c>
       <c r="E41" s="56"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="25"/>
       <c r="B42" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D42" s="15">
         <v>1</v>
       </c>
       <c r="E42" s="56"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="25"/>
       <c r="B43" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D43" s="15">
         <v>2</v>
       </c>
       <c r="E43" s="56"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="25"/>
       <c r="B44" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D44" s="15">
         <v>1</v>
       </c>
       <c r="E44" s="56"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="25"/>
       <c r="B45" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D45" s="15">
         <v>1</v>
       </c>
       <c r="E45" s="56"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="25"/>
       <c r="B46" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D46" s="15">
         <v>1</v>
       </c>
       <c r="E46" s="56"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="25"/>
       <c r="B47" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D47" s="15">
         <v>1</v>
       </c>
       <c r="E47" s="56"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="25"/>
       <c r="B48" s="172" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D48" s="15">
         <v>1</v>
       </c>
       <c r="E48" s="56"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="25"/>
       <c r="B49" s="172" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D49" s="15">
         <v>1</v>
       </c>
       <c r="E49" s="56"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="25"/>
       <c r="B50" s="172" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D50" s="15">
         <v>1</v>
       </c>
       <c r="E50" s="56"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="25"/>
       <c r="B51" s="172" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D51" s="15">
         <v>1</v>
       </c>
       <c r="E51" s="56"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="25"/>
       <c r="B52" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D52" s="15">
         <v>1</v>
       </c>
       <c r="E52" s="56"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="25"/>
       <c r="B53" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D53" s="15">
         <v>1</v>
       </c>
       <c r="E53" s="56"/>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="25"/>
       <c r="B54" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D54" s="15">
         <v>1</v>
       </c>
       <c r="E54" s="56"/>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="25"/>
       <c r="B55" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D55" s="15">
         <v>1</v>
       </c>
       <c r="E55" s="56"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="25"/>
       <c r="B56" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D56" s="15">
         <v>1</v>
       </c>
       <c r="E56" s="56"/>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="25"/>
       <c r="B57" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D57" s="15">
         <v>1</v>
       </c>
       <c r="E57" s="56"/>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="25"/>
       <c r="B58" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D58" s="15">
         <v>1</v>
       </c>
       <c r="E58" s="56"/>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="25"/>
       <c r="B59" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D59" s="15">
         <v>1</v>
       </c>
       <c r="E59" s="56"/>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="25"/>
       <c r="B60" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D60" s="15">
         <v>1</v>
       </c>
       <c r="E60" s="56"/>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="25"/>
       <c r="B61" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D61" s="15">
         <v>2</v>
       </c>
       <c r="E61" s="56"/>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="25"/>
       <c r="B62" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D62" s="15">
         <v>1</v>
       </c>
       <c r="E62" s="56"/>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="25"/>
       <c r="B63" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D63" s="15">
         <v>1</v>
       </c>
       <c r="E63" s="56"/>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="25"/>
       <c r="B64" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D64" s="15">
         <v>1</v>
       </c>
       <c r="E64" s="56"/>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="25"/>
       <c r="B65" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D65" s="15">
         <v>1</v>
       </c>
       <c r="E65" s="56"/>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="25"/>
       <c r="B66" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D66" s="15">
         <v>1</v>
       </c>
       <c r="E66" s="56"/>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="25"/>
       <c r="B67" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D67" s="15">
         <v>1</v>
       </c>
       <c r="E67" s="56"/>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="25"/>
       <c r="B68" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D68" s="15">
         <v>1</v>
       </c>
       <c r="E68" s="56"/>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="25"/>
       <c r="B69" s="172" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D69" s="15">
         <v>6</v>
       </c>
       <c r="E69" s="56"/>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="25"/>
       <c r="B70" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D70" s="15">
         <v>1</v>
       </c>
       <c r="E70" s="56"/>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="25"/>
       <c r="B71" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C71" s="172" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D71" s="15">
         <v>1</v>
       </c>
       <c r="E71" s="56"/>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="25"/>
       <c r="B72" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C72" s="172" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D72" s="15">
         <v>1</v>
       </c>
       <c r="E72" s="56"/>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="25"/>
       <c r="B73" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D73" s="15">
         <v>2</v>
       </c>
       <c r="E73" s="56"/>
     </row>
-    <row r="74" spans="1:5" ht="15.75" thickBot="1">
+    <row r="74" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="61"/>
       <c r="B74" s="52" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C74" s="52" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D74" s="62">
         <v>1</v>
@@ -17509,7 +17492,7 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" style="2" customWidth="1"/>
     <col min="2" max="2" width="34.140625" style="2" customWidth="1"/>
@@ -17521,7 +17504,7 @@
     <col min="16366" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1">
+    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="53"/>
       <c r="B1" s="10" t="s">
         <v>363</v>
@@ -17534,24 +17517,24 @@
       </c>
       <c r="E1" s="50"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="54" t="s">
         <v>366</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>546</v>
+      </c>
+      <c r="C2" s="204" t="s">
+        <v>547</v>
+      </c>
+      <c r="D2" s="206" t="s">
         <v>548</v>
-      </c>
-      <c r="C2" s="204" t="s">
-        <v>549</v>
-      </c>
-      <c r="D2" s="206" t="s">
-        <v>550</v>
       </c>
       <c r="E2" s="55" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="51" t="s">
         <v>370</v>
       </c>
@@ -17559,7 +17542,7 @@
         <v>151</v>
       </c>
       <c r="C3" s="172" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D3" s="172">
         <v>1</v>
@@ -17568,15 +17551,15 @@
         <v>372</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="51" t="s">
         <v>373</v>
       </c>
       <c r="B4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C4" s="172" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D4" s="172">
         <v>4</v>
@@ -17585,7 +17568,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="51" t="s">
         <v>376</v>
       </c>
@@ -17593,7 +17576,7 @@
         <v>321</v>
       </c>
       <c r="C5" s="172" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D5" s="172">
         <v>3</v>
@@ -17602,85 +17585,85 @@
         <v>379</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="25"/>
       <c r="B6" s="13" t="s">
         <v>334</v>
       </c>
       <c r="C6" s="172" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D6" s="172">
         <v>1</v>
       </c>
       <c r="E6" s="56"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="172" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C7" s="172" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D7" s="2">
         <v>2</v>
       </c>
       <c r="E7" s="56"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
       <c r="B8" s="172" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C8" s="172" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D8" s="172">
         <v>1</v>
       </c>
       <c r="E8" s="56"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
       <c r="B9" s="188" t="s">
         <v>89</v>
       </c>
       <c r="C9" s="172" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D9" s="172">
         <v>1</v>
       </c>
       <c r="E9" s="56"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
       <c r="B10" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C10" s="172" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D10" s="172">
         <v>1</v>
       </c>
       <c r="E10" s="56"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="25"/>
       <c r="B11" s="28" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C11" s="172" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D11" s="172">
         <v>1</v>
       </c>
       <c r="E11" s="56"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="51" t="s">
         <v>387</v>
       </c>
@@ -17688,134 +17671,134 @@
         <v>173</v>
       </c>
       <c r="C12" s="172" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D12" s="172">
         <v>10</v>
       </c>
       <c r="E12" s="56"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
       <c r="B13" s="172" t="s">
         <v>176</v>
       </c>
       <c r="C13" s="172" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D13" s="172">
         <v>1</v>
       </c>
       <c r="E13" s="56"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
       <c r="B14" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C14" s="172" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D14" s="172">
         <v>2</v>
       </c>
       <c r="E14" s="56"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
       <c r="B15" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C15" s="172" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D15" s="172">
         <v>7</v>
       </c>
       <c r="E15" s="56"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
       <c r="B16" s="2" t="s">
         <v>194</v>
       </c>
       <c r="C16" s="172" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D16" s="172">
         <v>3</v>
       </c>
       <c r="E16" s="56"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="25"/>
       <c r="B17" s="172" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C17" s="172" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D17" s="2">
         <v>2</v>
       </c>
       <c r="E17" s="56"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="25"/>
       <c r="B18" s="172" t="s">
         <v>206</v>
       </c>
       <c r="C18" s="172" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D18" s="172">
         <v>1</v>
       </c>
       <c r="E18" s="56"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="25"/>
       <c r="B19" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C19" s="172" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D19" s="172">
         <v>2</v>
       </c>
       <c r="E19" s="56"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
       <c r="B20" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C20" s="172" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D20" s="172">
         <v>2</v>
       </c>
       <c r="E20" s="56"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="25"/>
       <c r="B21" s="172" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C21" s="172" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
       </c>
       <c r="E21" s="56"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
       <c r="B22" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C22" s="172" t="s">
         <v>391</v>
@@ -17825,10 +17808,10 @@
       </c>
       <c r="E22" s="56"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C23" s="172" t="s">
         <v>391</v>
@@ -17838,10 +17821,10 @@
       </c>
       <c r="E23" s="56"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="25"/>
       <c r="B24" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C24" s="172" t="s">
         <v>391</v>
@@ -17851,10 +17834,10 @@
       </c>
       <c r="E24" s="56"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="25"/>
       <c r="B25" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C25" s="172" t="s">
         <v>391</v>
@@ -17864,10 +17847,10 @@
       </c>
       <c r="E25" s="56"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="25"/>
       <c r="B26" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C26" s="172" t="s">
         <v>391</v>
@@ -17877,10 +17860,10 @@
       </c>
       <c r="E26" s="56"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="25"/>
       <c r="B27" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C27" s="172" t="s">
         <v>391</v>
@@ -17890,10 +17873,10 @@
       </c>
       <c r="E27" s="56"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="25"/>
       <c r="B28" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C28" s="172" t="s">
         <v>391</v>
@@ -17903,10 +17886,10 @@
       </c>
       <c r="E28" s="56"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="25"/>
       <c r="B29" s="172" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C29" s="172" t="s">
         <v>391</v>
@@ -17916,23 +17899,23 @@
       </c>
       <c r="E29" s="56"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="25"/>
       <c r="B30" s="172" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C30" s="172" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
       </c>
       <c r="E30" s="56"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="25"/>
       <c r="B31" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C31" s="172" t="s">
         <v>391</v>
@@ -17942,88 +17925,88 @@
       </c>
       <c r="E31" s="56"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="25"/>
       <c r="B32" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C32" s="172" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D32" s="172">
         <v>2</v>
       </c>
       <c r="E32" s="56"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
       <c r="B33" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C33" s="172" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D33" s="172">
         <v>2</v>
       </c>
       <c r="E33" s="56"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="25"/>
       <c r="B34" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C34" s="172" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D34" s="172">
         <v>2</v>
       </c>
       <c r="E34" s="56"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="25"/>
       <c r="B35" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C35" s="172" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D35" s="172">
         <v>2</v>
       </c>
       <c r="E35" s="56"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="25"/>
       <c r="B36" s="172" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C36" s="172" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D36" s="172">
         <v>2</v>
       </c>
       <c r="E36" s="56"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="25"/>
       <c r="B37" s="172" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C37" s="172" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D37" s="172">
         <v>2</v>
       </c>
       <c r="E37" s="56"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="25"/>
       <c r="B38" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C38" s="172" t="s">
         <v>391</v>
@@ -18033,10 +18016,10 @@
       </c>
       <c r="E38" s="56"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="25"/>
       <c r="B39" s="172" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C39" s="172" t="s">
         <v>391</v>
@@ -18046,10 +18029,10 @@
       </c>
       <c r="E39" s="56"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="25"/>
       <c r="B40" s="172" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C40" s="172" t="s">
         <v>391</v>
@@ -18059,10 +18042,10 @@
       </c>
       <c r="E40" s="56"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="25"/>
       <c r="B41" s="172" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C41" s="172" t="s">
         <v>391</v>
@@ -18072,10 +18055,10 @@
       </c>
       <c r="E41" s="56"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="25"/>
       <c r="B42" s="172" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C42" s="172" t="s">
         <v>391</v>
@@ -18085,10 +18068,10 @@
       </c>
       <c r="E42" s="56"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="25"/>
       <c r="B43" s="172" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C43" s="172" t="s">
         <v>391</v>
@@ -18098,10 +18081,10 @@
       </c>
       <c r="E43" s="56"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75" thickBot="1">
+    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="61"/>
       <c r="B44" s="172" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C44" s="172" t="s">
         <v>391</v>
@@ -18111,7 +18094,7 @@
       </c>
       <c r="E44" s="63"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C45" s="195"/>
     </row>
   </sheetData>
@@ -18147,7 +18130,7 @@
       <selection activeCell="B15" sqref="B15:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" style="2" customWidth="1"/>
     <col min="2" max="2" width="34.140625" style="2" customWidth="1"/>
@@ -18159,7 +18142,7 @@
     <col min="16362" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1">
+    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="53"/>
       <c r="B1" s="66" t="s">
         <v>363</v>
@@ -18172,12 +18155,12 @@
       </c>
       <c r="E1" s="50"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="54" t="s">
         <v>366</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C2" s="172"/>
       <c r="D2" s="172">
@@ -18187,7 +18170,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="51" t="s">
         <v>370</v>
       </c>
@@ -18201,12 +18184,12 @@
         <v>372</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="51" t="s">
         <v>373</v>
       </c>
       <c r="B4" s="172" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C4" s="172"/>
       <c r="D4" s="172">
@@ -18216,7 +18199,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="51" t="s">
         <v>376</v>
       </c>
@@ -18231,20 +18214,20 @@
         <v>379</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="25"/>
       <c r="B6" s="187" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D6" s="172">
         <v>1</v>
       </c>
       <c r="E6" s="56"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="172" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C7" s="172"/>
       <c r="D7" s="172">
@@ -18252,7 +18235,7 @@
       </c>
       <c r="E7" s="56"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
       <c r="B8" t="s">
         <v>158</v>
@@ -18263,7 +18246,7 @@
       </c>
       <c r="E8" s="56"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
       <c r="B9" t="s">
         <v>165</v>
@@ -18273,27 +18256,27 @@
       </c>
       <c r="E9" s="56"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
       <c r="B10" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D10" s="172">
         <v>4</v>
       </c>
       <c r="E10" s="56"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="25"/>
       <c r="B11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D11" s="172">
         <v>4</v>
       </c>
       <c r="E11" s="56"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="51" t="s">
         <v>387</v>
       </c>
@@ -18305,7 +18288,7 @@
       </c>
       <c r="E12" s="56"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
       <c r="B13" s="1" t="s">
         <v>388</v>
@@ -18315,7 +18298,7 @@
       </c>
       <c r="E13" s="56"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
       <c r="B14" s="2" t="s">
         <v>216</v>
@@ -18325,40 +18308,40 @@
       </c>
       <c r="E14" s="56"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
       <c r="B15" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D15" s="172">
         <v>1</v>
       </c>
       <c r="E15" s="56"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
       <c r="B16" s="182" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D16" s="172">
         <v>1</v>
       </c>
       <c r="E16" s="56"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="25"/>
       <c r="B17" s="28" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D17" s="172">
         <v>1</v>
       </c>
       <c r="E17" s="56"/>
     </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1">
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="61"/>
       <c r="B18" s="52" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C18" s="52"/>
       <c r="D18" s="207">
@@ -18400,7 +18383,7 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" style="2" customWidth="1"/>
     <col min="2" max="2" width="34.140625" style="2" customWidth="1"/>
@@ -18412,7 +18395,7 @@
     <col min="16240" max="16384" width="10.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1">
+    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="53"/>
       <c r="B1" s="19" t="s">
         <v>363</v>
@@ -18425,15 +18408,15 @@
       </c>
       <c r="E1" s="50"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="54" t="s">
         <v>366</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D2" s="15">
         <v>1</v>
@@ -18442,15 +18425,15 @@
         <v>369</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="51" t="s">
         <v>370</v>
       </c>
       <c r="B3" s="31" t="s">
+        <v>595</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>597</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>599</v>
       </c>
       <c r="D3" s="15">
         <v>1</v>
@@ -18459,15 +18442,15 @@
         <v>372</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="51" t="s">
         <v>373</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D4" s="15">
         <v>1</v>
@@ -18476,15 +18459,15 @@
         <v>375</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="51" t="s">
         <v>376</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C5" s="172" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D5" s="186">
         <v>2</v>
@@ -18493,85 +18476,85 @@
         <v>379</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="25"/>
       <c r="B6" s="208" t="s">
+        <v>599</v>
+      </c>
+      <c r="C6" s="172" t="s">
         <v>601</v>
-      </c>
-      <c r="C6" s="172" t="s">
-        <v>603</v>
       </c>
       <c r="D6" s="186">
         <v>5</v>
       </c>
       <c r="E6" s="56"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="20" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C7" s="172" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D7" s="186">
         <v>2</v>
       </c>
       <c r="E7" s="56"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
       <c r="B8" s="20" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C8" s="172" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D8" s="15">
         <v>2</v>
       </c>
       <c r="E8" s="56"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
       <c r="B9" s="209" t="s">
         <v>64</v>
       </c>
       <c r="C9" s="172" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D9" s="15">
         <v>1</v>
       </c>
       <c r="E9" s="56"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
       <c r="B10" s="30" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C10" s="172" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D10" s="186">
         <v>2</v>
       </c>
       <c r="E10" s="56"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="25"/>
       <c r="B11" s="30" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C11" s="172" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D11" s="15">
         <v>2</v>
       </c>
       <c r="E11" s="56"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="51" t="s">
         <v>387</v>
       </c>
@@ -18579,90 +18562,90 @@
         <v>71</v>
       </c>
       <c r="C12" s="172" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D12" s="15">
         <v>5</v>
       </c>
       <c r="E12" s="56"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
       <c r="B13" s="30" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C13" s="172" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D13" s="186">
         <v>2</v>
       </c>
       <c r="E13" s="56"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
       <c r="B14" s="30" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C14" s="172" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D14" s="186">
         <v>5</v>
       </c>
       <c r="E14" s="56"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
       <c r="B15" s="209" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C15" s="172" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D15" s="186">
         <v>5</v>
       </c>
       <c r="E15" s="56"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
       <c r="B16" s="209" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C16" s="172" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D16" s="186">
         <v>5</v>
       </c>
       <c r="E16" s="56"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="25"/>
       <c r="B17" s="202" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C17" s="202" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D17" s="57"/>
       <c r="E17" s="56"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="25"/>
       <c r="B18" s="172" t="s">
         <v>81</v>
       </c>
       <c r="C18" s="172" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D18" s="172">
         <v>1</v>
       </c>
       <c r="E18" s="56"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="25"/>
       <c r="B19" s="172" t="s">
         <v>87</v>
@@ -18672,17 +18655,17 @@
       </c>
       <c r="E19" s="56"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
       <c r="B20" s="58" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D20" s="15">
         <v>1</v>
       </c>
       <c r="E20" s="56"/>
     </row>
-    <row r="21" spans="1:5" ht="14.25" customHeight="1">
+    <row r="21" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25"/>
       <c r="B21" s="59" t="s">
         <v>102</v>
@@ -18693,7 +18676,7 @@
       </c>
       <c r="E21" s="56"/>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
       <c r="B22" s="59" t="s">
         <v>105</v>
@@ -18704,7 +18687,7 @@
       </c>
       <c r="E22" s="56"/>
     </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1">
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="59" t="s">
         <v>107</v>
@@ -18715,7 +18698,7 @@
       </c>
       <c r="E23" s="56"/>
     </row>
-    <row r="24" spans="1:5" ht="14.25" customHeight="1">
+    <row r="24" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25"/>
       <c r="B24" s="59" t="s">
         <v>109</v>
@@ -18726,7 +18709,7 @@
       </c>
       <c r="E24" s="56"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="25"/>
       <c r="B25" s="187" t="s">
         <v>115</v>
@@ -18736,7 +18719,7 @@
       </c>
       <c r="E25" s="56"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="25"/>
       <c r="B26" t="s">
         <v>158</v>
@@ -18747,7 +18730,7 @@
       </c>
       <c r="E26" s="56"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="25"/>
       <c r="B27" t="s">
         <v>165</v>
@@ -18758,10 +18741,10 @@
       </c>
       <c r="E27" s="56"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="25"/>
       <c r="B28" s="18" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C28" s="28"/>
       <c r="D28">
@@ -18769,10 +18752,10 @@
       </c>
       <c r="E28" s="56"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="25"/>
       <c r="B29" s="18" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C29" s="28"/>
       <c r="D29">
@@ -18780,7 +18763,7 @@
       </c>
       <c r="E29" s="56"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="25"/>
       <c r="B30" s="18" t="s">
         <v>208</v>
@@ -18791,7 +18774,7 @@
       </c>
       <c r="E30" s="56"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="25"/>
       <c r="B31" s="18" t="s">
         <v>386</v>
@@ -18802,7 +18785,7 @@
       </c>
       <c r="E31" s="56"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="25"/>
       <c r="B32" s="18" t="s">
         <v>388</v>
@@ -18813,7 +18796,7 @@
       </c>
       <c r="E32" s="56"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
       <c r="B33" s="18" t="s">
         <v>216</v>
@@ -18824,143 +18807,143 @@
       </c>
       <c r="E33" s="56"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="25"/>
       <c r="B34" s="209" t="s">
         <v>128</v>
       </c>
       <c r="C34" s="172" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D34" s="15">
         <v>2</v>
       </c>
       <c r="E34" s="56"/>
     </row>
-    <row r="35" spans="1:5" ht="15" customHeight="1">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="25"/>
       <c r="B35" s="209" t="s">
         <v>131</v>
       </c>
       <c r="C35" s="172" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D35" s="15">
         <v>1</v>
       </c>
       <c r="E35" s="56"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="25"/>
       <c r="B36" s="25" t="s">
         <v>133</v>
       </c>
       <c r="C36" s="172" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D36" s="15">
         <v>1</v>
       </c>
       <c r="E36" s="56"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="25"/>
       <c r="B37" s="209" t="s">
         <v>135</v>
       </c>
       <c r="C37" s="172" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D37" s="15">
         <v>1</v>
       </c>
       <c r="E37" s="56"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="25"/>
       <c r="B38" s="17" t="s">
         <v>138</v>
       </c>
       <c r="C38" s="172" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D38" s="172">
         <v>1</v>
       </c>
       <c r="E38" s="56"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="25"/>
       <c r="B39" s="209" t="s">
         <v>141</v>
       </c>
       <c r="C39" s="172" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D39" s="172">
         <v>1</v>
       </c>
       <c r="E39" s="56"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="25"/>
       <c r="B40" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C40" s="172" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D40" s="15">
         <v>3</v>
       </c>
       <c r="E40" s="56"/>
     </row>
-    <row r="41" spans="1:5" ht="16.5" customHeight="1">
+    <row r="41" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="25"/>
       <c r="B41" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C41" s="172" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D41" s="15">
         <v>1</v>
       </c>
       <c r="E41" s="56"/>
     </row>
-    <row r="42" spans="1:5" ht="16.5" customHeight="1">
+    <row r="42" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="25"/>
       <c r="B42" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C42" s="172" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D42" s="15">
         <v>1</v>
       </c>
       <c r="E42" s="56"/>
     </row>
-    <row r="43" spans="1:5" ht="16.5" customHeight="1">
+    <row r="43" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="25"/>
       <c r="B43" s="172" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C43" s="172" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D43" s="15">
         <v>2</v>
       </c>
       <c r="E43" s="56"/>
     </row>
-    <row r="44" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
+    <row r="44" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="61"/>
       <c r="B44" s="49" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C44" s="207" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D44" s="62">
         <v>1</v>

--- a/V2 BETA/BOM/Valkyrie V2 HT100 BOM Beta.xlsx
+++ b/V2 BETA/BOM/Valkyrie V2 HT100 BOM Beta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/V2 BETA/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1317" documentId="8_{5107759B-8870-48A8-933E-C4A7F6F41B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F358835-E5E1-44FE-8CC8-DF79A67D220E}"/>
+  <xr:revisionPtr revIDLastSave="1440" documentId="8_{5107759B-8870-48A8-933E-C4A7F6F41B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8E538AC-BCC9-41FF-81FD-C5A5320EF0B4}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="16440" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PARTS LIST" sheetId="43" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1587" uniqueCount="828">
   <si>
     <t>Type</t>
   </si>
@@ -1399,9 +1399,6 @@
     <t>V2 Toolhead Cover_1x</t>
   </si>
   <si>
-    <t>V2 Toolcarrier_1x</t>
-  </si>
-  <si>
     <t>V2 Tool Plate _1x</t>
   </si>
   <si>
@@ -1933,9 +1930,6 @@
     <t>Meters</t>
   </si>
   <si>
-    <t>Weight Ea</t>
-  </si>
-  <si>
     <t>Items</t>
   </si>
   <si>
@@ -1972,12 +1966,6 @@
     <t>PPA CF</t>
   </si>
   <si>
-    <t>PET CF</t>
-  </si>
-  <si>
-    <t>Needs annealing</t>
-  </si>
-  <si>
     <t>V2 Drybox</t>
   </si>
   <si>
@@ -2507,6 +2495,51 @@
   </si>
   <si>
     <t>V2 FlintZone Dock_1x</t>
+  </si>
+  <si>
+    <t>V2 Tools</t>
+  </si>
+  <si>
+    <t>V2 Blind Joint Drilling Jig_1x</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Add your price</t>
+  </si>
+  <si>
+    <t>V2 Tool Carrier_1x</t>
+  </si>
+  <si>
+    <t>Print Settings</t>
+  </si>
+  <si>
+    <t>Layer height</t>
+  </si>
+  <si>
+    <t>Shell in mm</t>
+  </si>
+  <si>
+    <t>Bottom Layers</t>
+  </si>
+  <si>
+    <t>Top Layers</t>
+  </si>
+  <si>
+    <t>Nozzle Size</t>
+  </si>
+  <si>
+    <t>Perimiters</t>
+  </si>
+  <si>
+    <t>Infill %</t>
+  </si>
+  <si>
+    <t>Infill Type</t>
+  </si>
+  <si>
+    <t>Grid or Gyroid</t>
   </si>
 </sst>
 </file>
@@ -2519,10 +2552,10 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="168" formatCode="_([$$-409]* #,##0_);_([$$-409]* \(#,##0\);_([$$-409]* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="170" formatCode="[$]hh:mm;@" x16r2:formatCode16="[$-en-150,1]hh:mm;@"/>
+    <numFmt numFmtId="178" formatCode="[h]:mm:ss;@"/>
   </numFmts>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2789,6 +2822,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -3097,7 +3137,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="219">
+  <cellXfs count="227">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2"/>
@@ -3543,12 +3583,8 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="170" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -3561,6 +3597,20 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="13" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3575,14 +3625,15 @@
     <cellStyle name="Normal 8" xfId="8" xr:uid="{081623DE-E46D-4C5A-9B4A-C0DC2A05C210}"/>
     <cellStyle name="Normal 9" xfId="9" xr:uid="{40B67649-AC0A-4FC1-B41E-42AB5C2B58C9}"/>
   </cellStyles>
-  <dxfs count="92">
+  <dxfs count="93">
     <dxf>
-      <numFmt numFmtId="169" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="178" formatCode="[h]:mm:ss;@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;_ ;_-@_ "/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3602,6 +3653,88 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="[$]hh:mm;@" x16r2:formatCode16="[$-en-150,1]hh:mm;@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3750,85 +3883,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -5705,19 +5759,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1971675</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 1">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20BCE7E6-B909-3563-C8D7-20BE8E8C050F}"/>
@@ -5736,7 +5790,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7991475" y="2943225"/>
+          <a:off x="8020050" y="438150"/>
           <a:ext cx="1676400" cy="1371600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5774,82 +5828,86 @@
 </namedSheetViews>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{1DE5977A-0070-4907-B3F1-83B3E9D3EAF9}" name="Table1321" displayName="Table1321" ref="A1:L145" totalsRowShown="0" dataDxfId="90" headerRowBorderDxfId="91" tableBorderDxfId="89" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{1DE5977A-0070-4907-B3F1-83B3E9D3EAF9}" name="Table1321" displayName="Table1321" ref="A1:L145" totalsRowShown="0" dataDxfId="91" headerRowBorderDxfId="92" tableBorderDxfId="90" headerRowCellStyle="Normal 2">
   <autoFilter ref="A1:L145" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L145">
     <sortCondition ref="A1:A145"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="3" xr3:uid="{E596F2F7-CDFF-486E-86F5-053FDD2A2A5C}" name="Type" dataDxfId="88"/>
-    <tableColumn id="4" xr3:uid="{21BB2F02-45DC-4E39-9123-FC046A8DFC11}" name="Part" dataDxfId="87"/>
-    <tableColumn id="1" xr3:uid="{277C1F1F-DAAE-4C91-9EDC-C8D501677DE9}" name="Cut length" dataDxfId="86" dataCellStyle="Normal 7"/>
-    <tableColumn id="7" xr3:uid="{47852F97-FC81-4943-BFF5-71D7E867A237}" name="Qty Required" dataDxfId="85"/>
-    <tableColumn id="5" xr3:uid="{5C2A44A8-DE4F-4B5A-930C-443716E7E898}" name="Pack Order Qty" dataDxfId="84"/>
-    <tableColumn id="8" xr3:uid="{07FAA242-B582-4790-9720-A5DC124D6B2D}" name="Pack Price $USD" dataDxfId="83"/>
-    <tableColumn id="10" xr3:uid="{B3F33643-2531-4917-B84D-BE4983A99A8C}" name="*Cost Price $USD" dataDxfId="82">
+    <tableColumn id="3" xr3:uid="{E596F2F7-CDFF-486E-86F5-053FDD2A2A5C}" name="Type" dataDxfId="89"/>
+    <tableColumn id="4" xr3:uid="{21BB2F02-45DC-4E39-9123-FC046A8DFC11}" name="Part" dataDxfId="88"/>
+    <tableColumn id="1" xr3:uid="{277C1F1F-DAAE-4C91-9EDC-C8D501677DE9}" name="Cut length" dataDxfId="87" dataCellStyle="Normal 7"/>
+    <tableColumn id="7" xr3:uid="{47852F97-FC81-4943-BFF5-71D7E867A237}" name="Qty Required" dataDxfId="86"/>
+    <tableColumn id="5" xr3:uid="{5C2A44A8-DE4F-4B5A-930C-443716E7E898}" name="Pack Order Qty" dataDxfId="85"/>
+    <tableColumn id="8" xr3:uid="{07FAA242-B582-4790-9720-A5DC124D6B2D}" name="Pack Price $USD" dataDxfId="84"/>
+    <tableColumn id="10" xr3:uid="{B3F33643-2531-4917-B84D-BE4983A99A8C}" name="*Cost Price $USD" dataDxfId="83">
       <calculatedColumnFormula>E2*F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{2B3304EF-95F3-4EA3-9A24-E520BCF247B0}" name="Order Link" dataDxfId="81" dataCellStyle="Hyperlink"/>
-    <tableColumn id="12" xr3:uid="{53A14610-D497-4DD1-8CFF-F20E191D3317}" name="Supplier" dataDxfId="80"/>
-    <tableColumn id="11" xr3:uid="{A7F10A10-A127-43E0-B65C-9F538B8DD15E}" name="Qty in a Pack" dataDxfId="79" dataCellStyle="Hyperlink"/>
-    <tableColumn id="13" xr3:uid="{DE4564AA-6825-49A5-B67A-A550AFECDCA7}" name="DIN" dataDxfId="78"/>
-    <tableColumn id="14" xr3:uid="{63E8BC06-DC55-407C-B167-F3CA5B6EBA86}" name="ISO" dataDxfId="77"/>
+    <tableColumn id="2" xr3:uid="{2B3304EF-95F3-4EA3-9A24-E520BCF247B0}" name="Order Link" dataDxfId="82" dataCellStyle="Hyperlink"/>
+    <tableColumn id="12" xr3:uid="{53A14610-D497-4DD1-8CFF-F20E191D3317}" name="Supplier" dataDxfId="81"/>
+    <tableColumn id="11" xr3:uid="{A7F10A10-A127-43E0-B65C-9F538B8DD15E}" name="Qty in a Pack" dataDxfId="80" dataCellStyle="Hyperlink"/>
+    <tableColumn id="13" xr3:uid="{DE4564AA-6825-49A5-B67A-A550AFECDCA7}" name="DIN" dataDxfId="79"/>
+    <tableColumn id="14" xr3:uid="{63E8BC06-DC55-407C-B167-F3CA5B6EBA86}" name="ISO" dataDxfId="78"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{AC31348F-CB75-44A7-A48C-4BBEA19837B3}" name="Table913171819" displayName="Table913171819" ref="B1:D18" totalsRowShown="0" headerRowDxfId="30" tableBorderDxfId="29" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{AC31348F-CB75-44A7-A48C-4BBEA19837B3}" name="Table913171819" displayName="Table913171819" ref="B1:D18" totalsRowShown="0" headerRowDxfId="31" tableBorderDxfId="30" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
   <autoFilter ref="B1:D18" xr:uid="{BAD2131D-41B2-42EA-A67B-FBB781AD12E7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D18">
     <sortCondition ref="B1:B18"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D7153C23-8479-4254-BF69-2A4089CB71C0}" name="Part name" totalsRowDxfId="28" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="7" xr3:uid="{5CF4E952-095C-46AE-A57F-99A26E57C478}" name="Description" totalsRowDxfId="27" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{8AE4D1C0-7F70-4D1E-B6EC-42038CE642DF}" name="BOM Quantity" dataDxfId="26" totalsRowDxfId="25" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
+    <tableColumn id="1" xr3:uid="{D7153C23-8479-4254-BF69-2A4089CB71C0}" name="Part name" totalsRowDxfId="29" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{5CF4E952-095C-46AE-A57F-99A26E57C478}" name="Description" totalsRowDxfId="28" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{8AE4D1C0-7F70-4D1E-B6EC-42038CE642DF}" name="BOM Quantity" dataDxfId="27" totalsRowDxfId="26" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{604B429D-E2E1-4265-83DF-FBAD19483C12}" name="Table91317181920" displayName="Table91317181920" ref="B1:D44" totalsRowShown="0" headerRowDxfId="24" tableBorderDxfId="23" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{604B429D-E2E1-4265-83DF-FBAD19483C12}" name="Table91317181920" displayName="Table91317181920" ref="B1:D44" totalsRowShown="0" headerRowDxfId="25" tableBorderDxfId="24" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
   <autoFilter ref="B1:D44" xr:uid="{BAD2131D-41B2-42EA-A67B-FBB781AD12E7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D44">
     <sortCondition ref="B1:B44"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{E0A0C165-2589-4FA7-A356-93EEE88B2095}" name="Part name" totalsRowDxfId="22" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="7" xr3:uid="{49376C16-406D-4D5F-8B92-3BFE5FB962B9}" name="Description" totalsRowDxfId="21" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{6252F354-5A67-4DD7-A1AA-3DADB5EF6BF7}" name="BOM Quantity" dataDxfId="20" totalsRowDxfId="19" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
+    <tableColumn id="1" xr3:uid="{E0A0C165-2589-4FA7-A356-93EEE88B2095}" name="Part name" totalsRowDxfId="23" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{49376C16-406D-4D5F-8B92-3BFE5FB962B9}" name="Description" totalsRowDxfId="22" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{6252F354-5A67-4DD7-A1AA-3DADB5EF6BF7}" name="BOM Quantity" dataDxfId="21" totalsRowDxfId="20" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{02B4D57F-6E20-42C2-A7CF-65378FC03170}" name="Table6" displayName="Table6" ref="A1:H91" totalsRowCount="1" headerRowDxfId="18">
-  <autoFilter ref="A1:H90" xr:uid="{02B4D57F-6E20-42C2-A7CF-65378FC03170}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H90">
-    <sortCondition ref="A1:A90"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{02B4D57F-6E20-42C2-A7CF-65378FC03170}" name="Table6" displayName="Table6" ref="A1:H92" totalsRowCount="1" headerRowDxfId="19">
+  <autoFilter ref="A1:H91" xr:uid="{02B4D57F-6E20-42C2-A7CF-65378FC03170}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H91">
+    <sortCondition ref="A1:A91"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{C89F3025-C91C-4D89-A5CC-8772042DE324}" name="System" dataDxfId="17" totalsRowDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{FCE9DC81-99C5-4DE1-AE60-3B3DE0EE8421}" name="Part" dataDxfId="16" totalsRowDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{C89F3025-C91C-4D89-A5CC-8772042DE324}" name="System" dataDxfId="12" totalsRowDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{FCE9DC81-99C5-4DE1-AE60-3B3DE0EE8421}" name="Part" dataDxfId="11" totalsRowDxfId="4"/>
     <tableColumn id="3" xr3:uid="{6512942A-B4C3-4998-AA54-D3A429CF1394}" name="Meters"/>
-    <tableColumn id="6" xr3:uid="{672D19F0-1E84-4954-AA80-1A756FF64B85}" name="Weight Ea"/>
-    <tableColumn id="11" xr3:uid="{B345B84F-64A2-4E92-BB95-3C9B14E2A5EA}" name="Items" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="3" dataCellStyle="Normal 7"/>
-    <tableColumn id="4" xr3:uid="{8A449E36-4741-4576-8011-21C1B3D5DB29}" name="weight Tot" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="2" dataCellStyle="Normal 7">
-      <calculatedColumnFormula>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{672D19F0-1E84-4954-AA80-1A756FF64B85}" name="Weight" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{B345B84F-64A2-4E92-BB95-3C9B14E2A5EA}" name="Items" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="3" dataCellStyle="Normal 7"/>
+    <tableColumn id="4" xr3:uid="{8A449E36-4741-4576-8011-21C1B3D5DB29}" name="weight Tot" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="2" dataCellStyle="Normal 7">
+      <calculatedColumnFormula>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(109,Table6[weight Tot])&amp;"g"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{DF7CF065-4550-4DB7-B341-EF87320D0C8E}" name="Cost/part" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="1">
-      <calculatedColumnFormula>$K$2/1000*Table6[[#This Row],[Weight Ea]]</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{DF7CF065-4550-4DB7-B341-EF87320D0C8E}" name="Cost/part" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="1">
+      <calculatedColumnFormula>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{84F519DD-FB90-4299-8700-857D723260B1}" name="Time estimate" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{84F519DD-FB90-4299-8700-857D723260B1}" name="Time estimate" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5859,10 +5917,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD3A9734-505A-4671-9A99-A5AD0241BC9E}" name="Table1" displayName="Table1" ref="B2:E26" totalsRowShown="0">
   <autoFilter ref="B2:E26" xr:uid="{CD3A9734-505A-4671-9A99-A5AD0241BC9E}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{8F04C4EB-A680-469A-88ED-4273832B70AF}" name="Pin #" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{B8C131DA-A4D9-4F02-8FF8-BEC8A246B232}" name="Voltage" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{2BE108EC-DC74-4753-9C2F-DD3CBA203E0E}" name="Wire Size Type" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{E530F612-D9CA-42AF-B8BF-BDE36218865A}" name="Device " dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{8F04C4EB-A680-469A-88ED-4273832B70AF}" name="Pin #" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{B8C131DA-A4D9-4F02-8FF8-BEC8A246B232}" name="Voltage" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{2BE108EC-DC74-4753-9C2F-DD3CBA203E0E}" name="Wire Size Type" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{E530F612-D9CA-42AF-B8BF-BDE36218865A}" name="Device " dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5876,7 +5934,7 @@
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{E1FF070C-6993-4332-802B-B4D29E1606E7}" name="Function"/>
-    <tableColumn id="2" xr3:uid="{54776E09-074A-46D8-A8AF-0675792CABF2}" name="Macro" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{54776E09-074A-46D8-A8AF-0675792CABF2}" name="Macro" dataDxfId="14"/>
     <tableColumn id="3" xr3:uid="{8FBB1689-4854-43C5-AC93-F6E571CF242D}" name="Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5888,7 +5946,7 @@
   <autoFilter ref="A19:C37" xr:uid="{22CC0901-A1E8-42BF-83D2-CD8909D9E84D}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{72FB4F94-B23A-4D8C-9115-4A4A22828CD8}" name="Function"/>
-    <tableColumn id="2" xr3:uid="{72E39D2F-151A-44B2-BA84-B7F34C14C282}" name="System" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{72E39D2F-151A-44B2-BA84-B7F34C14C282}" name="System" dataDxfId="13"/>
     <tableColumn id="3" xr3:uid="{5B376876-1002-41A2-9B1B-97FBB74534E9}" name="Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5908,116 +5966,116 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1D56080A-A986-4B73-B750-606D567699F1}" name="Table2" displayName="Table2" ref="O95:O96" insertRow="1" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1D56080A-A986-4B73-B750-606D567699F1}" name="Table2" displayName="Table2" ref="O95:O96" insertRow="1" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
   <autoFilter ref="O95:O96" xr:uid="{1D56080A-A986-4B73-B750-606D567699F1}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{1AB8EF02-E35C-4974-9AE1-5C063D122C3C}" name="Column1" dataDxfId="74"/>
+    <tableColumn id="1" xr3:uid="{1AB8EF02-E35C-4974-9AE1-5C063D122C3C}" name="Column1" dataDxfId="75"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{9FCF4A79-156B-41FF-A555-9328C94776F1}" name="Table112" displayName="Table112" ref="B1:E19" totalsRowShown="0" headerRowDxfId="73" dataDxfId="72" tableBorderDxfId="71" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{9FCF4A79-156B-41FF-A555-9328C94776F1}" name="Table112" displayName="Table112" ref="B1:E19" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73" tableBorderDxfId="72" headerRowCellStyle="Normal 2">
   <autoFilter ref="B1:E19" xr:uid="{9FCF4A79-156B-41FF-A555-9328C94776F1}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:E19">
     <sortCondition ref="B1:B19"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{12342F44-8220-45C2-AC30-328741D516AB}" name="Part name" dataDxfId="70"/>
-    <tableColumn id="3" xr3:uid="{2385B826-F8C8-4362-89A6-95A38D685D6B}" name="Description" dataDxfId="69"/>
-    <tableColumn id="4" xr3:uid="{0FBBE615-D864-4E30-B741-3BE35C30458E}" name="Cut length" dataDxfId="68" dataCellStyle="Normal 8"/>
-    <tableColumn id="2" xr3:uid="{59176566-F320-409F-9AA9-17486015A49A}" name="BOM Quantity" dataDxfId="67"/>
+    <tableColumn id="1" xr3:uid="{12342F44-8220-45C2-AC30-328741D516AB}" name="Part name" dataDxfId="71"/>
+    <tableColumn id="3" xr3:uid="{2385B826-F8C8-4362-89A6-95A38D685D6B}" name="Description" dataDxfId="70"/>
+    <tableColumn id="4" xr3:uid="{0FBBE615-D864-4E30-B741-3BE35C30458E}" name="Cut length" dataDxfId="69" dataCellStyle="Normal 8"/>
+    <tableColumn id="2" xr3:uid="{59176566-F320-409F-9AA9-17486015A49A}" name="BOM Quantity" dataDxfId="68"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{BAD2131D-41B2-42EA-A67B-FBB781AD12E7}" name="Table9" displayName="Table9" ref="B1:D44" totalsRowShown="0" headerRowDxfId="66" tableBorderDxfId="65" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{BAD2131D-41B2-42EA-A67B-FBB781AD12E7}" name="Table9" displayName="Table9" ref="B1:D44" totalsRowShown="0" headerRowDxfId="67" tableBorderDxfId="66" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
   <autoFilter ref="B1:D44" xr:uid="{BAD2131D-41B2-42EA-A67B-FBB781AD12E7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D44">
     <sortCondition ref="B1:B44"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{C5533925-B810-4F05-9221-5D5DC08A3846}" name="Part name" totalsRowDxfId="64" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="7" xr3:uid="{13C33B91-92BB-4F0B-8B89-D7D5416E5479}" name="Description" totalsRowDxfId="63" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{684CEE11-8A68-45FD-871F-FFCFA808FEBD}" name="BOM Quantity" dataDxfId="62" totalsRowDxfId="61" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
+    <tableColumn id="1" xr3:uid="{C5533925-B810-4F05-9221-5D5DC08A3846}" name="Part name" totalsRowDxfId="65" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{13C33B91-92BB-4F0B-8B89-D7D5416E5479}" name="Description" totalsRowDxfId="64" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{684CEE11-8A68-45FD-871F-FFCFA808FEBD}" name="BOM Quantity" dataDxfId="63" totalsRowDxfId="62" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{0D081A3B-5ADC-4D38-A88B-EBE88E8EC051}" name="Table916" displayName="Table916" ref="B1:D26" totalsRowShown="0" headerRowDxfId="60" tableBorderDxfId="59" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{0D081A3B-5ADC-4D38-A88B-EBE88E8EC051}" name="Table916" displayName="Table916" ref="B1:D26" totalsRowShown="0" headerRowDxfId="61" tableBorderDxfId="60" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
   <autoFilter ref="B1:D26" xr:uid="{BAD2131D-41B2-42EA-A67B-FBB781AD12E7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D26">
     <sortCondition ref="B1:B26"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0F292740-142C-4538-B6E0-04426284E315}" name="Part name" totalsRowDxfId="58" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="7" xr3:uid="{150C9F57-34E9-40EB-9D7E-4F2F4DC1A13F}" name="Description" totalsRowDxfId="57" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{A7D6434D-4498-49EB-9D73-D244744029D3}" name="BOM Quantity" dataDxfId="56" totalsRowDxfId="55" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
+    <tableColumn id="1" xr3:uid="{0F292740-142C-4538-B6E0-04426284E315}" name="Part name" totalsRowDxfId="59" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{150C9F57-34E9-40EB-9D7E-4F2F4DC1A13F}" name="Description" totalsRowDxfId="58" totalsRowCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{A7D6434D-4498-49EB-9D73-D244744029D3}" name="BOM Quantity" dataDxfId="57" totalsRowDxfId="56" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DA456747-D398-4471-8B86-AB700DA339AD}" name="Table91629" displayName="Table91629" ref="B29:D39" totalsRowShown="0" headerRowDxfId="54" tableBorderDxfId="53" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DA456747-D398-4471-8B86-AB700DA339AD}" name="Table91629" displayName="Table91629" ref="B29:D39" totalsRowShown="0" headerRowDxfId="55" tableBorderDxfId="54" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
   <autoFilter ref="B29:D39" xr:uid="{DA456747-D398-4471-8B86-AB700DA339AD}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B30:D39">
     <sortCondition ref="B29:B39"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B397B237-34CC-4F05-A03A-172D9B10CC01}" name="Part name" totalsRowDxfId="52" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="7" xr3:uid="{A1AF3E5A-9878-43E6-8325-6EA13891B687}" name="Description" totalsRowDxfId="51" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{1585E650-1008-4DC9-8D1C-8F6E78001D58}" name="BOM Quantity" dataDxfId="50" totalsRowDxfId="49" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
+    <tableColumn id="1" xr3:uid="{B397B237-34CC-4F05-A03A-172D9B10CC01}" name="Part name" totalsRowDxfId="53" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{A1AF3E5A-9878-43E6-8325-6EA13891B687}" name="Description" totalsRowDxfId="52" totalsRowCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{1585E650-1008-4DC9-8D1C-8F6E78001D58}" name="BOM Quantity" dataDxfId="51" totalsRowDxfId="50" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{5A485C34-0DBE-4411-B49C-86BFD99B3F62}" name="Table913" displayName="Table913" ref="B1:D44" totalsRowShown="0" headerRowDxfId="48" tableBorderDxfId="47" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{5A485C34-0DBE-4411-B49C-86BFD99B3F62}" name="Table913" displayName="Table913" ref="B1:D44" totalsRowShown="0" headerRowDxfId="49" tableBorderDxfId="48" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
   <autoFilter ref="B1:D44" xr:uid="{BAD2131D-41B2-42EA-A67B-FBB781AD12E7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D44">
     <sortCondition ref="B1:B44"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{1CE47076-A60D-4220-8B3D-C6D4BAFB1164}" name="Part name" totalsRowDxfId="46" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="7" xr3:uid="{D41EBA7C-1A32-4553-871C-D0C5C96C9E90}" name="Description" totalsRowDxfId="45" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{1A8F0BE6-05F1-4339-9CFB-0F9B7B4E13D4}" name="BOM Quantity" dataDxfId="44" totalsRowDxfId="43" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
+    <tableColumn id="1" xr3:uid="{1CE47076-A60D-4220-8B3D-C6D4BAFB1164}" name="Part name" totalsRowDxfId="47" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{D41EBA7C-1A32-4553-871C-D0C5C96C9E90}" name="Description" totalsRowDxfId="46" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{1A8F0BE6-05F1-4339-9CFB-0F9B7B4E13D4}" name="BOM Quantity" dataDxfId="45" totalsRowDxfId="44" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{0A9E0A99-CDD4-4F70-BA5B-784249346C24}" name="Table91317" displayName="Table91317" ref="B1:D74" totalsRowShown="0" headerRowDxfId="42" tableBorderDxfId="41" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{0A9E0A99-CDD4-4F70-BA5B-784249346C24}" name="Table91317" displayName="Table91317" ref="B1:D74" totalsRowShown="0" headerRowDxfId="43" tableBorderDxfId="42" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
   <autoFilter ref="B1:D74" xr:uid="{BAD2131D-41B2-42EA-A67B-FBB781AD12E7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D74">
     <sortCondition ref="B1:B74"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{FEDEBDB4-D2A0-4044-865C-6B89D3CC7592}" name="Part name" totalsRowDxfId="40" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="7" xr3:uid="{4C265877-F081-4975-80F2-6B962EBD7F5B}" name="Description" totalsRowDxfId="39" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{C58356B1-645B-4209-9365-0DE732AD7AAF}" name="BOM Quantity" dataDxfId="38" totalsRowDxfId="37" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
+    <tableColumn id="1" xr3:uid="{FEDEBDB4-D2A0-4044-865C-6B89D3CC7592}" name="Part name" totalsRowDxfId="41" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{4C265877-F081-4975-80F2-6B962EBD7F5B}" name="Description" totalsRowDxfId="40" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{C58356B1-645B-4209-9365-0DE732AD7AAF}" name="BOM Quantity" dataDxfId="39" totalsRowDxfId="38" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{80146AFF-010D-476D-80AD-DFB7130CCD89}" name="Table9131718" displayName="Table9131718" ref="B1:D44" totalsRowShown="0" headerRowDxfId="36" tableBorderDxfId="35" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{80146AFF-010D-476D-80AD-DFB7130CCD89}" name="Table9131718" displayName="Table9131718" ref="B1:D44" totalsRowShown="0" headerRowDxfId="37" tableBorderDxfId="36" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
   <autoFilter ref="B1:D44" xr:uid="{BAD2131D-41B2-42EA-A67B-FBB781AD12E7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D44">
     <sortCondition ref="B1:B44"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3C370705-9D71-4B07-907E-72DEACEAFBA2}" name="Part name" totalsRowDxfId="34" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="7" xr3:uid="{D11DB86B-2519-40CE-A3B1-2DFF1E8D8BAF}" name="Description" totalsRowDxfId="33" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{030B0BC7-E7B6-43C0-9200-DE84B404D5FA}" name="BOM Quantity" dataDxfId="32" totalsRowDxfId="31" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
+    <tableColumn id="1" xr3:uid="{3C370705-9D71-4B07-907E-72DEACEAFBA2}" name="Part name" totalsRowDxfId="35" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{D11DB86B-2519-40CE-A3B1-2DFF1E8D8BAF}" name="Description" totalsRowDxfId="34" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{030B0BC7-E7B6-43C0-9200-DE84B404D5FA}" name="BOM Quantity" dataDxfId="33" totalsRowDxfId="32" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11095,7 +11153,7 @@
       <c r="H144" s="100" t="s">
         <v>356</v>
       </c>
-      <c r="I144" s="215" t="s">
+      <c r="I144" s="213" t="s">
         <v>357</v>
       </c>
       <c r="J144" s="157"/>
@@ -11333,11 +11391,11 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:M91"/>
+  <dimension ref="A1:M92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11350,73 +11408,73 @@
     <col min="6" max="6" width="12.42578125" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="173" t="s">
         <v>625</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="F1" s="173" t="s">
+      <c r="H1" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>631</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B2" s="38" t="s">
         <v>413</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="224">
         <v>98</v>
       </c>
       <c r="E2" s="38">
         <v>1</v>
       </c>
-      <c r="F2" s="38">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F2" s="218">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>98</v>
       </c>
       <c r="G2" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>12.74</v>
       </c>
-      <c r="H2" s="211"/>
+      <c r="H2" s="212"/>
       <c r="J2" s="1" t="s">
-        <v>635</v>
+        <v>816</v>
       </c>
       <c r="K2" s="1">
         <v>130</v>
@@ -11427,28 +11485,29 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B3" s="38" t="s">
         <v>414</v>
       </c>
+      <c r="D3" s="224"/>
       <c r="E3" s="38">
         <v>4</v>
       </c>
-      <c r="F3" s="38">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F3" s="218">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G3" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H3" s="211"/>
+      <c r="H3" s="212"/>
       <c r="J3" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="K3" s="1">
-        <v>155</v>
+        <v>633</v>
+      </c>
+      <c r="K3">
+        <v>130</v>
       </c>
       <c r="L3">
         <v>1.3</v>
@@ -11456,1824 +11515,1997 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="224">
         <v>49</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="1">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F4" s="219">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>49</v>
       </c>
       <c r="G4" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>6.37</v>
       </c>
-      <c r="H4" s="211"/>
+      <c r="H4" s="212"/>
       <c r="J4" s="1" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="K4" s="1">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="L4">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="224">
         <v>47</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="1">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F5" s="219">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>47</v>
       </c>
       <c r="G5" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>6.11</v>
       </c>
-      <c r="H5" s="211"/>
+      <c r="H5" s="212"/>
       <c r="J5" s="1" t="s">
-        <v>638</v>
+        <v>635</v>
+      </c>
+      <c r="K5" s="1">
+        <v>150</v>
       </c>
       <c r="L5">
-        <v>1.3</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>639</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B6" s="38" t="s">
         <v>417</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="224">
         <v>11</v>
       </c>
       <c r="E6" s="38">
         <v>2</v>
       </c>
-      <c r="F6" s="38">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F6" s="218">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>22</v>
       </c>
       <c r="G6" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
-        <v>1.4300000000000002</v>
-      </c>
-      <c r="H6" s="211"/>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
+        <v>2.8600000000000003</v>
+      </c>
+      <c r="H6" s="212"/>
+      <c r="J6" s="1"/>
+      <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="224">
         <v>200</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="1">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F7" s="219">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>200</v>
       </c>
       <c r="G7" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>26</v>
       </c>
-      <c r="H7" s="213">
-        <v>7</v>
+      <c r="H7" s="212">
+        <v>0.29166666666666669</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="D8">
+        <v>811</v>
+      </c>
+      <c r="D8" s="224">
         <v>28</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="F8" s="1">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F8" s="219">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>28</v>
       </c>
       <c r="G8" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>3.64</v>
       </c>
-      <c r="H8" s="211"/>
+      <c r="H8" s="212"/>
+      <c r="J8" s="1" t="s">
+        <v>818</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="D9">
+        <v>812</v>
+      </c>
+      <c r="D9" s="224">
         <v>15</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
       </c>
-      <c r="F9" s="1">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F9" s="219">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>15</v>
       </c>
       <c r="G9" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>1.9500000000000002</v>
       </c>
-      <c r="H9" s="211"/>
+      <c r="H9" s="212"/>
+      <c r="J9" s="226" t="s">
+        <v>820</v>
+      </c>
+      <c r="K9" s="226">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B10" s="38" t="s">
         <v>419</v>
       </c>
+      <c r="D10" s="224"/>
       <c r="E10" s="38">
         <v>1</v>
       </c>
-      <c r="F10" s="38">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F10" s="218">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G10" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H10" s="211"/>
+      <c r="H10" s="212"/>
+      <c r="J10" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="K10">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B11" s="38" t="s">
         <v>420</v>
       </c>
+      <c r="D11" s="224"/>
       <c r="E11" s="38">
         <v>1</v>
       </c>
-      <c r="F11" s="38">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F11" s="218">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G11" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H11" s="211"/>
+      <c r="H11" s="212"/>
+      <c r="J11" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="K11">
+        <f>K9/K10</f>
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B12" s="38" t="s">
         <v>421</v>
       </c>
+      <c r="D12" s="224"/>
       <c r="E12" s="38">
         <v>2</v>
       </c>
-      <c r="F12" s="38">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F12" s="218">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G12" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H12" s="211"/>
+      <c r="H12" s="212"/>
+      <c r="J12" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="K12">
+        <f>K9/K10</f>
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B13" s="38" t="s">
         <v>422</v>
       </c>
+      <c r="D13" s="224"/>
       <c r="E13" s="38">
         <v>2</v>
       </c>
-      <c r="F13" s="38">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F13" s="218">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G13" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H13" s="211"/>
+      <c r="H13" s="212"/>
+      <c r="J13" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="K13">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>423</v>
       </c>
+      <c r="D14" s="224"/>
       <c r="E14" s="1">
         <v>1</v>
       </c>
-      <c r="F14" s="1">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F14" s="219">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G14" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H14" s="211"/>
+      <c r="H14" s="212"/>
+      <c r="J14" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="K14" s="224">
+        <f>K9/K13</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>424</v>
       </c>
+      <c r="D15" s="224"/>
       <c r="E15" s="1">
         <v>1</v>
       </c>
-      <c r="F15" s="1">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F15" s="219">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G15" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H15" s="211"/>
+      <c r="H15" s="212"/>
+      <c r="J15" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="K15" s="225">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B16" s="38" t="s">
         <v>425</v>
       </c>
+      <c r="D16" s="224"/>
       <c r="E16" s="38">
         <v>1</v>
       </c>
-      <c r="F16" s="38">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F16" s="218">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G16" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H16" s="211"/>
+      <c r="H16" s="212"/>
+      <c r="J16" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>827</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B17" s="38" t="s">
         <v>426</v>
       </c>
+      <c r="D17" s="224"/>
       <c r="E17" s="38">
         <v>1</v>
       </c>
-      <c r="F17" s="38">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F17" s="218">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G17" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H17" s="211"/>
+      <c r="H17" s="212"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>559</v>
-      </c>
+        <v>558</v>
+      </c>
+      <c r="D18" s="224"/>
       <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="F18" s="1">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F18" s="219">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G18" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H18" s="211"/>
+      <c r="H18" s="212"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>560</v>
-      </c>
+        <v>559</v>
+      </c>
+      <c r="D19" s="224"/>
       <c r="E19" s="1">
         <v>1</v>
       </c>
-      <c r="F19" s="1">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F19" s="219">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G19" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H19" s="211"/>
+      <c r="H19" s="212"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>561</v>
-      </c>
+        <v>560</v>
+      </c>
+      <c r="D20" s="224"/>
       <c r="E20" s="1">
         <v>1</v>
       </c>
-      <c r="F20" s="1">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F20" s="219">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G20" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H20" s="211"/>
+      <c r="H20" s="212"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>562</v>
-      </c>
+        <v>561</v>
+      </c>
+      <c r="D21" s="224"/>
       <c r="E21" s="1">
         <v>1</v>
       </c>
-      <c r="F21" s="1">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F21" s="219">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G21" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H21" s="211"/>
+      <c r="H21" s="212"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>563</v>
-      </c>
+        <v>562</v>
+      </c>
+      <c r="D22" s="224"/>
       <c r="E22" s="1">
         <v>1</v>
       </c>
-      <c r="F22" s="1">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F22" s="219">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G22" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H22" s="211"/>
+      <c r="H22" s="212"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>564</v>
-      </c>
+        <v>563</v>
+      </c>
+      <c r="D23" s="224"/>
       <c r="E23" s="1">
         <v>1</v>
       </c>
-      <c r="F23" s="1">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F23" s="219">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G23" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H23" s="211"/>
+      <c r="H23" s="212"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>565</v>
-      </c>
+        <v>564</v>
+      </c>
+      <c r="D24" s="224"/>
       <c r="E24" s="1">
         <v>2</v>
       </c>
-      <c r="F24" s="1">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F24" s="219">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G24" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H24" s="211"/>
+      <c r="H24" s="212"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B25" s="38" t="s">
-        <v>566</v>
-      </c>
+        <v>565</v>
+      </c>
+      <c r="D25" s="224"/>
       <c r="E25" s="38">
         <v>4</v>
       </c>
-      <c r="F25" s="38">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F25" s="218">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G25" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H25" s="211"/>
+      <c r="H25" s="212"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>568</v>
-      </c>
+        <v>567</v>
+      </c>
+      <c r="D26" s="224"/>
       <c r="E26" s="1">
         <v>1</v>
       </c>
-      <c r="F26" s="1">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F26" s="219">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G26" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H26" s="211"/>
+      <c r="H26" s="212"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>579</v>
-      </c>
+        <v>578</v>
+      </c>
+      <c r="D27" s="224"/>
       <c r="E27" s="1">
         <v>1</v>
       </c>
-      <c r="F27" s="1">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F27" s="219">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G27" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H27" s="211"/>
+      <c r="H27" s="212"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B28" s="38" t="s">
-        <v>580</v>
-      </c>
+        <v>579</v>
+      </c>
+      <c r="D28" s="224"/>
       <c r="E28" s="38">
         <v>1</v>
       </c>
-      <c r="F28" s="38">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F28" s="218">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G28" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H28" s="211"/>
+      <c r="H28" s="212"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B29" s="38" t="s">
-        <v>581</v>
-      </c>
+        <v>580</v>
+      </c>
+      <c r="D29" s="224"/>
       <c r="E29" s="38">
         <v>1</v>
       </c>
-      <c r="F29" s="38">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F29" s="218">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G29" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H29" s="211"/>
+      <c r="H29" s="212"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B30" s="38" t="s">
-        <v>582</v>
-      </c>
+        <v>581</v>
+      </c>
+      <c r="D30" s="224"/>
       <c r="E30" s="38">
         <v>1</v>
       </c>
-      <c r="F30" s="38">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F30" s="218">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G30" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H30" s="211"/>
+      <c r="H30" s="212"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B31" s="38" t="s">
-        <v>583</v>
-      </c>
+        <v>582</v>
+      </c>
+      <c r="D31" s="224"/>
       <c r="E31" s="38">
         <v>1</v>
       </c>
-      <c r="F31" s="38">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F31" s="218">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G31" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H31" s="211"/>
+      <c r="H31" s="212"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B32" s="38" t="s">
-        <v>584</v>
-      </c>
+        <v>583</v>
+      </c>
+      <c r="D32" s="224"/>
       <c r="E32" s="38">
         <v>1</v>
       </c>
-      <c r="F32" s="38">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F32" s="218">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G32" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H32" s="211"/>
+      <c r="H32" s="212"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>585</v>
-      </c>
+        <v>584</v>
+      </c>
+      <c r="D33" s="224"/>
       <c r="E33" s="38">
         <v>1</v>
       </c>
-      <c r="F33" s="38">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F33" s="218">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G33" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H33" s="211"/>
+      <c r="H33" s="212"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B34" s="38" t="s">
-        <v>499</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="D34" s="224"/>
       <c r="E34" s="38">
         <v>1</v>
       </c>
-      <c r="F34" s="38">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F34" s="218">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G34" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H34" s="211"/>
+      <c r="H34" s="212"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B35" s="38" t="s">
-        <v>501</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="D35" s="224"/>
       <c r="E35" s="38">
         <v>1</v>
       </c>
-      <c r="F35" s="38">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F35" s="218">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G35" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H35" s="211"/>
+      <c r="H35" s="212"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B36" s="38" t="s">
-        <v>504</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="D36" s="224"/>
       <c r="E36" s="38">
         <v>1</v>
       </c>
-      <c r="F36" s="38">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F36" s="218">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G36" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H36" s="211"/>
+      <c r="H36" s="212"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B37" s="38" t="s">
-        <v>505</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="D37" s="224"/>
       <c r="E37" s="38">
         <v>1</v>
       </c>
-      <c r="F37" s="38">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F37" s="218">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G37" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H37" s="211"/>
+      <c r="H37" s="212"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="B38" s="212" t="s">
-        <v>506</v>
-      </c>
-      <c r="E38" s="212">
-        <v>1</v>
-      </c>
-      <c r="F38" s="212">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+        <v>637</v>
+      </c>
+      <c r="B38" s="211" t="s">
+        <v>505</v>
+      </c>
+      <c r="D38" s="224"/>
+      <c r="E38" s="211">
+        <v>1</v>
+      </c>
+      <c r="F38" s="220">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G38" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H38" s="211"/>
+      <c r="H38" s="212"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B39" s="38" t="s">
-        <v>508</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="D39" s="224"/>
       <c r="E39" s="38">
         <v>4</v>
       </c>
-      <c r="F39" s="38">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F39" s="218">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G39" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H39" s="211"/>
+      <c r="H39" s="212"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B40" s="38" t="s">
-        <v>509</v>
-      </c>
+        <v>508</v>
+      </c>
+      <c r="D40" s="224"/>
       <c r="E40" s="38">
         <v>2</v>
       </c>
-      <c r="F40" s="38">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F40" s="218">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G40" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H40" s="211"/>
+      <c r="H40" s="212"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B41" s="38" t="s">
-        <v>510</v>
-      </c>
+        <v>509</v>
+      </c>
+      <c r="D41" s="224"/>
       <c r="E41" s="38">
         <v>1</v>
       </c>
-      <c r="F41" s="38">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F41" s="218">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G41" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H41" s="211"/>
+      <c r="H41" s="212"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B42" s="38" t="s">
-        <v>511</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="D42" s="224"/>
       <c r="E42" s="38">
         <v>1</v>
       </c>
-      <c r="F42" s="38">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F42" s="218">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G42" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H42" s="211"/>
+      <c r="H42" s="212"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B43" s="38" t="s">
-        <v>512</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="D43" s="224"/>
       <c r="E43" s="38">
         <v>2</v>
       </c>
-      <c r="F43" s="38">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F43" s="218">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G43" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H43" s="211"/>
+      <c r="H43" s="212"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B44" s="38" t="s">
-        <v>513</v>
-      </c>
+        <v>512</v>
+      </c>
+      <c r="D44" s="224"/>
       <c r="E44" s="38">
         <v>1</v>
       </c>
-      <c r="F44" s="38">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F44" s="218">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G44" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H44" s="211"/>
+      <c r="H44" s="212"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B45" s="38" t="s">
-        <v>514</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="D45" s="224"/>
       <c r="E45" s="38">
         <v>1</v>
       </c>
-      <c r="F45" s="38">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F45" s="218">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G45" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H45" s="211"/>
+      <c r="H45" s="212"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B46" s="38" t="s">
-        <v>515</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="D46" s="224"/>
       <c r="E46" s="38">
         <v>1</v>
       </c>
-      <c r="F46" s="38">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F46" s="218">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G46" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H46" s="211"/>
+      <c r="H46" s="212"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B47" s="38" t="s">
-        <v>516</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="D47" s="224"/>
       <c r="E47" s="38">
         <v>1</v>
       </c>
-      <c r="F47" s="38">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F47" s="218">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G47" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H47" s="211"/>
+      <c r="H47" s="212"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B48" s="38" t="s">
-        <v>517</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="D48" s="224"/>
       <c r="E48" s="38">
         <v>1</v>
       </c>
-      <c r="F48" s="38">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F48" s="218">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G48" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H48" s="211"/>
+      <c r="H48" s="212"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B49" s="38" t="s">
-        <v>518</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="D49" s="224"/>
       <c r="E49" s="38">
         <v>1</v>
       </c>
-      <c r="F49" s="38">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F49" s="218">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G49" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H49" s="211"/>
+      <c r="H49" s="212"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B50" s="38" t="s">
-        <v>519</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="D50" s="224"/>
       <c r="E50" s="38">
         <v>1</v>
       </c>
-      <c r="F50" s="38">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F50" s="218">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G50" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H50" s="211"/>
+      <c r="H50" s="212"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B51" s="38" t="s">
-        <v>520</v>
-      </c>
+        <v>519</v>
+      </c>
+      <c r="D51" s="224"/>
       <c r="E51" s="38">
         <v>1</v>
       </c>
-      <c r="F51" s="38">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F51" s="218">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G51" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H51" s="211"/>
+      <c r="H51" s="212"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B52" s="38" t="s">
-        <v>521</v>
-      </c>
+        <v>520</v>
+      </c>
+      <c r="D52" s="224"/>
       <c r="E52" s="38">
         <v>1</v>
       </c>
-      <c r="F52" s="38">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F52" s="218">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G52" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H52" s="211"/>
+      <c r="H52" s="212"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B53" s="38" t="s">
-        <v>522</v>
-      </c>
+        <v>521</v>
+      </c>
+      <c r="D53" s="224"/>
       <c r="E53" s="38">
         <v>1</v>
       </c>
-      <c r="F53" s="38">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F53" s="218">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G53" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H53" s="211"/>
+      <c r="H53" s="212"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B54" s="38" t="s">
-        <v>540</v>
-      </c>
+        <v>539</v>
+      </c>
+      <c r="D54" s="224"/>
       <c r="E54" s="38">
         <v>6</v>
       </c>
-      <c r="F54" s="38">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F54" s="218">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G54" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H54" s="211"/>
+      <c r="H54" s="212"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>542</v>
-      </c>
+        <v>541</v>
+      </c>
+      <c r="D55" s="224"/>
       <c r="E55" s="1">
         <v>1</v>
       </c>
-      <c r="F55" s="1">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F55" s="219">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G55" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H55" s="211"/>
+      <c r="H55" s="212"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>543</v>
-      </c>
+        <v>542</v>
+      </c>
+      <c r="D56" s="224"/>
       <c r="E56" s="1">
         <v>1</v>
       </c>
-      <c r="F56" s="1">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F56" s="219">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G56" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H56" s="211"/>
+      <c r="H56" s="212"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B57" s="38" t="s">
-        <v>544</v>
-      </c>
+        <v>543</v>
+      </c>
+      <c r="D57" s="224"/>
       <c r="E57" s="38">
         <v>2</v>
       </c>
-      <c r="F57" s="38">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F57" s="218">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G57" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H57" s="211"/>
+      <c r="H57" s="212"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B58" s="38" t="s">
-        <v>545</v>
-      </c>
+        <v>544</v>
+      </c>
+      <c r="D58" s="224"/>
       <c r="E58" s="38">
         <v>1</v>
       </c>
-      <c r="F58" s="38">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F58" s="218">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G58" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H58" s="211"/>
+      <c r="H58" s="212"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="224">
         <v>17</v>
       </c>
       <c r="E59" s="1">
         <v>1</v>
       </c>
-      <c r="F59" s="1">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F59" s="219">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>17</v>
       </c>
       <c r="G59" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>2.21</v>
       </c>
-      <c r="H59" s="211"/>
+      <c r="H59" s="212">
+        <v>1.7361111111111112E-2</v>
+      </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>392</v>
       </c>
+      <c r="D60" s="224"/>
       <c r="E60" s="1">
         <v>4</v>
       </c>
-      <c r="F60" s="1">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F60" s="219">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G60" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H60" s="211"/>
+      <c r="H60" s="212"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="224">
         <v>6</v>
       </c>
       <c r="E61" s="1">
         <v>4</v>
       </c>
-      <c r="F61" s="1">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F61" s="219">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>24</v>
       </c>
       <c r="G61" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
-        <v>0.78</v>
-      </c>
-      <c r="H61" s="211"/>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
+        <v>3.12</v>
+      </c>
+      <c r="H61" s="212"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="224">
         <v>9</v>
       </c>
       <c r="E62" s="1">
         <v>4</v>
       </c>
-      <c r="F62" s="1">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F62" s="219">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>36</v>
       </c>
       <c r="G62" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
-        <v>1.17</v>
-      </c>
-      <c r="H62" s="211"/>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
+        <v>4.68</v>
+      </c>
+      <c r="H62" s="212"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>591</v>
-      </c>
+        <v>590</v>
+      </c>
+      <c r="D63" s="224"/>
       <c r="E63" s="1">
         <v>1</v>
       </c>
-      <c r="F63" s="1">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F63" s="219">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G63" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H63" s="211"/>
+      <c r="H63" s="212"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B64" s="45" t="s">
-        <v>592</v>
-      </c>
+        <v>591</v>
+      </c>
+      <c r="D64" s="224"/>
       <c r="E64" s="45">
         <v>1</v>
       </c>
-      <c r="F64" s="45">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F64" s="221">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G64" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H64" s="211"/>
+      <c r="H64" s="212"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B65" s="38" t="s">
-        <v>593</v>
-      </c>
+        <v>592</v>
+      </c>
+      <c r="D65" s="224"/>
       <c r="E65" s="38">
         <v>1</v>
       </c>
-      <c r="F65" s="38">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F65" s="218">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G65" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H65" s="211"/>
+      <c r="H65" s="212"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B66" s="38" t="s">
-        <v>644</v>
-      </c>
+        <v>640</v>
+      </c>
+      <c r="D66" s="224"/>
       <c r="E66" s="38">
         <v>1</v>
       </c>
-      <c r="F66" s="38">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F66" s="218">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G66" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H66" s="211"/>
+      <c r="H66" s="212"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="B67" s="212" t="s">
+        <v>641</v>
+      </c>
+      <c r="B67" s="211" t="s">
         <v>439</v>
       </c>
-      <c r="E67" s="212">
-        <v>1</v>
-      </c>
-      <c r="F67" s="212">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="D67" s="224"/>
+      <c r="E67" s="211">
+        <v>1</v>
+      </c>
+      <c r="F67" s="220">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G67" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H67" s="211"/>
+      <c r="H67" s="212"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B68" s="69" t="s">
         <v>441</v>
       </c>
+      <c r="D68" s="224"/>
       <c r="E68" s="69">
         <v>1</v>
       </c>
-      <c r="F68" s="69">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F68" s="222">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G68" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H68" s="211"/>
+      <c r="H68" s="212">
+        <v>1.1111111111111112E-2</v>
+      </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B69" s="69" t="s">
         <v>442</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="224">
         <v>2</v>
       </c>
       <c r="E69" s="69">
         <v>1</v>
       </c>
-      <c r="F69" s="69">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F69" s="222">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>2</v>
       </c>
       <c r="G69" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0.26</v>
       </c>
-      <c r="H69" s="211"/>
+      <c r="H69" s="212"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B70" s="69" t="s">
         <v>443</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="224">
         <v>9</v>
       </c>
       <c r="E70" s="69">
         <v>1</v>
       </c>
-      <c r="F70" s="69">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F70" s="222">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>9</v>
       </c>
       <c r="G70" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>1.17</v>
       </c>
-      <c r="H70" s="211"/>
+      <c r="H70" s="212"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B71" s="69" t="s">
         <v>444</v>
       </c>
+      <c r="D71" s="224"/>
       <c r="E71" s="69">
         <v>1</v>
       </c>
-      <c r="F71" s="69">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F71" s="222">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G71" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H71" s="211"/>
+      <c r="H71" s="212"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B72" s="69" t="s">
         <v>445</v>
       </c>
+      <c r="D72" s="224"/>
       <c r="E72" s="69">
         <v>1</v>
       </c>
-      <c r="F72" s="69">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F72" s="222">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G72" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H72" s="211"/>
+      <c r="H72" s="212"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B73" s="69" t="s">
-        <v>448</v>
-      </c>
-      <c r="D73">
-        <v>44</v>
+        <v>447</v>
+      </c>
+      <c r="C73">
+        <v>12.38</v>
+      </c>
+      <c r="D73" s="224">
+        <v>40</v>
       </c>
       <c r="E73" s="69">
         <v>1</v>
       </c>
-      <c r="F73" s="69">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
-        <v>44</v>
+      <c r="F73" s="222">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
+        <v>40</v>
       </c>
       <c r="G73" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
-        <v>5.7200000000000006</v>
-      </c>
-      <c r="H73" s="211"/>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
+        <v>5.2</v>
+      </c>
+      <c r="H73" s="212">
+        <v>8.3333333333333329E-2</v>
+      </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B74" s="38" t="s">
-        <v>447</v>
-      </c>
-      <c r="D74">
-        <v>42</v>
+        <v>817</v>
+      </c>
+      <c r="C74">
+        <v>12.68</v>
+      </c>
+      <c r="D74" s="224">
+        <v>40</v>
       </c>
       <c r="E74" s="38">
         <v>1</v>
       </c>
-      <c r="F74" s="38">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
-        <v>42</v>
+      <c r="F74" s="218">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
+        <v>40</v>
       </c>
       <c r="G74" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
-        <v>5.46</v>
-      </c>
-      <c r="H74" s="211"/>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
+        <v>5.2</v>
+      </c>
+      <c r="H74" s="212">
+        <v>8.3333333333333329E-2</v>
+      </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B75" s="69" t="s">
         <v>446</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="224">
         <v>45</v>
       </c>
       <c r="E75" s="69">
         <v>1</v>
       </c>
-      <c r="F75" s="69">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F75" s="222">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>45</v>
       </c>
       <c r="G75" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>5.8500000000000005</v>
       </c>
-      <c r="H75" s="211"/>
+      <c r="H75" s="212">
+        <v>0.6069444444444444</v>
+      </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>646</v>
+        <v>813</v>
       </c>
       <c r="B76" s="38" t="s">
-        <v>468</v>
+        <v>814</v>
+      </c>
+      <c r="C76">
+        <v>7.45</v>
+      </c>
+      <c r="D76" s="224">
+        <v>23</v>
       </c>
       <c r="E76" s="69">
         <v>1</v>
       </c>
-      <c r="F76" s="69">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
-        <v>0</v>
+      <c r="F76" s="222">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
+        <v>23</v>
       </c>
       <c r="G76" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
-        <v>0</v>
-      </c>
-      <c r="H76" s="211"/>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
+        <v>2.99</v>
+      </c>
+      <c r="H76" s="212">
+        <v>4.027777777777778E-2</v>
+      </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B77" s="38" t="s">
-        <v>469</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="D77" s="224"/>
       <c r="E77" s="69">
         <v>1</v>
       </c>
-      <c r="F77" s="69">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F77" s="222">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G77" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H77" s="211"/>
+      <c r="H77" s="212"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B78" s="38" t="s">
-        <v>470</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="D78" s="224"/>
       <c r="E78" s="69">
         <v>1</v>
       </c>
-      <c r="F78" s="69">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F78" s="222">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G78" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H78" s="211"/>
+      <c r="H78" s="212"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B79" s="38" t="s">
-        <v>471</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="D79" s="224"/>
       <c r="E79" s="69">
-        <v>2</v>
-      </c>
-      <c r="F79" s="69">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+        <v>1</v>
+      </c>
+      <c r="F79" s="222">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G79" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H79" s="211"/>
+      <c r="H79" s="212"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B80" s="38" t="s">
-        <v>472</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="D80" s="224"/>
       <c r="E80" s="69">
-        <v>1</v>
-      </c>
-      <c r="F80" s="69">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+        <v>2</v>
+      </c>
+      <c r="F80" s="222">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G80" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H80" s="211"/>
+      <c r="H80" s="212"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B81" s="38" t="s">
-        <v>473</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="D81" s="224"/>
       <c r="E81" s="69">
         <v>1</v>
       </c>
-      <c r="F81" s="69">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F81" s="222">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G81" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H81" s="211"/>
+      <c r="H81" s="212"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B82" s="38" t="s">
-        <v>474</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="D82" s="224"/>
       <c r="E82" s="69">
         <v>1</v>
       </c>
-      <c r="F82" s="69">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F82" s="222">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G82" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H82" s="211"/>
+      <c r="H82" s="212"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B83" s="38" t="s">
-        <v>475</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="D83" s="224"/>
       <c r="E83" s="69">
         <v>1</v>
       </c>
-      <c r="F83" s="69">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F83" s="222">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G83" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H83" s="211"/>
+      <c r="H83" s="212"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B84" s="38" t="s">
-        <v>476</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="D84" s="224"/>
       <c r="E84" s="69">
         <v>1</v>
       </c>
-      <c r="F84" s="69">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F84" s="222">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G84" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H84" s="211"/>
+      <c r="H84" s="212"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B85" s="38" t="s">
-        <v>477</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="D85" s="224"/>
       <c r="E85" s="69">
         <v>1</v>
       </c>
-      <c r="F85" s="69">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F85" s="222">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G85" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H85" s="211"/>
+      <c r="H85" s="212"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B86" s="38" t="s">
-        <v>478</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="D86" s="224"/>
       <c r="E86" s="69">
         <v>1</v>
       </c>
-      <c r="F86" s="69">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F86" s="222">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G86" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H86" s="211"/>
+      <c r="H86" s="212"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B87" s="38" t="s">
-        <v>479</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="D87" s="224"/>
       <c r="E87" s="69">
-        <v>3</v>
-      </c>
-      <c r="F87" s="69">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+        <v>1</v>
+      </c>
+      <c r="F87" s="222">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G87" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H87" s="211"/>
+      <c r="H87" s="212"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B88" s="38" t="s">
-        <v>480</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="D88" s="224"/>
       <c r="E88" s="69">
-        <v>1</v>
-      </c>
-      <c r="F88" s="69">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+        <v>3</v>
+      </c>
+      <c r="F88" s="222">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G88" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H88" s="211"/>
+      <c r="H88" s="212"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B89" s="38" t="s">
-        <v>481</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="D89" s="224"/>
       <c r="E89" s="69">
         <v>1</v>
       </c>
-      <c r="F89" s="69">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F89" s="222">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G89" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H89" s="211"/>
+      <c r="H89" s="212"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B90" s="38" t="s">
-        <v>482</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="D90" s="224"/>
       <c r="E90" s="69">
         <v>1</v>
       </c>
-      <c r="F90" s="69">
-        <f>SUM(Table6[[#This Row],[Weight Ea]]*Table6[[#This Row],[Items]])</f>
+      <c r="F90" s="222">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
         <v>0</v>
       </c>
       <c r="G90" s="210">
-        <f>$K$2/1000*Table6[[#This Row],[Weight Ea]]</f>
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
         <v>0</v>
       </c>
-      <c r="H90" s="211"/>
+      <c r="H90" s="212"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="E91" s="1">
+      <c r="A91" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B91" s="38" t="s">
+        <v>481</v>
+      </c>
+      <c r="D91" s="224"/>
+      <c r="E91" s="69">
+        <v>1</v>
+      </c>
+      <c r="F91" s="222">
+        <f>SUM(Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]])</f>
+        <v>0</v>
+      </c>
+      <c r="G91" s="210">
+        <f>$K$2/1000*Table6[[#This Row],[Weight]]*Table6[[#This Row],[Items]]</f>
+        <v>0</v>
+      </c>
+      <c r="H91" s="212"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="E92" s="1">
         <f>SUBTOTAL(109,Table6[Items])</f>
-        <v>122</v>
-      </c>
-      <c r="F91" s="214" t="str">
+        <v>123</v>
+      </c>
+      <c r="F92" s="217" t="str">
         <f>SUBTOTAL(109,Table6[weight Tot])&amp;"g"</f>
-        <v>678g</v>
-      </c>
-      <c r="G91" s="210">
+        <v>695g</v>
+      </c>
+      <c r="G92" s="210">
         <f>SUBTOTAL(109,Table6[Cost/part])</f>
-        <v>80.86</v>
-      </c>
-      <c r="H91" s="211">
+        <v>90.350000000000009</v>
+      </c>
+      <c r="H92" s="223">
         <f>SUBTOTAL(109,Table6[Time estimate])</f>
-        <v>7</v>
+        <v>1.1340277777777779</v>
       </c>
     </row>
   </sheetData>
@@ -13303,32 +13535,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="216" t="s">
-        <v>647</v>
-      </c>
-      <c r="C1" s="217"/>
-      <c r="D1" s="217"/>
-      <c r="E1" s="218"/>
+      <c r="B1" s="214" t="s">
+        <v>643</v>
+      </c>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="216"/>
       <c r="F1" s="42"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="40" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E2" s="136" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="F2" s="42"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="40" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C3" s="42"/>
       <c r="E3" s="39"/>
@@ -13339,13 +13571,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="E4" s="136" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F4" s="42"/>
     </row>
@@ -13354,13 +13586,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="E5" s="136" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F5" s="42"/>
     </row>
@@ -13369,13 +13601,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="E6" s="136" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F6" s="42"/>
     </row>
@@ -13384,7 +13616,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="136"/>
@@ -13406,7 +13638,7 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="40" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="C10" s="42"/>
       <c r="D10" s="6"/>
@@ -13419,10 +13651,10 @@
       </c>
       <c r="C11" s="42"/>
       <c r="D11" s="6" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E11" s="136" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="F11" s="42"/>
     </row>
@@ -13432,10 +13664,10 @@
       </c>
       <c r="C12" s="42"/>
       <c r="D12" s="6" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E12" s="136" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="F12" s="42"/>
     </row>
@@ -13445,10 +13677,10 @@
       </c>
       <c r="C13" s="42"/>
       <c r="D13" s="6" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E13" s="136" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="F13" s="42"/>
     </row>
@@ -13458,10 +13690,10 @@
       </c>
       <c r="C14" s="42"/>
       <c r="D14" s="6" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E14" s="136" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="F14" s="42"/>
     </row>
@@ -13471,10 +13703,10 @@
       </c>
       <c r="C15" s="42"/>
       <c r="D15" s="6" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="E15" s="136" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="F15" s="42"/>
     </row>
@@ -13484,10 +13716,10 @@
       </c>
       <c r="C16" s="42"/>
       <c r="D16" s="6" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="E16" s="136" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="F16" s="42"/>
     </row>
@@ -13498,7 +13730,7 @@
       <c r="C17" s="42"/>
       <c r="D17" s="6"/>
       <c r="E17" s="41" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F17" s="42"/>
     </row>
@@ -13509,7 +13741,7 @@
       <c r="C18" s="42"/>
       <c r="D18" s="6"/>
       <c r="E18" s="41" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="F18" s="42"/>
     </row>
@@ -13519,10 +13751,10 @@
       </c>
       <c r="C19" s="42"/>
       <c r="D19" s="6" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E19" s="136" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="F19" s="42"/>
     </row>
@@ -13532,10 +13764,10 @@
       </c>
       <c r="C20" s="42"/>
       <c r="D20" s="6" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E20" s="136" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="F20" s="42"/>
     </row>
@@ -13548,13 +13780,13 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="40" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E22" s="136"/>
       <c r="F22" s="42"/>
@@ -13564,13 +13796,13 @@
         <v>1</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="E23" s="136" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="F23" s="42"/>
     </row>
@@ -13579,13 +13811,13 @@
         <v>2</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="E24" s="136" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="F24" s="42"/>
     </row>
@@ -13594,13 +13826,13 @@
         <v>3</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="E25" s="136" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="F25" s="42"/>
     </row>
@@ -13609,7 +13841,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="138" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="D26" s="139"/>
       <c r="E26" s="140"/>
@@ -13671,189 +13903,189 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B1" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C1" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D1" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="B2" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="B3" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B4" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="C4" s="173" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="D4" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B5" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="C5" s="173" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B7" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="D7" s="68" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B10" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="C10" s="173" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="D12" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B15" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D15" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="D16" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="B17" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
   </sheetData>
@@ -13879,10 +14111,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B1" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="C1" t="s">
         <v>364</v>
@@ -13890,123 +14122,123 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="C2" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C4" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="C6" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="C7" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="C8" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="C9" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="C10" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="C11" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="C12" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -14029,10 +14261,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B19" s="155" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C19" t="s">
         <v>364</v>
@@ -14040,147 +14272,147 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="C20" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" s="42" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" s="42" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="C22" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" s="42" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="C23" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" s="42" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="C24" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" s="42" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="C25" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="42" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="C26" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" s="42" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="C27" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" s="42" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="C28" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" s="42" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="C29" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" s="42" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="C30" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B31" s="42" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="C31" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" s="42" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="C32" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B33" s="42" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="C33" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B34" s="42" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="C34" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B35" s="42" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="C35" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="B36" s="42" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="C36" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -14191,10 +14423,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="B39" s="156" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="C39" t="s">
         <v>364</v>
@@ -14202,58 +14434,58 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="C40" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="C41" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="C42" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C43" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="C44" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="D46" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="D47" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
     </row>
   </sheetData>
@@ -14268,10 +14500,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617F1214-FEDF-4959-B6B1-8C60CA48A0FC}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14288,7 +14520,7 @@
         <v>363</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>364</v>
@@ -14297,85 +14529,83 @@
         <v>8</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="B2" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C2" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="D2" t="s">
-        <v>800</v>
+        <v>796</v>
+      </c>
+      <c r="E2" s="174" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="C3" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="C12" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E15" s="174" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
     </row>
   </sheetData>
@@ -14807,7 +15037,7 @@
   </sheetPr>
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
@@ -15316,7 +15546,7 @@
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="165"/>
       <c r="B35" s="1" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="C35" s="172" t="s">
         <v>391</v>
@@ -15332,7 +15562,7 @@
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="165"/>
       <c r="B36" s="1" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="C36" s="172" t="s">
         <v>391</v>
@@ -15508,9 +15738,7 @@
   </sheetPr>
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
-    </sheetView>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15813,7 +16041,7 @@
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="25"/>
       <c r="B25" s="38" t="s">
-        <v>447</v>
+        <v>817</v>
       </c>
       <c r="C25" s="70"/>
       <c r="D25" s="15">
@@ -15824,7 +16052,7 @@
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="25"/>
       <c r="B26" s="70" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C26" s="67"/>
       <c r="D26" s="15">
@@ -15842,7 +16070,7 @@
     <row r="28" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="25"/>
       <c r="B28" s="21" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C28" s="22"/>
       <c r="D28" s="46"/>
@@ -15875,7 +16103,7 @@
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="25"/>
       <c r="B31" s="20" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C31"/>
       <c r="D31" s="47">
@@ -15886,7 +16114,7 @@
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="25"/>
       <c r="B32" s="20" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="47">
@@ -15897,7 +16125,7 @@
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
       <c r="B33" s="24" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C33" s="67"/>
       <c r="D33" s="47">
@@ -15952,7 +16180,7 @@
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="25"/>
       <c r="B38" s="20" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="47">
@@ -16049,7 +16277,7 @@
         <v>370</v>
       </c>
       <c r="B3" s="172" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C3" s="172"/>
       <c r="D3" s="15">
@@ -16105,10 +16333,10 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="C7" s="172" t="s">
         <v>455</v>
-      </c>
-      <c r="C7" s="172" t="s">
-        <v>456</v>
       </c>
       <c r="D7" s="186">
         <v>28</v>
@@ -16118,7 +16346,7 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
       <c r="B8" s="172" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C8" s="172"/>
       <c r="D8" s="15">
@@ -16129,7 +16357,7 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
       <c r="B9" s="38" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D9" s="15">
         <v>3</v>
@@ -16150,7 +16378,7 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="25"/>
       <c r="B11" s="182" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C11" s="172"/>
       <c r="D11" s="15">
@@ -16174,7 +16402,7 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
       <c r="B13" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D13" s="15">
         <v>3</v>
@@ -16184,7 +16412,7 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
       <c r="B14" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D14" s="15">
         <v>27</v>
@@ -16224,7 +16452,7 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="25"/>
       <c r="B18" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D18" s="15">
         <v>3</v>
@@ -16234,7 +16462,7 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="25"/>
       <c r="B19" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D19" s="15">
         <v>3</v>
@@ -16244,7 +16472,7 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
       <c r="B20" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D20" s="15">
         <v>3</v>
@@ -16316,7 +16544,7 @@
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="25"/>
       <c r="B27" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D27" s="15">
         <v>3</v>
@@ -16326,7 +16554,7 @@
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="25"/>
       <c r="B28" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D28" s="15">
         <v>3</v>
@@ -16336,7 +16564,7 @@
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="25"/>
       <c r="B29" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D29" s="15">
         <v>3</v>
@@ -16346,7 +16574,7 @@
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="25"/>
       <c r="B30" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D30" s="15">
         <v>1</v>
@@ -16356,7 +16584,7 @@
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="25"/>
       <c r="B31" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D31" s="15">
         <v>1</v>
@@ -16366,7 +16594,7 @@
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="25"/>
       <c r="B32" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D32" s="15">
         <v>1</v>
@@ -16376,7 +16604,7 @@
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
       <c r="B33" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D33" s="15">
         <v>2</v>
@@ -16386,7 +16614,7 @@
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="25"/>
       <c r="B34" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D34" s="15">
         <v>1</v>
@@ -16396,7 +16624,7 @@
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="25"/>
       <c r="B35" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D35" s="15">
         <v>1</v>
@@ -16406,7 +16634,7 @@
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="25"/>
       <c r="B36" s="172" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C36" s="172"/>
       <c r="D36" s="15">
@@ -16417,7 +16645,7 @@
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="25"/>
       <c r="B37" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D37" s="15">
         <v>1</v>
@@ -16427,7 +16655,7 @@
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="25"/>
       <c r="B38" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D38" s="15">
         <v>1</v>
@@ -16437,7 +16665,7 @@
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="25"/>
       <c r="B39" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D39" s="15">
         <v>1</v>
@@ -16447,7 +16675,7 @@
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="25"/>
       <c r="B40" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D40" s="15">
         <v>1</v>
@@ -16457,7 +16685,7 @@
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="25"/>
       <c r="B41" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D41" s="15">
         <v>3</v>
@@ -16467,7 +16695,7 @@
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="25"/>
       <c r="B42" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D42" s="15">
         <v>1</v>
@@ -16477,7 +16705,7 @@
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="25"/>
       <c r="B43" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D43" s="15">
         <v>1</v>
@@ -16487,7 +16715,7 @@
     <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="61"/>
       <c r="B44" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D44" s="15">
         <v>1</v>
@@ -16572,7 +16800,7 @@
         <v>370</v>
       </c>
       <c r="B3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C3" s="172"/>
       <c r="D3" s="15">
@@ -16602,7 +16830,7 @@
         <v>376</v>
       </c>
       <c r="B5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C5" s="172"/>
       <c r="D5" s="15">
@@ -16615,7 +16843,7 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="25"/>
       <c r="B6" s="172" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C6" s="172"/>
       <c r="D6" s="15">
@@ -16626,7 +16854,7 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="172" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C7" s="172"/>
       <c r="D7" s="15">
@@ -16637,7 +16865,7 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
       <c r="B8" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C8" s="172"/>
       <c r="D8" s="15">
@@ -16648,7 +16876,7 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
       <c r="B9" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C9" s="172"/>
       <c r="D9" s="15">
@@ -16662,7 +16890,7 @@
         <v>308</v>
       </c>
       <c r="C10" s="185" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D10" s="15">
         <v>2</v>
@@ -16672,7 +16900,7 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="25"/>
       <c r="B11" s="13" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C11" s="172"/>
       <c r="D11" s="15">
@@ -16718,7 +16946,7 @@
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
       <c r="B15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="15">
@@ -16729,7 +16957,7 @@
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
       <c r="B16" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C16" s="172"/>
       <c r="D16" s="15">
@@ -16762,7 +16990,7 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="25"/>
       <c r="B19" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C19" s="172"/>
       <c r="D19" s="15">
@@ -16773,7 +17001,7 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
       <c r="B20" s="172" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C20" s="172"/>
       <c r="D20" s="15">
@@ -16784,7 +17012,7 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="25"/>
       <c r="B21" s="172" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C21" s="172"/>
       <c r="D21" s="15">
@@ -16806,7 +17034,7 @@
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C23" s="172"/>
       <c r="D23" s="15">
@@ -16839,7 +17067,7 @@
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="25"/>
       <c r="B26" s="172" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C26" s="172"/>
       <c r="D26" s="15">
@@ -16894,7 +17122,7 @@
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="25"/>
       <c r="B31" s="172" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C31" s="172"/>
       <c r="D31" s="15">
@@ -16905,7 +17133,7 @@
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="25"/>
       <c r="B32" s="172" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C32" s="172"/>
       <c r="D32" s="15">
@@ -16916,10 +17144,10 @@
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
       <c r="B33" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>499</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>500</v>
       </c>
       <c r="D33" s="15">
         <v>1</v>
@@ -16929,10 +17157,10 @@
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="25"/>
       <c r="B34" s="172" t="s">
+        <v>500</v>
+      </c>
+      <c r="C34" s="172" t="s">
         <v>501</v>
-      </c>
-      <c r="C34" s="172" t="s">
-        <v>502</v>
       </c>
       <c r="D34" s="15">
         <v>1</v>
@@ -16942,10 +17170,10 @@
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="25"/>
       <c r="B35" s="172" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D35" s="15">
         <v>2</v>
@@ -16955,10 +17183,10 @@
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="25"/>
       <c r="B36" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D36" s="15">
         <v>1</v>
@@ -16968,10 +17196,10 @@
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="25"/>
       <c r="B37" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D37" s="15">
         <v>1</v>
@@ -16981,10 +17209,10 @@
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="25"/>
       <c r="B38" s="202" t="s">
+        <v>505</v>
+      </c>
+      <c r="C38" s="202" t="s">
         <v>506</v>
-      </c>
-      <c r="C38" s="202" t="s">
-        <v>507</v>
       </c>
       <c r="D38" s="57">
         <v>1</v>
@@ -16994,10 +17222,10 @@
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="25"/>
       <c r="B39" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D39" s="15">
         <v>4</v>
@@ -17007,10 +17235,10 @@
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="25"/>
       <c r="B40" s="172" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D40" s="15">
         <v>2</v>
@@ -17020,10 +17248,10 @@
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="25"/>
       <c r="B41" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D41" s="15">
         <v>1</v>
@@ -17033,10 +17261,10 @@
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="25"/>
       <c r="B42" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D42" s="15">
         <v>1</v>
@@ -17046,10 +17274,10 @@
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="25"/>
       <c r="B43" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D43" s="15">
         <v>2</v>
@@ -17059,10 +17287,10 @@
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="25"/>
       <c r="B44" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D44" s="15">
         <v>1</v>
@@ -17072,10 +17300,10 @@
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="25"/>
       <c r="B45" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D45" s="15">
         <v>1</v>
@@ -17085,10 +17313,10 @@
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="25"/>
       <c r="B46" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D46" s="15">
         <v>1</v>
@@ -17098,10 +17326,10 @@
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="25"/>
       <c r="B47" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D47" s="15">
         <v>1</v>
@@ -17111,10 +17339,10 @@
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="25"/>
       <c r="B48" s="172" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D48" s="15">
         <v>1</v>
@@ -17124,10 +17352,10 @@
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="25"/>
       <c r="B49" s="172" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D49" s="15">
         <v>1</v>
@@ -17137,10 +17365,10 @@
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="25"/>
       <c r="B50" s="172" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D50" s="15">
         <v>1</v>
@@ -17150,10 +17378,10 @@
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="25"/>
       <c r="B51" s="172" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D51" s="15">
         <v>1</v>
@@ -17163,10 +17391,10 @@
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="25"/>
       <c r="B52" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D52" s="15">
         <v>1</v>
@@ -17176,10 +17404,10 @@
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="25"/>
       <c r="B53" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D53" s="15">
         <v>1</v>
@@ -17189,10 +17417,10 @@
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="25"/>
       <c r="B54" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>523</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>524</v>
       </c>
       <c r="D54" s="15">
         <v>1</v>
@@ -17202,10 +17430,10 @@
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="25"/>
       <c r="B55" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D55" s="15">
         <v>1</v>
@@ -17215,10 +17443,10 @@
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="25"/>
       <c r="B56" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D56" s="15">
         <v>1</v>
@@ -17228,10 +17456,10 @@
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="25"/>
       <c r="B57" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D57" s="15">
         <v>1</v>
@@ -17241,10 +17469,10 @@
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="25"/>
       <c r="B58" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D58" s="15">
         <v>1</v>
@@ -17254,10 +17482,10 @@
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="25"/>
       <c r="B59" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D59" s="15">
         <v>1</v>
@@ -17267,10 +17495,10 @@
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="25"/>
       <c r="B60" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>530</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>531</v>
       </c>
       <c r="D60" s="15">
         <v>1</v>
@@ -17280,10 +17508,10 @@
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="25"/>
       <c r="B61" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D61" s="15">
         <v>2</v>
@@ -17293,10 +17521,10 @@
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="25"/>
       <c r="B62" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D62" s="15">
         <v>1</v>
@@ -17306,10 +17534,10 @@
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="25"/>
       <c r="B63" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D63" s="15">
         <v>1</v>
@@ -17319,10 +17547,10 @@
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="25"/>
       <c r="B64" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D64" s="15">
         <v>1</v>
@@ -17332,10 +17560,10 @@
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="25"/>
       <c r="B65" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D65" s="15">
         <v>1</v>
@@ -17345,10 +17573,10 @@
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="25"/>
       <c r="B66" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D66" s="15">
         <v>1</v>
@@ -17358,10 +17586,10 @@
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="25"/>
       <c r="B67" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D67" s="15">
         <v>1</v>
@@ -17371,10 +17599,10 @@
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="25"/>
       <c r="B68" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D68" s="15">
         <v>1</v>
@@ -17384,10 +17612,10 @@
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="25"/>
       <c r="B69" s="172" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D69" s="15">
         <v>6</v>
@@ -17397,10 +17625,10 @@
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="25"/>
       <c r="B70" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D70" s="15">
         <v>1</v>
@@ -17410,10 +17638,10 @@
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="25"/>
       <c r="B71" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C71" s="172" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D71" s="15">
         <v>1</v>
@@ -17423,10 +17651,10 @@
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="25"/>
       <c r="B72" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C72" s="172" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D72" s="15">
         <v>1</v>
@@ -17436,10 +17664,10 @@
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="25"/>
       <c r="B73" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D73" s="15">
         <v>2</v>
@@ -17449,10 +17677,10 @@
     <row r="74" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="61"/>
       <c r="B74" s="52" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C74" s="52" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D74" s="62">
         <v>1</v>
@@ -17522,13 +17750,13 @@
         <v>366</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>545</v>
+      </c>
+      <c r="C2" s="204" t="s">
         <v>546</v>
       </c>
-      <c r="C2" s="204" t="s">
+      <c r="D2" s="206" t="s">
         <v>547</v>
-      </c>
-      <c r="D2" s="206" t="s">
-        <v>548</v>
       </c>
       <c r="E2" s="55" t="s">
         <v>369</v>
@@ -17542,7 +17770,7 @@
         <v>151</v>
       </c>
       <c r="C3" s="172" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D3" s="172">
         <v>1</v>
@@ -17556,10 +17784,10 @@
         <v>373</v>
       </c>
       <c r="B4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C4" s="172" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D4" s="172">
         <v>4</v>
@@ -17576,7 +17804,7 @@
         <v>321</v>
       </c>
       <c r="C5" s="172" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D5" s="172">
         <v>3</v>
@@ -17591,7 +17819,7 @@
         <v>334</v>
       </c>
       <c r="C6" s="172" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D6" s="172">
         <v>1</v>
@@ -17601,10 +17829,10 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="172" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C7" s="172" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D7" s="2">
         <v>2</v>
@@ -17614,10 +17842,10 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
       <c r="B8" s="172" t="s">
+        <v>549</v>
+      </c>
+      <c r="C8" s="172" t="s">
         <v>550</v>
-      </c>
-      <c r="C8" s="172" t="s">
-        <v>551</v>
       </c>
       <c r="D8" s="172">
         <v>1</v>
@@ -17630,7 +17858,7 @@
         <v>89</v>
       </c>
       <c r="C9" s="172" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D9" s="172">
         <v>1</v>
@@ -17643,7 +17871,7 @@
         <v>118</v>
       </c>
       <c r="C10" s="172" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D10" s="172">
         <v>1</v>
@@ -17653,10 +17881,10 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="25"/>
       <c r="B11" s="28" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C11" s="172" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D11" s="172">
         <v>1</v>
@@ -17671,7 +17899,7 @@
         <v>173</v>
       </c>
       <c r="C12" s="172" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D12" s="172">
         <v>10</v>
@@ -17684,7 +17912,7 @@
         <v>176</v>
       </c>
       <c r="C13" s="172" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D13" s="172">
         <v>1</v>
@@ -17694,10 +17922,10 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
       <c r="B14" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C14" s="172" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D14" s="172">
         <v>2</v>
@@ -17707,10 +17935,10 @@
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
       <c r="B15" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C15" s="172" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D15" s="172">
         <v>7</v>
@@ -17723,7 +17951,7 @@
         <v>194</v>
       </c>
       <c r="C16" s="172" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D16" s="172">
         <v>3</v>
@@ -17733,10 +17961,10 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="25"/>
       <c r="B17" s="172" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C17" s="172" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D17" s="2">
         <v>2</v>
@@ -17749,7 +17977,7 @@
         <v>206</v>
       </c>
       <c r="C18" s="172" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D18" s="172">
         <v>1</v>
@@ -17759,10 +17987,10 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="25"/>
       <c r="B19" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C19" s="172" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D19" s="172">
         <v>2</v>
@@ -17772,10 +18000,10 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
       <c r="B20" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C20" s="172" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D20" s="172">
         <v>2</v>
@@ -17785,10 +18013,10 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="25"/>
       <c r="B21" s="172" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C21" s="172" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
@@ -17798,7 +18026,7 @@
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
       <c r="B22" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C22" s="172" t="s">
         <v>391</v>
@@ -17811,7 +18039,7 @@
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C23" s="172" t="s">
         <v>391</v>
@@ -17824,7 +18052,7 @@
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="25"/>
       <c r="B24" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C24" s="172" t="s">
         <v>391</v>
@@ -17837,7 +18065,7 @@
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="25"/>
       <c r="B25" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C25" s="172" t="s">
         <v>391</v>
@@ -17850,7 +18078,7 @@
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="25"/>
       <c r="B26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C26" s="172" t="s">
         <v>391</v>
@@ -17863,7 +18091,7 @@
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="25"/>
       <c r="B27" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C27" s="172" t="s">
         <v>391</v>
@@ -17876,7 +18104,7 @@
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="25"/>
       <c r="B28" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C28" s="172" t="s">
         <v>391</v>
@@ -17889,7 +18117,7 @@
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="25"/>
       <c r="B29" s="172" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C29" s="172" t="s">
         <v>391</v>
@@ -17902,10 +18130,10 @@
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="25"/>
       <c r="B30" s="172" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C30" s="172" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
@@ -17915,7 +18143,7 @@
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="25"/>
       <c r="B31" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C31" s="172" t="s">
         <v>391</v>
@@ -17928,10 +18156,10 @@
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="25"/>
       <c r="B32" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C32" s="172" t="s">
         <v>569</v>
-      </c>
-      <c r="C32" s="172" t="s">
-        <v>570</v>
       </c>
       <c r="D32" s="172">
         <v>2</v>
@@ -17941,10 +18169,10 @@
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
       <c r="B33" t="s">
+        <v>570</v>
+      </c>
+      <c r="C33" s="172" t="s">
         <v>571</v>
-      </c>
-      <c r="C33" s="172" t="s">
-        <v>572</v>
       </c>
       <c r="D33" s="172">
         <v>2</v>
@@ -17954,10 +18182,10 @@
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="25"/>
       <c r="B34" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C34" s="172" t="s">
         <v>573</v>
-      </c>
-      <c r="C34" s="172" t="s">
-        <v>574</v>
       </c>
       <c r="D34" s="172">
         <v>2</v>
@@ -17967,10 +18195,10 @@
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="25"/>
       <c r="B35" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C35" s="172" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D35" s="172">
         <v>2</v>
@@ -17980,10 +18208,10 @@
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="25"/>
       <c r="B36" s="172" t="s">
+        <v>575</v>
+      </c>
+      <c r="C36" s="172" t="s">
         <v>576</v>
-      </c>
-      <c r="C36" s="172" t="s">
-        <v>577</v>
       </c>
       <c r="D36" s="172">
         <v>2</v>
@@ -17993,10 +18221,10 @@
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="25"/>
       <c r="B37" s="172" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C37" s="172" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D37" s="172">
         <v>2</v>
@@ -18006,7 +18234,7 @@
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="25"/>
       <c r="B38" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C38" s="172" t="s">
         <v>391</v>
@@ -18019,7 +18247,7 @@
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="25"/>
       <c r="B39" s="172" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C39" s="172" t="s">
         <v>391</v>
@@ -18032,7 +18260,7 @@
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="25"/>
       <c r="B40" s="172" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C40" s="172" t="s">
         <v>391</v>
@@ -18045,7 +18273,7 @@
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="25"/>
       <c r="B41" s="172" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C41" s="172" t="s">
         <v>391</v>
@@ -18058,7 +18286,7 @@
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="25"/>
       <c r="B42" s="172" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C42" s="172" t="s">
         <v>391</v>
@@ -18071,7 +18299,7 @@
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="25"/>
       <c r="B43" s="172" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C43" s="172" t="s">
         <v>391</v>
@@ -18084,7 +18312,7 @@
     <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="61"/>
       <c r="B44" s="172" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C44" s="172" t="s">
         <v>391</v>
@@ -18160,7 +18388,7 @@
         <v>366</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C2" s="172"/>
       <c r="D2" s="172">
@@ -18189,7 +18417,7 @@
         <v>373</v>
       </c>
       <c r="B4" s="172" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C4" s="172"/>
       <c r="D4" s="172">
@@ -18217,7 +18445,7 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="25"/>
       <c r="B6" s="187" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D6" s="172">
         <v>1</v>
@@ -18227,7 +18455,7 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="172" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C7" s="172"/>
       <c r="D7" s="172">
@@ -18259,7 +18487,7 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
       <c r="B10" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D10" s="172">
         <v>4</v>
@@ -18311,7 +18539,7 @@
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
       <c r="B15" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D15" s="172">
         <v>1</v>
@@ -18321,7 +18549,7 @@
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
       <c r="B16" s="182" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D16" s="172">
         <v>1</v>
@@ -18331,7 +18559,7 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="25"/>
       <c r="B17" s="28" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D17" s="172">
         <v>1</v>
@@ -18341,7 +18569,7 @@
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="61"/>
       <c r="B18" s="52" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C18" s="52"/>
       <c r="D18" s="207">
@@ -18379,7 +18607,7 @@
   </sheetPr>
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -18413,10 +18641,10 @@
         <v>366</v>
       </c>
       <c r="B2" s="31" t="s">
+        <v>594</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>595</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>596</v>
       </c>
       <c r="D2" s="15">
         <v>1</v>
@@ -18430,10 +18658,10 @@
         <v>370</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D3" s="15">
         <v>1</v>
@@ -18447,10 +18675,10 @@
         <v>373</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D4" s="15">
         <v>1</v>
@@ -18464,10 +18692,10 @@
         <v>376</v>
       </c>
       <c r="B5" s="30" t="s">
+        <v>598</v>
+      </c>
+      <c r="C5" s="172" t="s">
         <v>599</v>
-      </c>
-      <c r="C5" s="172" t="s">
-        <v>600</v>
       </c>
       <c r="D5" s="186">
         <v>2</v>
@@ -18479,10 +18707,10 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="25"/>
       <c r="B6" s="208" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C6" s="172" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D6" s="186">
         <v>5</v>
@@ -18492,10 +18720,10 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="20" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C7" s="172" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D7" s="186">
         <v>2</v>
@@ -18505,10 +18733,10 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
       <c r="B8" s="20" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C8" s="172" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D8" s="15">
         <v>2</v>
@@ -18521,7 +18749,7 @@
         <v>64</v>
       </c>
       <c r="C9" s="172" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D9" s="15">
         <v>1</v>
@@ -18531,10 +18759,10 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
       <c r="B10" s="30" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C10" s="172" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D10" s="186">
         <v>2</v>
@@ -18544,10 +18772,10 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="25"/>
       <c r="B11" s="30" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C11" s="172" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D11" s="15">
         <v>2</v>
@@ -18562,7 +18790,7 @@
         <v>71</v>
       </c>
       <c r="C12" s="172" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D12" s="15">
         <v>5</v>
@@ -18572,10 +18800,10 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
       <c r="B13" s="30" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C13" s="172" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D13" s="186">
         <v>2</v>
@@ -18585,10 +18813,10 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
       <c r="B14" s="30" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C14" s="172" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D14" s="186">
         <v>5</v>
@@ -18598,10 +18826,10 @@
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
       <c r="B15" s="209" t="s">
+        <v>606</v>
+      </c>
+      <c r="C15" s="172" t="s">
         <v>607</v>
-      </c>
-      <c r="C15" s="172" t="s">
-        <v>608</v>
       </c>
       <c r="D15" s="186">
         <v>5</v>
@@ -18611,10 +18839,10 @@
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
       <c r="B16" s="209" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C16" s="172" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D16" s="186">
         <v>5</v>
@@ -18624,7 +18852,7 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="25"/>
       <c r="B17" s="202" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C17" s="202" t="s">
         <v>440</v>
@@ -18638,7 +18866,7 @@
         <v>81</v>
       </c>
       <c r="C18" s="172" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D18" s="172">
         <v>1</v>
@@ -18744,7 +18972,7 @@
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="25"/>
       <c r="B28" s="18" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C28" s="28"/>
       <c r="D28">
@@ -18813,7 +19041,7 @@
         <v>128</v>
       </c>
       <c r="C34" s="172" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D34" s="15">
         <v>2</v>
@@ -18826,7 +19054,7 @@
         <v>131</v>
       </c>
       <c r="C35" s="172" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D35" s="15">
         <v>1</v>
@@ -18839,7 +19067,7 @@
         <v>133</v>
       </c>
       <c r="C36" s="172" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D36" s="15">
         <v>1</v>
@@ -18852,7 +19080,7 @@
         <v>135</v>
       </c>
       <c r="C37" s="172" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D37" s="15">
         <v>1</v>
@@ -18865,7 +19093,7 @@
         <v>138</v>
       </c>
       <c r="C38" s="172" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D38" s="172">
         <v>1</v>
@@ -18878,7 +19106,7 @@
         <v>141</v>
       </c>
       <c r="C39" s="172" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D39" s="172">
         <v>1</v>
@@ -18891,7 +19119,7 @@
         <v>143</v>
       </c>
       <c r="C40" s="172" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D40" s="15">
         <v>3</v>
@@ -18901,10 +19129,10 @@
     <row r="41" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="25"/>
       <c r="B41" t="s">
+        <v>615</v>
+      </c>
+      <c r="C41" s="172" t="s">
         <v>616</v>
-      </c>
-      <c r="C41" s="172" t="s">
-        <v>617</v>
       </c>
       <c r="D41" s="15">
         <v>1</v>
@@ -18914,10 +19142,10 @@
     <row r="42" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="25"/>
       <c r="B42" t="s">
+        <v>617</v>
+      </c>
+      <c r="C42" s="172" t="s">
         <v>618</v>
-      </c>
-      <c r="C42" s="172" t="s">
-        <v>619</v>
       </c>
       <c r="D42" s="15">
         <v>1</v>
@@ -18927,10 +19155,10 @@
     <row r="43" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="25"/>
       <c r="B43" s="172" t="s">
+        <v>619</v>
+      </c>
+      <c r="C43" s="172" t="s">
         <v>620</v>
-      </c>
-      <c r="C43" s="172" t="s">
-        <v>621</v>
       </c>
       <c r="D43" s="15">
         <v>2</v>
@@ -18940,10 +19168,10 @@
     <row r="44" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="61"/>
       <c r="B44" s="49" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C44" s="207" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D44" s="62">
         <v>1</v>

--- a/V2 BETA/BOM/Valkyrie V2 HT100 BOM Beta.xlsx
+++ b/V2 BETA/BOM/Valkyrie V2 HT100 BOM Beta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/V2 BETA/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1456" documentId="8_{5107759B-8870-48A8-933E-C4A7F6F41B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E5B1F62-89DC-4F71-8C2E-CEC1C12AED72}"/>
+  <xr:revisionPtr revIDLastSave="1458" documentId="8_{5107759B-8870-48A8-933E-C4A7F6F41B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{807E8292-E248-4927-965D-B7120CACABE1}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="16440" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="16440" firstSheet="11" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PARTS LIST" sheetId="43" r:id="rId1"/>
@@ -2542,7 +2542,7 @@
     <t>Spanner  AF 7mm,</t>
   </si>
   <si>
-    <t>Drill bits ,M5,M4,M3</t>
+    <t>Drill bits mm  5,4,3</t>
   </si>
   <si>
     <t xml:space="preserve">solder iron and solder </t>
@@ -13903,7 +13903,7 @@
   </sheetPr>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -14539,8 +14539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617F1214-FEDF-4959-B6B1-8C60CA48A0FC}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
